--- a/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
+++ b/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
-    <sheet name="strategy_id-6006" sheetId="2" r:id="rId2"/>
-    <sheet name="strategy_id-6007" sheetId="3" r:id="rId3"/>
-    <sheet name="strategy_id-6008" sheetId="4" r:id="rId4"/>
+    <sheet name="strategy_id-6003" sheetId="2" r:id="rId2"/>
+    <sheet name="strategy_id-6004" sheetId="3" r:id="rId3"/>
+    <sheet name="strategy_id-6005" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
+++ b/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
@@ -8,16 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
-    <sheet name="strategy_id-6003" sheetId="2" r:id="rId2"/>
-    <sheet name="strategy_id-6004" sheetId="3" r:id="rId3"/>
-    <sheet name="strategy_id-6005" sheetId="4" r:id="rId4"/>
+    <sheet name="strategy_id-6006" sheetId="2" r:id="rId2"/>
+    <sheet name="strategy_id-6007" sheetId="3" r:id="rId3"/>
+    <sheet name="strategy_id-6008" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="237">
   <si>
     <t>subsector</t>
   </si>
@@ -28850,7 +28850,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AS2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28998,10 +28998,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -29010,1109 +29010,112 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.444390186873768</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.444390186873768</v>
+        <v>0.9962500000000001</v>
       </c>
       <c r="W2">
-        <v>0.444390186873768</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="X2">
-        <v>0.444390186873768</v>
+        <v>0.98875</v>
       </c>
       <c r="Y2">
-        <v>0.444390186873768</v>
+        <v>0.9850000000000001</v>
       </c>
       <c r="Z2">
-        <v>0.444390186873768</v>
+        <v>0.98125</v>
       </c>
       <c r="AA2">
-        <v>0.444390186873768</v>
+        <v>0.9775</v>
       </c>
       <c r="AB2">
-        <v>0.444390186873768</v>
+        <v>0.9737499999999999</v>
       </c>
       <c r="AC2">
-        <v>0.4443901868737681</v>
+        <v>0.9700000000000001</v>
       </c>
       <c r="AD2">
-        <v>0.444390186873768</v>
+        <v>0.9662500000000001</v>
       </c>
       <c r="AE2">
-        <v>0.444390186873768</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.4443901868737681</v>
+        <v>0.95875</v>
       </c>
       <c r="AG2">
-        <v>0.444390186873768</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.444390186873768</v>
+        <v>0.95125</v>
       </c>
       <c r="AI2">
-        <v>0.4443901868737681</v>
+        <v>0.9475</v>
       </c>
       <c r="AJ2">
-        <v>0.444390186873768</v>
+        <v>0.94375</v>
       </c>
       <c r="AK2">
-        <v>0.444390186873768</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="AL2">
-        <v>0.444390186873768</v>
+        <v>0.93625</v>
       </c>
       <c r="AM2">
-        <v>0.444390186873768</v>
+        <v>0.9325</v>
       </c>
       <c r="AN2">
-        <v>0.444390186873768</v>
+        <v>0.9287500000000001</v>
       </c>
       <c r="AO2">
-        <v>0.444390186873768</v>
+        <v>0.925</v>
       </c>
       <c r="AP2">
-        <v>0.444390186873768</v>
+        <v>0.92125</v>
       </c>
       <c r="AQ2">
-        <v>0.444390186873768</v>
+        <v>0.9175</v>
       </c>
       <c r="AR2">
-        <v>0.444390186873768</v>
+        <v>0.9137500000000001</v>
       </c>
       <c r="AS2">
-        <v>0.444390186873768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.1632</v>
-      </c>
-      <c r="K3">
-        <v>0.1632</v>
-      </c>
-      <c r="L3">
-        <v>0.1632</v>
-      </c>
-      <c r="M3">
-        <v>0.1632</v>
-      </c>
-      <c r="N3">
-        <v>0.1632</v>
-      </c>
-      <c r="O3">
-        <v>0.1632</v>
-      </c>
-      <c r="P3">
-        <v>0.1632</v>
-      </c>
-      <c r="Q3">
-        <v>0.1632</v>
-      </c>
-      <c r="R3">
-        <v>0.1632</v>
-      </c>
-      <c r="S3">
-        <v>0.1632</v>
-      </c>
-      <c r="T3">
-        <v>0.1632</v>
-      </c>
-      <c r="U3">
-        <v>0.1632</v>
-      </c>
-      <c r="V3">
-        <v>0.168275</v>
-      </c>
-      <c r="W3">
-        <v>0.17335</v>
-      </c>
-      <c r="X3">
-        <v>0.178425</v>
-      </c>
-      <c r="Y3">
-        <v>0.1835</v>
-      </c>
-      <c r="Z3">
-        <v>0.188575</v>
-      </c>
-      <c r="AA3">
-        <v>0.19365</v>
-      </c>
-      <c r="AB3">
-        <v>0.198725</v>
-      </c>
-      <c r="AC3">
-        <v>0.2038</v>
-      </c>
-      <c r="AD3">
-        <v>0.208875</v>
-      </c>
-      <c r="AE3">
-        <v>0.21395</v>
-      </c>
-      <c r="AF3">
-        <v>0.219025</v>
-      </c>
-      <c r="AG3">
-        <v>0.2241</v>
-      </c>
-      <c r="AH3">
-        <v>0.229175</v>
-      </c>
-      <c r="AI3">
-        <v>0.23425</v>
-      </c>
-      <c r="AJ3">
-        <v>0.239325</v>
-      </c>
-      <c r="AK3">
-        <v>0.2444</v>
-      </c>
-      <c r="AL3">
-        <v>0.249475</v>
-      </c>
-      <c r="AM3">
-        <v>0.25455</v>
-      </c>
-      <c r="AN3">
-        <v>0.259625</v>
-      </c>
-      <c r="AO3">
-        <v>0.2647</v>
-      </c>
-      <c r="AP3">
-        <v>0.269775</v>
-      </c>
-      <c r="AQ3">
-        <v>0.27485</v>
-      </c>
-      <c r="AR3">
-        <v>0.279925</v>
-      </c>
-      <c r="AS3">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.1632</v>
-      </c>
-      <c r="K4">
-        <v>0.1632</v>
-      </c>
-      <c r="L4">
-        <v>0.1632</v>
-      </c>
-      <c r="M4">
-        <v>0.1632</v>
-      </c>
-      <c r="N4">
-        <v>0.1632</v>
-      </c>
-      <c r="O4">
-        <v>0.1632</v>
-      </c>
-      <c r="P4">
-        <v>0.1632</v>
-      </c>
-      <c r="Q4">
-        <v>0.1632</v>
-      </c>
-      <c r="R4">
-        <v>0.1632</v>
-      </c>
-      <c r="S4">
-        <v>0.1632</v>
-      </c>
-      <c r="T4">
-        <v>0.1632</v>
-      </c>
-      <c r="U4">
-        <v>0.1632</v>
-      </c>
-      <c r="V4">
-        <v>0.168275</v>
-      </c>
-      <c r="W4">
-        <v>0.17335</v>
-      </c>
-      <c r="X4">
-        <v>0.178425</v>
-      </c>
-      <c r="Y4">
-        <v>0.1835</v>
-      </c>
-      <c r="Z4">
-        <v>0.188575</v>
-      </c>
-      <c r="AA4">
-        <v>0.19365</v>
-      </c>
-      <c r="AB4">
-        <v>0.198725</v>
-      </c>
-      <c r="AC4">
-        <v>0.2038</v>
-      </c>
-      <c r="AD4">
-        <v>0.208875</v>
-      </c>
-      <c r="AE4">
-        <v>0.21395</v>
-      </c>
-      <c r="AF4">
-        <v>0.219025</v>
-      </c>
-      <c r="AG4">
-        <v>0.2241</v>
-      </c>
-      <c r="AH4">
-        <v>0.229175</v>
-      </c>
-      <c r="AI4">
-        <v>0.23425</v>
-      </c>
-      <c r="AJ4">
-        <v>0.239325</v>
-      </c>
-      <c r="AK4">
-        <v>0.2444</v>
-      </c>
-      <c r="AL4">
-        <v>0.249475</v>
-      </c>
-      <c r="AM4">
-        <v>0.25455</v>
-      </c>
-      <c r="AN4">
-        <v>0.259625</v>
-      </c>
-      <c r="AO4">
-        <v>0.2647</v>
-      </c>
-      <c r="AP4">
-        <v>0.269775</v>
-      </c>
-      <c r="AQ4">
-        <v>0.27485</v>
-      </c>
-      <c r="AR4">
-        <v>0.279925</v>
-      </c>
-      <c r="AS4">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.1632</v>
-      </c>
-      <c r="K5">
-        <v>0.1632</v>
-      </c>
-      <c r="L5">
-        <v>0.1632</v>
-      </c>
-      <c r="M5">
-        <v>0.1632</v>
-      </c>
-      <c r="N5">
-        <v>0.1632</v>
-      </c>
-      <c r="O5">
-        <v>0.1632</v>
-      </c>
-      <c r="P5">
-        <v>0.1632</v>
-      </c>
-      <c r="Q5">
-        <v>0.1632</v>
-      </c>
-      <c r="R5">
-        <v>0.1632</v>
-      </c>
-      <c r="S5">
-        <v>0.1632</v>
-      </c>
-      <c r="T5">
-        <v>0.1632</v>
-      </c>
-      <c r="U5">
-        <v>0.1632</v>
-      </c>
-      <c r="V5">
-        <v>0.168275</v>
-      </c>
-      <c r="W5">
-        <v>0.17335</v>
-      </c>
-      <c r="X5">
-        <v>0.178425</v>
-      </c>
-      <c r="Y5">
-        <v>0.1835</v>
-      </c>
-      <c r="Z5">
-        <v>0.188575</v>
-      </c>
-      <c r="AA5">
-        <v>0.19365</v>
-      </c>
-      <c r="AB5">
-        <v>0.198725</v>
-      </c>
-      <c r="AC5">
-        <v>0.2038</v>
-      </c>
-      <c r="AD5">
-        <v>0.208875</v>
-      </c>
-      <c r="AE5">
-        <v>0.21395</v>
-      </c>
-      <c r="AF5">
-        <v>0.219025</v>
-      </c>
-      <c r="AG5">
-        <v>0.2241</v>
-      </c>
-      <c r="AH5">
-        <v>0.229175</v>
-      </c>
-      <c r="AI5">
-        <v>0.23425</v>
-      </c>
-      <c r="AJ5">
-        <v>0.239325</v>
-      </c>
-      <c r="AK5">
-        <v>0.2444</v>
-      </c>
-      <c r="AL5">
-        <v>0.249475</v>
-      </c>
-      <c r="AM5">
-        <v>0.25455</v>
-      </c>
-      <c r="AN5">
-        <v>0.259625</v>
-      </c>
-      <c r="AO5">
-        <v>0.2647</v>
-      </c>
-      <c r="AP5">
-        <v>0.269775</v>
-      </c>
-      <c r="AQ5">
-        <v>0.27485</v>
-      </c>
-      <c r="AR5">
-        <v>0.279925</v>
-      </c>
-      <c r="AS5">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.1632</v>
-      </c>
-      <c r="K6">
-        <v>0.1632</v>
-      </c>
-      <c r="L6">
-        <v>0.1632</v>
-      </c>
-      <c r="M6">
-        <v>0.1632</v>
-      </c>
-      <c r="N6">
-        <v>0.1632</v>
-      </c>
-      <c r="O6">
-        <v>0.1632</v>
-      </c>
-      <c r="P6">
-        <v>0.1632</v>
-      </c>
-      <c r="Q6">
-        <v>0.1632</v>
-      </c>
-      <c r="R6">
-        <v>0.1632</v>
-      </c>
-      <c r="S6">
-        <v>0.1632</v>
-      </c>
-      <c r="T6">
-        <v>0.1632</v>
-      </c>
-      <c r="U6">
-        <v>0.1632</v>
-      </c>
-      <c r="V6">
-        <v>0.168275</v>
-      </c>
-      <c r="W6">
-        <v>0.17335</v>
-      </c>
-      <c r="X6">
-        <v>0.178425</v>
-      </c>
-      <c r="Y6">
-        <v>0.1835</v>
-      </c>
-      <c r="Z6">
-        <v>0.188575</v>
-      </c>
-      <c r="AA6">
-        <v>0.19365</v>
-      </c>
-      <c r="AB6">
-        <v>0.198725</v>
-      </c>
-      <c r="AC6">
-        <v>0.2038</v>
-      </c>
-      <c r="AD6">
-        <v>0.208875</v>
-      </c>
-      <c r="AE6">
-        <v>0.21395</v>
-      </c>
-      <c r="AF6">
-        <v>0.219025</v>
-      </c>
-      <c r="AG6">
-        <v>0.2241</v>
-      </c>
-      <c r="AH6">
-        <v>0.229175</v>
-      </c>
-      <c r="AI6">
-        <v>0.23425</v>
-      </c>
-      <c r="AJ6">
-        <v>0.239325</v>
-      </c>
-      <c r="AK6">
-        <v>0.2444</v>
-      </c>
-      <c r="AL6">
-        <v>0.249475</v>
-      </c>
-      <c r="AM6">
-        <v>0.25455</v>
-      </c>
-      <c r="AN6">
-        <v>0.259625</v>
-      </c>
-      <c r="AO6">
-        <v>0.2647</v>
-      </c>
-      <c r="AP6">
-        <v>0.269775</v>
-      </c>
-      <c r="AQ6">
-        <v>0.27485</v>
-      </c>
-      <c r="AR6">
-        <v>0.279925</v>
-      </c>
-      <c r="AS6">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.1632</v>
-      </c>
-      <c r="K7">
-        <v>0.1632</v>
-      </c>
-      <c r="L7">
-        <v>0.1632</v>
-      </c>
-      <c r="M7">
-        <v>0.1632</v>
-      </c>
-      <c r="N7">
-        <v>0.1632</v>
-      </c>
-      <c r="O7">
-        <v>0.1632</v>
-      </c>
-      <c r="P7">
-        <v>0.1632</v>
-      </c>
-      <c r="Q7">
-        <v>0.1632</v>
-      </c>
-      <c r="R7">
-        <v>0.1632</v>
-      </c>
-      <c r="S7">
-        <v>0.1632</v>
-      </c>
-      <c r="T7">
-        <v>0.1632</v>
-      </c>
-      <c r="U7">
-        <v>0.1632</v>
-      </c>
-      <c r="V7">
-        <v>0.168275</v>
-      </c>
-      <c r="W7">
-        <v>0.17335</v>
-      </c>
-      <c r="X7">
-        <v>0.178425</v>
-      </c>
-      <c r="Y7">
-        <v>0.1835</v>
-      </c>
-      <c r="Z7">
-        <v>0.188575</v>
-      </c>
-      <c r="AA7">
-        <v>0.19365</v>
-      </c>
-      <c r="AB7">
-        <v>0.198725</v>
-      </c>
-      <c r="AC7">
-        <v>0.2038</v>
-      </c>
-      <c r="AD7">
-        <v>0.208875</v>
-      </c>
-      <c r="AE7">
-        <v>0.21395</v>
-      </c>
-      <c r="AF7">
-        <v>0.219025</v>
-      </c>
-      <c r="AG7">
-        <v>0.2241</v>
-      </c>
-      <c r="AH7">
-        <v>0.229175</v>
-      </c>
-      <c r="AI7">
-        <v>0.23425</v>
-      </c>
-      <c r="AJ7">
-        <v>0.239325</v>
-      </c>
-      <c r="AK7">
-        <v>0.2444</v>
-      </c>
-      <c r="AL7">
-        <v>0.249475</v>
-      </c>
-      <c r="AM7">
-        <v>0.25455</v>
-      </c>
-      <c r="AN7">
-        <v>0.259625</v>
-      </c>
-      <c r="AO7">
-        <v>0.2647</v>
-      </c>
-      <c r="AP7">
-        <v>0.269775</v>
-      </c>
-      <c r="AQ7">
-        <v>0.27485</v>
-      </c>
-      <c r="AR7">
-        <v>0.279925</v>
-      </c>
-      <c r="AS7">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.1632</v>
-      </c>
-      <c r="K8">
-        <v>0.1632</v>
-      </c>
-      <c r="L8">
-        <v>0.1632</v>
-      </c>
-      <c r="M8">
-        <v>0.1632</v>
-      </c>
-      <c r="N8">
-        <v>0.1632</v>
-      </c>
-      <c r="O8">
-        <v>0.1632</v>
-      </c>
-      <c r="P8">
-        <v>0.1632</v>
-      </c>
-      <c r="Q8">
-        <v>0.1632</v>
-      </c>
-      <c r="R8">
-        <v>0.1632</v>
-      </c>
-      <c r="S8">
-        <v>0.1632</v>
-      </c>
-      <c r="T8">
-        <v>0.1632</v>
-      </c>
-      <c r="U8">
-        <v>0.1632</v>
-      </c>
-      <c r="V8">
-        <v>0.168275</v>
-      </c>
-      <c r="W8">
-        <v>0.17335</v>
-      </c>
-      <c r="X8">
-        <v>0.178425</v>
-      </c>
-      <c r="Y8">
-        <v>0.1835</v>
-      </c>
-      <c r="Z8">
-        <v>0.188575</v>
-      </c>
-      <c r="AA8">
-        <v>0.19365</v>
-      </c>
-      <c r="AB8">
-        <v>0.198725</v>
-      </c>
-      <c r="AC8">
-        <v>0.2038</v>
-      </c>
-      <c r="AD8">
-        <v>0.208875</v>
-      </c>
-      <c r="AE8">
-        <v>0.21395</v>
-      </c>
-      <c r="AF8">
-        <v>0.219025</v>
-      </c>
-      <c r="AG8">
-        <v>0.2241</v>
-      </c>
-      <c r="AH8">
-        <v>0.229175</v>
-      </c>
-      <c r="AI8">
-        <v>0.23425</v>
-      </c>
-      <c r="AJ8">
-        <v>0.239325</v>
-      </c>
-      <c r="AK8">
-        <v>0.2444</v>
-      </c>
-      <c r="AL8">
-        <v>0.249475</v>
-      </c>
-      <c r="AM8">
-        <v>0.25455</v>
-      </c>
-      <c r="AN8">
-        <v>0.259625</v>
-      </c>
-      <c r="AO8">
-        <v>0.2647</v>
-      </c>
-      <c r="AP8">
-        <v>0.269775</v>
-      </c>
-      <c r="AQ8">
-        <v>0.27485</v>
-      </c>
-      <c r="AR8">
-        <v>0.279925</v>
-      </c>
-      <c r="AS8">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.1632</v>
-      </c>
-      <c r="K9">
-        <v>0.1632</v>
-      </c>
-      <c r="L9">
-        <v>0.1632</v>
-      </c>
-      <c r="M9">
-        <v>0.1632</v>
-      </c>
-      <c r="N9">
-        <v>0.1632</v>
-      </c>
-      <c r="O9">
-        <v>0.1632</v>
-      </c>
-      <c r="P9">
-        <v>0.1632</v>
-      </c>
-      <c r="Q9">
-        <v>0.1632</v>
-      </c>
-      <c r="R9">
-        <v>0.1632</v>
-      </c>
-      <c r="S9">
-        <v>0.1632</v>
-      </c>
-      <c r="T9">
-        <v>0.1632</v>
-      </c>
-      <c r="U9">
-        <v>0.1632</v>
-      </c>
-      <c r="V9">
-        <v>0.168275</v>
-      </c>
-      <c r="W9">
-        <v>0.17335</v>
-      </c>
-      <c r="X9">
-        <v>0.178425</v>
-      </c>
-      <c r="Y9">
-        <v>0.1835</v>
-      </c>
-      <c r="Z9">
-        <v>0.188575</v>
-      </c>
-      <c r="AA9">
-        <v>0.19365</v>
-      </c>
-      <c r="AB9">
-        <v>0.198725</v>
-      </c>
-      <c r="AC9">
-        <v>0.2038</v>
-      </c>
-      <c r="AD9">
-        <v>0.208875</v>
-      </c>
-      <c r="AE9">
-        <v>0.21395</v>
-      </c>
-      <c r="AF9">
-        <v>0.219025</v>
-      </c>
-      <c r="AG9">
-        <v>0.2241</v>
-      </c>
-      <c r="AH9">
-        <v>0.229175</v>
-      </c>
-      <c r="AI9">
-        <v>0.23425</v>
-      </c>
-      <c r="AJ9">
-        <v>0.239325</v>
-      </c>
-      <c r="AK9">
-        <v>0.2444</v>
-      </c>
-      <c r="AL9">
-        <v>0.249475</v>
-      </c>
-      <c r="AM9">
-        <v>0.25455</v>
-      </c>
-      <c r="AN9">
-        <v>0.259625</v>
-      </c>
-      <c r="AO9">
-        <v>0.2647</v>
-      </c>
-      <c r="AP9">
-        <v>0.269775</v>
-      </c>
-      <c r="AQ9">
-        <v>0.27485</v>
-      </c>
-      <c r="AR9">
-        <v>0.279925</v>
-      </c>
-      <c r="AS9">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.95</v>
-      </c>
-      <c r="K10">
-        <v>0.95</v>
-      </c>
-      <c r="L10">
-        <v>0.95</v>
-      </c>
-      <c r="M10">
-        <v>0.95</v>
-      </c>
-      <c r="N10">
-        <v>0.95</v>
-      </c>
-      <c r="O10">
-        <v>0.95</v>
-      </c>
-      <c r="P10">
-        <v>0.95</v>
-      </c>
-      <c r="Q10">
-        <v>0.95</v>
-      </c>
-      <c r="R10">
-        <v>0.95</v>
-      </c>
-      <c r="S10">
-        <v>0.95</v>
-      </c>
-      <c r="T10">
-        <v>0.95</v>
-      </c>
-      <c r="U10">
-        <v>0.95</v>
-      </c>
-      <c r="V10">
-        <v>0.95</v>
-      </c>
-      <c r="W10">
-        <v>0.95</v>
-      </c>
-      <c r="X10">
-        <v>0.95</v>
-      </c>
-      <c r="Y10">
-        <v>0.95</v>
-      </c>
-      <c r="Z10">
-        <v>0.9499999999999998</v>
-      </c>
-      <c r="AA10">
-        <v>0.95</v>
-      </c>
-      <c r="AB10">
-        <v>0.95</v>
-      </c>
-      <c r="AC10">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="AD10">
-        <v>0.95</v>
-      </c>
-      <c r="AE10">
-        <v>0.95</v>
-      </c>
-      <c r="AF10">
-        <v>0.95</v>
-      </c>
-      <c r="AG10">
-        <v>0.95</v>
-      </c>
-      <c r="AH10">
-        <v>0.95</v>
-      </c>
-      <c r="AI10">
-        <v>0.95</v>
-      </c>
-      <c r="AJ10">
-        <v>0.95</v>
-      </c>
-      <c r="AK10">
-        <v>0.95</v>
-      </c>
-      <c r="AL10">
-        <v>0.95</v>
-      </c>
-      <c r="AM10">
-        <v>0.95</v>
-      </c>
-      <c r="AN10">
-        <v>0.95</v>
-      </c>
-      <c r="AO10">
-        <v>0.95</v>
-      </c>
-      <c r="AP10">
-        <v>0.95</v>
-      </c>
-      <c r="AQ10">
-        <v>0.95</v>
-      </c>
-      <c r="AR10">
-        <v>0.95</v>
-      </c>
-      <c r="AS10">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -30122,7 +29125,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30318,76 +29321,76 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.99375</v>
+        <v>0.9962500000000001</v>
       </c>
       <c r="W2">
-        <v>0.9874999999999999</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="X2">
+        <v>0.98875</v>
+      </c>
+      <c r="Y2">
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="Z2">
         <v>0.98125</v>
       </c>
-      <c r="Y2">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="Z2">
-        <v>0.96875</v>
-      </c>
       <c r="AA2">
-        <v>0.9625</v>
+        <v>0.9775</v>
       </c>
       <c r="AB2">
-        <v>0.9562499999999999</v>
+        <v>0.9737499999999999</v>
       </c>
       <c r="AC2">
-        <v>0.9500000000000001</v>
+        <v>0.9700000000000001</v>
       </c>
       <c r="AD2">
+        <v>0.9662500000000001</v>
+      </c>
+      <c r="AE2">
+        <v>0.9624999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>0.95875</v>
+      </c>
+      <c r="AG2">
+        <v>0.9550000000000001</v>
+      </c>
+      <c r="AH2">
+        <v>0.95125</v>
+      </c>
+      <c r="AI2">
+        <v>0.9475</v>
+      </c>
+      <c r="AJ2">
         <v>0.94375</v>
       </c>
-      <c r="AE2">
-        <v>0.9375</v>
-      </c>
-      <c r="AF2">
-        <v>0.93125</v>
-      </c>
-      <c r="AG2">
+      <c r="AK2">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="AL2">
+        <v>0.93625</v>
+      </c>
+      <c r="AM2">
+        <v>0.9325</v>
+      </c>
+      <c r="AN2">
+        <v>0.9287500000000001</v>
+      </c>
+      <c r="AO2">
         <v>0.925</v>
       </c>
-      <c r="AH2">
-        <v>0.91875</v>
-      </c>
-      <c r="AI2">
-        <v>0.9125</v>
-      </c>
-      <c r="AJ2">
-        <v>0.90625</v>
-      </c>
-      <c r="AK2">
-        <v>0.9</v>
-      </c>
-      <c r="AL2">
-        <v>0.8937499999999999</v>
-      </c>
-      <c r="AM2">
-        <v>0.8875</v>
-      </c>
-      <c r="AN2">
-        <v>0.88125</v>
-      </c>
-      <c r="AO2">
-        <v>0.875</v>
-      </c>
       <c r="AP2">
-        <v>0.86875</v>
+        <v>0.92125</v>
       </c>
       <c r="AQ2">
-        <v>0.8624999999999999</v>
+        <v>0.9175</v>
       </c>
       <c r="AR2">
-        <v>0.85625</v>
+        <v>0.9137500000000001</v>
       </c>
       <c r="AS2">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -30395,10 +29398,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -30407,112 +29410,112 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="K3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="L3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="M3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="N3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="O3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="P3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="Q3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="R3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="S3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="T3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="U3">
-        <v>0.444390186873768</v>
+        <v>0.1632</v>
       </c>
       <c r="V3">
-        <v>0.444390186873768</v>
+        <v>0.1722333333333333</v>
       </c>
       <c r="W3">
-        <v>0.444390186873768</v>
+        <v>0.1812666666666667</v>
       </c>
       <c r="X3">
-        <v>0.444390186873768</v>
+        <v>0.1903</v>
       </c>
       <c r="Y3">
-        <v>0.444390186873768</v>
+        <v>0.1993333333333333</v>
       </c>
       <c r="Z3">
-        <v>0.444390186873768</v>
+        <v>0.2083666666666667</v>
       </c>
       <c r="AA3">
-        <v>0.444390186873768</v>
+        <v>0.2174</v>
       </c>
       <c r="AB3">
-        <v>0.444390186873768</v>
+        <v>0.2264333333333333</v>
       </c>
       <c r="AC3">
-        <v>0.4443901868737681</v>
+        <v>0.2354666666666667</v>
       </c>
       <c r="AD3">
-        <v>0.444390186873768</v>
+        <v>0.2445</v>
       </c>
       <c r="AE3">
-        <v>0.444390186873768</v>
+        <v>0.2535333333333333</v>
       </c>
       <c r="AF3">
-        <v>0.4443901868737681</v>
+        <v>0.2625666666666667</v>
       </c>
       <c r="AG3">
-        <v>0.444390186873768</v>
+        <v>0.2716</v>
       </c>
       <c r="AH3">
-        <v>0.444390186873768</v>
+        <v>0.2806333333333333</v>
       </c>
       <c r="AI3">
-        <v>0.4443901868737681</v>
+        <v>0.2896666666666667</v>
       </c>
       <c r="AJ3">
-        <v>0.444390186873768</v>
+        <v>0.2987</v>
       </c>
       <c r="AK3">
-        <v>0.444390186873768</v>
+        <v>0.3077333333333333</v>
       </c>
       <c r="AL3">
-        <v>0.444390186873768</v>
+        <v>0.3167666666666666</v>
       </c>
       <c r="AM3">
-        <v>0.444390186873768</v>
+        <v>0.3258</v>
       </c>
       <c r="AN3">
-        <v>0.444390186873768</v>
+        <v>0.3348333333333334</v>
       </c>
       <c r="AO3">
-        <v>0.444390186873768</v>
+        <v>0.3438666666666667</v>
       </c>
       <c r="AP3">
-        <v>0.444390186873768</v>
+        <v>0.3529</v>
       </c>
       <c r="AQ3">
-        <v>0.444390186873768</v>
+        <v>0.3619333333333333</v>
       </c>
       <c r="AR3">
-        <v>0.444390186873768</v>
+        <v>0.3709666666666667</v>
       </c>
       <c r="AS3">
-        <v>0.444390186873768</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -30520,10 +29523,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -30532,112 +29535,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="K4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="L4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="M4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="N4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="O4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="P4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="Q4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="R4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="S4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="T4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="U4">
-        <v>0.503747507293613</v>
+        <v>0.1632</v>
       </c>
       <c r="V4">
-        <v>0.4973413611563791</v>
+        <v>0.1722333333333333</v>
       </c>
       <c r="W4">
-        <v>0.4909352150191452</v>
+        <v>0.1812666666666667</v>
       </c>
       <c r="X4">
-        <v>0.4845290688819113</v>
+        <v>0.1903</v>
       </c>
       <c r="Y4">
-        <v>0.4781229227446775</v>
+        <v>0.1993333333333333</v>
       </c>
       <c r="Z4">
-        <v>0.4717167766074436</v>
+        <v>0.2083666666666667</v>
       </c>
       <c r="AA4">
-        <v>0.4653106304702097</v>
+        <v>0.2174</v>
       </c>
       <c r="AB4">
-        <v>0.4589044843329758</v>
+        <v>0.2264333333333333</v>
       </c>
       <c r="AC4">
-        <v>0.452498338195742</v>
+        <v>0.2354666666666667</v>
       </c>
       <c r="AD4">
-        <v>0.4460921920585081</v>
+        <v>0.2445</v>
       </c>
       <c r="AE4">
-        <v>0.4396860459212741</v>
+        <v>0.2535333333333333</v>
       </c>
       <c r="AF4">
-        <v>0.4332798997840404</v>
+        <v>0.2625666666666667</v>
       </c>
       <c r="AG4">
-        <v>0.4268737536468065</v>
+        <v>0.2716</v>
       </c>
       <c r="AH4">
-        <v>0.4204676075095726</v>
+        <v>0.2806333333333333</v>
       </c>
       <c r="AI4">
-        <v>0.4140614613723387</v>
+        <v>0.2896666666666667</v>
       </c>
       <c r="AJ4">
-        <v>0.4076553152351048</v>
+        <v>0.2987</v>
       </c>
       <c r="AK4">
-        <v>0.401249169097871</v>
+        <v>0.3077333333333333</v>
       </c>
       <c r="AL4">
-        <v>0.3948430229606371</v>
+        <v>0.3167666666666666</v>
       </c>
       <c r="AM4">
-        <v>0.3884368768234032</v>
+        <v>0.3258</v>
       </c>
       <c r="AN4">
-        <v>0.3820307306861693</v>
+        <v>0.3348333333333334</v>
       </c>
       <c r="AO4">
-        <v>0.3756245845489355</v>
+        <v>0.3438666666666667</v>
       </c>
       <c r="AP4">
-        <v>0.3692184384117016</v>
+        <v>0.3529</v>
       </c>
       <c r="AQ4">
-        <v>0.3628122922744678</v>
+        <v>0.3619333333333333</v>
       </c>
       <c r="AR4">
-        <v>0.3564061461372338</v>
+        <v>0.3709666666666667</v>
       </c>
       <c r="AS4">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -30645,10 +29648,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -30657,112 +29660,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="K5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="L5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="M5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="N5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="O5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="P5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="Q5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="R5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="S5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="T5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="U5">
-        <v>0.352758653217654</v>
+        <v>0.1632</v>
       </c>
       <c r="V5">
-        <v>0.3591647993548879</v>
+        <v>0.1722333333333333</v>
       </c>
       <c r="W5">
-        <v>0.3655709454921218</v>
+        <v>0.1812666666666667</v>
       </c>
       <c r="X5">
-        <v>0.3719770916293556</v>
+        <v>0.1903</v>
       </c>
       <c r="Y5">
-        <v>0.3783832377665895</v>
+        <v>0.1993333333333333</v>
       </c>
       <c r="Z5">
-        <v>0.3847893839038233</v>
+        <v>0.2083666666666667</v>
       </c>
       <c r="AA5">
-        <v>0.3911955300410572</v>
+        <v>0.2174</v>
       </c>
       <c r="AB5">
-        <v>0.3976016761782911</v>
+        <v>0.2264333333333333</v>
       </c>
       <c r="AC5">
-        <v>0.404007822315525</v>
+        <v>0.2354666666666667</v>
       </c>
       <c r="AD5">
-        <v>0.4104139684527588</v>
+        <v>0.2445</v>
       </c>
       <c r="AE5">
-        <v>0.4168201145899927</v>
+        <v>0.2535333333333333</v>
       </c>
       <c r="AF5">
-        <v>0.4232262607272266</v>
+        <v>0.2625666666666667</v>
       </c>
       <c r="AG5">
-        <v>0.4296324068644605</v>
+        <v>0.2716</v>
       </c>
       <c r="AH5">
-        <v>0.4360385530016943</v>
+        <v>0.2806333333333333</v>
       </c>
       <c r="AI5">
-        <v>0.4424446991389283</v>
+        <v>0.2896666666666667</v>
       </c>
       <c r="AJ5">
-        <v>0.4488508452761621</v>
+        <v>0.2987</v>
       </c>
       <c r="AK5">
-        <v>0.455256991413396</v>
+        <v>0.3077333333333333</v>
       </c>
       <c r="AL5">
-        <v>0.4616631375506298</v>
+        <v>0.3167666666666666</v>
       </c>
       <c r="AM5">
-        <v>0.4680692836878637</v>
+        <v>0.3258</v>
       </c>
       <c r="AN5">
-        <v>0.4744754298250976</v>
+        <v>0.3348333333333334</v>
       </c>
       <c r="AO5">
-        <v>0.4808815759623314</v>
+        <v>0.3438666666666667</v>
       </c>
       <c r="AP5">
-        <v>0.4872877220995653</v>
+        <v>0.3529</v>
       </c>
       <c r="AQ5">
-        <v>0.4936938682367992</v>
+        <v>0.3619333333333333</v>
       </c>
       <c r="AR5">
-        <v>0.5001000143740331</v>
+        <v>0.3709666666666667</v>
       </c>
       <c r="AS5">
-        <v>0.506506160511267</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -30770,7 +29773,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -30818,76 +29821,76 @@
         <v>0.1632</v>
       </c>
       <c r="V6">
-        <v>0.1821291666666667</v>
+        <v>0.1722333333333333</v>
       </c>
       <c r="W6">
-        <v>0.2010583333333333</v>
+        <v>0.1812666666666667</v>
       </c>
       <c r="X6">
-        <v>0.2199875</v>
+        <v>0.1903</v>
       </c>
       <c r="Y6">
-        <v>0.2389166666666667</v>
+        <v>0.1993333333333333</v>
       </c>
       <c r="Z6">
-        <v>0.2578458333333333</v>
+        <v>0.2083666666666667</v>
       </c>
       <c r="AA6">
-        <v>0.276775</v>
+        <v>0.2174</v>
       </c>
       <c r="AB6">
-        <v>0.2957041666666667</v>
+        <v>0.2264333333333333</v>
       </c>
       <c r="AC6">
-        <v>0.3146333333333333</v>
+        <v>0.2354666666666667</v>
       </c>
       <c r="AD6">
-        <v>0.3335625</v>
+        <v>0.2445</v>
       </c>
       <c r="AE6">
-        <v>0.3524916666666666</v>
+        <v>0.2535333333333333</v>
       </c>
       <c r="AF6">
-        <v>0.3714208333333333</v>
+        <v>0.2625666666666667</v>
       </c>
       <c r="AG6">
-        <v>0.39035</v>
+        <v>0.2716</v>
       </c>
       <c r="AH6">
-        <v>0.4092791666666666</v>
+        <v>0.2806333333333333</v>
       </c>
       <c r="AI6">
-        <v>0.4282083333333333</v>
+        <v>0.2896666666666667</v>
       </c>
       <c r="AJ6">
-        <v>0.4471375</v>
+        <v>0.2987</v>
       </c>
       <c r="AK6">
-        <v>0.4660666666666666</v>
+        <v>0.3077333333333333</v>
       </c>
       <c r="AL6">
-        <v>0.4849958333333333</v>
+        <v>0.3167666666666666</v>
       </c>
       <c r="AM6">
-        <v>0.503925</v>
+        <v>0.3258</v>
       </c>
       <c r="AN6">
-        <v>0.5228541666666666</v>
+        <v>0.3348333333333334</v>
       </c>
       <c r="AO6">
-        <v>0.5417833333333333</v>
+        <v>0.3438666666666667</v>
       </c>
       <c r="AP6">
-        <v>0.5607124999999999</v>
+        <v>0.3529</v>
       </c>
       <c r="AQ6">
-        <v>0.5796416666666666</v>
+        <v>0.3619333333333333</v>
       </c>
       <c r="AR6">
-        <v>0.5985708333333333</v>
+        <v>0.3709666666666667</v>
       </c>
       <c r="AS6">
-        <v>0.6174999999999999</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -30895,7 +29898,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -30943,76 +29946,76 @@
         <v>0.1632</v>
       </c>
       <c r="V7">
-        <v>0.1821291666666667</v>
+        <v>0.1722333333333333</v>
       </c>
       <c r="W7">
-        <v>0.2010583333333333</v>
+        <v>0.1812666666666667</v>
       </c>
       <c r="X7">
-        <v>0.2199875</v>
+        <v>0.1903</v>
       </c>
       <c r="Y7">
-        <v>0.2389166666666667</v>
+        <v>0.1993333333333333</v>
       </c>
       <c r="Z7">
-        <v>0.2578458333333333</v>
+        <v>0.2083666666666667</v>
       </c>
       <c r="AA7">
-        <v>0.276775</v>
+        <v>0.2174</v>
       </c>
       <c r="AB7">
-        <v>0.2957041666666667</v>
+        <v>0.2264333333333333</v>
       </c>
       <c r="AC7">
-        <v>0.3146333333333333</v>
+        <v>0.2354666666666667</v>
       </c>
       <c r="AD7">
-        <v>0.3335625</v>
+        <v>0.2445</v>
       </c>
       <c r="AE7">
-        <v>0.3524916666666666</v>
+        <v>0.2535333333333333</v>
       </c>
       <c r="AF7">
-        <v>0.3714208333333333</v>
+        <v>0.2625666666666667</v>
       </c>
       <c r="AG7">
-        <v>0.39035</v>
+        <v>0.2716</v>
       </c>
       <c r="AH7">
-        <v>0.4092791666666666</v>
+        <v>0.2806333333333333</v>
       </c>
       <c r="AI7">
-        <v>0.4282083333333333</v>
+        <v>0.2896666666666667</v>
       </c>
       <c r="AJ7">
-        <v>0.4471375</v>
+        <v>0.2987</v>
       </c>
       <c r="AK7">
-        <v>0.4660666666666666</v>
+        <v>0.3077333333333333</v>
       </c>
       <c r="AL7">
-        <v>0.4849958333333333</v>
+        <v>0.3167666666666666</v>
       </c>
       <c r="AM7">
-        <v>0.503925</v>
+        <v>0.3258</v>
       </c>
       <c r="AN7">
-        <v>0.5228541666666666</v>
+        <v>0.3348333333333334</v>
       </c>
       <c r="AO7">
-        <v>0.5417833333333333</v>
+        <v>0.3438666666666667</v>
       </c>
       <c r="AP7">
-        <v>0.5607124999999999</v>
+        <v>0.3529</v>
       </c>
       <c r="AQ7">
-        <v>0.5796416666666666</v>
+        <v>0.3619333333333333</v>
       </c>
       <c r="AR7">
-        <v>0.5985708333333333</v>
+        <v>0.3709666666666667</v>
       </c>
       <c r="AS7">
-        <v>0.6174999999999999</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -31020,7 +30023,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -31068,76 +30071,76 @@
         <v>0.1632</v>
       </c>
       <c r="V8">
-        <v>0.1821291666666667</v>
+        <v>0.1722333333333333</v>
       </c>
       <c r="W8">
-        <v>0.2010583333333333</v>
+        <v>0.1812666666666667</v>
       </c>
       <c r="X8">
-        <v>0.2199875</v>
+        <v>0.1903</v>
       </c>
       <c r="Y8">
-        <v>0.2389166666666667</v>
+        <v>0.1993333333333333</v>
       </c>
       <c r="Z8">
-        <v>0.2578458333333333</v>
+        <v>0.2083666666666667</v>
       </c>
       <c r="AA8">
-        <v>0.276775</v>
+        <v>0.2174</v>
       </c>
       <c r="AB8">
-        <v>0.2957041666666667</v>
+        <v>0.2264333333333333</v>
       </c>
       <c r="AC8">
-        <v>0.3146333333333333</v>
+        <v>0.2354666666666667</v>
       </c>
       <c r="AD8">
-        <v>0.3335625</v>
+        <v>0.2445</v>
       </c>
       <c r="AE8">
-        <v>0.3524916666666666</v>
+        <v>0.2535333333333333</v>
       </c>
       <c r="AF8">
-        <v>0.3714208333333333</v>
+        <v>0.2625666666666667</v>
       </c>
       <c r="AG8">
-        <v>0.39035</v>
+        <v>0.2716</v>
       </c>
       <c r="AH8">
-        <v>0.4092791666666666</v>
+        <v>0.2806333333333333</v>
       </c>
       <c r="AI8">
-        <v>0.4282083333333333</v>
+        <v>0.2896666666666667</v>
       </c>
       <c r="AJ8">
-        <v>0.4471375</v>
+        <v>0.2987</v>
       </c>
       <c r="AK8">
-        <v>0.4660666666666666</v>
+        <v>0.3077333333333333</v>
       </c>
       <c r="AL8">
-        <v>0.4849958333333333</v>
+        <v>0.3167666666666666</v>
       </c>
       <c r="AM8">
-        <v>0.503925</v>
+        <v>0.3258</v>
       </c>
       <c r="AN8">
-        <v>0.5228541666666666</v>
+        <v>0.3348333333333334</v>
       </c>
       <c r="AO8">
-        <v>0.5417833333333333</v>
+        <v>0.3438666666666667</v>
       </c>
       <c r="AP8">
-        <v>0.5607124999999999</v>
+        <v>0.3529</v>
       </c>
       <c r="AQ8">
-        <v>0.5796416666666666</v>
+        <v>0.3619333333333333</v>
       </c>
       <c r="AR8">
-        <v>0.5985708333333333</v>
+        <v>0.3709666666666667</v>
       </c>
       <c r="AS8">
-        <v>0.6174999999999999</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -31145,7 +30148,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -31193,573 +30196,76 @@
         <v>0.1632</v>
       </c>
       <c r="V9">
-        <v>0.1821291666666667</v>
+        <v>0.1722333333333333</v>
       </c>
       <c r="W9">
-        <v>0.2010583333333333</v>
+        <v>0.1812666666666667</v>
       </c>
       <c r="X9">
-        <v>0.2199875</v>
+        <v>0.1903</v>
       </c>
       <c r="Y9">
-        <v>0.2389166666666667</v>
+        <v>0.1993333333333333</v>
       </c>
       <c r="Z9">
-        <v>0.2578458333333333</v>
+        <v>0.2083666666666667</v>
       </c>
       <c r="AA9">
-        <v>0.276775</v>
+        <v>0.2174</v>
       </c>
       <c r="AB9">
-        <v>0.2957041666666667</v>
+        <v>0.2264333333333333</v>
       </c>
       <c r="AC9">
-        <v>0.3146333333333333</v>
+        <v>0.2354666666666667</v>
       </c>
       <c r="AD9">
-        <v>0.3335625</v>
+        <v>0.2445</v>
       </c>
       <c r="AE9">
-        <v>0.3524916666666666</v>
+        <v>0.2535333333333333</v>
       </c>
       <c r="AF9">
-        <v>0.3714208333333333</v>
+        <v>0.2625666666666667</v>
       </c>
       <c r="AG9">
-        <v>0.39035</v>
+        <v>0.2716</v>
       </c>
       <c r="AH9">
-        <v>0.4092791666666666</v>
+        <v>0.2806333333333333</v>
       </c>
       <c r="AI9">
-        <v>0.4282083333333333</v>
+        <v>0.2896666666666667</v>
       </c>
       <c r="AJ9">
-        <v>0.4471375</v>
+        <v>0.2987</v>
       </c>
       <c r="AK9">
-        <v>0.4660666666666666</v>
+        <v>0.3077333333333333</v>
       </c>
       <c r="AL9">
-        <v>0.4849958333333333</v>
+        <v>0.3167666666666666</v>
       </c>
       <c r="AM9">
-        <v>0.503925</v>
+        <v>0.3258</v>
       </c>
       <c r="AN9">
-        <v>0.5228541666666666</v>
+        <v>0.3348333333333334</v>
       </c>
       <c r="AO9">
-        <v>0.5417833333333333</v>
+        <v>0.3438666666666667</v>
       </c>
       <c r="AP9">
-        <v>0.5607124999999999</v>
+        <v>0.3529</v>
       </c>
       <c r="AQ9">
-        <v>0.5796416666666666</v>
+        <v>0.3619333333333333</v>
       </c>
       <c r="AR9">
-        <v>0.5985708333333333</v>
+        <v>0.3709666666666667</v>
       </c>
       <c r="AS9">
-        <v>0.6174999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10">
-        <v>23</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.1632</v>
-      </c>
-      <c r="K10">
-        <v>0.1632</v>
-      </c>
-      <c r="L10">
-        <v>0.1632</v>
-      </c>
-      <c r="M10">
-        <v>0.1632</v>
-      </c>
-      <c r="N10">
-        <v>0.1632</v>
-      </c>
-      <c r="O10">
-        <v>0.1632</v>
-      </c>
-      <c r="P10">
-        <v>0.1632</v>
-      </c>
-      <c r="Q10">
-        <v>0.1632</v>
-      </c>
-      <c r="R10">
-        <v>0.1632</v>
-      </c>
-      <c r="S10">
-        <v>0.1632</v>
-      </c>
-      <c r="T10">
-        <v>0.1632</v>
-      </c>
-      <c r="U10">
-        <v>0.1632</v>
-      </c>
-      <c r="V10">
-        <v>0.1821291666666667</v>
-      </c>
-      <c r="W10">
-        <v>0.2010583333333333</v>
-      </c>
-      <c r="X10">
-        <v>0.2199875</v>
-      </c>
-      <c r="Y10">
-        <v>0.2389166666666667</v>
-      </c>
-      <c r="Z10">
-        <v>0.2578458333333333</v>
-      </c>
-      <c r="AA10">
-        <v>0.276775</v>
-      </c>
-      <c r="AB10">
-        <v>0.2957041666666667</v>
-      </c>
-      <c r="AC10">
-        <v>0.3146333333333333</v>
-      </c>
-      <c r="AD10">
-        <v>0.3335625</v>
-      </c>
-      <c r="AE10">
-        <v>0.3524916666666666</v>
-      </c>
-      <c r="AF10">
-        <v>0.3714208333333333</v>
-      </c>
-      <c r="AG10">
-        <v>0.39035</v>
-      </c>
-      <c r="AH10">
-        <v>0.4092791666666666</v>
-      </c>
-      <c r="AI10">
-        <v>0.4282083333333333</v>
-      </c>
-      <c r="AJ10">
-        <v>0.4471375</v>
-      </c>
-      <c r="AK10">
-        <v>0.4660666666666666</v>
-      </c>
-      <c r="AL10">
-        <v>0.4849958333333333</v>
-      </c>
-      <c r="AM10">
-        <v>0.503925</v>
-      </c>
-      <c r="AN10">
-        <v>0.5228541666666666</v>
-      </c>
-      <c r="AO10">
-        <v>0.5417833333333333</v>
-      </c>
-      <c r="AP10">
-        <v>0.5607124999999999</v>
-      </c>
-      <c r="AQ10">
-        <v>0.5796416666666666</v>
-      </c>
-      <c r="AR10">
-        <v>0.5985708333333333</v>
-      </c>
-      <c r="AS10">
-        <v>0.6174999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0.1632</v>
-      </c>
-      <c r="K11">
-        <v>0.1632</v>
-      </c>
-      <c r="L11">
-        <v>0.1632</v>
-      </c>
-      <c r="M11">
-        <v>0.1632</v>
-      </c>
-      <c r="N11">
-        <v>0.1632</v>
-      </c>
-      <c r="O11">
-        <v>0.1632</v>
-      </c>
-      <c r="P11">
-        <v>0.1632</v>
-      </c>
-      <c r="Q11">
-        <v>0.1632</v>
-      </c>
-      <c r="R11">
-        <v>0.1632</v>
-      </c>
-      <c r="S11">
-        <v>0.1632</v>
-      </c>
-      <c r="T11">
-        <v>0.1632</v>
-      </c>
-      <c r="U11">
-        <v>0.1632</v>
-      </c>
-      <c r="V11">
-        <v>0.1821291666666667</v>
-      </c>
-      <c r="W11">
-        <v>0.2010583333333333</v>
-      </c>
-      <c r="X11">
-        <v>0.2199875</v>
-      </c>
-      <c r="Y11">
-        <v>0.2389166666666667</v>
-      </c>
-      <c r="Z11">
-        <v>0.2578458333333333</v>
-      </c>
-      <c r="AA11">
-        <v>0.276775</v>
-      </c>
-      <c r="AB11">
-        <v>0.2957041666666667</v>
-      </c>
-      <c r="AC11">
-        <v>0.3146333333333333</v>
-      </c>
-      <c r="AD11">
-        <v>0.3335625</v>
-      </c>
-      <c r="AE11">
-        <v>0.3524916666666666</v>
-      </c>
-      <c r="AF11">
-        <v>0.3714208333333333</v>
-      </c>
-      <c r="AG11">
-        <v>0.39035</v>
-      </c>
-      <c r="AH11">
-        <v>0.4092791666666666</v>
-      </c>
-      <c r="AI11">
-        <v>0.4282083333333333</v>
-      </c>
-      <c r="AJ11">
-        <v>0.4471375</v>
-      </c>
-      <c r="AK11">
-        <v>0.4660666666666666</v>
-      </c>
-      <c r="AL11">
-        <v>0.4849958333333333</v>
-      </c>
-      <c r="AM11">
-        <v>0.503925</v>
-      </c>
-      <c r="AN11">
-        <v>0.5228541666666666</v>
-      </c>
-      <c r="AO11">
-        <v>0.5417833333333333</v>
-      </c>
-      <c r="AP11">
-        <v>0.5607124999999999</v>
-      </c>
-      <c r="AQ11">
-        <v>0.5796416666666666</v>
-      </c>
-      <c r="AR11">
-        <v>0.5985708333333333</v>
-      </c>
-      <c r="AS11">
-        <v>0.6174999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.1632</v>
-      </c>
-      <c r="K12">
-        <v>0.1632</v>
-      </c>
-      <c r="L12">
-        <v>0.1632</v>
-      </c>
-      <c r="M12">
-        <v>0.1632</v>
-      </c>
-      <c r="N12">
-        <v>0.1632</v>
-      </c>
-      <c r="O12">
-        <v>0.1632</v>
-      </c>
-      <c r="P12">
-        <v>0.1632</v>
-      </c>
-      <c r="Q12">
-        <v>0.1632</v>
-      </c>
-      <c r="R12">
-        <v>0.1632</v>
-      </c>
-      <c r="S12">
-        <v>0.1632</v>
-      </c>
-      <c r="T12">
-        <v>0.1632</v>
-      </c>
-      <c r="U12">
-        <v>0.1632</v>
-      </c>
-      <c r="V12">
-        <v>0.1821291666666667</v>
-      </c>
-      <c r="W12">
-        <v>0.2010583333333333</v>
-      </c>
-      <c r="X12">
-        <v>0.2199875</v>
-      </c>
-      <c r="Y12">
-        <v>0.2389166666666667</v>
-      </c>
-      <c r="Z12">
-        <v>0.2578458333333333</v>
-      </c>
-      <c r="AA12">
-        <v>0.276775</v>
-      </c>
-      <c r="AB12">
-        <v>0.2957041666666667</v>
-      </c>
-      <c r="AC12">
-        <v>0.3146333333333333</v>
-      </c>
-      <c r="AD12">
-        <v>0.3335625</v>
-      </c>
-      <c r="AE12">
-        <v>0.3524916666666666</v>
-      </c>
-      <c r="AF12">
-        <v>0.3714208333333333</v>
-      </c>
-      <c r="AG12">
-        <v>0.39035</v>
-      </c>
-      <c r="AH12">
-        <v>0.4092791666666666</v>
-      </c>
-      <c r="AI12">
-        <v>0.4282083333333333</v>
-      </c>
-      <c r="AJ12">
-        <v>0.4471375</v>
-      </c>
-      <c r="AK12">
-        <v>0.4660666666666666</v>
-      </c>
-      <c r="AL12">
-        <v>0.4849958333333333</v>
-      </c>
-      <c r="AM12">
-        <v>0.503925</v>
-      </c>
-      <c r="AN12">
-        <v>0.5228541666666666</v>
-      </c>
-      <c r="AO12">
-        <v>0.5417833333333333</v>
-      </c>
-      <c r="AP12">
-        <v>0.5607124999999999</v>
-      </c>
-      <c r="AQ12">
-        <v>0.5796416666666666</v>
-      </c>
-      <c r="AR12">
-        <v>0.5985708333333333</v>
-      </c>
-      <c r="AS12">
-        <v>0.6174999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.95</v>
-      </c>
-      <c r="K13">
-        <v>0.95</v>
-      </c>
-      <c r="L13">
-        <v>0.95</v>
-      </c>
-      <c r="M13">
-        <v>0.95</v>
-      </c>
-      <c r="N13">
-        <v>0.95</v>
-      </c>
-      <c r="O13">
-        <v>0.95</v>
-      </c>
-      <c r="P13">
-        <v>0.95</v>
-      </c>
-      <c r="Q13">
-        <v>0.95</v>
-      </c>
-      <c r="R13">
-        <v>0.95</v>
-      </c>
-      <c r="S13">
-        <v>0.95</v>
-      </c>
-      <c r="T13">
-        <v>0.95</v>
-      </c>
-      <c r="U13">
-        <v>0.95</v>
-      </c>
-      <c r="V13">
-        <v>0.95</v>
-      </c>
-      <c r="W13">
-        <v>0.95</v>
-      </c>
-      <c r="X13">
-        <v>0.95</v>
-      </c>
-      <c r="Y13">
-        <v>0.95</v>
-      </c>
-      <c r="Z13">
-        <v>0.9499999999999998</v>
-      </c>
-      <c r="AA13">
-        <v>0.95</v>
-      </c>
-      <c r="AB13">
-        <v>0.95</v>
-      </c>
-      <c r="AC13">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="AD13">
-        <v>0.95</v>
-      </c>
-      <c r="AE13">
-        <v>0.95</v>
-      </c>
-      <c r="AF13">
-        <v>0.95</v>
-      </c>
-      <c r="AG13">
-        <v>0.95</v>
-      </c>
-      <c r="AH13">
-        <v>0.95</v>
-      </c>
-      <c r="AI13">
-        <v>0.95</v>
-      </c>
-      <c r="AJ13">
-        <v>0.95</v>
-      </c>
-      <c r="AK13">
-        <v>0.95</v>
-      </c>
-      <c r="AL13">
-        <v>0.95</v>
-      </c>
-      <c r="AM13">
-        <v>0.95</v>
-      </c>
-      <c r="AN13">
-        <v>0.95</v>
-      </c>
-      <c r="AO13">
-        <v>0.95</v>
-      </c>
-      <c r="AP13">
-        <v>0.95</v>
-      </c>
-      <c r="AQ13">
-        <v>0.95</v>
-      </c>
-      <c r="AR13">
-        <v>0.95</v>
-      </c>
-      <c r="AS13">
-        <v>0.95</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -34340,76 +32846,76 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0.9912500000000001</v>
+        <v>0.99375</v>
       </c>
       <c r="W21">
-        <v>0.9824999999999999</v>
+        <v>0.9874999999999999</v>
       </c>
       <c r="X21">
-        <v>0.97375</v>
+        <v>0.98125</v>
       </c>
       <c r="Y21">
-        <v>0.9650000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z21">
-        <v>0.95625</v>
+        <v>0.96875</v>
       </c>
       <c r="AA21">
-        <v>0.9475</v>
+        <v>0.9625</v>
       </c>
       <c r="AB21">
-        <v>0.93875</v>
+        <v>0.9562499999999999</v>
       </c>
       <c r="AC21">
-        <v>0.93</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="AD21">
-        <v>0.92125</v>
+        <v>0.94375</v>
       </c>
       <c r="AE21">
+        <v>0.9375</v>
+      </c>
+      <c r="AF21">
+        <v>0.93125</v>
+      </c>
+      <c r="AG21">
+        <v>0.925</v>
+      </c>
+      <c r="AH21">
+        <v>0.91875</v>
+      </c>
+      <c r="AI21">
         <v>0.9125</v>
       </c>
-      <c r="AF21">
-        <v>0.9037500000000001</v>
-      </c>
-      <c r="AG21">
-        <v>0.895</v>
-      </c>
-      <c r="AH21">
-        <v>0.88625</v>
-      </c>
-      <c r="AI21">
-        <v>0.8774999999999999</v>
-      </c>
       <c r="AJ21">
+        <v>0.90625</v>
+      </c>
+      <c r="AK21">
+        <v>0.9</v>
+      </c>
+      <c r="AL21">
+        <v>0.8937499999999999</v>
+      </c>
+      <c r="AM21">
+        <v>0.8875</v>
+      </c>
+      <c r="AN21">
+        <v>0.88125</v>
+      </c>
+      <c r="AO21">
+        <v>0.875</v>
+      </c>
+      <c r="AP21">
         <v>0.86875</v>
       </c>
-      <c r="AK21">
-        <v>0.86</v>
-      </c>
-      <c r="AL21">
-        <v>0.8512500000000001</v>
-      </c>
-      <c r="AM21">
-        <v>0.8425</v>
-      </c>
-      <c r="AN21">
-        <v>0.83375</v>
-      </c>
-      <c r="AO21">
-        <v>0.8250000000000001</v>
-      </c>
-      <c r="AP21">
-        <v>0.81625</v>
-      </c>
       <c r="AQ21">
-        <v>0.8075</v>
+        <v>0.8624999999999999</v>
       </c>
       <c r="AR21">
-        <v>0.7987500000000001</v>
+        <v>0.85625</v>
       </c>
       <c r="AS21">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="22" spans="1:45">

--- a/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
+++ b/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="237">
   <si>
     <t>subsector</t>
   </si>
@@ -28850,7 +28850,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29046,76 +29046,1323 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9962500000000001</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9924999999999999</v>
+        <v>0.9960869565217392</v>
       </c>
       <c r="X2">
-        <v>0.98875</v>
+        <v>0.9921739130434784</v>
       </c>
       <c r="Y2">
-        <v>0.9850000000000001</v>
+        <v>0.9882608695652174</v>
       </c>
       <c r="Z2">
-        <v>0.98125</v>
+        <v>0.9843478260869565</v>
       </c>
       <c r="AA2">
-        <v>0.9775</v>
+        <v>0.9804347826086957</v>
       </c>
       <c r="AB2">
-        <v>0.9737499999999999</v>
+        <v>0.9765217391304347</v>
       </c>
       <c r="AC2">
-        <v>0.9700000000000001</v>
+        <v>0.9726086956521739</v>
       </c>
       <c r="AD2">
-        <v>0.9662500000000001</v>
+        <v>0.9686956521739131</v>
       </c>
       <c r="AE2">
-        <v>0.9624999999999999</v>
+        <v>0.9647826086956522</v>
       </c>
       <c r="AF2">
-        <v>0.95875</v>
+        <v>0.9608695652173913</v>
       </c>
       <c r="AG2">
-        <v>0.9550000000000001</v>
+        <v>0.9569565217391305</v>
       </c>
       <c r="AH2">
-        <v>0.95125</v>
+        <v>0.9530434782608697</v>
       </c>
       <c r="AI2">
-        <v>0.9475</v>
+        <v>0.9491304347826087</v>
       </c>
       <c r="AJ2">
-        <v>0.94375</v>
+        <v>0.9452173913043478</v>
       </c>
       <c r="AK2">
-        <v>0.9400000000000001</v>
+        <v>0.941304347826087</v>
       </c>
       <c r="AL2">
-        <v>0.93625</v>
+        <v>0.9373913043478261</v>
       </c>
       <c r="AM2">
-        <v>0.9325</v>
+        <v>0.9334782608695652</v>
       </c>
       <c r="AN2">
-        <v>0.9287500000000001</v>
+        <v>0.9295652173913044</v>
       </c>
       <c r="AO2">
-        <v>0.925</v>
+        <v>0.9256521739130436</v>
       </c>
       <c r="AP2">
-        <v>0.92125</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="AQ2">
-        <v>0.9175</v>
+        <v>0.9178260869565218</v>
       </c>
       <c r="AR2">
-        <v>0.9137500000000001</v>
+        <v>0.9139130434782609</v>
       </c>
       <c r="AS2">
         <v>0.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.02</v>
+      </c>
+      <c r="K3">
+        <v>0.02</v>
+      </c>
+      <c r="L3">
+        <v>0.02</v>
+      </c>
+      <c r="M3">
+        <v>0.02</v>
+      </c>
+      <c r="N3">
+        <v>0.02</v>
+      </c>
+      <c r="O3">
+        <v>0.02</v>
+      </c>
+      <c r="P3">
+        <v>0.02</v>
+      </c>
+      <c r="Q3">
+        <v>0.02</v>
+      </c>
+      <c r="R3">
+        <v>0.02</v>
+      </c>
+      <c r="S3">
+        <v>0.02</v>
+      </c>
+      <c r="T3">
+        <v>0.02</v>
+      </c>
+      <c r="U3">
+        <v>0.02</v>
+      </c>
+      <c r="V3">
+        <v>0.02</v>
+      </c>
+      <c r="W3">
+        <v>0.03978260869565217</v>
+      </c>
+      <c r="X3">
+        <v>0.05956521739130435</v>
+      </c>
+      <c r="Y3">
+        <v>0.07934782608695652</v>
+      </c>
+      <c r="Z3">
+        <v>0.09913043478260869</v>
+      </c>
+      <c r="AA3">
+        <v>0.1189130434782609</v>
+      </c>
+      <c r="AB3">
+        <v>0.138695652173913</v>
+      </c>
+      <c r="AC3">
+        <v>0.1584782608695652</v>
+      </c>
+      <c r="AD3">
+        <v>0.1782608695652174</v>
+      </c>
+      <c r="AE3">
+        <v>0.1980434782608696</v>
+      </c>
+      <c r="AF3">
+        <v>0.2178260869565217</v>
+      </c>
+      <c r="AG3">
+        <v>0.2376086956521739</v>
+      </c>
+      <c r="AH3">
+        <v>0.2573913043478261</v>
+      </c>
+      <c r="AI3">
+        <v>0.2771739130434782</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2969565217391305</v>
+      </c>
+      <c r="AK3">
+        <v>0.3167391304347826</v>
+      </c>
+      <c r="AL3">
+        <v>0.3365217391304348</v>
+      </c>
+      <c r="AM3">
+        <v>0.3563043478260869</v>
+      </c>
+      <c r="AN3">
+        <v>0.3760869565217391</v>
+      </c>
+      <c r="AO3">
+        <v>0.3958695652173913</v>
+      </c>
+      <c r="AP3">
+        <v>0.4156521739130434</v>
+      </c>
+      <c r="AQ3">
+        <v>0.4354347826086956</v>
+      </c>
+      <c r="AR3">
+        <v>0.4552173913043478</v>
+      </c>
+      <c r="AS3">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.4</v>
+      </c>
+      <c r="K4">
+        <v>0.4</v>
+      </c>
+      <c r="L4">
+        <v>0.4</v>
+      </c>
+      <c r="M4">
+        <v>0.4</v>
+      </c>
+      <c r="N4">
+        <v>0.4</v>
+      </c>
+      <c r="O4">
+        <v>0.4</v>
+      </c>
+      <c r="P4">
+        <v>0.4</v>
+      </c>
+      <c r="Q4">
+        <v>0.4</v>
+      </c>
+      <c r="R4">
+        <v>0.4</v>
+      </c>
+      <c r="S4">
+        <v>0.4</v>
+      </c>
+      <c r="T4">
+        <v>0.4</v>
+      </c>
+      <c r="U4">
+        <v>0.4</v>
+      </c>
+      <c r="V4">
+        <v>0.4</v>
+      </c>
+      <c r="W4">
+        <v>0.4032608695652174</v>
+      </c>
+      <c r="X4">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="Y4">
+        <v>0.4097826086956521</v>
+      </c>
+      <c r="Z4">
+        <v>0.4130434782608696</v>
+      </c>
+      <c r="AA4">
+        <v>0.4163043478260869</v>
+      </c>
+      <c r="AB4">
+        <v>0.4195652173913044</v>
+      </c>
+      <c r="AC4">
+        <v>0.4228260869565217</v>
+      </c>
+      <c r="AD4">
+        <v>0.4260869565217391</v>
+      </c>
+      <c r="AE4">
+        <v>0.4293478260869565</v>
+      </c>
+      <c r="AF4">
+        <v>0.4326086956521739</v>
+      </c>
+      <c r="AG4">
+        <v>0.4358695652173913</v>
+      </c>
+      <c r="AH4">
+        <v>0.4391304347826087</v>
+      </c>
+      <c r="AI4">
+        <v>0.442391304347826</v>
+      </c>
+      <c r="AJ4">
+        <v>0.4456521739130435</v>
+      </c>
+      <c r="AK4">
+        <v>0.4489130434782609</v>
+      </c>
+      <c r="AL4">
+        <v>0.4521739130434783</v>
+      </c>
+      <c r="AM4">
+        <v>0.4554347826086956</v>
+      </c>
+      <c r="AN4">
+        <v>0.4586956521739131</v>
+      </c>
+      <c r="AO4">
+        <v>0.4619565217391304</v>
+      </c>
+      <c r="AP4">
+        <v>0.4652173913043478</v>
+      </c>
+      <c r="AQ4">
+        <v>0.4684782608695652</v>
+      </c>
+      <c r="AR4">
+        <v>0.4717391304347826</v>
+      </c>
+      <c r="AS4">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.02</v>
+      </c>
+      <c r="K5">
+        <v>0.02</v>
+      </c>
+      <c r="L5">
+        <v>0.02</v>
+      </c>
+      <c r="M5">
+        <v>0.02</v>
+      </c>
+      <c r="N5">
+        <v>0.02</v>
+      </c>
+      <c r="O5">
+        <v>0.02</v>
+      </c>
+      <c r="P5">
+        <v>0.02</v>
+      </c>
+      <c r="Q5">
+        <v>0.02</v>
+      </c>
+      <c r="R5">
+        <v>0.02</v>
+      </c>
+      <c r="S5">
+        <v>0.02</v>
+      </c>
+      <c r="T5">
+        <v>0.02</v>
+      </c>
+      <c r="U5">
+        <v>0.02</v>
+      </c>
+      <c r="V5">
+        <v>0.02</v>
+      </c>
+      <c r="W5">
+        <v>0.03978260869565217</v>
+      </c>
+      <c r="X5">
+        <v>0.05956521739130435</v>
+      </c>
+      <c r="Y5">
+        <v>0.07934782608695652</v>
+      </c>
+      <c r="Z5">
+        <v>0.09913043478260869</v>
+      </c>
+      <c r="AA5">
+        <v>0.1189130434782609</v>
+      </c>
+      <c r="AB5">
+        <v>0.138695652173913</v>
+      </c>
+      <c r="AC5">
+        <v>0.1584782608695652</v>
+      </c>
+      <c r="AD5">
+        <v>0.1782608695652174</v>
+      </c>
+      <c r="AE5">
+        <v>0.1980434782608696</v>
+      </c>
+      <c r="AF5">
+        <v>0.2178260869565217</v>
+      </c>
+      <c r="AG5">
+        <v>0.2376086956521739</v>
+      </c>
+      <c r="AH5">
+        <v>0.2573913043478261</v>
+      </c>
+      <c r="AI5">
+        <v>0.2771739130434782</v>
+      </c>
+      <c r="AJ5">
+        <v>0.2969565217391305</v>
+      </c>
+      <c r="AK5">
+        <v>0.3167391304347826</v>
+      </c>
+      <c r="AL5">
+        <v>0.3365217391304348</v>
+      </c>
+      <c r="AM5">
+        <v>0.3563043478260869</v>
+      </c>
+      <c r="AN5">
+        <v>0.3760869565217391</v>
+      </c>
+      <c r="AO5">
+        <v>0.3958695652173913</v>
+      </c>
+      <c r="AP5">
+        <v>0.4156521739130434</v>
+      </c>
+      <c r="AQ5">
+        <v>0.4354347826086956</v>
+      </c>
+      <c r="AR5">
+        <v>0.4552173913043478</v>
+      </c>
+      <c r="AS5">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.004225</v>
+      </c>
+      <c r="K6">
+        <v>0.004225</v>
+      </c>
+      <c r="L6">
+        <v>0.004225</v>
+      </c>
+      <c r="M6">
+        <v>0.004225</v>
+      </c>
+      <c r="N6">
+        <v>0.004225</v>
+      </c>
+      <c r="O6">
+        <v>0.004225</v>
+      </c>
+      <c r="P6">
+        <v>0.004225</v>
+      </c>
+      <c r="Q6">
+        <v>0.004225</v>
+      </c>
+      <c r="R6">
+        <v>0.004225</v>
+      </c>
+      <c r="S6">
+        <v>0.004225</v>
+      </c>
+      <c r="T6">
+        <v>0.004225</v>
+      </c>
+      <c r="U6">
+        <v>0.004225</v>
+      </c>
+      <c r="V6">
+        <v>0.004225</v>
+      </c>
+      <c r="W6">
+        <v>0.02469347826086956</v>
+      </c>
+      <c r="X6">
+        <v>0.04516195652173913</v>
+      </c>
+      <c r="Y6">
+        <v>0.06563043478260869</v>
+      </c>
+      <c r="Z6">
+        <v>0.08609891304347826</v>
+      </c>
+      <c r="AA6">
+        <v>0.1065673913043478</v>
+      </c>
+      <c r="AB6">
+        <v>0.1270358695652174</v>
+      </c>
+      <c r="AC6">
+        <v>0.147504347826087</v>
+      </c>
+      <c r="AD6">
+        <v>0.1679728260869565</v>
+      </c>
+      <c r="AE6">
+        <v>0.1884413043478261</v>
+      </c>
+      <c r="AF6">
+        <v>0.2089097826086956</v>
+      </c>
+      <c r="AG6">
+        <v>0.2293782608695652</v>
+      </c>
+      <c r="AH6">
+        <v>0.2498467391304348</v>
+      </c>
+      <c r="AI6">
+        <v>0.2703152173913043</v>
+      </c>
+      <c r="AJ6">
+        <v>0.2907836956521739</v>
+      </c>
+      <c r="AK6">
+        <v>0.3112521739130434</v>
+      </c>
+      <c r="AL6">
+        <v>0.331720652173913</v>
+      </c>
+      <c r="AM6">
+        <v>0.3521891304347826</v>
+      </c>
+      <c r="AN6">
+        <v>0.3726576086956522</v>
+      </c>
+      <c r="AO6">
+        <v>0.3931260869565217</v>
+      </c>
+      <c r="AP6">
+        <v>0.4135945652173912</v>
+      </c>
+      <c r="AQ6">
+        <v>0.4340630434782608</v>
+      </c>
+      <c r="AR6">
+        <v>0.4545315217391304</v>
+      </c>
+      <c r="AS6">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.004225</v>
+      </c>
+      <c r="K7">
+        <v>0.004225</v>
+      </c>
+      <c r="L7">
+        <v>0.004225</v>
+      </c>
+      <c r="M7">
+        <v>0.004225</v>
+      </c>
+      <c r="N7">
+        <v>0.004225</v>
+      </c>
+      <c r="O7">
+        <v>0.004225</v>
+      </c>
+      <c r="P7">
+        <v>0.004225</v>
+      </c>
+      <c r="Q7">
+        <v>0.004225</v>
+      </c>
+      <c r="R7">
+        <v>0.004225</v>
+      </c>
+      <c r="S7">
+        <v>0.004225</v>
+      </c>
+      <c r="T7">
+        <v>0.004225</v>
+      </c>
+      <c r="U7">
+        <v>0.004225</v>
+      </c>
+      <c r="V7">
+        <v>0.004225</v>
+      </c>
+      <c r="W7">
+        <v>0.02469347826086956</v>
+      </c>
+      <c r="X7">
+        <v>0.04516195652173913</v>
+      </c>
+      <c r="Y7">
+        <v>0.06563043478260869</v>
+      </c>
+      <c r="Z7">
+        <v>0.08609891304347826</v>
+      </c>
+      <c r="AA7">
+        <v>0.1065673913043478</v>
+      </c>
+      <c r="AB7">
+        <v>0.1270358695652174</v>
+      </c>
+      <c r="AC7">
+        <v>0.147504347826087</v>
+      </c>
+      <c r="AD7">
+        <v>0.1679728260869565</v>
+      </c>
+      <c r="AE7">
+        <v>0.1884413043478261</v>
+      </c>
+      <c r="AF7">
+        <v>0.2089097826086956</v>
+      </c>
+      <c r="AG7">
+        <v>0.2293782608695652</v>
+      </c>
+      <c r="AH7">
+        <v>0.2498467391304348</v>
+      </c>
+      <c r="AI7">
+        <v>0.2703152173913043</v>
+      </c>
+      <c r="AJ7">
+        <v>0.2907836956521739</v>
+      </c>
+      <c r="AK7">
+        <v>0.3112521739130434</v>
+      </c>
+      <c r="AL7">
+        <v>0.331720652173913</v>
+      </c>
+      <c r="AM7">
+        <v>0.3521891304347826</v>
+      </c>
+      <c r="AN7">
+        <v>0.3726576086956522</v>
+      </c>
+      <c r="AO7">
+        <v>0.3931260869565217</v>
+      </c>
+      <c r="AP7">
+        <v>0.4135945652173912</v>
+      </c>
+      <c r="AQ7">
+        <v>0.4340630434782608</v>
+      </c>
+      <c r="AR7">
+        <v>0.4545315217391304</v>
+      </c>
+      <c r="AS7">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.004225</v>
+      </c>
+      <c r="K8">
+        <v>0.004225</v>
+      </c>
+      <c r="L8">
+        <v>0.004225</v>
+      </c>
+      <c r="M8">
+        <v>0.004225</v>
+      </c>
+      <c r="N8">
+        <v>0.004225</v>
+      </c>
+      <c r="O8">
+        <v>0.004225</v>
+      </c>
+      <c r="P8">
+        <v>0.004225</v>
+      </c>
+      <c r="Q8">
+        <v>0.004225</v>
+      </c>
+      <c r="R8">
+        <v>0.004225</v>
+      </c>
+      <c r="S8">
+        <v>0.004225</v>
+      </c>
+      <c r="T8">
+        <v>0.004225</v>
+      </c>
+      <c r="U8">
+        <v>0.004225</v>
+      </c>
+      <c r="V8">
+        <v>0.004225</v>
+      </c>
+      <c r="W8">
+        <v>0.02469347826086956</v>
+      </c>
+      <c r="X8">
+        <v>0.04516195652173913</v>
+      </c>
+      <c r="Y8">
+        <v>0.06563043478260869</v>
+      </c>
+      <c r="Z8">
+        <v>0.08609891304347826</v>
+      </c>
+      <c r="AA8">
+        <v>0.1065673913043478</v>
+      </c>
+      <c r="AB8">
+        <v>0.1270358695652174</v>
+      </c>
+      <c r="AC8">
+        <v>0.147504347826087</v>
+      </c>
+      <c r="AD8">
+        <v>0.1679728260869565</v>
+      </c>
+      <c r="AE8">
+        <v>0.1884413043478261</v>
+      </c>
+      <c r="AF8">
+        <v>0.2089097826086956</v>
+      </c>
+      <c r="AG8">
+        <v>0.2293782608695652</v>
+      </c>
+      <c r="AH8">
+        <v>0.2498467391304348</v>
+      </c>
+      <c r="AI8">
+        <v>0.2703152173913043</v>
+      </c>
+      <c r="AJ8">
+        <v>0.2907836956521739</v>
+      </c>
+      <c r="AK8">
+        <v>0.3112521739130434</v>
+      </c>
+      <c r="AL8">
+        <v>0.331720652173913</v>
+      </c>
+      <c r="AM8">
+        <v>0.3521891304347826</v>
+      </c>
+      <c r="AN8">
+        <v>0.3726576086956522</v>
+      </c>
+      <c r="AO8">
+        <v>0.3931260869565217</v>
+      </c>
+      <c r="AP8">
+        <v>0.4135945652173912</v>
+      </c>
+      <c r="AQ8">
+        <v>0.4340630434782608</v>
+      </c>
+      <c r="AR8">
+        <v>0.4545315217391304</v>
+      </c>
+      <c r="AS8">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="K9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="L9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="M9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="N9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="O9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="P9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="Q9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="R9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="S9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="T9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="U9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="V9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="W9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="X9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="Y9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="Z9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AA9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AB9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AC9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AD9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AE9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AF9">
+        <v>0.4443901868737681</v>
+      </c>
+      <c r="AG9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AH9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AI9">
+        <v>0.4443901868737681</v>
+      </c>
+      <c r="AJ9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AK9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AL9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AM9">
+        <v>0.4443901868737681</v>
+      </c>
+      <c r="AN9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AO9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AP9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AQ9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AR9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AS9">
+        <v>0.444390186873768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="K10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="L10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="M10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="N10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="O10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="P10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="Q10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="R10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="S10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="T10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="U10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="V10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="W10">
+        <v>0.4948889200199776</v>
+      </c>
+      <c r="X10">
+        <v>0.4860303327463423</v>
+      </c>
+      <c r="Y10">
+        <v>0.4771717454727069</v>
+      </c>
+      <c r="Z10">
+        <v>0.4683131581990715</v>
+      </c>
+      <c r="AA10">
+        <v>0.4594545709254362</v>
+      </c>
+      <c r="AB10">
+        <v>0.4505959836518009</v>
+      </c>
+      <c r="AC10">
+        <v>0.4417373963781656</v>
+      </c>
+      <c r="AD10">
+        <v>0.4328788091045302</v>
+      </c>
+      <c r="AE10">
+        <v>0.4240202218308948</v>
+      </c>
+      <c r="AF10">
+        <v>0.4151616345572595</v>
+      </c>
+      <c r="AG10">
+        <v>0.4063030472836242</v>
+      </c>
+      <c r="AH10">
+        <v>0.3974444600099888</v>
+      </c>
+      <c r="AI10">
+        <v>0.3885858727363535</v>
+      </c>
+      <c r="AJ10">
+        <v>0.3797272854627181</v>
+      </c>
+      <c r="AK10">
+        <v>0.3708686981890827</v>
+      </c>
+      <c r="AL10">
+        <v>0.3620101109154474</v>
+      </c>
+      <c r="AM10">
+        <v>0.3531515236418121</v>
+      </c>
+      <c r="AN10">
+        <v>0.3442929363681767</v>
+      </c>
+      <c r="AO10">
+        <v>0.3354343490945414</v>
+      </c>
+      <c r="AP10">
+        <v>0.326575761820906</v>
+      </c>
+      <c r="AQ10">
+        <v>0.3177171745472707</v>
+      </c>
+      <c r="AR10">
+        <v>0.3088585872736354</v>
+      </c>
+      <c r="AS10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="K11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="L11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="M11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="N11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="O11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="P11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="Q11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="R11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="S11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="T11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="U11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="V11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="W11">
+        <v>0.3616172404912893</v>
+      </c>
+      <c r="X11">
+        <v>0.3704758277649247</v>
+      </c>
+      <c r="Y11">
+        <v>0.37933441503856</v>
+      </c>
+      <c r="Z11">
+        <v>0.3881930023121953</v>
+      </c>
+      <c r="AA11">
+        <v>0.3970515895858308</v>
+      </c>
+      <c r="AB11">
+        <v>0.4059101768594661</v>
+      </c>
+      <c r="AC11">
+        <v>0.4147687641331014</v>
+      </c>
+      <c r="AD11">
+        <v>0.4236273514067367</v>
+      </c>
+      <c r="AE11">
+        <v>0.4324859386803721</v>
+      </c>
+      <c r="AF11">
+        <v>0.4413445259540074</v>
+      </c>
+      <c r="AG11">
+        <v>0.4502031132276427</v>
+      </c>
+      <c r="AH11">
+        <v>0.4590617005012781</v>
+      </c>
+      <c r="AI11">
+        <v>0.4679202877749135</v>
+      </c>
+      <c r="AJ11">
+        <v>0.4767788750485488</v>
+      </c>
+      <c r="AK11">
+        <v>0.4856374623221842</v>
+      </c>
+      <c r="AL11">
+        <v>0.4944960495958195</v>
+      </c>
+      <c r="AM11">
+        <v>0.5033546368694548</v>
+      </c>
+      <c r="AN11">
+        <v>0.5122132241430902</v>
+      </c>
+      <c r="AO11">
+        <v>0.5210718114167255</v>
+      </c>
+      <c r="AP11">
+        <v>0.5299303986903608</v>
+      </c>
+      <c r="AQ11">
+        <v>0.5387889859639962</v>
+      </c>
+      <c r="AR11">
+        <v>0.5476475732376315</v>
+      </c>
+      <c r="AS11">
+        <v>0.5565061605112669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.95</v>
+      </c>
+      <c r="K12">
+        <v>0.95</v>
+      </c>
+      <c r="L12">
+        <v>0.95</v>
+      </c>
+      <c r="M12">
+        <v>0.95</v>
+      </c>
+      <c r="N12">
+        <v>0.95</v>
+      </c>
+      <c r="O12">
+        <v>0.95</v>
+      </c>
+      <c r="P12">
+        <v>0.95</v>
+      </c>
+      <c r="Q12">
+        <v>0.95</v>
+      </c>
+      <c r="R12">
+        <v>0.95</v>
+      </c>
+      <c r="S12">
+        <v>0.95</v>
+      </c>
+      <c r="T12">
+        <v>0.95</v>
+      </c>
+      <c r="U12">
+        <v>0.95</v>
+      </c>
+      <c r="V12">
+        <v>0.95</v>
+      </c>
+      <c r="W12">
+        <v>0.95</v>
+      </c>
+      <c r="X12">
+        <v>0.95</v>
+      </c>
+      <c r="Y12">
+        <v>0.9499999999999998</v>
+      </c>
+      <c r="Z12">
+        <v>0.95</v>
+      </c>
+      <c r="AA12">
+        <v>0.95</v>
+      </c>
+      <c r="AB12">
+        <v>0.95</v>
+      </c>
+      <c r="AC12">
+        <v>0.95</v>
+      </c>
+      <c r="AD12">
+        <v>0.95</v>
+      </c>
+      <c r="AE12">
+        <v>0.95</v>
+      </c>
+      <c r="AF12">
+        <v>0.95</v>
+      </c>
+      <c r="AG12">
+        <v>0.95</v>
+      </c>
+      <c r="AH12">
+        <v>0.95</v>
+      </c>
+      <c r="AI12">
+        <v>0.95</v>
+      </c>
+      <c r="AJ12">
+        <v>0.95</v>
+      </c>
+      <c r="AK12">
+        <v>0.95</v>
+      </c>
+      <c r="AL12">
+        <v>0.95</v>
+      </c>
+      <c r="AM12">
+        <v>0.95</v>
+      </c>
+      <c r="AN12">
+        <v>0.95</v>
+      </c>
+      <c r="AO12">
+        <v>0.95</v>
+      </c>
+      <c r="AP12">
+        <v>0.95</v>
+      </c>
+      <c r="AQ12">
+        <v>0.95</v>
+      </c>
+      <c r="AR12">
+        <v>0.95</v>
+      </c>
+      <c r="AS12">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -29125,7 +30372,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AS19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29321,73 +30568,73 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9962500000000001</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9924999999999999</v>
+        <v>0.9960869565217392</v>
       </c>
       <c r="X2">
-        <v>0.98875</v>
+        <v>0.9921739130434784</v>
       </c>
       <c r="Y2">
-        <v>0.9850000000000001</v>
+        <v>0.9882608695652174</v>
       </c>
       <c r="Z2">
-        <v>0.98125</v>
+        <v>0.9843478260869565</v>
       </c>
       <c r="AA2">
-        <v>0.9775</v>
+        <v>0.9804347826086957</v>
       </c>
       <c r="AB2">
-        <v>0.9737499999999999</v>
+        <v>0.9765217391304347</v>
       </c>
       <c r="AC2">
-        <v>0.9700000000000001</v>
+        <v>0.9726086956521739</v>
       </c>
       <c r="AD2">
-        <v>0.9662500000000001</v>
+        <v>0.9686956521739131</v>
       </c>
       <c r="AE2">
-        <v>0.9624999999999999</v>
+        <v>0.9647826086956522</v>
       </c>
       <c r="AF2">
-        <v>0.95875</v>
+        <v>0.9608695652173913</v>
       </c>
       <c r="AG2">
-        <v>0.9550000000000001</v>
+        <v>0.9569565217391305</v>
       </c>
       <c r="AH2">
-        <v>0.95125</v>
+        <v>0.9530434782608697</v>
       </c>
       <c r="AI2">
-        <v>0.9475</v>
+        <v>0.9491304347826087</v>
       </c>
       <c r="AJ2">
-        <v>0.94375</v>
+        <v>0.9452173913043478</v>
       </c>
       <c r="AK2">
-        <v>0.9400000000000001</v>
+        <v>0.941304347826087</v>
       </c>
       <c r="AL2">
-        <v>0.93625</v>
+        <v>0.9373913043478261</v>
       </c>
       <c r="AM2">
-        <v>0.9325</v>
+        <v>0.9334782608695652</v>
       </c>
       <c r="AN2">
-        <v>0.9287500000000001</v>
+        <v>0.9295652173913044</v>
       </c>
       <c r="AO2">
-        <v>0.925</v>
+        <v>0.9256521739130436</v>
       </c>
       <c r="AP2">
-        <v>0.92125</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="AQ2">
-        <v>0.9175</v>
+        <v>0.9178260869565218</v>
       </c>
       <c r="AR2">
-        <v>0.9137500000000001</v>
+        <v>0.9139130434782609</v>
       </c>
       <c r="AS2">
         <v>0.91</v>
@@ -29398,10 +30645,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -29410,112 +30657,112 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="K3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="L3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="M3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="N3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="O3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="P3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="Q3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="R3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="S3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="T3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="U3">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="V3">
-        <v>0.1722333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="W3">
-        <v>0.1812666666666667</v>
+        <v>0.03978260869565217</v>
       </c>
       <c r="X3">
-        <v>0.1903</v>
+        <v>0.05956521739130435</v>
       </c>
       <c r="Y3">
-        <v>0.1993333333333333</v>
+        <v>0.07934782608695652</v>
       </c>
       <c r="Z3">
-        <v>0.2083666666666667</v>
+        <v>0.09913043478260869</v>
       </c>
       <c r="AA3">
-        <v>0.2174</v>
+        <v>0.1189130434782609</v>
       </c>
       <c r="AB3">
-        <v>0.2264333333333333</v>
+        <v>0.138695652173913</v>
       </c>
       <c r="AC3">
-        <v>0.2354666666666667</v>
+        <v>0.1584782608695652</v>
       </c>
       <c r="AD3">
-        <v>0.2445</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="AE3">
-        <v>0.2535333333333333</v>
+        <v>0.1980434782608696</v>
       </c>
       <c r="AF3">
-        <v>0.2625666666666667</v>
+        <v>0.2178260869565217</v>
       </c>
       <c r="AG3">
-        <v>0.2716</v>
+        <v>0.2376086956521739</v>
       </c>
       <c r="AH3">
-        <v>0.2806333333333333</v>
+        <v>0.2573913043478261</v>
       </c>
       <c r="AI3">
-        <v>0.2896666666666667</v>
+        <v>0.2771739130434782</v>
       </c>
       <c r="AJ3">
-        <v>0.2987</v>
+        <v>0.2969565217391305</v>
       </c>
       <c r="AK3">
-        <v>0.3077333333333333</v>
+        <v>0.3167391304347826</v>
       </c>
       <c r="AL3">
-        <v>0.3167666666666666</v>
+        <v>0.3365217391304348</v>
       </c>
       <c r="AM3">
-        <v>0.3258</v>
+        <v>0.3563043478260869</v>
       </c>
       <c r="AN3">
-        <v>0.3348333333333334</v>
+        <v>0.3760869565217391</v>
       </c>
       <c r="AO3">
-        <v>0.3438666666666667</v>
+        <v>0.3958695652173913</v>
       </c>
       <c r="AP3">
-        <v>0.3529</v>
+        <v>0.4156521739130434</v>
       </c>
       <c r="AQ3">
-        <v>0.3619333333333333</v>
+        <v>0.4354347826086956</v>
       </c>
       <c r="AR3">
-        <v>0.3709666666666667</v>
+        <v>0.4552173913043478</v>
       </c>
       <c r="AS3">
-        <v>0.38</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -29523,10 +30770,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -29535,112 +30782,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="M4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="O4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="P4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="Q4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="R4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="S4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="T4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="U4">
-        <v>0.1632</v>
+        <v>0.4</v>
       </c>
       <c r="V4">
-        <v>0.1722333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="W4">
-        <v>0.1812666666666667</v>
+        <v>0.4032608695652174</v>
       </c>
       <c r="X4">
-        <v>0.1903</v>
+        <v>0.4065217391304348</v>
       </c>
       <c r="Y4">
-        <v>0.1993333333333333</v>
+        <v>0.4097826086956521</v>
       </c>
       <c r="Z4">
-        <v>0.2083666666666667</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="AA4">
-        <v>0.2174</v>
+        <v>0.4163043478260869</v>
       </c>
       <c r="AB4">
-        <v>0.2264333333333333</v>
+        <v>0.4195652173913044</v>
       </c>
       <c r="AC4">
-        <v>0.2354666666666667</v>
+        <v>0.4228260869565217</v>
       </c>
       <c r="AD4">
-        <v>0.2445</v>
+        <v>0.4260869565217391</v>
       </c>
       <c r="AE4">
-        <v>0.2535333333333333</v>
+        <v>0.4293478260869565</v>
       </c>
       <c r="AF4">
-        <v>0.2625666666666667</v>
+        <v>0.4326086956521739</v>
       </c>
       <c r="AG4">
-        <v>0.2716</v>
+        <v>0.4358695652173913</v>
       </c>
       <c r="AH4">
-        <v>0.2806333333333333</v>
+        <v>0.4391304347826087</v>
       </c>
       <c r="AI4">
-        <v>0.2896666666666667</v>
+        <v>0.442391304347826</v>
       </c>
       <c r="AJ4">
-        <v>0.2987</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="AK4">
-        <v>0.3077333333333333</v>
+        <v>0.4489130434782609</v>
       </c>
       <c r="AL4">
-        <v>0.3167666666666666</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AM4">
-        <v>0.3258</v>
+        <v>0.4554347826086956</v>
       </c>
       <c r="AN4">
-        <v>0.3348333333333334</v>
+        <v>0.4586956521739131</v>
       </c>
       <c r="AO4">
-        <v>0.3438666666666667</v>
+        <v>0.4619565217391304</v>
       </c>
       <c r="AP4">
-        <v>0.3529</v>
+        <v>0.4652173913043478</v>
       </c>
       <c r="AQ4">
-        <v>0.3619333333333333</v>
+        <v>0.4684782608695652</v>
       </c>
       <c r="AR4">
-        <v>0.3709666666666667</v>
+        <v>0.4717391304347826</v>
       </c>
       <c r="AS4">
-        <v>0.38</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -29648,10 +30895,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -29660,112 +30907,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="K5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="L5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="M5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="N5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="O5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="P5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="Q5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="R5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="S5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="T5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="U5">
-        <v>0.1632</v>
+        <v>0.02</v>
       </c>
       <c r="V5">
-        <v>0.1722333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="W5">
-        <v>0.1812666666666667</v>
+        <v>0.03978260869565217</v>
       </c>
       <c r="X5">
-        <v>0.1903</v>
+        <v>0.05956521739130435</v>
       </c>
       <c r="Y5">
-        <v>0.1993333333333333</v>
+        <v>0.07934782608695652</v>
       </c>
       <c r="Z5">
-        <v>0.2083666666666667</v>
+        <v>0.09913043478260869</v>
       </c>
       <c r="AA5">
-        <v>0.2174</v>
+        <v>0.1189130434782609</v>
       </c>
       <c r="AB5">
-        <v>0.2264333333333333</v>
+        <v>0.138695652173913</v>
       </c>
       <c r="AC5">
-        <v>0.2354666666666667</v>
+        <v>0.1584782608695652</v>
       </c>
       <c r="AD5">
-        <v>0.2445</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="AE5">
-        <v>0.2535333333333333</v>
+        <v>0.1980434782608696</v>
       </c>
       <c r="AF5">
-        <v>0.2625666666666667</v>
+        <v>0.2178260869565217</v>
       </c>
       <c r="AG5">
-        <v>0.2716</v>
+        <v>0.2376086956521739</v>
       </c>
       <c r="AH5">
-        <v>0.2806333333333333</v>
+        <v>0.2573913043478261</v>
       </c>
       <c r="AI5">
-        <v>0.2896666666666667</v>
+        <v>0.2771739130434782</v>
       </c>
       <c r="AJ5">
-        <v>0.2987</v>
+        <v>0.2969565217391305</v>
       </c>
       <c r="AK5">
-        <v>0.3077333333333333</v>
+        <v>0.3167391304347826</v>
       </c>
       <c r="AL5">
-        <v>0.3167666666666666</v>
+        <v>0.3365217391304348</v>
       </c>
       <c r="AM5">
-        <v>0.3258</v>
+        <v>0.3563043478260869</v>
       </c>
       <c r="AN5">
-        <v>0.3348333333333334</v>
+        <v>0.3760869565217391</v>
       </c>
       <c r="AO5">
-        <v>0.3438666666666667</v>
+        <v>0.3958695652173913</v>
       </c>
       <c r="AP5">
-        <v>0.3529</v>
+        <v>0.4156521739130434</v>
       </c>
       <c r="AQ5">
-        <v>0.3619333333333333</v>
+        <v>0.4354347826086956</v>
       </c>
       <c r="AR5">
-        <v>0.3709666666666667</v>
+        <v>0.4552173913043478</v>
       </c>
       <c r="AS5">
-        <v>0.38</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -29773,10 +31020,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -29785,112 +31032,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="K6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="L6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="M6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="N6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="O6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="P6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="Q6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="R6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="S6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="T6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="U6">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="V6">
-        <v>0.1722333333333333</v>
+        <v>0.004225</v>
       </c>
       <c r="W6">
-        <v>0.1812666666666667</v>
+        <v>0.02469347826086956</v>
       </c>
       <c r="X6">
-        <v>0.1903</v>
+        <v>0.04516195652173913</v>
       </c>
       <c r="Y6">
-        <v>0.1993333333333333</v>
+        <v>0.06563043478260869</v>
       </c>
       <c r="Z6">
-        <v>0.2083666666666667</v>
+        <v>0.08609891304347826</v>
       </c>
       <c r="AA6">
-        <v>0.2174</v>
+        <v>0.1065673913043478</v>
       </c>
       <c r="AB6">
-        <v>0.2264333333333333</v>
+        <v>0.1270358695652174</v>
       </c>
       <c r="AC6">
-        <v>0.2354666666666667</v>
+        <v>0.147504347826087</v>
       </c>
       <c r="AD6">
-        <v>0.2445</v>
+        <v>0.1679728260869565</v>
       </c>
       <c r="AE6">
-        <v>0.2535333333333333</v>
+        <v>0.1884413043478261</v>
       </c>
       <c r="AF6">
-        <v>0.2625666666666667</v>
+        <v>0.2089097826086956</v>
       </c>
       <c r="AG6">
-        <v>0.2716</v>
+        <v>0.2293782608695652</v>
       </c>
       <c r="AH6">
-        <v>0.2806333333333333</v>
+        <v>0.2498467391304348</v>
       </c>
       <c r="AI6">
-        <v>0.2896666666666667</v>
+        <v>0.2703152173913043</v>
       </c>
       <c r="AJ6">
-        <v>0.2987</v>
+        <v>0.2907836956521739</v>
       </c>
       <c r="AK6">
-        <v>0.3077333333333333</v>
+        <v>0.3112521739130434</v>
       </c>
       <c r="AL6">
-        <v>0.3167666666666666</v>
+        <v>0.331720652173913</v>
       </c>
       <c r="AM6">
-        <v>0.3258</v>
+        <v>0.3521891304347826</v>
       </c>
       <c r="AN6">
-        <v>0.3348333333333334</v>
+        <v>0.3726576086956522</v>
       </c>
       <c r="AO6">
-        <v>0.3438666666666667</v>
+        <v>0.3931260869565217</v>
       </c>
       <c r="AP6">
-        <v>0.3529</v>
+        <v>0.4135945652173912</v>
       </c>
       <c r="AQ6">
-        <v>0.3619333333333333</v>
+        <v>0.4340630434782608</v>
       </c>
       <c r="AR6">
-        <v>0.3709666666666667</v>
+        <v>0.4545315217391304</v>
       </c>
       <c r="AS6">
-        <v>0.38</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -29898,10 +31145,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -29910,112 +31157,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="K7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="L7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="M7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="N7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="O7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="P7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="Q7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="R7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="S7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="T7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="U7">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="V7">
-        <v>0.1722333333333333</v>
+        <v>0.004225</v>
       </c>
       <c r="W7">
-        <v>0.1812666666666667</v>
+        <v>0.02469347826086956</v>
       </c>
       <c r="X7">
-        <v>0.1903</v>
+        <v>0.04516195652173913</v>
       </c>
       <c r="Y7">
-        <v>0.1993333333333333</v>
+        <v>0.06563043478260869</v>
       </c>
       <c r="Z7">
-        <v>0.2083666666666667</v>
+        <v>0.08609891304347826</v>
       </c>
       <c r="AA7">
-        <v>0.2174</v>
+        <v>0.1065673913043478</v>
       </c>
       <c r="AB7">
-        <v>0.2264333333333333</v>
+        <v>0.1270358695652174</v>
       </c>
       <c r="AC7">
-        <v>0.2354666666666667</v>
+        <v>0.147504347826087</v>
       </c>
       <c r="AD7">
-        <v>0.2445</v>
+        <v>0.1679728260869565</v>
       </c>
       <c r="AE7">
-        <v>0.2535333333333333</v>
+        <v>0.1884413043478261</v>
       </c>
       <c r="AF7">
-        <v>0.2625666666666667</v>
+        <v>0.2089097826086956</v>
       </c>
       <c r="AG7">
-        <v>0.2716</v>
+        <v>0.2293782608695652</v>
       </c>
       <c r="AH7">
-        <v>0.2806333333333333</v>
+        <v>0.2498467391304348</v>
       </c>
       <c r="AI7">
-        <v>0.2896666666666667</v>
+        <v>0.2703152173913043</v>
       </c>
       <c r="AJ7">
-        <v>0.2987</v>
+        <v>0.2907836956521739</v>
       </c>
       <c r="AK7">
-        <v>0.3077333333333333</v>
+        <v>0.3112521739130434</v>
       </c>
       <c r="AL7">
-        <v>0.3167666666666666</v>
+        <v>0.331720652173913</v>
       </c>
       <c r="AM7">
-        <v>0.3258</v>
+        <v>0.3521891304347826</v>
       </c>
       <c r="AN7">
-        <v>0.3348333333333334</v>
+        <v>0.3726576086956522</v>
       </c>
       <c r="AO7">
-        <v>0.3438666666666667</v>
+        <v>0.3931260869565217</v>
       </c>
       <c r="AP7">
-        <v>0.3529</v>
+        <v>0.4135945652173912</v>
       </c>
       <c r="AQ7">
-        <v>0.3619333333333333</v>
+        <v>0.4340630434782608</v>
       </c>
       <c r="AR7">
-        <v>0.3709666666666667</v>
+        <v>0.4545315217391304</v>
       </c>
       <c r="AS7">
-        <v>0.38</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -30023,10 +31270,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -30035,112 +31282,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="K8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="L8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="M8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="N8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="O8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="P8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="Q8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="R8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="S8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="T8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="U8">
-        <v>0.1632</v>
+        <v>0.004225</v>
       </c>
       <c r="V8">
-        <v>0.1722333333333333</v>
+        <v>0.004225</v>
       </c>
       <c r="W8">
-        <v>0.1812666666666667</v>
+        <v>0.02469347826086956</v>
       </c>
       <c r="X8">
-        <v>0.1903</v>
+        <v>0.04516195652173913</v>
       </c>
       <c r="Y8">
-        <v>0.1993333333333333</v>
+        <v>0.06563043478260869</v>
       </c>
       <c r="Z8">
-        <v>0.2083666666666667</v>
+        <v>0.08609891304347826</v>
       </c>
       <c r="AA8">
-        <v>0.2174</v>
+        <v>0.1065673913043478</v>
       </c>
       <c r="AB8">
-        <v>0.2264333333333333</v>
+        <v>0.1270358695652174</v>
       </c>
       <c r="AC8">
-        <v>0.2354666666666667</v>
+        <v>0.147504347826087</v>
       </c>
       <c r="AD8">
-        <v>0.2445</v>
+        <v>0.1679728260869565</v>
       </c>
       <c r="AE8">
-        <v>0.2535333333333333</v>
+        <v>0.1884413043478261</v>
       </c>
       <c r="AF8">
-        <v>0.2625666666666667</v>
+        <v>0.2089097826086956</v>
       </c>
       <c r="AG8">
-        <v>0.2716</v>
+        <v>0.2293782608695652</v>
       </c>
       <c r="AH8">
-        <v>0.2806333333333333</v>
+        <v>0.2498467391304348</v>
       </c>
       <c r="AI8">
-        <v>0.2896666666666667</v>
+        <v>0.2703152173913043</v>
       </c>
       <c r="AJ8">
-        <v>0.2987</v>
+        <v>0.2907836956521739</v>
       </c>
       <c r="AK8">
-        <v>0.3077333333333333</v>
+        <v>0.3112521739130434</v>
       </c>
       <c r="AL8">
-        <v>0.3167666666666666</v>
+        <v>0.331720652173913</v>
       </c>
       <c r="AM8">
-        <v>0.3258</v>
+        <v>0.3521891304347826</v>
       </c>
       <c r="AN8">
-        <v>0.3348333333333334</v>
+        <v>0.3726576086956522</v>
       </c>
       <c r="AO8">
-        <v>0.3438666666666667</v>
+        <v>0.3931260869565217</v>
       </c>
       <c r="AP8">
-        <v>0.3529</v>
+        <v>0.4135945652173912</v>
       </c>
       <c r="AQ8">
-        <v>0.3619333333333333</v>
+        <v>0.4340630434782608</v>
       </c>
       <c r="AR8">
-        <v>0.3709666666666667</v>
+        <v>0.4545315217391304</v>
       </c>
       <c r="AS8">
-        <v>0.38</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -30148,124 +31395,1371 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="K9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="L9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="M9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="N9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="O9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="P9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="Q9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="R9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="S9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="T9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="U9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="V9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="W9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="X9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="Y9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="Z9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AA9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AB9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AC9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AD9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AE9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AF9">
+        <v>0.4443901868737681</v>
+      </c>
+      <c r="AG9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AH9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AI9">
+        <v>0.4443901868737681</v>
+      </c>
+      <c r="AJ9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AK9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AL9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AM9">
+        <v>0.4443901868737681</v>
+      </c>
+      <c r="AN9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AO9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AP9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AQ9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AR9">
+        <v>0.444390186873768</v>
+      </c>
+      <c r="AS9">
+        <v>0.444390186873768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="K10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="L10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="M10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="N10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="O10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="P10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="Q10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="R10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="S10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="T10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="U10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="V10">
+        <v>0.503747507293613</v>
+      </c>
+      <c r="W10">
+        <v>0.5035845721938906</v>
+      </c>
+      <c r="X10">
+        <v>0.5034216370941684</v>
+      </c>
+      <c r="Y10">
+        <v>0.503258701994446</v>
+      </c>
+      <c r="Z10">
+        <v>0.5030957668947238</v>
+      </c>
+      <c r="AA10">
+        <v>0.5029328317950015</v>
+      </c>
+      <c r="AB10">
+        <v>0.5027698966952792</v>
+      </c>
+      <c r="AC10">
+        <v>0.5026069615955568</v>
+      </c>
+      <c r="AD10">
+        <v>0.5024440264958345</v>
+      </c>
+      <c r="AE10">
+        <v>0.5022810913961122</v>
+      </c>
+      <c r="AF10">
+        <v>0.50211815629639</v>
+      </c>
+      <c r="AG10">
+        <v>0.5019552211966676</v>
+      </c>
+      <c r="AH10">
+        <v>0.5017922860969453</v>
+      </c>
+      <c r="AI10">
+        <v>0.5016293509972231</v>
+      </c>
+      <c r="AJ10">
+        <v>0.5014664158975007</v>
+      </c>
+      <c r="AK10">
+        <v>0.5013034807977784</v>
+      </c>
+      <c r="AL10">
+        <v>0.5011405456980561</v>
+      </c>
+      <c r="AM10">
+        <v>0.5009776105983338</v>
+      </c>
+      <c r="AN10">
+        <v>0.5008146754986115</v>
+      </c>
+      <c r="AO10">
+        <v>0.5006517403988893</v>
+      </c>
+      <c r="AP10">
+        <v>0.500488805299167</v>
+      </c>
+      <c r="AQ10">
+        <v>0.5003258701994446</v>
+      </c>
+      <c r="AR10">
+        <v>0.5001629350997223</v>
+      </c>
+      <c r="AS10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="K11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="L11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="M11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="N11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="O11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="P11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="Q11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="R11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="S11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="T11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="U11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="V11">
+        <v>0.352758653217654</v>
+      </c>
+      <c r="W11">
+        <v>0.3529215883173762</v>
+      </c>
+      <c r="X11">
+        <v>0.3530845234170986</v>
+      </c>
+      <c r="Y11">
+        <v>0.3532474585168209</v>
+      </c>
+      <c r="Z11">
+        <v>0.3534103936165432</v>
+      </c>
+      <c r="AA11">
+        <v>0.3535733287162655</v>
+      </c>
+      <c r="AB11">
+        <v>0.3537362638159878</v>
+      </c>
+      <c r="AC11">
+        <v>0.3538991989157101</v>
+      </c>
+      <c r="AD11">
+        <v>0.3540621340154324</v>
+      </c>
+      <c r="AE11">
+        <v>0.3542250691151547</v>
+      </c>
+      <c r="AF11">
+        <v>0.354388004214877</v>
+      </c>
+      <c r="AG11">
+        <v>0.3545509393145994</v>
+      </c>
+      <c r="AH11">
+        <v>0.3547138744143216</v>
+      </c>
+      <c r="AI11">
+        <v>0.3548768095140439</v>
+      </c>
+      <c r="AJ11">
+        <v>0.3550397446137663</v>
+      </c>
+      <c r="AK11">
+        <v>0.3552026797134885</v>
+      </c>
+      <c r="AL11">
+        <v>0.3553656148132108</v>
+      </c>
+      <c r="AM11">
+        <v>0.3555285499129331</v>
+      </c>
+      <c r="AN11">
+        <v>0.3556914850126555</v>
+      </c>
+      <c r="AO11">
+        <v>0.3558544201123778</v>
+      </c>
+      <c r="AP11">
+        <v>0.3560173552121</v>
+      </c>
+      <c r="AQ11">
+        <v>0.3561802903118224</v>
+      </c>
+      <c r="AR11">
+        <v>0.3563432254115447</v>
+      </c>
+      <c r="AS11">
+        <v>0.356506160511267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.1632</v>
+      </c>
+      <c r="K12">
+        <v>0.1632</v>
+      </c>
+      <c r="L12">
+        <v>0.1632</v>
+      </c>
+      <c r="M12">
+        <v>0.1632</v>
+      </c>
+      <c r="N12">
+        <v>0.1632</v>
+      </c>
+      <c r="O12">
+        <v>0.1632</v>
+      </c>
+      <c r="P12">
+        <v>0.1632</v>
+      </c>
+      <c r="Q12">
+        <v>0.1632</v>
+      </c>
+      <c r="R12">
+        <v>0.1632</v>
+      </c>
+      <c r="S12">
+        <v>0.1632</v>
+      </c>
+      <c r="T12">
+        <v>0.1632</v>
+      </c>
+      <c r="U12">
+        <v>0.1632</v>
+      </c>
+      <c r="V12">
+        <v>0.1632</v>
+      </c>
+      <c r="W12">
+        <v>0.1726260869565218</v>
+      </c>
+      <c r="X12">
+        <v>0.1820521739130435</v>
+      </c>
+      <c r="Y12">
+        <v>0.1914782608695652</v>
+      </c>
+      <c r="Z12">
+        <v>0.200904347826087</v>
+      </c>
+      <c r="AA12">
+        <v>0.2103304347826087</v>
+      </c>
+      <c r="AB12">
+        <v>0.2197565217391304</v>
+      </c>
+      <c r="AC12">
+        <v>0.2291826086956522</v>
+      </c>
+      <c r="AD12">
+        <v>0.2386086956521739</v>
+      </c>
+      <c r="AE12">
+        <v>0.2480347826086957</v>
+      </c>
+      <c r="AF12">
+        <v>0.2574608695652174</v>
+      </c>
+      <c r="AG12">
+        <v>0.2668869565217392</v>
+      </c>
+      <c r="AH12">
+        <v>0.2763130434782609</v>
+      </c>
+      <c r="AI12">
+        <v>0.2857391304347826</v>
+      </c>
+      <c r="AJ12">
+        <v>0.2951652173913044</v>
+      </c>
+      <c r="AK12">
+        <v>0.3045913043478261</v>
+      </c>
+      <c r="AL12">
+        <v>0.3140173913043478</v>
+      </c>
+      <c r="AM12">
+        <v>0.3234434782608696</v>
+      </c>
+      <c r="AN12">
+        <v>0.3328695652173914</v>
+      </c>
+      <c r="AO12">
+        <v>0.3422956521739131</v>
+      </c>
+      <c r="AP12">
+        <v>0.3517217391304348</v>
+      </c>
+      <c r="AQ12">
+        <v>0.3611478260869566</v>
+      </c>
+      <c r="AR12">
+        <v>0.3705739130434783</v>
+      </c>
+      <c r="AS12">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.1632</v>
+      </c>
+      <c r="K13">
+        <v>0.1632</v>
+      </c>
+      <c r="L13">
+        <v>0.1632</v>
+      </c>
+      <c r="M13">
+        <v>0.1632</v>
+      </c>
+      <c r="N13">
+        <v>0.1632</v>
+      </c>
+      <c r="O13">
+        <v>0.1632</v>
+      </c>
+      <c r="P13">
+        <v>0.1632</v>
+      </c>
+      <c r="Q13">
+        <v>0.1632</v>
+      </c>
+      <c r="R13">
+        <v>0.1632</v>
+      </c>
+      <c r="S13">
+        <v>0.1632</v>
+      </c>
+      <c r="T13">
+        <v>0.1632</v>
+      </c>
+      <c r="U13">
+        <v>0.1632</v>
+      </c>
+      <c r="V13">
+        <v>0.1632</v>
+      </c>
+      <c r="W13">
+        <v>0.1726260869565218</v>
+      </c>
+      <c r="X13">
+        <v>0.1820521739130435</v>
+      </c>
+      <c r="Y13">
+        <v>0.1914782608695652</v>
+      </c>
+      <c r="Z13">
+        <v>0.200904347826087</v>
+      </c>
+      <c r="AA13">
+        <v>0.2103304347826087</v>
+      </c>
+      <c r="AB13">
+        <v>0.2197565217391304</v>
+      </c>
+      <c r="AC13">
+        <v>0.2291826086956522</v>
+      </c>
+      <c r="AD13">
+        <v>0.2386086956521739</v>
+      </c>
+      <c r="AE13">
+        <v>0.2480347826086957</v>
+      </c>
+      <c r="AF13">
+        <v>0.2574608695652174</v>
+      </c>
+      <c r="AG13">
+        <v>0.2668869565217392</v>
+      </c>
+      <c r="AH13">
+        <v>0.2763130434782609</v>
+      </c>
+      <c r="AI13">
+        <v>0.2857391304347826</v>
+      </c>
+      <c r="AJ13">
+        <v>0.2951652173913044</v>
+      </c>
+      <c r="AK13">
+        <v>0.3045913043478261</v>
+      </c>
+      <c r="AL13">
+        <v>0.3140173913043478</v>
+      </c>
+      <c r="AM13">
+        <v>0.3234434782608696</v>
+      </c>
+      <c r="AN13">
+        <v>0.3328695652173914</v>
+      </c>
+      <c r="AO13">
+        <v>0.3422956521739131</v>
+      </c>
+      <c r="AP13">
+        <v>0.3517217391304348</v>
+      </c>
+      <c r="AQ13">
+        <v>0.3611478260869566</v>
+      </c>
+      <c r="AR13">
+        <v>0.3705739130434783</v>
+      </c>
+      <c r="AS13">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.1632</v>
+      </c>
+      <c r="K14">
+        <v>0.1632</v>
+      </c>
+      <c r="L14">
+        <v>0.1632</v>
+      </c>
+      <c r="M14">
+        <v>0.1632</v>
+      </c>
+      <c r="N14">
+        <v>0.1632</v>
+      </c>
+      <c r="O14">
+        <v>0.1632</v>
+      </c>
+      <c r="P14">
+        <v>0.1632</v>
+      </c>
+      <c r="Q14">
+        <v>0.1632</v>
+      </c>
+      <c r="R14">
+        <v>0.1632</v>
+      </c>
+      <c r="S14">
+        <v>0.1632</v>
+      </c>
+      <c r="T14">
+        <v>0.1632</v>
+      </c>
+      <c r="U14">
+        <v>0.1632</v>
+      </c>
+      <c r="V14">
+        <v>0.1632</v>
+      </c>
+      <c r="W14">
+        <v>0.1726260869565218</v>
+      </c>
+      <c r="X14">
+        <v>0.1820521739130435</v>
+      </c>
+      <c r="Y14">
+        <v>0.1914782608695652</v>
+      </c>
+      <c r="Z14">
+        <v>0.200904347826087</v>
+      </c>
+      <c r="AA14">
+        <v>0.2103304347826087</v>
+      </c>
+      <c r="AB14">
+        <v>0.2197565217391304</v>
+      </c>
+      <c r="AC14">
+        <v>0.2291826086956522</v>
+      </c>
+      <c r="AD14">
+        <v>0.2386086956521739</v>
+      </c>
+      <c r="AE14">
+        <v>0.2480347826086957</v>
+      </c>
+      <c r="AF14">
+        <v>0.2574608695652174</v>
+      </c>
+      <c r="AG14">
+        <v>0.2668869565217392</v>
+      </c>
+      <c r="AH14">
+        <v>0.2763130434782609</v>
+      </c>
+      <c r="AI14">
+        <v>0.2857391304347826</v>
+      </c>
+      <c r="AJ14">
+        <v>0.2951652173913044</v>
+      </c>
+      <c r="AK14">
+        <v>0.3045913043478261</v>
+      </c>
+      <c r="AL14">
+        <v>0.3140173913043478</v>
+      </c>
+      <c r="AM14">
+        <v>0.3234434782608696</v>
+      </c>
+      <c r="AN14">
+        <v>0.3328695652173914</v>
+      </c>
+      <c r="AO14">
+        <v>0.3422956521739131</v>
+      </c>
+      <c r="AP14">
+        <v>0.3517217391304348</v>
+      </c>
+      <c r="AQ14">
+        <v>0.3611478260869566</v>
+      </c>
+      <c r="AR14">
+        <v>0.3705739130434783</v>
+      </c>
+      <c r="AS14">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.1632</v>
+      </c>
+      <c r="K15">
+        <v>0.1632</v>
+      </c>
+      <c r="L15">
+        <v>0.1632</v>
+      </c>
+      <c r="M15">
+        <v>0.1632</v>
+      </c>
+      <c r="N15">
+        <v>0.1632</v>
+      </c>
+      <c r="O15">
+        <v>0.1632</v>
+      </c>
+      <c r="P15">
+        <v>0.1632</v>
+      </c>
+      <c r="Q15">
+        <v>0.1632</v>
+      </c>
+      <c r="R15">
+        <v>0.1632</v>
+      </c>
+      <c r="S15">
+        <v>0.1632</v>
+      </c>
+      <c r="T15">
+        <v>0.1632</v>
+      </c>
+      <c r="U15">
+        <v>0.1632</v>
+      </c>
+      <c r="V15">
+        <v>0.1632</v>
+      </c>
+      <c r="W15">
+        <v>0.1726260869565218</v>
+      </c>
+      <c r="X15">
+        <v>0.1820521739130435</v>
+      </c>
+      <c r="Y15">
+        <v>0.1914782608695652</v>
+      </c>
+      <c r="Z15">
+        <v>0.200904347826087</v>
+      </c>
+      <c r="AA15">
+        <v>0.2103304347826087</v>
+      </c>
+      <c r="AB15">
+        <v>0.2197565217391304</v>
+      </c>
+      <c r="AC15">
+        <v>0.2291826086956522</v>
+      </c>
+      <c r="AD15">
+        <v>0.2386086956521739</v>
+      </c>
+      <c r="AE15">
+        <v>0.2480347826086957</v>
+      </c>
+      <c r="AF15">
+        <v>0.2574608695652174</v>
+      </c>
+      <c r="AG15">
+        <v>0.2668869565217392</v>
+      </c>
+      <c r="AH15">
+        <v>0.2763130434782609</v>
+      </c>
+      <c r="AI15">
+        <v>0.2857391304347826</v>
+      </c>
+      <c r="AJ15">
+        <v>0.2951652173913044</v>
+      </c>
+      <c r="AK15">
+        <v>0.3045913043478261</v>
+      </c>
+      <c r="AL15">
+        <v>0.3140173913043478</v>
+      </c>
+      <c r="AM15">
+        <v>0.3234434782608696</v>
+      </c>
+      <c r="AN15">
+        <v>0.3328695652173914</v>
+      </c>
+      <c r="AO15">
+        <v>0.3422956521739131</v>
+      </c>
+      <c r="AP15">
+        <v>0.3517217391304348</v>
+      </c>
+      <c r="AQ15">
+        <v>0.3611478260869566</v>
+      </c>
+      <c r="AR15">
+        <v>0.3705739130434783</v>
+      </c>
+      <c r="AS15">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.1632</v>
+      </c>
+      <c r="K16">
+        <v>0.1632</v>
+      </c>
+      <c r="L16">
+        <v>0.1632</v>
+      </c>
+      <c r="M16">
+        <v>0.1632</v>
+      </c>
+      <c r="N16">
+        <v>0.1632</v>
+      </c>
+      <c r="O16">
+        <v>0.1632</v>
+      </c>
+      <c r="P16">
+        <v>0.1632</v>
+      </c>
+      <c r="Q16">
+        <v>0.1632</v>
+      </c>
+      <c r="R16">
+        <v>0.1632</v>
+      </c>
+      <c r="S16">
+        <v>0.1632</v>
+      </c>
+      <c r="T16">
+        <v>0.1632</v>
+      </c>
+      <c r="U16">
+        <v>0.1632</v>
+      </c>
+      <c r="V16">
+        <v>0.1632</v>
+      </c>
+      <c r="W16">
+        <v>0.1726260869565218</v>
+      </c>
+      <c r="X16">
+        <v>0.1820521739130435</v>
+      </c>
+      <c r="Y16">
+        <v>0.1914782608695652</v>
+      </c>
+      <c r="Z16">
+        <v>0.200904347826087</v>
+      </c>
+      <c r="AA16">
+        <v>0.2103304347826087</v>
+      </c>
+      <c r="AB16">
+        <v>0.2197565217391304</v>
+      </c>
+      <c r="AC16">
+        <v>0.2291826086956522</v>
+      </c>
+      <c r="AD16">
+        <v>0.2386086956521739</v>
+      </c>
+      <c r="AE16">
+        <v>0.2480347826086957</v>
+      </c>
+      <c r="AF16">
+        <v>0.2574608695652174</v>
+      </c>
+      <c r="AG16">
+        <v>0.2668869565217392</v>
+      </c>
+      <c r="AH16">
+        <v>0.2763130434782609</v>
+      </c>
+      <c r="AI16">
+        <v>0.2857391304347826</v>
+      </c>
+      <c r="AJ16">
+        <v>0.2951652173913044</v>
+      </c>
+      <c r="AK16">
+        <v>0.3045913043478261</v>
+      </c>
+      <c r="AL16">
+        <v>0.3140173913043478</v>
+      </c>
+      <c r="AM16">
+        <v>0.3234434782608696</v>
+      </c>
+      <c r="AN16">
+        <v>0.3328695652173914</v>
+      </c>
+      <c r="AO16">
+        <v>0.3422956521739131</v>
+      </c>
+      <c r="AP16">
+        <v>0.3517217391304348</v>
+      </c>
+      <c r="AQ16">
+        <v>0.3611478260869566</v>
+      </c>
+      <c r="AR16">
+        <v>0.3705739130434783</v>
+      </c>
+      <c r="AS16">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.1632</v>
+      </c>
+      <c r="K17">
+        <v>0.1632</v>
+      </c>
+      <c r="L17">
+        <v>0.1632</v>
+      </c>
+      <c r="M17">
+        <v>0.1632</v>
+      </c>
+      <c r="N17">
+        <v>0.1632</v>
+      </c>
+      <c r="O17">
+        <v>0.1632</v>
+      </c>
+      <c r="P17">
+        <v>0.1632</v>
+      </c>
+      <c r="Q17">
+        <v>0.1632</v>
+      </c>
+      <c r="R17">
+        <v>0.1632</v>
+      </c>
+      <c r="S17">
+        <v>0.1632</v>
+      </c>
+      <c r="T17">
+        <v>0.1632</v>
+      </c>
+      <c r="U17">
+        <v>0.1632</v>
+      </c>
+      <c r="V17">
+        <v>0.1632</v>
+      </c>
+      <c r="W17">
+        <v>0.1726260869565218</v>
+      </c>
+      <c r="X17">
+        <v>0.1820521739130435</v>
+      </c>
+      <c r="Y17">
+        <v>0.1914782608695652</v>
+      </c>
+      <c r="Z17">
+        <v>0.200904347826087</v>
+      </c>
+      <c r="AA17">
+        <v>0.2103304347826087</v>
+      </c>
+      <c r="AB17">
+        <v>0.2197565217391304</v>
+      </c>
+      <c r="AC17">
+        <v>0.2291826086956522</v>
+      </c>
+      <c r="AD17">
+        <v>0.2386086956521739</v>
+      </c>
+      <c r="AE17">
+        <v>0.2480347826086957</v>
+      </c>
+      <c r="AF17">
+        <v>0.2574608695652174</v>
+      </c>
+      <c r="AG17">
+        <v>0.2668869565217392</v>
+      </c>
+      <c r="AH17">
+        <v>0.2763130434782609</v>
+      </c>
+      <c r="AI17">
+        <v>0.2857391304347826</v>
+      </c>
+      <c r="AJ17">
+        <v>0.2951652173913044</v>
+      </c>
+      <c r="AK17">
+        <v>0.3045913043478261</v>
+      </c>
+      <c r="AL17">
+        <v>0.3140173913043478</v>
+      </c>
+      <c r="AM17">
+        <v>0.3234434782608696</v>
+      </c>
+      <c r="AN17">
+        <v>0.3328695652173914</v>
+      </c>
+      <c r="AO17">
+        <v>0.3422956521739131</v>
+      </c>
+      <c r="AP17">
+        <v>0.3517217391304348</v>
+      </c>
+      <c r="AQ17">
+        <v>0.3611478260869566</v>
+      </c>
+      <c r="AR17">
+        <v>0.3705739130434783</v>
+      </c>
+      <c r="AS17">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
         <v>156</v>
       </c>
-      <c r="C9">
+      <c r="C18">
         <v>23</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.1632</v>
-      </c>
-      <c r="K9">
-        <v>0.1632</v>
-      </c>
-      <c r="L9">
-        <v>0.1632</v>
-      </c>
-      <c r="M9">
-        <v>0.1632</v>
-      </c>
-      <c r="N9">
-        <v>0.1632</v>
-      </c>
-      <c r="O9">
-        <v>0.1632</v>
-      </c>
-      <c r="P9">
-        <v>0.1632</v>
-      </c>
-      <c r="Q9">
-        <v>0.1632</v>
-      </c>
-      <c r="R9">
-        <v>0.1632</v>
-      </c>
-      <c r="S9">
-        <v>0.1632</v>
-      </c>
-      <c r="T9">
-        <v>0.1632</v>
-      </c>
-      <c r="U9">
-        <v>0.1632</v>
-      </c>
-      <c r="V9">
-        <v>0.1722333333333333</v>
-      </c>
-      <c r="W9">
-        <v>0.1812666666666667</v>
-      </c>
-      <c r="X9">
-        <v>0.1903</v>
-      </c>
-      <c r="Y9">
-        <v>0.1993333333333333</v>
-      </c>
-      <c r="Z9">
-        <v>0.2083666666666667</v>
-      </c>
-      <c r="AA9">
-        <v>0.2174</v>
-      </c>
-      <c r="AB9">
-        <v>0.2264333333333333</v>
-      </c>
-      <c r="AC9">
-        <v>0.2354666666666667</v>
-      </c>
-      <c r="AD9">
-        <v>0.2445</v>
-      </c>
-      <c r="AE9">
-        <v>0.2535333333333333</v>
-      </c>
-      <c r="AF9">
-        <v>0.2625666666666667</v>
-      </c>
-      <c r="AG9">
-        <v>0.2716</v>
-      </c>
-      <c r="AH9">
-        <v>0.2806333333333333</v>
-      </c>
-      <c r="AI9">
-        <v>0.2896666666666667</v>
-      </c>
-      <c r="AJ9">
-        <v>0.2987</v>
-      </c>
-      <c r="AK9">
-        <v>0.3077333333333333</v>
-      </c>
-      <c r="AL9">
-        <v>0.3167666666666666</v>
-      </c>
-      <c r="AM9">
-        <v>0.3258</v>
-      </c>
-      <c r="AN9">
-        <v>0.3348333333333334</v>
-      </c>
-      <c r="AO9">
-        <v>0.3438666666666667</v>
-      </c>
-      <c r="AP9">
-        <v>0.3529</v>
-      </c>
-      <c r="AQ9">
-        <v>0.3619333333333333</v>
-      </c>
-      <c r="AR9">
-        <v>0.3709666666666667</v>
-      </c>
-      <c r="AS9">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.1632</v>
+      </c>
+      <c r="K18">
+        <v>0.1632</v>
+      </c>
+      <c r="L18">
+        <v>0.1632</v>
+      </c>
+      <c r="M18">
+        <v>0.1632</v>
+      </c>
+      <c r="N18">
+        <v>0.1632</v>
+      </c>
+      <c r="O18">
+        <v>0.1632</v>
+      </c>
+      <c r="P18">
+        <v>0.1632</v>
+      </c>
+      <c r="Q18">
+        <v>0.1632</v>
+      </c>
+      <c r="R18">
+        <v>0.1632</v>
+      </c>
+      <c r="S18">
+        <v>0.1632</v>
+      </c>
+      <c r="T18">
+        <v>0.1632</v>
+      </c>
+      <c r="U18">
+        <v>0.1632</v>
+      </c>
+      <c r="V18">
+        <v>0.1632</v>
+      </c>
+      <c r="W18">
+        <v>0.1726260869565218</v>
+      </c>
+      <c r="X18">
+        <v>0.1820521739130435</v>
+      </c>
+      <c r="Y18">
+        <v>0.1914782608695652</v>
+      </c>
+      <c r="Z18">
+        <v>0.200904347826087</v>
+      </c>
+      <c r="AA18">
+        <v>0.2103304347826087</v>
+      </c>
+      <c r="AB18">
+        <v>0.2197565217391304</v>
+      </c>
+      <c r="AC18">
+        <v>0.2291826086956522</v>
+      </c>
+      <c r="AD18">
+        <v>0.2386086956521739</v>
+      </c>
+      <c r="AE18">
+        <v>0.2480347826086957</v>
+      </c>
+      <c r="AF18">
+        <v>0.2574608695652174</v>
+      </c>
+      <c r="AG18">
+        <v>0.2668869565217392</v>
+      </c>
+      <c r="AH18">
+        <v>0.2763130434782609</v>
+      </c>
+      <c r="AI18">
+        <v>0.2857391304347826</v>
+      </c>
+      <c r="AJ18">
+        <v>0.2951652173913044</v>
+      </c>
+      <c r="AK18">
+        <v>0.3045913043478261</v>
+      </c>
+      <c r="AL18">
+        <v>0.3140173913043478</v>
+      </c>
+      <c r="AM18">
+        <v>0.3234434782608696</v>
+      </c>
+      <c r="AN18">
+        <v>0.3328695652173914</v>
+      </c>
+      <c r="AO18">
+        <v>0.3422956521739131</v>
+      </c>
+      <c r="AP18">
+        <v>0.3517217391304348</v>
+      </c>
+      <c r="AQ18">
+        <v>0.3611478260869566</v>
+      </c>
+      <c r="AR18">
+        <v>0.3705739130434783</v>
+      </c>
+      <c r="AS18">
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.95</v>
+      </c>
+      <c r="K19">
+        <v>0.95</v>
+      </c>
+      <c r="L19">
+        <v>0.95</v>
+      </c>
+      <c r="M19">
+        <v>0.95</v>
+      </c>
+      <c r="N19">
+        <v>0.95</v>
+      </c>
+      <c r="O19">
+        <v>0.95</v>
+      </c>
+      <c r="P19">
+        <v>0.95</v>
+      </c>
+      <c r="Q19">
+        <v>0.95</v>
+      </c>
+      <c r="R19">
+        <v>0.95</v>
+      </c>
+      <c r="S19">
+        <v>0.95</v>
+      </c>
+      <c r="T19">
+        <v>0.95</v>
+      </c>
+      <c r="U19">
+        <v>0.95</v>
+      </c>
+      <c r="V19">
+        <v>0.95</v>
+      </c>
+      <c r="W19">
+        <v>0.95</v>
+      </c>
+      <c r="X19">
+        <v>0.95</v>
+      </c>
+      <c r="Y19">
+        <v>0.9499999999999998</v>
+      </c>
+      <c r="Z19">
+        <v>0.95</v>
+      </c>
+      <c r="AA19">
+        <v>0.95</v>
+      </c>
+      <c r="AB19">
+        <v>0.95</v>
+      </c>
+      <c r="AC19">
+        <v>0.95</v>
+      </c>
+      <c r="AD19">
+        <v>0.95</v>
+      </c>
+      <c r="AE19">
+        <v>0.95</v>
+      </c>
+      <c r="AF19">
+        <v>0.95</v>
+      </c>
+      <c r="AG19">
+        <v>0.95</v>
+      </c>
+      <c r="AH19">
+        <v>0.95</v>
+      </c>
+      <c r="AI19">
+        <v>0.95</v>
+      </c>
+      <c r="AJ19">
+        <v>0.95</v>
+      </c>
+      <c r="AK19">
+        <v>0.95</v>
+      </c>
+      <c r="AL19">
+        <v>0.95</v>
+      </c>
+      <c r="AM19">
+        <v>0.95</v>
+      </c>
+      <c r="AN19">
+        <v>0.95</v>
+      </c>
+      <c r="AO19">
+        <v>0.95</v>
+      </c>
+      <c r="AP19">
+        <v>0.95</v>
+      </c>
+      <c r="AQ19">
+        <v>0.95</v>
+      </c>
+      <c r="AR19">
+        <v>0.95</v>
+      </c>
+      <c r="AS19">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -30471,73 +32965,73 @@
         <v>0.210900585996805</v>
       </c>
       <c r="V2">
-        <v>0.2021130615802715</v>
+        <v>0.210900585996805</v>
       </c>
       <c r="W2">
-        <v>0.1933255371637379</v>
+        <v>0.2017309953012917</v>
       </c>
       <c r="X2">
-        <v>0.1845380127472044</v>
+        <v>0.1925614046057785</v>
       </c>
       <c r="Y2">
-        <v>0.1757504883306708</v>
+        <v>0.1833918139102652</v>
       </c>
       <c r="Z2">
-        <v>0.1669629639141373</v>
+        <v>0.1742222232147519</v>
       </c>
       <c r="AA2">
-        <v>0.1581754394976038</v>
+        <v>0.1650526325192387</v>
       </c>
       <c r="AB2">
-        <v>0.1493879150810702</v>
+        <v>0.1558830418237254</v>
       </c>
       <c r="AC2">
-        <v>0.1406003906645367</v>
+        <v>0.1467134511282122</v>
       </c>
       <c r="AD2">
-        <v>0.1318128662480031</v>
+        <v>0.1375438604326989</v>
       </c>
       <c r="AE2">
-        <v>0.1230253418314696</v>
+        <v>0.1283742697371857</v>
       </c>
       <c r="AF2">
-        <v>0.1142378174149361</v>
+        <v>0.1192046790416724</v>
       </c>
       <c r="AG2">
-        <v>0.1054502929984025</v>
+        <v>0.1100350883461591</v>
       </c>
       <c r="AH2">
-        <v>0.09666276858186897</v>
+        <v>0.1008654976506459</v>
       </c>
       <c r="AI2">
-        <v>0.0878752441653354</v>
+        <v>0.09169590695513262</v>
       </c>
       <c r="AJ2">
-        <v>0.07908771974880188</v>
+        <v>0.08252631625961934</v>
       </c>
       <c r="AK2">
-        <v>0.07030019533226835</v>
+        <v>0.07335672556410608</v>
       </c>
       <c r="AL2">
-        <v>0.06151267091573479</v>
+        <v>0.06418713486859283</v>
       </c>
       <c r="AM2">
-        <v>0.05272514649920125</v>
+        <v>0.05501754417307957</v>
       </c>
       <c r="AN2">
-        <v>0.04393762208266772</v>
+        <v>0.0458479534775663</v>
       </c>
       <c r="AO2">
-        <v>0.03515009766613416</v>
+        <v>0.03667836278205304</v>
       </c>
       <c r="AP2">
-        <v>0.02636257324960063</v>
+        <v>0.02750877208653979</v>
       </c>
       <c r="AQ2">
-        <v>0.01757504883306709</v>
+        <v>0.01833918139102653</v>
       </c>
       <c r="AR2">
-        <v>0.008787524416533535</v>
+        <v>0.009169590695513255</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -30596,73 +33090,73 @@
         <v>0.210900585996805</v>
       </c>
       <c r="V3">
-        <v>0.2021130615802715</v>
+        <v>0.210900585996805</v>
       </c>
       <c r="W3">
-        <v>0.1933255371637379</v>
+        <v>0.2017309953012917</v>
       </c>
       <c r="X3">
-        <v>0.1845380127472044</v>
+        <v>0.1925614046057785</v>
       </c>
       <c r="Y3">
-        <v>0.1757504883306708</v>
+        <v>0.1833918139102652</v>
       </c>
       <c r="Z3">
-        <v>0.1669629639141373</v>
+        <v>0.1742222232147519</v>
       </c>
       <c r="AA3">
-        <v>0.1581754394976038</v>
+        <v>0.1650526325192387</v>
       </c>
       <c r="AB3">
-        <v>0.1493879150810702</v>
+        <v>0.1558830418237254</v>
       </c>
       <c r="AC3">
-        <v>0.1406003906645367</v>
+        <v>0.1467134511282122</v>
       </c>
       <c r="AD3">
-        <v>0.1318128662480031</v>
+        <v>0.1375438604326989</v>
       </c>
       <c r="AE3">
-        <v>0.1230253418314696</v>
+        <v>0.1283742697371857</v>
       </c>
       <c r="AF3">
-        <v>0.1142378174149361</v>
+        <v>0.1192046790416724</v>
       </c>
       <c r="AG3">
-        <v>0.1054502929984025</v>
+        <v>0.1100350883461591</v>
       </c>
       <c r="AH3">
-        <v>0.09666276858186897</v>
+        <v>0.1008654976506459</v>
       </c>
       <c r="AI3">
-        <v>0.0878752441653354</v>
+        <v>0.09169590695513262</v>
       </c>
       <c r="AJ3">
-        <v>0.07908771974880188</v>
+        <v>0.08252631625961934</v>
       </c>
       <c r="AK3">
-        <v>0.07030019533226835</v>
+        <v>0.07335672556410608</v>
       </c>
       <c r="AL3">
-        <v>0.06151267091573479</v>
+        <v>0.06418713486859283</v>
       </c>
       <c r="AM3">
-        <v>0.05272514649920125</v>
+        <v>0.05501754417307957</v>
       </c>
       <c r="AN3">
-        <v>0.04393762208266772</v>
+        <v>0.0458479534775663</v>
       </c>
       <c r="AO3">
-        <v>0.03515009766613416</v>
+        <v>0.03667836278205304</v>
       </c>
       <c r="AP3">
-        <v>0.02636257324960063</v>
+        <v>0.02750877208653979</v>
       </c>
       <c r="AQ3">
-        <v>0.01757504883306709</v>
+        <v>0.01833918139102653</v>
       </c>
       <c r="AR3">
-        <v>0.008787524416533535</v>
+        <v>0.009169590695513255</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -30721,73 +33215,73 @@
         <v>0.0686653070687273</v>
       </c>
       <c r="V4">
-        <v>0.06580425260753033</v>
+        <v>0.0686653070687273</v>
       </c>
       <c r="W4">
-        <v>0.06294319814633335</v>
+        <v>0.06567985893530437</v>
       </c>
       <c r="X4">
-        <v>0.06008214368513638</v>
+        <v>0.06269441080188144</v>
       </c>
       <c r="Y4">
-        <v>0.05722108922393942</v>
+        <v>0.05970896266845852</v>
       </c>
       <c r="Z4">
-        <v>0.05436003476274244</v>
+        <v>0.05672351453503559</v>
       </c>
       <c r="AA4">
-        <v>0.05149898030154547</v>
+        <v>0.05373806640161267</v>
       </c>
       <c r="AB4">
-        <v>0.0486379258403485</v>
+        <v>0.05075261826818974</v>
       </c>
       <c r="AC4">
-        <v>0.04577687137915153</v>
+        <v>0.04776717013476681</v>
       </c>
       <c r="AD4">
-        <v>0.04291581691795456</v>
+        <v>0.04478172200134389</v>
       </c>
       <c r="AE4">
-        <v>0.04005476245675758</v>
+        <v>0.04179627386792097</v>
       </c>
       <c r="AF4">
-        <v>0.03719370799556063</v>
+        <v>0.03881082573449804</v>
       </c>
       <c r="AG4">
-        <v>0.03433265353436365</v>
+        <v>0.03582537760107511</v>
       </c>
       <c r="AH4">
-        <v>0.03147159907316668</v>
+        <v>0.03283992946765218</v>
       </c>
       <c r="AI4">
-        <v>0.02861054461196971</v>
+        <v>0.02985448133422926</v>
       </c>
       <c r="AJ4">
-        <v>0.02574949015077273</v>
+        <v>0.02686903320080633</v>
       </c>
       <c r="AK4">
-        <v>0.02288843568957577</v>
+        <v>0.02388358506738341</v>
       </c>
       <c r="AL4">
-        <v>0.02002738122837879</v>
+        <v>0.02089813693396048</v>
       </c>
       <c r="AM4">
-        <v>0.01716632676718182</v>
+        <v>0.01791268880053756</v>
       </c>
       <c r="AN4">
-        <v>0.01430527230598486</v>
+        <v>0.01492724066711463</v>
       </c>
       <c r="AO4">
-        <v>0.01144421784478788</v>
+        <v>0.0119417925336917</v>
       </c>
       <c r="AP4">
-        <v>0.008583163383590912</v>
+        <v>0.00895634440026878</v>
       </c>
       <c r="AQ4">
-        <v>0.005722108922393944</v>
+        <v>0.005970896266845855</v>
       </c>
       <c r="AR4">
-        <v>0.002861054461196968</v>
+        <v>0.002985448133422924</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -30846,73 +33340,73 @@
         <v>0.323707876181143</v>
       </c>
       <c r="V5">
-        <v>0.3518867146735953</v>
+        <v>0.323707876181143</v>
       </c>
       <c r="W5">
-        <v>0.3800655531660477</v>
+        <v>0.3531118815645715</v>
       </c>
       <c r="X5">
-        <v>0.4082443916585</v>
+        <v>0.3825158869480001</v>
       </c>
       <c r="Y5">
-        <v>0.4364232301509524</v>
+        <v>0.4119198923314286</v>
       </c>
       <c r="Z5">
-        <v>0.4646020686434048</v>
+        <v>0.4413238977148571</v>
       </c>
       <c r="AA5">
-        <v>0.4927809071358571</v>
+        <v>0.4707279030982857</v>
       </c>
       <c r="AB5">
-        <v>0.5209597456283094</v>
+        <v>0.5001319084817142</v>
       </c>
       <c r="AC5">
-        <v>0.5491385841207618</v>
+        <v>0.5295359138651428</v>
       </c>
       <c r="AD5">
-        <v>0.5773174226132142</v>
+        <v>0.5589399192485713</v>
       </c>
       <c r="AE5">
-        <v>0.6054962611056665</v>
+        <v>0.5883439246319998</v>
       </c>
       <c r="AF5">
-        <v>0.6336750995981189</v>
+        <v>0.6177479300154284</v>
       </c>
       <c r="AG5">
-        <v>0.6618539380905711</v>
+        <v>0.6471519353988568</v>
       </c>
       <c r="AH5">
-        <v>0.6900327765830235</v>
+        <v>0.6765559407822854</v>
       </c>
       <c r="AI5">
-        <v>0.7182116150754758</v>
+        <v>0.705959946165714</v>
       </c>
       <c r="AJ5">
-        <v>0.7463904535679282</v>
+        <v>0.7353639515491425</v>
       </c>
       <c r="AK5">
-        <v>0.7745692920603805</v>
+        <v>0.764767956932571</v>
       </c>
       <c r="AL5">
-        <v>0.802748130552833</v>
+        <v>0.7941719623159996</v>
       </c>
       <c r="AM5">
-        <v>0.8309269690452853</v>
+        <v>0.8235759676994281</v>
       </c>
       <c r="AN5">
-        <v>0.8591058075377376</v>
+        <v>0.8529799730828567</v>
       </c>
       <c r="AO5">
-        <v>0.88728464603019</v>
+        <v>0.8823839784662851</v>
       </c>
       <c r="AP5">
-        <v>0.9154634845226424</v>
+        <v>0.9117879838497137</v>
       </c>
       <c r="AQ5">
-        <v>0.9436423230150947</v>
+        <v>0.9411919892331423</v>
       </c>
       <c r="AR5">
-        <v>0.9718211615075469</v>
+        <v>0.9705959946165708</v>
       </c>
       <c r="AS5">
         <v>0.9999999999999993</v>
@@ -30971,73 +33465,73 @@
         <v>0.185825644756519</v>
       </c>
       <c r="V6">
-        <v>0.1780829095583307</v>
+        <v>0.185825644756519</v>
       </c>
       <c r="W6">
-        <v>0.1703401743601424</v>
+        <v>0.1777462688975399</v>
       </c>
       <c r="X6">
-        <v>0.1625974391619541</v>
+        <v>0.1696668930385608</v>
       </c>
       <c r="Y6">
-        <v>0.1548547039637658</v>
+        <v>0.1615875171795817</v>
       </c>
       <c r="Z6">
-        <v>0.1471119687655775</v>
+        <v>0.1535081413206026</v>
       </c>
       <c r="AA6">
-        <v>0.1393692335673893</v>
+        <v>0.1454287654616236</v>
       </c>
       <c r="AB6">
-        <v>0.131626498369201</v>
+        <v>0.1373493896026445</v>
       </c>
       <c r="AC6">
-        <v>0.1238837631710127</v>
+        <v>0.1292700137436654</v>
       </c>
       <c r="AD6">
-        <v>0.1161410279728244</v>
+        <v>0.1211906378846863</v>
       </c>
       <c r="AE6">
-        <v>0.1083982927746361</v>
+        <v>0.1131112620257072</v>
       </c>
       <c r="AF6">
-        <v>0.1006555575764478</v>
+        <v>0.1050318861667281</v>
       </c>
       <c r="AG6">
-        <v>0.0929128223782595</v>
+        <v>0.09695251030774904</v>
       </c>
       <c r="AH6">
-        <v>0.08517008718007121</v>
+        <v>0.08887313444876996</v>
       </c>
       <c r="AI6">
-        <v>0.07742735198188291</v>
+        <v>0.08079375858979088</v>
       </c>
       <c r="AJ6">
-        <v>0.06968461678369463</v>
+        <v>0.07271438273081178</v>
       </c>
       <c r="AK6">
-        <v>0.06194188158550634</v>
+        <v>0.0646350068718327</v>
       </c>
       <c r="AL6">
-        <v>0.05419914638731804</v>
+        <v>0.05655563101285361</v>
       </c>
       <c r="AM6">
-        <v>0.04645641118912975</v>
+        <v>0.04847625515387453</v>
       </c>
       <c r="AN6">
-        <v>0.03871367599094146</v>
+        <v>0.04039687929489543</v>
       </c>
       <c r="AO6">
-        <v>0.03097094079275316</v>
+        <v>0.03231750343591635</v>
       </c>
       <c r="AP6">
-        <v>0.02322820559456487</v>
+        <v>0.02423812757693726</v>
       </c>
       <c r="AQ6">
-        <v>0.01548547039637659</v>
+        <v>0.01615875171795818</v>
       </c>
       <c r="AR6">
-        <v>0.007742735198188285</v>
+        <v>0.008079375858979082</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -31096,73 +33590,73 @@
         <v>0.034298217572945</v>
       </c>
       <c r="V7">
-        <v>0.04536912517407229</v>
+        <v>0.034298217572945</v>
       </c>
       <c r="W7">
-        <v>0.05644003277519959</v>
+        <v>0.04585046898281696</v>
       </c>
       <c r="X7">
-        <v>0.06751094037632688</v>
+        <v>0.05740272039268891</v>
       </c>
       <c r="Y7">
-        <v>0.07858184797745417</v>
+        <v>0.06895497180256087</v>
       </c>
       <c r="Z7">
-        <v>0.08965275557858146</v>
+        <v>0.08050722321243282</v>
       </c>
       <c r="AA7">
-        <v>0.1007236631797088</v>
+        <v>0.09205947462230478</v>
       </c>
       <c r="AB7">
-        <v>0.111794570780836</v>
+        <v>0.1036117260321767</v>
       </c>
       <c r="AC7">
-        <v>0.1228654783819633</v>
+        <v>0.1151639774420487</v>
       </c>
       <c r="AD7">
-        <v>0.1339363859830906</v>
+        <v>0.1267162288519207</v>
       </c>
       <c r="AE7">
-        <v>0.1450072935842179</v>
+        <v>0.1382684802617926</v>
       </c>
       <c r="AF7">
-        <v>0.1560782011853452</v>
+        <v>0.1498207316716646</v>
       </c>
       <c r="AG7">
-        <v>0.1671491087864725</v>
+        <v>0.1613729830815365</v>
       </c>
       <c r="AH7">
-        <v>0.1782200163875998</v>
+        <v>0.1729252344914085</v>
       </c>
       <c r="AI7">
-        <v>0.1892909239887271</v>
+        <v>0.1844774859012804</v>
       </c>
       <c r="AJ7">
-        <v>0.2003618315898544</v>
+        <v>0.1960297373111524</v>
       </c>
       <c r="AK7">
-        <v>0.2114327391909817</v>
+        <v>0.2075819887210243</v>
       </c>
       <c r="AL7">
-        <v>0.222503646792109</v>
+        <v>0.2191342401308963</v>
       </c>
       <c r="AM7">
-        <v>0.2335745543932362</v>
+        <v>0.2306864915407682</v>
       </c>
       <c r="AN7">
-        <v>0.2446454619943635</v>
+        <v>0.2422387429506402</v>
       </c>
       <c r="AO7">
-        <v>0.2557163695954908</v>
+        <v>0.2537909943605122</v>
       </c>
       <c r="AP7">
-        <v>0.2667872771966182</v>
+        <v>0.2653432457703842</v>
       </c>
       <c r="AQ7">
-        <v>0.2778581847977454</v>
+        <v>0.2768954971802561</v>
       </c>
       <c r="AR7">
-        <v>0.2889290923988727</v>
+        <v>0.2884477485901281</v>
       </c>
       <c r="AS7">
         <v>0.3</v>
@@ -31221,73 +33715,73 @@
         <v>0.034298217572945</v>
       </c>
       <c r="V8">
-        <v>0.04536912517407229</v>
+        <v>0.034298217572945</v>
       </c>
       <c r="W8">
-        <v>0.05644003277519959</v>
+        <v>0.04585046898281696</v>
       </c>
       <c r="X8">
-        <v>0.06751094037632688</v>
+        <v>0.05740272039268891</v>
       </c>
       <c r="Y8">
-        <v>0.07858184797745417</v>
+        <v>0.06895497180256087</v>
       </c>
       <c r="Z8">
-        <v>0.08965275557858146</v>
+        <v>0.08050722321243282</v>
       </c>
       <c r="AA8">
-        <v>0.1007236631797088</v>
+        <v>0.09205947462230478</v>
       </c>
       <c r="AB8">
-        <v>0.111794570780836</v>
+        <v>0.1036117260321767</v>
       </c>
       <c r="AC8">
-        <v>0.1228654783819633</v>
+        <v>0.1151639774420487</v>
       </c>
       <c r="AD8">
-        <v>0.1339363859830906</v>
+        <v>0.1267162288519207</v>
       </c>
       <c r="AE8">
-        <v>0.1450072935842179</v>
+        <v>0.1382684802617926</v>
       </c>
       <c r="AF8">
-        <v>0.1560782011853452</v>
+        <v>0.1498207316716646</v>
       </c>
       <c r="AG8">
-        <v>0.1671491087864725</v>
+        <v>0.1613729830815365</v>
       </c>
       <c r="AH8">
-        <v>0.1782200163875998</v>
+        <v>0.1729252344914085</v>
       </c>
       <c r="AI8">
-        <v>0.1892909239887271</v>
+        <v>0.1844774859012804</v>
       </c>
       <c r="AJ8">
-        <v>0.2003618315898544</v>
+        <v>0.1960297373111524</v>
       </c>
       <c r="AK8">
-        <v>0.2114327391909817</v>
+        <v>0.2075819887210243</v>
       </c>
       <c r="AL8">
-        <v>0.222503646792109</v>
+        <v>0.2191342401308963</v>
       </c>
       <c r="AM8">
-        <v>0.2335745543932362</v>
+        <v>0.2306864915407682</v>
       </c>
       <c r="AN8">
-        <v>0.2446454619943635</v>
+        <v>0.2422387429506402</v>
       </c>
       <c r="AO8">
-        <v>0.2557163695954908</v>
+        <v>0.2537909943605122</v>
       </c>
       <c r="AP8">
-        <v>0.2667872771966182</v>
+        <v>0.2653432457703842</v>
       </c>
       <c r="AQ8">
-        <v>0.2778581847977454</v>
+        <v>0.2768954971802561</v>
       </c>
       <c r="AR8">
-        <v>0.2889290923988727</v>
+        <v>0.2884477485901281</v>
       </c>
       <c r="AS8">
         <v>0.3</v>
@@ -31346,73 +33840,73 @@
         <v>0.0210689050805234</v>
       </c>
       <c r="V9">
-        <v>0.02019103403550159</v>
+        <v>0.0210689050805234</v>
       </c>
       <c r="W9">
-        <v>0.01931316299047978</v>
+        <v>0.0201528657291963</v>
       </c>
       <c r="X9">
-        <v>0.01843529194545798</v>
+        <v>0.01923682637786919</v>
       </c>
       <c r="Y9">
-        <v>0.01755742090043617</v>
+        <v>0.01832078702654209</v>
       </c>
       <c r="Z9">
-        <v>0.01667954985541436</v>
+        <v>0.01740474767521498</v>
       </c>
       <c r="AA9">
-        <v>0.01580167881039255</v>
+        <v>0.01648870832388788</v>
       </c>
       <c r="AB9">
-        <v>0.01492380776537074</v>
+        <v>0.01557266897256077</v>
       </c>
       <c r="AC9">
-        <v>0.01404593672034894</v>
+        <v>0.01465662962123367</v>
       </c>
       <c r="AD9">
-        <v>0.01316806567532712</v>
+        <v>0.01374059026990656</v>
       </c>
       <c r="AE9">
-        <v>0.01229019463030531</v>
+        <v>0.01282455091857946</v>
       </c>
       <c r="AF9">
-        <v>0.01141232358528351</v>
+        <v>0.01190851156725236</v>
       </c>
       <c r="AG9">
-        <v>0.0105344525402617</v>
+        <v>0.01099247221592525</v>
       </c>
       <c r="AH9">
-        <v>0.009656581495239892</v>
+        <v>0.01007643286459815</v>
       </c>
       <c r="AI9">
-        <v>0.008778710450218082</v>
+        <v>0.009160393513271045</v>
       </c>
       <c r="AJ9">
-        <v>0.007900839405196276</v>
+        <v>0.008244354161943938</v>
       </c>
       <c r="AK9">
-        <v>0.007022968360174468</v>
+        <v>0.007328314810616835</v>
       </c>
       <c r="AL9">
-        <v>0.006145097315152657</v>
+        <v>0.006412275459289731</v>
       </c>
       <c r="AM9">
-        <v>0.00526722627013085</v>
+        <v>0.005496236107962627</v>
       </c>
       <c r="AN9">
-        <v>0.004389355225109043</v>
+        <v>0.004580196756635521</v>
       </c>
       <c r="AO9">
-        <v>0.003511484180087232</v>
+        <v>0.003664157405308417</v>
       </c>
       <c r="AP9">
-        <v>0.002633613135065425</v>
+        <v>0.002748118053981313</v>
       </c>
       <c r="AQ9">
-        <v>0.001755742090043617</v>
+        <v>0.00183207870265421</v>
       </c>
       <c r="AR9">
-        <v>0.0008778710450218075</v>
+        <v>0.0009160393513271037</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -31471,73 +33965,73 @@
         <v>0.0210689050805234</v>
       </c>
       <c r="V10">
-        <v>0.02019103403550159</v>
+        <v>0.0210689050805234</v>
       </c>
       <c r="W10">
-        <v>0.01931316299047978</v>
+        <v>0.0201528657291963</v>
       </c>
       <c r="X10">
-        <v>0.01843529194545798</v>
+        <v>0.01923682637786919</v>
       </c>
       <c r="Y10">
-        <v>0.01755742090043617</v>
+        <v>0.01832078702654209</v>
       </c>
       <c r="Z10">
-        <v>0.01667954985541436</v>
+        <v>0.01740474767521498</v>
       </c>
       <c r="AA10">
-        <v>0.01580167881039255</v>
+        <v>0.01648870832388788</v>
       </c>
       <c r="AB10">
-        <v>0.01492380776537074</v>
+        <v>0.01557266897256077</v>
       </c>
       <c r="AC10">
-        <v>0.01404593672034894</v>
+        <v>0.01465662962123367</v>
       </c>
       <c r="AD10">
-        <v>0.01316806567532712</v>
+        <v>0.01374059026990656</v>
       </c>
       <c r="AE10">
-        <v>0.01229019463030531</v>
+        <v>0.01282455091857946</v>
       </c>
       <c r="AF10">
-        <v>0.01141232358528351</v>
+        <v>0.01190851156725236</v>
       </c>
       <c r="AG10">
-        <v>0.0105344525402617</v>
+        <v>0.01099247221592525</v>
       </c>
       <c r="AH10">
-        <v>0.009656581495239892</v>
+        <v>0.01007643286459815</v>
       </c>
       <c r="AI10">
-        <v>0.008778710450218082</v>
+        <v>0.009160393513271045</v>
       </c>
       <c r="AJ10">
-        <v>0.007900839405196276</v>
+        <v>0.008244354161943938</v>
       </c>
       <c r="AK10">
-        <v>0.007022968360174468</v>
+        <v>0.007328314810616835</v>
       </c>
       <c r="AL10">
-        <v>0.006145097315152657</v>
+        <v>0.006412275459289731</v>
       </c>
       <c r="AM10">
-        <v>0.00526722627013085</v>
+        <v>0.005496236107962627</v>
       </c>
       <c r="AN10">
-        <v>0.004389355225109043</v>
+        <v>0.004580196756635521</v>
       </c>
       <c r="AO10">
-        <v>0.003511484180087232</v>
+        <v>0.003664157405308417</v>
       </c>
       <c r="AP10">
-        <v>0.002633613135065425</v>
+        <v>0.002748118053981313</v>
       </c>
       <c r="AQ10">
-        <v>0.001755742090043617</v>
+        <v>0.00183207870265421</v>
       </c>
       <c r="AR10">
-        <v>0.0008778710450218075</v>
+        <v>0.0009160393513271037</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -31596,73 +34090,73 @@
         <v>0.379240291449421</v>
       </c>
       <c r="V11">
-        <v>0.3634386126390285</v>
+        <v>0.379240291449421</v>
       </c>
       <c r="W11">
-        <v>0.3476369338286359</v>
+        <v>0.3627515831255331</v>
       </c>
       <c r="X11">
-        <v>0.3318352550182434</v>
+        <v>0.3462628748016453</v>
       </c>
       <c r="Y11">
-        <v>0.3160335762078508</v>
+        <v>0.3297741664777574</v>
       </c>
       <c r="Z11">
-        <v>0.3002318973974583</v>
+        <v>0.3132854581538695</v>
       </c>
       <c r="AA11">
-        <v>0.2844302185870657</v>
+        <v>0.2967967498299817</v>
       </c>
       <c r="AB11">
-        <v>0.2686285397766732</v>
+        <v>0.2803080415060938</v>
       </c>
       <c r="AC11">
-        <v>0.2528268609662807</v>
+        <v>0.2638193331822059</v>
       </c>
       <c r="AD11">
-        <v>0.2370251821558881</v>
+        <v>0.2473306248583181</v>
       </c>
       <c r="AE11">
-        <v>0.2212235033454956</v>
+        <v>0.2308419165344302</v>
       </c>
       <c r="AF11">
-        <v>0.2054218245351031</v>
+        <v>0.2143532082105423</v>
       </c>
       <c r="AG11">
-        <v>0.1896201457247105</v>
+        <v>0.1978644998866544</v>
       </c>
       <c r="AH11">
-        <v>0.173818466914318</v>
+        <v>0.1813757915627666</v>
       </c>
       <c r="AI11">
-        <v>0.1580167881039254</v>
+        <v>0.1648870832388787</v>
       </c>
       <c r="AJ11">
-        <v>0.1422151092935329</v>
+        <v>0.1483983749149908</v>
       </c>
       <c r="AK11">
-        <v>0.1264134304831404</v>
+        <v>0.131909666591103</v>
       </c>
       <c r="AL11">
-        <v>0.1106117516727478</v>
+        <v>0.1154209582672151</v>
       </c>
       <c r="AM11">
-        <v>0.09481007286235525</v>
+        <v>0.09893224994332724</v>
       </c>
       <c r="AN11">
-        <v>0.07900839405196272</v>
+        <v>0.08244354161943934</v>
       </c>
       <c r="AO11">
-        <v>0.06320671524157015</v>
+        <v>0.06595483329555148</v>
       </c>
       <c r="AP11">
-        <v>0.04740503643117763</v>
+        <v>0.04946612497166362</v>
       </c>
       <c r="AQ11">
-        <v>0.0316033576207851</v>
+        <v>0.03297741664777576</v>
       </c>
       <c r="AR11">
-        <v>0.01580167881039253</v>
+        <v>0.01648870832388786</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -31721,73 +34215,73 @@
         <v>0.161691597129598</v>
       </c>
       <c r="V12">
-        <v>0.1632877805825314</v>
+        <v>0.161691597129598</v>
       </c>
       <c r="W12">
-        <v>0.1648839640354648</v>
+        <v>0.1633571798630938</v>
       </c>
       <c r="X12">
-        <v>0.1664801474883982</v>
+        <v>0.1650227625965895</v>
       </c>
       <c r="Y12">
-        <v>0.1680763309413316</v>
+        <v>0.1666883453300852</v>
       </c>
       <c r="Z12">
-        <v>0.1696725143942651</v>
+        <v>0.1683539280635809</v>
       </c>
       <c r="AA12">
-        <v>0.1712686978471985</v>
+        <v>0.1700195107970767</v>
       </c>
       <c r="AB12">
-        <v>0.1728648813001319</v>
+        <v>0.1716850935305724</v>
       </c>
       <c r="AC12">
-        <v>0.1744610647530653</v>
+        <v>0.1733506762640682</v>
       </c>
       <c r="AD12">
-        <v>0.1760572482059988</v>
+        <v>0.1750162589975639</v>
       </c>
       <c r="AE12">
-        <v>0.1776534316589322</v>
+        <v>0.1766818417310597</v>
       </c>
       <c r="AF12">
-        <v>0.1792496151118656</v>
+        <v>0.1783474244645554</v>
       </c>
       <c r="AG12">
-        <v>0.180845798564799</v>
+        <v>0.1800130071980511</v>
       </c>
       <c r="AH12">
-        <v>0.1824419820177324</v>
+        <v>0.1816785899315469</v>
       </c>
       <c r="AI12">
-        <v>0.1840381654706658</v>
+        <v>0.1833441726650426</v>
       </c>
       <c r="AJ12">
-        <v>0.1856343489235993</v>
+        <v>0.1850097553985384</v>
       </c>
       <c r="AK12">
-        <v>0.1872305323765327</v>
+        <v>0.1866753381320341</v>
       </c>
       <c r="AL12">
-        <v>0.1888267158294661</v>
+        <v>0.1883409208655298</v>
       </c>
       <c r="AM12">
-        <v>0.1904228992823995</v>
+        <v>0.1900065035990256</v>
       </c>
       <c r="AN12">
-        <v>0.1920190827353329</v>
+        <v>0.1916720863325213</v>
       </c>
       <c r="AO12">
-        <v>0.1936152661882664</v>
+        <v>0.1933376690660171</v>
       </c>
       <c r="AP12">
-        <v>0.1952114496411998</v>
+        <v>0.1950032517995128</v>
       </c>
       <c r="AQ12">
-        <v>0.1968076330941332</v>
+        <v>0.1966688345330085</v>
       </c>
       <c r="AR12">
-        <v>0.1984038165470666</v>
+        <v>0.1983344172665042</v>
       </c>
       <c r="AS12">
         <v>0.2</v>
@@ -31846,73 +34340,73 @@
         <v>0.161691597129598</v>
       </c>
       <c r="V13">
-        <v>0.1632877805825314</v>
+        <v>0.161691597129598</v>
       </c>
       <c r="W13">
-        <v>0.1648839640354648</v>
+        <v>0.1633571798630938</v>
       </c>
       <c r="X13">
-        <v>0.1664801474883982</v>
+        <v>0.1650227625965895</v>
       </c>
       <c r="Y13">
-        <v>0.1680763309413316</v>
+        <v>0.1666883453300852</v>
       </c>
       <c r="Z13">
-        <v>0.1696725143942651</v>
+        <v>0.1683539280635809</v>
       </c>
       <c r="AA13">
-        <v>0.1712686978471985</v>
+        <v>0.1700195107970767</v>
       </c>
       <c r="AB13">
-        <v>0.1728648813001319</v>
+        <v>0.1716850935305724</v>
       </c>
       <c r="AC13">
-        <v>0.1744610647530653</v>
+        <v>0.1733506762640682</v>
       </c>
       <c r="AD13">
-        <v>0.1760572482059988</v>
+        <v>0.1750162589975639</v>
       </c>
       <c r="AE13">
-        <v>0.1776534316589322</v>
+        <v>0.1766818417310597</v>
       </c>
       <c r="AF13">
-        <v>0.1792496151118656</v>
+        <v>0.1783474244645554</v>
       </c>
       <c r="AG13">
-        <v>0.180845798564799</v>
+        <v>0.1800130071980511</v>
       </c>
       <c r="AH13">
-        <v>0.1824419820177324</v>
+        <v>0.1816785899315469</v>
       </c>
       <c r="AI13">
-        <v>0.1840381654706658</v>
+        <v>0.1833441726650426</v>
       </c>
       <c r="AJ13">
-        <v>0.1856343489235993</v>
+        <v>0.1850097553985384</v>
       </c>
       <c r="AK13">
-        <v>0.1872305323765327</v>
+        <v>0.1866753381320341</v>
       </c>
       <c r="AL13">
-        <v>0.1888267158294661</v>
+        <v>0.1883409208655298</v>
       </c>
       <c r="AM13">
-        <v>0.1904228992823995</v>
+        <v>0.1900065035990256</v>
       </c>
       <c r="AN13">
-        <v>0.1920190827353329</v>
+        <v>0.1916720863325213</v>
       </c>
       <c r="AO13">
-        <v>0.1936152661882664</v>
+        <v>0.1933376690660171</v>
       </c>
       <c r="AP13">
-        <v>0.1952114496411998</v>
+        <v>0.1950032517995128</v>
       </c>
       <c r="AQ13">
-        <v>0.1968076330941332</v>
+        <v>0.1966688345330085</v>
       </c>
       <c r="AR13">
-        <v>0.1984038165470666</v>
+        <v>0.1983344172665042</v>
       </c>
       <c r="AS13">
         <v>0.2</v>
@@ -31971,73 +34465,73 @@
         <v>0.186642268984447</v>
       </c>
       <c r="V14">
-        <v>0.1788655077767617</v>
+        <v>0.186642268984447</v>
       </c>
       <c r="W14">
-        <v>0.1710887465690764</v>
+        <v>0.1785273877242537</v>
       </c>
       <c r="X14">
-        <v>0.1633119853613911</v>
+        <v>0.1704125064640603</v>
       </c>
       <c r="Y14">
-        <v>0.1555352241537058</v>
+        <v>0.162297625203867</v>
       </c>
       <c r="Z14">
-        <v>0.1477584629460205</v>
+        <v>0.1541827439436736</v>
       </c>
       <c r="AA14">
-        <v>0.1399817017383352</v>
+        <v>0.1460678626834803</v>
       </c>
       <c r="AB14">
-        <v>0.1322049405306499</v>
+        <v>0.1379529814232869</v>
       </c>
       <c r="AC14">
-        <v>0.1244281793229647</v>
+        <v>0.1298381001630936</v>
       </c>
       <c r="AD14">
-        <v>0.1166514181152794</v>
+        <v>0.1217232189029002</v>
       </c>
       <c r="AE14">
-        <v>0.1088746569075941</v>
+        <v>0.1136083376427069</v>
       </c>
       <c r="AF14">
-        <v>0.1010978956999088</v>
+        <v>0.1054934563825135</v>
       </c>
       <c r="AG14">
-        <v>0.0933211344922235</v>
+        <v>0.09737857512232016</v>
       </c>
       <c r="AH14">
-        <v>0.08554437328453822</v>
+        <v>0.08926369386212683</v>
       </c>
       <c r="AI14">
-        <v>0.07776761207685291</v>
+        <v>0.08114881260193349</v>
       </c>
       <c r="AJ14">
-        <v>0.06999085086916762</v>
+        <v>0.07303393134174012</v>
       </c>
       <c r="AK14">
-        <v>0.06221408966148234</v>
+        <v>0.06491905008154678</v>
       </c>
       <c r="AL14">
-        <v>0.05443732845379703</v>
+        <v>0.05680416882135344</v>
       </c>
       <c r="AM14">
-        <v>0.04666056724611175</v>
+        <v>0.0486892875611601</v>
       </c>
       <c r="AN14">
-        <v>0.03888380603842646</v>
+        <v>0.04057440630096673</v>
       </c>
       <c r="AO14">
-        <v>0.03110704483074116</v>
+        <v>0.03245952504077339</v>
       </c>
       <c r="AP14">
-        <v>0.02333028362305587</v>
+        <v>0.02434464378058005</v>
       </c>
       <c r="AQ14">
-        <v>0.01555352241537059</v>
+        <v>0.0162297625203867</v>
       </c>
       <c r="AR14">
-        <v>0.007776761207685285</v>
+        <v>0.008114881260193342</v>
       </c>
       <c r="AS14">
         <v>0</v>
@@ -32096,73 +34590,73 @@
         <v>0.034298217572945</v>
       </c>
       <c r="V15">
-        <v>0.0328691251740723</v>
+        <v>0.034298217572945</v>
       </c>
       <c r="W15">
-        <v>0.03144003277519958</v>
+        <v>0.03280699072194739</v>
       </c>
       <c r="X15">
-        <v>0.03001094037632688</v>
+        <v>0.03131576387094979</v>
       </c>
       <c r="Y15">
-        <v>0.02858184797745417</v>
+        <v>0.02982453701995218</v>
       </c>
       <c r="Z15">
-        <v>0.02715275557858146</v>
+        <v>0.02833331016895457</v>
       </c>
       <c r="AA15">
-        <v>0.02572366317970875</v>
+        <v>0.02684208331795696</v>
       </c>
       <c r="AB15">
-        <v>0.02429457078083604</v>
+        <v>0.02535085646695935</v>
       </c>
       <c r="AC15">
-        <v>0.02286547838196334</v>
+        <v>0.02385962961596174</v>
       </c>
       <c r="AD15">
-        <v>0.02143638598309063</v>
+        <v>0.02236840276496413</v>
       </c>
       <c r="AE15">
-        <v>0.02000729358421792</v>
+        <v>0.02087717591396653</v>
       </c>
       <c r="AF15">
-        <v>0.01857820118534521</v>
+        <v>0.01938594906296892</v>
       </c>
       <c r="AG15">
-        <v>0.0171491087864725</v>
+        <v>0.01789472221197131</v>
       </c>
       <c r="AH15">
-        <v>0.0157200163875998</v>
+        <v>0.0164034953609737</v>
       </c>
       <c r="AI15">
-        <v>0.01429092398872708</v>
+        <v>0.01491226850997609</v>
       </c>
       <c r="AJ15">
-        <v>0.01286183158985438</v>
+        <v>0.01342104165897848</v>
       </c>
       <c r="AK15">
-        <v>0.01143273919098167</v>
+        <v>0.01192981480798087</v>
       </c>
       <c r="AL15">
-        <v>0.01000364679210896</v>
+        <v>0.01043858795698326</v>
       </c>
       <c r="AM15">
-        <v>0.008574554393236251</v>
+        <v>0.008947361105985655</v>
       </c>
       <c r="AN15">
-        <v>0.007145461994363543</v>
+        <v>0.007456134254988043</v>
       </c>
       <c r="AO15">
-        <v>0.005716369595490833</v>
+        <v>0.005964907403990435</v>
       </c>
       <c r="AP15">
-        <v>0.004287277196618125</v>
+        <v>0.004473680552992828</v>
       </c>
       <c r="AQ15">
-        <v>0.002858184797745418</v>
+        <v>0.002982453701995219</v>
       </c>
       <c r="AR15">
-        <v>0.001429092398872707</v>
+        <v>0.001491226850997608</v>
       </c>
       <c r="AS15">
         <v>0</v>
@@ -32221,73 +34715,73 @@
         <v>0.034298217572945</v>
       </c>
       <c r="V16">
-        <v>0.06620245850740564</v>
+        <v>0.034298217572945</v>
       </c>
       <c r="W16">
-        <v>0.09810669944186626</v>
+        <v>0.06758959941759957</v>
       </c>
       <c r="X16">
-        <v>0.1300109403763269</v>
+        <v>0.1008809812622541</v>
       </c>
       <c r="Y16">
-        <v>0.1619151813107875</v>
+        <v>0.1341723631069087</v>
       </c>
       <c r="Z16">
-        <v>0.1938194222452481</v>
+        <v>0.1674637449515633</v>
       </c>
       <c r="AA16">
-        <v>0.2257236631797088</v>
+        <v>0.2007551267962178</v>
       </c>
       <c r="AB16">
-        <v>0.2576279041141694</v>
+        <v>0.2340465086408724</v>
       </c>
       <c r="AC16">
-        <v>0.28953214504863</v>
+        <v>0.267337890485527</v>
       </c>
       <c r="AD16">
-        <v>0.3214363859830907</v>
+        <v>0.3006292723301816</v>
       </c>
       <c r="AE16">
-        <v>0.3533406269175513</v>
+        <v>0.3339206541748361</v>
       </c>
       <c r="AF16">
-        <v>0.3852448678520119</v>
+        <v>0.3672120360194907</v>
       </c>
       <c r="AG16">
-        <v>0.4171491087864725</v>
+        <v>0.4005034178641452</v>
       </c>
       <c r="AH16">
-        <v>0.4490533497209331</v>
+        <v>0.4337947997087998</v>
       </c>
       <c r="AI16">
-        <v>0.4809575906553938</v>
+        <v>0.4670861815534543</v>
       </c>
       <c r="AJ16">
-        <v>0.5128618315898543</v>
+        <v>0.500377563398109</v>
       </c>
       <c r="AK16">
-        <v>0.544766072524315</v>
+        <v>0.5336689452427634</v>
       </c>
       <c r="AL16">
-        <v>0.5766703134587757</v>
+        <v>0.5669603270874181</v>
       </c>
       <c r="AM16">
-        <v>0.6085745543932364</v>
+        <v>0.6002517089320727</v>
       </c>
       <c r="AN16">
-        <v>0.6404787953276968</v>
+        <v>0.6335430907767272</v>
       </c>
       <c r="AO16">
-        <v>0.6723830362621576</v>
+        <v>0.6668344726213818</v>
       </c>
       <c r="AP16">
-        <v>0.7042872771966182</v>
+        <v>0.7001258544660363</v>
       </c>
       <c r="AQ16">
-        <v>0.7361915181310789</v>
+        <v>0.7334172363106909</v>
       </c>
       <c r="AR16">
-        <v>0.7680957590655394</v>
+        <v>0.7667086181553454</v>
       </c>
       <c r="AS16">
         <v>0.8</v>
@@ -32346,73 +34840,73 @@
         <v>0.421378101610467</v>
       </c>
       <c r="V17">
-        <v>0.4038206807100309</v>
+        <v>0.421378101610467</v>
       </c>
       <c r="W17">
-        <v>0.3862632598095948</v>
+        <v>0.403057314583925</v>
       </c>
       <c r="X17">
-        <v>0.3687058389091586</v>
+        <v>0.384736527557383</v>
       </c>
       <c r="Y17">
-        <v>0.3511484180087225</v>
+        <v>0.3664157405308409</v>
       </c>
       <c r="Z17">
-        <v>0.3335909971082864</v>
+        <v>0.3480949535042989</v>
       </c>
       <c r="AA17">
-        <v>0.3160335762078503</v>
+        <v>0.3297741664777568</v>
       </c>
       <c r="AB17">
-        <v>0.2984761553074141</v>
+        <v>0.3114533794512147</v>
       </c>
       <c r="AC17">
-        <v>0.2809187344069781</v>
+        <v>0.2931325924246727</v>
       </c>
       <c r="AD17">
-        <v>0.2633613135065419</v>
+        <v>0.2748118053981307</v>
       </c>
       <c r="AE17">
-        <v>0.2458038926061057</v>
+        <v>0.2564910183715886</v>
       </c>
       <c r="AF17">
-        <v>0.2282464717056697</v>
+        <v>0.2381702313450466</v>
       </c>
       <c r="AG17">
-        <v>0.2106890508052335</v>
+        <v>0.2198494443185045</v>
       </c>
       <c r="AH17">
-        <v>0.1931316299047974</v>
+        <v>0.2015286572919625</v>
       </c>
       <c r="AI17">
-        <v>0.1755742090043612</v>
+        <v>0.1832078702654205</v>
       </c>
       <c r="AJ17">
-        <v>0.1580167881039251</v>
+        <v>0.1648870832388784</v>
       </c>
       <c r="AK17">
-        <v>0.140459367203489</v>
+        <v>0.1465662962123364</v>
       </c>
       <c r="AL17">
-        <v>0.1229019463030529</v>
+        <v>0.1282455091857943</v>
       </c>
       <c r="AM17">
-        <v>0.1053445254026168</v>
+        <v>0.1099247221592523</v>
       </c>
       <c r="AN17">
-        <v>0.08778710450218065</v>
+        <v>0.0916039351327102</v>
       </c>
       <c r="AO17">
-        <v>0.07022968360174449</v>
+        <v>0.07328314810616818</v>
       </c>
       <c r="AP17">
-        <v>0.05267226270130838</v>
+        <v>0.05496236107962614</v>
       </c>
       <c r="AQ17">
-        <v>0.03511484180087227</v>
+        <v>0.03664157405308411</v>
       </c>
       <c r="AR17">
-        <v>0.01755742090043611</v>
+        <v>0.01832078702654203</v>
       </c>
       <c r="AS17">
         <v>0</v>
@@ -32471,73 +34965,73 @@
         <v>0.161691597129598</v>
       </c>
       <c r="V18">
-        <v>0.1591211139158648</v>
+        <v>0.161691597129598</v>
       </c>
       <c r="W18">
-        <v>0.1565506307021315</v>
+        <v>0.1590093537761372</v>
       </c>
       <c r="X18">
-        <v>0.1539801474883983</v>
+        <v>0.1563271104226764</v>
       </c>
       <c r="Y18">
-        <v>0.151409664274665</v>
+        <v>0.1536448670692157</v>
       </c>
       <c r="Z18">
-        <v>0.1488391810609317</v>
+        <v>0.1509626237157549</v>
       </c>
       <c r="AA18">
-        <v>0.1462686978471985</v>
+        <v>0.1482803803622941</v>
       </c>
       <c r="AB18">
-        <v>0.1436982146334652</v>
+        <v>0.1455981370088333</v>
       </c>
       <c r="AC18">
-        <v>0.141127731419732</v>
+        <v>0.1429158936553725</v>
       </c>
       <c r="AD18">
-        <v>0.1385572482059987</v>
+        <v>0.1402336503019117</v>
       </c>
       <c r="AE18">
-        <v>0.1359867649922655</v>
+        <v>0.137551406948451</v>
       </c>
       <c r="AF18">
-        <v>0.1334162817785323</v>
+        <v>0.1348691635949902</v>
       </c>
       <c r="AG18">
-        <v>0.130845798564799</v>
+        <v>0.1321869202415294</v>
       </c>
       <c r="AH18">
-        <v>0.1282753153510658</v>
+        <v>0.1295046768880686</v>
       </c>
       <c r="AI18">
-        <v>0.1257048321373325</v>
+        <v>0.1268224335346078</v>
       </c>
       <c r="AJ18">
-        <v>0.1231343489235992</v>
+        <v>0.124140190181147</v>
       </c>
       <c r="AK18">
-        <v>0.120563865709866</v>
+        <v>0.1214579468276863</v>
       </c>
       <c r="AL18">
-        <v>0.1179933824961328</v>
+        <v>0.1187757034742255</v>
       </c>
       <c r="AM18">
-        <v>0.1154228992823995</v>
+        <v>0.1160934601207647</v>
       </c>
       <c r="AN18">
-        <v>0.1128524160686663</v>
+        <v>0.1134112167673039</v>
       </c>
       <c r="AO18">
-        <v>0.110281932854933</v>
+        <v>0.1107289734138431</v>
       </c>
       <c r="AP18">
-        <v>0.1077114496411998</v>
+        <v>0.1080467300603823</v>
       </c>
       <c r="AQ18">
-        <v>0.1051409664274665</v>
+        <v>0.1053644867069216</v>
       </c>
       <c r="AR18">
-        <v>0.1025704832137332</v>
+        <v>0.1026822433534608</v>
       </c>
       <c r="AS18">
         <v>0.1</v>
@@ -32596,73 +35090,73 @@
         <v>0.161691597129598</v>
       </c>
       <c r="V19">
-        <v>0.1591211139158648</v>
+        <v>0.161691597129598</v>
       </c>
       <c r="W19">
-        <v>0.1565506307021315</v>
+        <v>0.1590093537761372</v>
       </c>
       <c r="X19">
-        <v>0.1539801474883983</v>
+        <v>0.1563271104226764</v>
       </c>
       <c r="Y19">
-        <v>0.151409664274665</v>
+        <v>0.1536448670692157</v>
       </c>
       <c r="Z19">
-        <v>0.1488391810609317</v>
+        <v>0.1509626237157549</v>
       </c>
       <c r="AA19">
-        <v>0.1462686978471985</v>
+        <v>0.1482803803622941</v>
       </c>
       <c r="AB19">
-        <v>0.1436982146334652</v>
+        <v>0.1455981370088333</v>
       </c>
       <c r="AC19">
-        <v>0.141127731419732</v>
+        <v>0.1429158936553725</v>
       </c>
       <c r="AD19">
-        <v>0.1385572482059987</v>
+        <v>0.1402336503019117</v>
       </c>
       <c r="AE19">
-        <v>0.1359867649922655</v>
+        <v>0.137551406948451</v>
       </c>
       <c r="AF19">
-        <v>0.1334162817785323</v>
+        <v>0.1348691635949902</v>
       </c>
       <c r="AG19">
-        <v>0.130845798564799</v>
+        <v>0.1321869202415294</v>
       </c>
       <c r="AH19">
-        <v>0.1282753153510658</v>
+        <v>0.1295046768880686</v>
       </c>
       <c r="AI19">
-        <v>0.1257048321373325</v>
+        <v>0.1268224335346078</v>
       </c>
       <c r="AJ19">
-        <v>0.1231343489235992</v>
+        <v>0.124140190181147</v>
       </c>
       <c r="AK19">
-        <v>0.120563865709866</v>
+        <v>0.1214579468276863</v>
       </c>
       <c r="AL19">
-        <v>0.1179933824961328</v>
+        <v>0.1187757034742255</v>
       </c>
       <c r="AM19">
-        <v>0.1154228992823995</v>
+        <v>0.1160934601207647</v>
       </c>
       <c r="AN19">
-        <v>0.1128524160686663</v>
+        <v>0.1134112167673039</v>
       </c>
       <c r="AO19">
-        <v>0.110281932854933</v>
+        <v>0.1107289734138431</v>
       </c>
       <c r="AP19">
-        <v>0.1077114496411998</v>
+        <v>0.1080467300603823</v>
       </c>
       <c r="AQ19">
-        <v>0.1051409664274665</v>
+        <v>0.1053644867069216</v>
       </c>
       <c r="AR19">
-        <v>0.1025704832137332</v>
+        <v>0.1026822433534608</v>
       </c>
       <c r="AS19">
         <v>0.1</v>
@@ -32721,73 +35215,73 @@
         <v>0.186642268984447</v>
       </c>
       <c r="V20">
-        <v>0.1788655077767617</v>
+        <v>0.186642268984447</v>
       </c>
       <c r="W20">
-        <v>0.1710887465690764</v>
+        <v>0.1785273877242537</v>
       </c>
       <c r="X20">
-        <v>0.1633119853613911</v>
+        <v>0.1704125064640603</v>
       </c>
       <c r="Y20">
-        <v>0.1555352241537058</v>
+        <v>0.162297625203867</v>
       </c>
       <c r="Z20">
-        <v>0.1477584629460205</v>
+        <v>0.1541827439436736</v>
       </c>
       <c r="AA20">
-        <v>0.1399817017383352</v>
+        <v>0.1460678626834803</v>
       </c>
       <c r="AB20">
-        <v>0.1322049405306499</v>
+        <v>0.1379529814232869</v>
       </c>
       <c r="AC20">
-        <v>0.1244281793229647</v>
+        <v>0.1298381001630936</v>
       </c>
       <c r="AD20">
-        <v>0.1166514181152794</v>
+        <v>0.1217232189029002</v>
       </c>
       <c r="AE20">
-        <v>0.1088746569075941</v>
+        <v>0.1136083376427069</v>
       </c>
       <c r="AF20">
-        <v>0.1010978956999088</v>
+        <v>0.1054934563825135</v>
       </c>
       <c r="AG20">
-        <v>0.0933211344922235</v>
+        <v>0.09737857512232016</v>
       </c>
       <c r="AH20">
-        <v>0.08554437328453822</v>
+        <v>0.08926369386212683</v>
       </c>
       <c r="AI20">
-        <v>0.07776761207685291</v>
+        <v>0.08114881260193349</v>
       </c>
       <c r="AJ20">
-        <v>0.06999085086916762</v>
+        <v>0.07303393134174012</v>
       </c>
       <c r="AK20">
-        <v>0.06221408966148234</v>
+        <v>0.06491905008154678</v>
       </c>
       <c r="AL20">
-        <v>0.05443732845379703</v>
+        <v>0.05680416882135344</v>
       </c>
       <c r="AM20">
-        <v>0.04666056724611175</v>
+        <v>0.0486892875611601</v>
       </c>
       <c r="AN20">
-        <v>0.03888380603842646</v>
+        <v>0.04057440630096673</v>
       </c>
       <c r="AO20">
-        <v>0.03110704483074116</v>
+        <v>0.03245952504077339</v>
       </c>
       <c r="AP20">
-        <v>0.02333028362305587</v>
+        <v>0.02434464378058005</v>
       </c>
       <c r="AQ20">
-        <v>0.01555352241537059</v>
+        <v>0.0162297625203867</v>
       </c>
       <c r="AR20">
-        <v>0.007776761207685285</v>
+        <v>0.008114881260193342</v>
       </c>
       <c r="AS20">
         <v>0</v>
@@ -32846,73 +35340,73 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0.99375</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0.9874999999999999</v>
+        <v>0.9934782608695653</v>
       </c>
       <c r="X21">
-        <v>0.98125</v>
+        <v>0.9869565217391305</v>
       </c>
       <c r="Y21">
-        <v>0.9750000000000001</v>
+        <v>0.9804347826086957</v>
       </c>
       <c r="Z21">
-        <v>0.96875</v>
+        <v>0.9739130434782608</v>
       </c>
       <c r="AA21">
-        <v>0.9625</v>
+        <v>0.9673913043478262</v>
       </c>
       <c r="AB21">
-        <v>0.9562499999999999</v>
+        <v>0.9608695652173913</v>
       </c>
       <c r="AC21">
-        <v>0.9500000000000001</v>
+        <v>0.9543478260869565</v>
       </c>
       <c r="AD21">
-        <v>0.94375</v>
+        <v>0.9478260869565217</v>
       </c>
       <c r="AE21">
-        <v>0.9375</v>
+        <v>0.941304347826087</v>
       </c>
       <c r="AF21">
-        <v>0.93125</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="AG21">
-        <v>0.925</v>
+        <v>0.9282608695652174</v>
       </c>
       <c r="AH21">
-        <v>0.91875</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="AI21">
-        <v>0.9125</v>
+        <v>0.9152173913043478</v>
       </c>
       <c r="AJ21">
-        <v>0.90625</v>
+        <v>0.908695652173913</v>
       </c>
       <c r="AK21">
-        <v>0.9</v>
+        <v>0.9021739130434783</v>
       </c>
       <c r="AL21">
-        <v>0.8937499999999999</v>
+        <v>0.8956521739130434</v>
       </c>
       <c r="AM21">
-        <v>0.8875</v>
+        <v>0.8891304347826087</v>
       </c>
       <c r="AN21">
-        <v>0.88125</v>
+        <v>0.8826086956521739</v>
       </c>
       <c r="AO21">
-        <v>0.875</v>
+        <v>0.8760869565217391</v>
       </c>
       <c r="AP21">
-        <v>0.86875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="AQ21">
-        <v>0.8624999999999999</v>
+        <v>0.8630434782608696</v>
       </c>
       <c r="AR21">
-        <v>0.85625</v>
+        <v>0.8565217391304347</v>
       </c>
       <c r="AS21">
         <v>0.85</v>
@@ -32971,73 +35465,73 @@
         <v>0.0223616407140226</v>
       </c>
       <c r="V22">
-        <v>0.05153407235093832</v>
+        <v>0.0223616407140226</v>
       </c>
       <c r="W22">
-        <v>0.08070650398785403</v>
+        <v>0.0528024389438477</v>
       </c>
       <c r="X22">
-        <v>0.1098789356247698</v>
+        <v>0.0832432371736728</v>
       </c>
       <c r="Y22">
-        <v>0.1390513672616855</v>
+        <v>0.1136840354034979</v>
       </c>
       <c r="Z22">
-        <v>0.1682237988986012</v>
+        <v>0.144124833633323</v>
       </c>
       <c r="AA22">
-        <v>0.1973962305355169</v>
+        <v>0.1745656318631481</v>
       </c>
       <c r="AB22">
-        <v>0.2265686621724327</v>
+        <v>0.2050064300929732</v>
       </c>
       <c r="AC22">
-        <v>0.2557410938093483</v>
+        <v>0.2354472283227983</v>
       </c>
       <c r="AD22">
-        <v>0.2849135254462641</v>
+        <v>0.2658880265526234</v>
       </c>
       <c r="AE22">
-        <v>0.3140859570831798</v>
+        <v>0.2963288247824485</v>
       </c>
       <c r="AF22">
-        <v>0.3432583887200956</v>
+        <v>0.3267696230122736</v>
       </c>
       <c r="AG22">
-        <v>0.3724308203570112</v>
+        <v>0.3572104212420987</v>
       </c>
       <c r="AH22">
-        <v>0.401603251993927</v>
+        <v>0.3876512194719238</v>
       </c>
       <c r="AI22">
-        <v>0.4307756836308427</v>
+        <v>0.4180920177017489</v>
       </c>
       <c r="AJ22">
-        <v>0.4599481152677585</v>
+        <v>0.4485328159315741</v>
       </c>
       <c r="AK22">
-        <v>0.4891205469046741</v>
+        <v>0.4789736141613992</v>
       </c>
       <c r="AL22">
-        <v>0.5182929785415898</v>
+        <v>0.5094144123912242</v>
       </c>
       <c r="AM22">
-        <v>0.5474654101785056</v>
+        <v>0.5398552106210494</v>
       </c>
       <c r="AN22">
-        <v>0.5766378418154213</v>
+        <v>0.5702960088508744</v>
       </c>
       <c r="AO22">
-        <v>0.6058102734523371</v>
+        <v>0.6007368070806994</v>
       </c>
       <c r="AP22">
-        <v>0.6349827050892527</v>
+        <v>0.6311776053105246</v>
       </c>
       <c r="AQ22">
-        <v>0.6641551367261685</v>
+        <v>0.6616184035403496</v>
       </c>
       <c r="AR22">
-        <v>0.6933275683630843</v>
+        <v>0.6920592017701749</v>
       </c>
       <c r="AS22">
         <v>0.7224999999999999</v>
@@ -33096,73 +35590,73 @@
         <v>0.444390186873768</v>
       </c>
       <c r="V23">
-        <v>0.4559780957540277</v>
+        <v>0.444390186873768</v>
       </c>
       <c r="W23">
-        <v>0.4675660046342873</v>
+        <v>0.4564819178792563</v>
       </c>
       <c r="X23">
-        <v>0.4791539135145471</v>
+        <v>0.4685736488847447</v>
       </c>
       <c r="Y23">
-        <v>0.4907418223948067</v>
+        <v>0.4806653798902331</v>
       </c>
       <c r="Z23">
-        <v>0.5023297312750663</v>
+        <v>0.4927571108957214</v>
       </c>
       <c r="AA23">
-        <v>0.513917640155326</v>
+        <v>0.5048488419012097</v>
       </c>
       <c r="AB23">
-        <v>0.5255055490355857</v>
+        <v>0.516940572906698</v>
       </c>
       <c r="AC23">
-        <v>0.5370934579158453</v>
+        <v>0.5290323039121865</v>
       </c>
       <c r="AD23">
-        <v>0.548681366796105</v>
+        <v>0.5411240349176747</v>
       </c>
       <c r="AE23">
-        <v>0.5602692756763646</v>
+        <v>0.5532157659231631</v>
       </c>
       <c r="AF23">
-        <v>0.5718571845566244</v>
+        <v>0.5653074969286516</v>
       </c>
       <c r="AG23">
-        <v>0.583445093436884</v>
+        <v>0.5773992279341398</v>
       </c>
       <c r="AH23">
-        <v>0.5950330023171436</v>
+        <v>0.5894909589396281</v>
       </c>
       <c r="AI23">
-        <v>0.6066209111974034</v>
+        <v>0.6015826899451164</v>
       </c>
       <c r="AJ23">
-        <v>0.618208820077663</v>
+        <v>0.6136744209506049</v>
       </c>
       <c r="AK23">
-        <v>0.6297967289579226</v>
+        <v>0.6257661519560932</v>
       </c>
       <c r="AL23">
-        <v>0.6413846378381822</v>
+        <v>0.6378578829615815</v>
       </c>
       <c r="AM23">
-        <v>0.6529725467184418</v>
+        <v>0.6499496139670699</v>
       </c>
       <c r="AN23">
-        <v>0.6645604555987016</v>
+        <v>0.6620413449725582</v>
       </c>
       <c r="AO23">
-        <v>0.6761483644789613</v>
+        <v>0.6741330759780465</v>
       </c>
       <c r="AP23">
-        <v>0.6877362733592209</v>
+        <v>0.6862248069835349</v>
       </c>
       <c r="AQ23">
-        <v>0.6993241822394807</v>
+        <v>0.6983165379890232</v>
       </c>
       <c r="AR23">
-        <v>0.7109120911197403</v>
+        <v>0.7104082689945116</v>
       </c>
       <c r="AS23">
         <v>0.7224999999999999</v>
@@ -33221,73 +35715,73 @@
         <v>0.5</v>
       </c>
       <c r="V24">
-        <v>0.5092708333333333</v>
+        <v>0.5</v>
       </c>
       <c r="W24">
-        <v>0.5185416666666667</v>
+        <v>0.5096739130434783</v>
       </c>
       <c r="X24">
-        <v>0.5278125</v>
+        <v>0.5193478260869565</v>
       </c>
       <c r="Y24">
-        <v>0.5370833333333334</v>
+        <v>0.5290217391304347</v>
       </c>
       <c r="Z24">
-        <v>0.5463541666666667</v>
+        <v>0.538695652173913</v>
       </c>
       <c r="AA24">
-        <v>0.555625</v>
+        <v>0.5483695652173913</v>
       </c>
       <c r="AB24">
-        <v>0.5648958333333333</v>
+        <v>0.5580434782608695</v>
       </c>
       <c r="AC24">
-        <v>0.5741666666666667</v>
+        <v>0.5677173913043478</v>
       </c>
       <c r="AD24">
-        <v>0.5834374999999999</v>
+        <v>0.577391304347826</v>
       </c>
       <c r="AE24">
-        <v>0.5927083333333333</v>
+        <v>0.5870652173913044</v>
       </c>
       <c r="AF24">
-        <v>0.6019791666666667</v>
+        <v>0.5967391304347827</v>
       </c>
       <c r="AG24">
-        <v>0.61125</v>
+        <v>0.6064130434782609</v>
       </c>
       <c r="AH24">
-        <v>0.6205208333333333</v>
+        <v>0.6160869565217391</v>
       </c>
       <c r="AI24">
-        <v>0.6297916666666666</v>
+        <v>0.6257608695652173</v>
       </c>
       <c r="AJ24">
-        <v>0.6390625</v>
+        <v>0.6354347826086957</v>
       </c>
       <c r="AK24">
-        <v>0.6483333333333332</v>
+        <v>0.6451086956521739</v>
       </c>
       <c r="AL24">
-        <v>0.6576041666666665</v>
+        <v>0.6547826086956521</v>
       </c>
       <c r="AM24">
-        <v>0.6668749999999999</v>
+        <v>0.6644565217391304</v>
       </c>
       <c r="AN24">
-        <v>0.6761458333333332</v>
+        <v>0.6741304347826087</v>
       </c>
       <c r="AO24">
-        <v>0.6854166666666666</v>
+        <v>0.6838043478260869</v>
       </c>
       <c r="AP24">
-        <v>0.6946874999999999</v>
+        <v>0.6934782608695651</v>
       </c>
       <c r="AQ24">
-        <v>0.7039583333333332</v>
+        <v>0.7031521739130433</v>
       </c>
       <c r="AR24">
-        <v>0.7132291666666666</v>
+        <v>0.7128260869565217</v>
       </c>
       <c r="AS24">
         <v>0.7224999999999999</v>
@@ -33346,73 +35840,73 @@
         <v>0.0223616407140226</v>
       </c>
       <c r="V25">
-        <v>0.05153407235093832</v>
+        <v>0.0223616407140226</v>
       </c>
       <c r="W25">
-        <v>0.08070650398785403</v>
+        <v>0.0528024389438477</v>
       </c>
       <c r="X25">
-        <v>0.1098789356247698</v>
+        <v>0.0832432371736728</v>
       </c>
       <c r="Y25">
-        <v>0.1390513672616855</v>
+        <v>0.1136840354034979</v>
       </c>
       <c r="Z25">
-        <v>0.1682237988986012</v>
+        <v>0.144124833633323</v>
       </c>
       <c r="AA25">
-        <v>0.1973962305355169</v>
+        <v>0.1745656318631481</v>
       </c>
       <c r="AB25">
-        <v>0.2265686621724327</v>
+        <v>0.2050064300929732</v>
       </c>
       <c r="AC25">
-        <v>0.2557410938093483</v>
+        <v>0.2354472283227983</v>
       </c>
       <c r="AD25">
-        <v>0.2849135254462641</v>
+        <v>0.2658880265526234</v>
       </c>
       <c r="AE25">
-        <v>0.3140859570831798</v>
+        <v>0.2963288247824485</v>
       </c>
       <c r="AF25">
-        <v>0.3432583887200956</v>
+        <v>0.3267696230122736</v>
       </c>
       <c r="AG25">
-        <v>0.3724308203570112</v>
+        <v>0.3572104212420987</v>
       </c>
       <c r="AH25">
-        <v>0.401603251993927</v>
+        <v>0.3876512194719238</v>
       </c>
       <c r="AI25">
-        <v>0.4307756836308427</v>
+        <v>0.4180920177017489</v>
       </c>
       <c r="AJ25">
-        <v>0.4599481152677585</v>
+        <v>0.4485328159315741</v>
       </c>
       <c r="AK25">
-        <v>0.4891205469046741</v>
+        <v>0.4789736141613992</v>
       </c>
       <c r="AL25">
-        <v>0.5182929785415898</v>
+        <v>0.5094144123912242</v>
       </c>
       <c r="AM25">
-        <v>0.5474654101785056</v>
+        <v>0.5398552106210494</v>
       </c>
       <c r="AN25">
-        <v>0.5766378418154213</v>
+        <v>0.5702960088508744</v>
       </c>
       <c r="AO25">
-        <v>0.6058102734523371</v>
+        <v>0.6007368070806994</v>
       </c>
       <c r="AP25">
-        <v>0.6349827050892527</v>
+        <v>0.6311776053105246</v>
       </c>
       <c r="AQ25">
-        <v>0.6641551367261685</v>
+        <v>0.6616184035403496</v>
       </c>
       <c r="AR25">
-        <v>0.6933275683630843</v>
+        <v>0.6920592017701749</v>
       </c>
       <c r="AS25">
         <v>0.7224999999999999</v>
@@ -33471,73 +35965,73 @@
         <v>0.503747507293613</v>
       </c>
       <c r="V26">
-        <v>0.5184457845110152</v>
+        <v>0.503747507293613</v>
       </c>
       <c r="W26">
-        <v>0.5331440617284174</v>
+        <v>0.5190848400422066</v>
       </c>
       <c r="X26">
-        <v>0.5478423389458197</v>
+        <v>0.5344221727908003</v>
       </c>
       <c r="Y26">
-        <v>0.5625406161632219</v>
+        <v>0.5497595055393939</v>
       </c>
       <c r="Z26">
-        <v>0.5772388933806242</v>
+        <v>0.5650968382879875</v>
       </c>
       <c r="AA26">
-        <v>0.5919371705980264</v>
+        <v>0.5804341710365812</v>
       </c>
       <c r="AB26">
-        <v>0.6066354478154287</v>
+        <v>0.5957715037851748</v>
       </c>
       <c r="AC26">
-        <v>0.621333725032831</v>
+        <v>0.6111088365337685</v>
       </c>
       <c r="AD26">
-        <v>0.6360320022502333</v>
+        <v>0.6264461692823622</v>
       </c>
       <c r="AE26">
-        <v>0.6507302794676354</v>
+        <v>0.6417835020309559</v>
       </c>
       <c r="AF26">
-        <v>0.6654285566850378</v>
+        <v>0.6571208347795495</v>
       </c>
       <c r="AG26">
-        <v>0.68012683390244</v>
+        <v>0.6724581675281431</v>
       </c>
       <c r="AH26">
-        <v>0.6948251111198422</v>
+        <v>0.6877955002767367</v>
       </c>
       <c r="AI26">
-        <v>0.7095233883372445</v>
+        <v>0.7031328330253304</v>
       </c>
       <c r="AJ26">
-        <v>0.7242216655546467</v>
+        <v>0.7184701657739241</v>
       </c>
       <c r="AK26">
-        <v>0.738919942772049</v>
+        <v>0.7338074985225177</v>
       </c>
       <c r="AL26">
-        <v>0.7536182199894512</v>
+        <v>0.7491448312711113</v>
       </c>
       <c r="AM26">
-        <v>0.7683164972068535</v>
+        <v>0.764482164019705</v>
       </c>
       <c r="AN26">
-        <v>0.7830147744242557</v>
+        <v>0.7798194967682988</v>
       </c>
       <c r="AO26">
-        <v>0.797713051641658</v>
+        <v>0.7951568295168924</v>
       </c>
       <c r="AP26">
-        <v>0.8124113288590602</v>
+        <v>0.810494162265486</v>
       </c>
       <c r="AQ26">
-        <v>0.8271096060764624</v>
+        <v>0.8258314950140796</v>
       </c>
       <c r="AR26">
-        <v>0.8418078832938647</v>
+        <v>0.8411688277626733</v>
       </c>
       <c r="AS26">
         <v>0.8565061605112669</v>
@@ -33596,73 +36090,73 @@
         <v>0.352758653217654</v>
       </c>
       <c r="V27">
-        <v>0.3380603760002517</v>
+        <v>0.352758653217654</v>
       </c>
       <c r="W27">
-        <v>0.3233620987828495</v>
+        <v>0.3374213204690603</v>
       </c>
       <c r="X27">
-        <v>0.3086638215654472</v>
+        <v>0.3220839877204667</v>
       </c>
       <c r="Y27">
-        <v>0.293965544348045</v>
+        <v>0.306746654971873</v>
       </c>
       <c r="Z27">
-        <v>0.2792672671306427</v>
+        <v>0.2914093222232794</v>
       </c>
       <c r="AA27">
-        <v>0.2645689899132405</v>
+        <v>0.2760719894746858</v>
       </c>
       <c r="AB27">
-        <v>0.2498707126958382</v>
+        <v>0.2607346567260921</v>
       </c>
       <c r="AC27">
-        <v>0.235172435478436</v>
+        <v>0.2453973239774984</v>
       </c>
       <c r="AD27">
-        <v>0.2204741582610337</v>
+        <v>0.2300599912289048</v>
       </c>
       <c r="AE27">
-        <v>0.2057758810436315</v>
+        <v>0.2147226584803111</v>
       </c>
       <c r="AF27">
-        <v>0.1910776038262293</v>
+        <v>0.1993853257317175</v>
       </c>
       <c r="AG27">
-        <v>0.176379326608827</v>
+        <v>0.1840479929831238</v>
       </c>
       <c r="AH27">
-        <v>0.1616810493914247</v>
+        <v>0.1687106602345302</v>
       </c>
       <c r="AI27">
-        <v>0.1469827721740225</v>
+        <v>0.1533733274859365</v>
       </c>
       <c r="AJ27">
-        <v>0.1322844949566203</v>
+        <v>0.1380359947373428</v>
       </c>
       <c r="AK27">
-        <v>0.117586217739218</v>
+        <v>0.1226986619887492</v>
       </c>
       <c r="AL27">
-        <v>0.1028879405218157</v>
+        <v>0.1073613292401556</v>
       </c>
       <c r="AM27">
-        <v>0.0881896633044135</v>
+        <v>0.09202399649156193</v>
       </c>
       <c r="AN27">
-        <v>0.07349138608701127</v>
+        <v>0.07668666374296824</v>
       </c>
       <c r="AO27">
-        <v>0.05879310886960899</v>
+        <v>0.0613493309943746</v>
       </c>
       <c r="AP27">
-        <v>0.04409483165220675</v>
+        <v>0.04601199824578096</v>
       </c>
       <c r="AQ27">
-        <v>0.02939655443480451</v>
+        <v>0.03067466549718732</v>
       </c>
       <c r="AR27">
-        <v>0.01469827721740224</v>
+        <v>0.01533733274859364</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -33721,73 +36215,73 @@
         <v>0.1632</v>
       </c>
       <c r="V28">
-        <v>0.1940041666666667</v>
+        <v>0.1632</v>
       </c>
       <c r="W28">
-        <v>0.2248083333333333</v>
+        <v>0.1953434782608696</v>
       </c>
       <c r="X28">
-        <v>0.2556125</v>
+        <v>0.2274869565217391</v>
       </c>
       <c r="Y28">
-        <v>0.2864166666666667</v>
+        <v>0.2596304347826087</v>
       </c>
       <c r="Z28">
-        <v>0.3172208333333333</v>
+        <v>0.2917739130434782</v>
       </c>
       <c r="AA28">
-        <v>0.348025</v>
+        <v>0.3239173913043478</v>
       </c>
       <c r="AB28">
-        <v>0.3788291666666667</v>
+        <v>0.3560608695652174</v>
       </c>
       <c r="AC28">
-        <v>0.4096333333333333</v>
+        <v>0.388204347826087</v>
       </c>
       <c r="AD28">
-        <v>0.4404375</v>
+        <v>0.4203478260869565</v>
       </c>
       <c r="AE28">
-        <v>0.4712416666666667</v>
+        <v>0.4524913043478261</v>
       </c>
       <c r="AF28">
-        <v>0.5020458333333333</v>
+        <v>0.4846347826086956</v>
       </c>
       <c r="AG28">
-        <v>0.53285</v>
+        <v>0.5167782608695652</v>
       </c>
       <c r="AH28">
-        <v>0.5636541666666666</v>
+        <v>0.5489217391304347</v>
       </c>
       <c r="AI28">
-        <v>0.5944583333333333</v>
+        <v>0.5810652173913043</v>
       </c>
       <c r="AJ28">
-        <v>0.6252625000000001</v>
+        <v>0.613208695652174</v>
       </c>
       <c r="AK28">
-        <v>0.6560666666666666</v>
+        <v>0.6453521739130434</v>
       </c>
       <c r="AL28">
-        <v>0.6868708333333333</v>
+        <v>0.6774956521739129</v>
       </c>
       <c r="AM28">
-        <v>0.7176750000000001</v>
+        <v>0.7096391304347826</v>
       </c>
       <c r="AN28">
-        <v>0.7484791666666666</v>
+        <v>0.7417826086956522</v>
       </c>
       <c r="AO28">
-        <v>0.7792833333333333</v>
+        <v>0.7739260869565217</v>
       </c>
       <c r="AP28">
-        <v>0.8100875</v>
+        <v>0.8060695652173913</v>
       </c>
       <c r="AQ28">
-        <v>0.8408916666666667</v>
+        <v>0.8382130434782609</v>
       </c>
       <c r="AR28">
-        <v>0.8716958333333333</v>
+        <v>0.8703565217391305</v>
       </c>
       <c r="AS28">
         <v>0.9025</v>
@@ -33846,73 +36340,73 @@
         <v>0.1632</v>
       </c>
       <c r="V29">
-        <v>0.1940041666666667</v>
+        <v>0.1632</v>
       </c>
       <c r="W29">
-        <v>0.2248083333333333</v>
+        <v>0.1953434782608696</v>
       </c>
       <c r="X29">
-        <v>0.2556125</v>
+        <v>0.2274869565217391</v>
       </c>
       <c r="Y29">
-        <v>0.2864166666666667</v>
+        <v>0.2596304347826087</v>
       </c>
       <c r="Z29">
-        <v>0.3172208333333333</v>
+        <v>0.2917739130434782</v>
       </c>
       <c r="AA29">
-        <v>0.348025</v>
+        <v>0.3239173913043478</v>
       </c>
       <c r="AB29">
-        <v>0.3788291666666667</v>
+        <v>0.3560608695652174</v>
       </c>
       <c r="AC29">
-        <v>0.4096333333333333</v>
+        <v>0.388204347826087</v>
       </c>
       <c r="AD29">
-        <v>0.4404375</v>
+        <v>0.4203478260869565</v>
       </c>
       <c r="AE29">
-        <v>0.4712416666666667</v>
+        <v>0.4524913043478261</v>
       </c>
       <c r="AF29">
-        <v>0.5020458333333333</v>
+        <v>0.4846347826086956</v>
       </c>
       <c r="AG29">
-        <v>0.53285</v>
+        <v>0.5167782608695652</v>
       </c>
       <c r="AH29">
-        <v>0.5636541666666666</v>
+        <v>0.5489217391304347</v>
       </c>
       <c r="AI29">
-        <v>0.5944583333333333</v>
+        <v>0.5810652173913043</v>
       </c>
       <c r="AJ29">
-        <v>0.6252625000000001</v>
+        <v>0.613208695652174</v>
       </c>
       <c r="AK29">
-        <v>0.6560666666666666</v>
+        <v>0.6453521739130434</v>
       </c>
       <c r="AL29">
-        <v>0.6868708333333333</v>
+        <v>0.6774956521739129</v>
       </c>
       <c r="AM29">
-        <v>0.7176750000000001</v>
+        <v>0.7096391304347826</v>
       </c>
       <c r="AN29">
-        <v>0.7484791666666666</v>
+        <v>0.7417826086956522</v>
       </c>
       <c r="AO29">
-        <v>0.7792833333333333</v>
+        <v>0.7739260869565217</v>
       </c>
       <c r="AP29">
-        <v>0.8100875</v>
+        <v>0.8060695652173913</v>
       </c>
       <c r="AQ29">
-        <v>0.8408916666666667</v>
+        <v>0.8382130434782609</v>
       </c>
       <c r="AR29">
-        <v>0.8716958333333333</v>
+        <v>0.8703565217391305</v>
       </c>
       <c r="AS29">
         <v>0.9025</v>
@@ -33971,73 +36465,73 @@
         <v>0.1632</v>
       </c>
       <c r="V30">
-        <v>0.1940041666666667</v>
+        <v>0.1632</v>
       </c>
       <c r="W30">
-        <v>0.2248083333333333</v>
+        <v>0.1953434782608696</v>
       </c>
       <c r="X30">
-        <v>0.2556125</v>
+        <v>0.2274869565217391</v>
       </c>
       <c r="Y30">
-        <v>0.2864166666666667</v>
+        <v>0.2596304347826087</v>
       </c>
       <c r="Z30">
-        <v>0.3172208333333333</v>
+        <v>0.2917739130434782</v>
       </c>
       <c r="AA30">
-        <v>0.348025</v>
+        <v>0.3239173913043478</v>
       </c>
       <c r="AB30">
-        <v>0.3788291666666667</v>
+        <v>0.3560608695652174</v>
       </c>
       <c r="AC30">
-        <v>0.4096333333333333</v>
+        <v>0.388204347826087</v>
       </c>
       <c r="AD30">
-        <v>0.4404375</v>
+        <v>0.4203478260869565</v>
       </c>
       <c r="AE30">
-        <v>0.4712416666666667</v>
+        <v>0.4524913043478261</v>
       </c>
       <c r="AF30">
-        <v>0.5020458333333333</v>
+        <v>0.4846347826086956</v>
       </c>
       <c r="AG30">
-        <v>0.53285</v>
+        <v>0.5167782608695652</v>
       </c>
       <c r="AH30">
-        <v>0.5636541666666666</v>
+        <v>0.5489217391304347</v>
       </c>
       <c r="AI30">
-        <v>0.5944583333333333</v>
+        <v>0.5810652173913043</v>
       </c>
       <c r="AJ30">
-        <v>0.6252625000000001</v>
+        <v>0.613208695652174</v>
       </c>
       <c r="AK30">
-        <v>0.6560666666666666</v>
+        <v>0.6453521739130434</v>
       </c>
       <c r="AL30">
-        <v>0.6868708333333333</v>
+        <v>0.6774956521739129</v>
       </c>
       <c r="AM30">
-        <v>0.7176750000000001</v>
+        <v>0.7096391304347826</v>
       </c>
       <c r="AN30">
-        <v>0.7484791666666666</v>
+        <v>0.7417826086956522</v>
       </c>
       <c r="AO30">
-        <v>0.7792833333333333</v>
+        <v>0.7739260869565217</v>
       </c>
       <c r="AP30">
-        <v>0.8100875</v>
+        <v>0.8060695652173913</v>
       </c>
       <c r="AQ30">
-        <v>0.8408916666666667</v>
+        <v>0.8382130434782609</v>
       </c>
       <c r="AR30">
-        <v>0.8716958333333333</v>
+        <v>0.8703565217391305</v>
       </c>
       <c r="AS30">
         <v>0.9025</v>
@@ -34096,73 +36590,73 @@
         <v>0.1632</v>
       </c>
       <c r="V31">
-        <v>0.1940041666666667</v>
+        <v>0.1632</v>
       </c>
       <c r="W31">
-        <v>0.2248083333333333</v>
+        <v>0.1953434782608696</v>
       </c>
       <c r="X31">
-        <v>0.2556125</v>
+        <v>0.2274869565217391</v>
       </c>
       <c r="Y31">
-        <v>0.2864166666666667</v>
+        <v>0.2596304347826087</v>
       </c>
       <c r="Z31">
-        <v>0.3172208333333333</v>
+        <v>0.2917739130434782</v>
       </c>
       <c r="AA31">
-        <v>0.348025</v>
+        <v>0.3239173913043478</v>
       </c>
       <c r="AB31">
-        <v>0.3788291666666667</v>
+        <v>0.3560608695652174</v>
       </c>
       <c r="AC31">
-        <v>0.4096333333333333</v>
+        <v>0.388204347826087</v>
       </c>
       <c r="AD31">
-        <v>0.4404375</v>
+        <v>0.4203478260869565</v>
       </c>
       <c r="AE31">
-        <v>0.4712416666666667</v>
+        <v>0.4524913043478261</v>
       </c>
       <c r="AF31">
-        <v>0.5020458333333333</v>
+        <v>0.4846347826086956</v>
       </c>
       <c r="AG31">
-        <v>0.53285</v>
+        <v>0.5167782608695652</v>
       </c>
       <c r="AH31">
-        <v>0.5636541666666666</v>
+        <v>0.5489217391304347</v>
       </c>
       <c r="AI31">
-        <v>0.5944583333333333</v>
+        <v>0.5810652173913043</v>
       </c>
       <c r="AJ31">
-        <v>0.6252625000000001</v>
+        <v>0.613208695652174</v>
       </c>
       <c r="AK31">
-        <v>0.6560666666666666</v>
+        <v>0.6453521739130434</v>
       </c>
       <c r="AL31">
-        <v>0.6868708333333333</v>
+        <v>0.6774956521739129</v>
       </c>
       <c r="AM31">
-        <v>0.7176750000000001</v>
+        <v>0.7096391304347826</v>
       </c>
       <c r="AN31">
-        <v>0.7484791666666666</v>
+        <v>0.7417826086956522</v>
       </c>
       <c r="AO31">
-        <v>0.7792833333333333</v>
+        <v>0.7739260869565217</v>
       </c>
       <c r="AP31">
-        <v>0.8100875</v>
+        <v>0.8060695652173913</v>
       </c>
       <c r="AQ31">
-        <v>0.8408916666666667</v>
+        <v>0.8382130434782609</v>
       </c>
       <c r="AR31">
-        <v>0.8716958333333333</v>
+        <v>0.8703565217391305</v>
       </c>
       <c r="AS31">
         <v>0.9025</v>
@@ -34221,73 +36715,73 @@
         <v>0.1632</v>
       </c>
       <c r="V32">
-        <v>0.1940041666666667</v>
+        <v>0.1632</v>
       </c>
       <c r="W32">
-        <v>0.2248083333333333</v>
+        <v>0.1953434782608696</v>
       </c>
       <c r="X32">
-        <v>0.2556125</v>
+        <v>0.2274869565217391</v>
       </c>
       <c r="Y32">
-        <v>0.2864166666666667</v>
+        <v>0.2596304347826087</v>
       </c>
       <c r="Z32">
-        <v>0.3172208333333333</v>
+        <v>0.2917739130434782</v>
       </c>
       <c r="AA32">
-        <v>0.348025</v>
+        <v>0.3239173913043478</v>
       </c>
       <c r="AB32">
-        <v>0.3788291666666667</v>
+        <v>0.3560608695652174</v>
       </c>
       <c r="AC32">
-        <v>0.4096333333333333</v>
+        <v>0.388204347826087</v>
       </c>
       <c r="AD32">
-        <v>0.4404375</v>
+        <v>0.4203478260869565</v>
       </c>
       <c r="AE32">
-        <v>0.4712416666666667</v>
+        <v>0.4524913043478261</v>
       </c>
       <c r="AF32">
-        <v>0.5020458333333333</v>
+        <v>0.4846347826086956</v>
       </c>
       <c r="AG32">
-        <v>0.53285</v>
+        <v>0.5167782608695652</v>
       </c>
       <c r="AH32">
-        <v>0.5636541666666666</v>
+        <v>0.5489217391304347</v>
       </c>
       <c r="AI32">
-        <v>0.5944583333333333</v>
+        <v>0.5810652173913043</v>
       </c>
       <c r="AJ32">
-        <v>0.6252625000000001</v>
+        <v>0.613208695652174</v>
       </c>
       <c r="AK32">
-        <v>0.6560666666666666</v>
+        <v>0.6453521739130434</v>
       </c>
       <c r="AL32">
-        <v>0.6868708333333333</v>
+        <v>0.6774956521739129</v>
       </c>
       <c r="AM32">
-        <v>0.7176750000000001</v>
+        <v>0.7096391304347826</v>
       </c>
       <c r="AN32">
-        <v>0.7484791666666666</v>
+        <v>0.7417826086956522</v>
       </c>
       <c r="AO32">
-        <v>0.7792833333333333</v>
+        <v>0.7739260869565217</v>
       </c>
       <c r="AP32">
-        <v>0.8100875</v>
+        <v>0.8060695652173913</v>
       </c>
       <c r="AQ32">
-        <v>0.8408916666666667</v>
+        <v>0.8382130434782609</v>
       </c>
       <c r="AR32">
-        <v>0.8716958333333333</v>
+        <v>0.8703565217391305</v>
       </c>
       <c r="AS32">
         <v>0.9025</v>
@@ -34346,73 +36840,73 @@
         <v>0.1632</v>
       </c>
       <c r="V33">
-        <v>0.1940041666666667</v>
+        <v>0.1632</v>
       </c>
       <c r="W33">
-        <v>0.2248083333333333</v>
+        <v>0.1953434782608696</v>
       </c>
       <c r="X33">
-        <v>0.2556125</v>
+        <v>0.2274869565217391</v>
       </c>
       <c r="Y33">
-        <v>0.2864166666666667</v>
+        <v>0.2596304347826087</v>
       </c>
       <c r="Z33">
-        <v>0.3172208333333333</v>
+        <v>0.2917739130434782</v>
       </c>
       <c r="AA33">
-        <v>0.348025</v>
+        <v>0.3239173913043478</v>
       </c>
       <c r="AB33">
-        <v>0.3788291666666667</v>
+        <v>0.3560608695652174</v>
       </c>
       <c r="AC33">
-        <v>0.4096333333333333</v>
+        <v>0.388204347826087</v>
       </c>
       <c r="AD33">
-        <v>0.4404375</v>
+        <v>0.4203478260869565</v>
       </c>
       <c r="AE33">
-        <v>0.4712416666666667</v>
+        <v>0.4524913043478261</v>
       </c>
       <c r="AF33">
-        <v>0.5020458333333333</v>
+        <v>0.4846347826086956</v>
       </c>
       <c r="AG33">
-        <v>0.53285</v>
+        <v>0.5167782608695652</v>
       </c>
       <c r="AH33">
-        <v>0.5636541666666666</v>
+        <v>0.5489217391304347</v>
       </c>
       <c r="AI33">
-        <v>0.5944583333333333</v>
+        <v>0.5810652173913043</v>
       </c>
       <c r="AJ33">
-        <v>0.6252625000000001</v>
+        <v>0.613208695652174</v>
       </c>
       <c r="AK33">
-        <v>0.6560666666666666</v>
+        <v>0.6453521739130434</v>
       </c>
       <c r="AL33">
-        <v>0.6868708333333333</v>
+        <v>0.6774956521739129</v>
       </c>
       <c r="AM33">
-        <v>0.7176750000000001</v>
+        <v>0.7096391304347826</v>
       </c>
       <c r="AN33">
-        <v>0.7484791666666666</v>
+        <v>0.7417826086956522</v>
       </c>
       <c r="AO33">
-        <v>0.7792833333333333</v>
+        <v>0.7739260869565217</v>
       </c>
       <c r="AP33">
-        <v>0.8100875</v>
+        <v>0.8060695652173913</v>
       </c>
       <c r="AQ33">
-        <v>0.8408916666666667</v>
+        <v>0.8382130434782609</v>
       </c>
       <c r="AR33">
-        <v>0.8716958333333333</v>
+        <v>0.8703565217391305</v>
       </c>
       <c r="AS33">
         <v>0.9025</v>
@@ -34471,73 +36965,73 @@
         <v>0.1632</v>
       </c>
       <c r="V34">
-        <v>0.1940041666666667</v>
+        <v>0.1632</v>
       </c>
       <c r="W34">
-        <v>0.2248083333333333</v>
+        <v>0.1953434782608696</v>
       </c>
       <c r="X34">
-        <v>0.2556125</v>
+        <v>0.2274869565217391</v>
       </c>
       <c r="Y34">
-        <v>0.2864166666666667</v>
+        <v>0.2596304347826087</v>
       </c>
       <c r="Z34">
-        <v>0.3172208333333333</v>
+        <v>0.2917739130434782</v>
       </c>
       <c r="AA34">
-        <v>0.348025</v>
+        <v>0.3239173913043478</v>
       </c>
       <c r="AB34">
-        <v>0.3788291666666667</v>
+        <v>0.3560608695652174</v>
       </c>
       <c r="AC34">
-        <v>0.4096333333333333</v>
+        <v>0.388204347826087</v>
       </c>
       <c r="AD34">
-        <v>0.4404375</v>
+        <v>0.4203478260869565</v>
       </c>
       <c r="AE34">
-        <v>0.4712416666666667</v>
+        <v>0.4524913043478261</v>
       </c>
       <c r="AF34">
-        <v>0.5020458333333333</v>
+        <v>0.4846347826086956</v>
       </c>
       <c r="AG34">
-        <v>0.53285</v>
+        <v>0.5167782608695652</v>
       </c>
       <c r="AH34">
-        <v>0.5636541666666666</v>
+        <v>0.5489217391304347</v>
       </c>
       <c r="AI34">
-        <v>0.5944583333333333</v>
+        <v>0.5810652173913043</v>
       </c>
       <c r="AJ34">
-        <v>0.6252625000000001</v>
+        <v>0.613208695652174</v>
       </c>
       <c r="AK34">
-        <v>0.6560666666666666</v>
+        <v>0.6453521739130434</v>
       </c>
       <c r="AL34">
-        <v>0.6868708333333333</v>
+        <v>0.6774956521739129</v>
       </c>
       <c r="AM34">
-        <v>0.7176750000000001</v>
+        <v>0.7096391304347826</v>
       </c>
       <c r="AN34">
-        <v>0.7484791666666666</v>
+        <v>0.7417826086956522</v>
       </c>
       <c r="AO34">
-        <v>0.7792833333333333</v>
+        <v>0.7739260869565217</v>
       </c>
       <c r="AP34">
-        <v>0.8100875</v>
+        <v>0.8060695652173913</v>
       </c>
       <c r="AQ34">
-        <v>0.8408916666666667</v>
+        <v>0.8382130434782609</v>
       </c>
       <c r="AR34">
-        <v>0.8716958333333333</v>
+        <v>0.8703565217391305</v>
       </c>
       <c r="AS34">
         <v>0.9025</v>
@@ -34602,10 +37096,10 @@
         <v>0.95</v>
       </c>
       <c r="Y35">
+        <v>0.9499999999999998</v>
+      </c>
+      <c r="Z35">
         <v>0.95</v>
-      </c>
-      <c r="Z35">
-        <v>0.9499999999999998</v>
       </c>
       <c r="AA35">
         <v>0.95</v>
@@ -34614,7 +37108,7 @@
         <v>0.95</v>
       </c>
       <c r="AC35">
-        <v>0.9500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD35">
         <v>0.95</v>
@@ -34715,73 +37209,73 @@
         <v>0.5</v>
       </c>
       <c r="V36">
-        <v>0.5129166666666667</v>
+        <v>0.5</v>
       </c>
       <c r="W36">
-        <v>0.5258333333333334</v>
+        <v>0.5134782608695653</v>
       </c>
       <c r="X36">
-        <v>0.5387500000000001</v>
+        <v>0.5269565217391304</v>
       </c>
       <c r="Y36">
-        <v>0.5516666666666667</v>
+        <v>0.5404347826086956</v>
       </c>
       <c r="Z36">
-        <v>0.5645833333333333</v>
+        <v>0.5539130434782609</v>
       </c>
       <c r="AA36">
-        <v>0.5775</v>
+        <v>0.5673913043478261</v>
       </c>
       <c r="AB36">
-        <v>0.5904166666666667</v>
+        <v>0.5808695652173913</v>
       </c>
       <c r="AC36">
-        <v>0.6033333333333334</v>
+        <v>0.5943478260869566</v>
       </c>
       <c r="AD36">
-        <v>0.61625</v>
+        <v>0.6078260869565217</v>
       </c>
       <c r="AE36">
-        <v>0.6291666666666667</v>
+        <v>0.621304347826087</v>
       </c>
       <c r="AF36">
-        <v>0.6420833333333333</v>
+        <v>0.6347826086956523</v>
       </c>
       <c r="AG36">
-        <v>0.655</v>
+        <v>0.6482608695652174</v>
       </c>
       <c r="AH36">
-        <v>0.6679166666666667</v>
+        <v>0.6617391304347826</v>
       </c>
       <c r="AI36">
-        <v>0.6808333333333334</v>
+        <v>0.6752173913043478</v>
       </c>
       <c r="AJ36">
-        <v>0.6937500000000001</v>
+        <v>0.6886956521739132</v>
       </c>
       <c r="AK36">
-        <v>0.7066666666666668</v>
+        <v>0.7021739130434783</v>
       </c>
       <c r="AL36">
-        <v>0.7195833333333335</v>
+        <v>0.7156521739130435</v>
       </c>
       <c r="AM36">
-        <v>0.7325</v>
+        <v>0.7291304347826087</v>
       </c>
       <c r="AN36">
-        <v>0.7454166666666666</v>
+        <v>0.742608695652174</v>
       </c>
       <c r="AO36">
-        <v>0.7583333333333333</v>
+        <v>0.7560869565217392</v>
       </c>
       <c r="AP36">
-        <v>0.77125</v>
+        <v>0.7695652173913043</v>
       </c>
       <c r="AQ36">
-        <v>0.7841666666666667</v>
+        <v>0.7830434782608695</v>
       </c>
       <c r="AR36">
-        <v>0.7970833333333334</v>
+        <v>0.7965217391304349</v>
       </c>
       <c r="AS36">
         <v>0.8100000000000001</v>
@@ -34840,73 +37334,73 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0.03010416666666666</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>0.06020833333333332</v>
+        <v>0.03141304347826086</v>
       </c>
       <c r="X37">
-        <v>0.09031249999999999</v>
+        <v>0.06282608695652173</v>
       </c>
       <c r="Y37">
-        <v>0.1204166666666666</v>
+        <v>0.09423913043478259</v>
       </c>
       <c r="Z37">
-        <v>0.1505208333333333</v>
+        <v>0.1256521739130435</v>
       </c>
       <c r="AA37">
-        <v>0.180625</v>
+        <v>0.1570652173913043</v>
       </c>
       <c r="AB37">
-        <v>0.2107291666666667</v>
+        <v>0.1884782608695652</v>
       </c>
       <c r="AC37">
-        <v>0.2408333333333333</v>
+        <v>0.2198913043478261</v>
       </c>
       <c r="AD37">
-        <v>0.2709374999999999</v>
+        <v>0.2513043478260869</v>
       </c>
       <c r="AE37">
-        <v>0.3010416666666667</v>
+        <v>0.2827173913043478</v>
       </c>
       <c r="AF37">
-        <v>0.3311458333333333</v>
+        <v>0.3141304347826087</v>
       </c>
       <c r="AG37">
-        <v>0.36125</v>
+        <v>0.3455434782608696</v>
       </c>
       <c r="AH37">
-        <v>0.3913541666666666</v>
+        <v>0.3769565217391304</v>
       </c>
       <c r="AI37">
-        <v>0.4214583333333333</v>
+        <v>0.4083695652173912</v>
       </c>
       <c r="AJ37">
-        <v>0.4515625</v>
+        <v>0.4397826086956522</v>
       </c>
       <c r="AK37">
-        <v>0.4816666666666666</v>
+        <v>0.471195652173913</v>
       </c>
       <c r="AL37">
-        <v>0.5117708333333333</v>
+        <v>0.5026086956521738</v>
       </c>
       <c r="AM37">
-        <v>0.5418749999999999</v>
+        <v>0.5340217391304347</v>
       </c>
       <c r="AN37">
-        <v>0.5719791666666666</v>
+        <v>0.5654347826086956</v>
       </c>
       <c r="AO37">
-        <v>0.6020833333333333</v>
+        <v>0.5968478260869564</v>
       </c>
       <c r="AP37">
-        <v>0.6321874999999999</v>
+        <v>0.6282608695652173</v>
       </c>
       <c r="AQ37">
-        <v>0.6622916666666666</v>
+        <v>0.6596739130434781</v>
       </c>
       <c r="AR37">
-        <v>0.6923958333333333</v>
+        <v>0.6910869565217391</v>
       </c>
       <c r="AS37">
         <v>0.7224999999999999</v>
@@ -34965,73 +37459,73 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0.03010416666666666</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>0.06020833333333332</v>
+        <v>0.03141304347826086</v>
       </c>
       <c r="X38">
-        <v>0.09031249999999999</v>
+        <v>0.06282608695652173</v>
       </c>
       <c r="Y38">
-        <v>0.1204166666666666</v>
+        <v>0.09423913043478259</v>
       </c>
       <c r="Z38">
-        <v>0.1505208333333333</v>
+        <v>0.1256521739130435</v>
       </c>
       <c r="AA38">
-        <v>0.180625</v>
+        <v>0.1570652173913043</v>
       </c>
       <c r="AB38">
-        <v>0.2107291666666667</v>
+        <v>0.1884782608695652</v>
       </c>
       <c r="AC38">
-        <v>0.2408333333333333</v>
+        <v>0.2198913043478261</v>
       </c>
       <c r="AD38">
-        <v>0.2709374999999999</v>
+        <v>0.2513043478260869</v>
       </c>
       <c r="AE38">
-        <v>0.3010416666666667</v>
+        <v>0.2827173913043478</v>
       </c>
       <c r="AF38">
-        <v>0.3311458333333333</v>
+        <v>0.3141304347826087</v>
       </c>
       <c r="AG38">
-        <v>0.36125</v>
+        <v>0.3455434782608696</v>
       </c>
       <c r="AH38">
-        <v>0.3913541666666666</v>
+        <v>0.3769565217391304</v>
       </c>
       <c r="AI38">
-        <v>0.4214583333333333</v>
+        <v>0.4083695652173912</v>
       </c>
       <c r="AJ38">
-        <v>0.4515625</v>
+        <v>0.4397826086956522</v>
       </c>
       <c r="AK38">
-        <v>0.4816666666666666</v>
+        <v>0.471195652173913</v>
       </c>
       <c r="AL38">
-        <v>0.5117708333333333</v>
+        <v>0.5026086956521738</v>
       </c>
       <c r="AM38">
-        <v>0.5418749999999999</v>
+        <v>0.5340217391304347</v>
       </c>
       <c r="AN38">
-        <v>0.5719791666666666</v>
+        <v>0.5654347826086956</v>
       </c>
       <c r="AO38">
-        <v>0.6020833333333333</v>
+        <v>0.5968478260869564</v>
       </c>
       <c r="AP38">
-        <v>0.6321874999999999</v>
+        <v>0.6282608695652173</v>
       </c>
       <c r="AQ38">
-        <v>0.6622916666666666</v>
+        <v>0.6596739130434781</v>
       </c>
       <c r="AR38">
-        <v>0.6923958333333333</v>
+        <v>0.6910869565217391</v>
       </c>
       <c r="AS38">
         <v>0.7224999999999999</v>
@@ -35090,73 +37584,73 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>0.03010416666666666</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>0.06020833333333332</v>
+        <v>0.03141304347826086</v>
       </c>
       <c r="X39">
-        <v>0.09031249999999999</v>
+        <v>0.06282608695652173</v>
       </c>
       <c r="Y39">
-        <v>0.1204166666666666</v>
+        <v>0.09423913043478259</v>
       </c>
       <c r="Z39">
-        <v>0.1505208333333333</v>
+        <v>0.1256521739130435</v>
       </c>
       <c r="AA39">
-        <v>0.180625</v>
+        <v>0.1570652173913043</v>
       </c>
       <c r="AB39">
-        <v>0.2107291666666667</v>
+        <v>0.1884782608695652</v>
       </c>
       <c r="AC39">
-        <v>0.2408333333333333</v>
+        <v>0.2198913043478261</v>
       </c>
       <c r="AD39">
-        <v>0.2709374999999999</v>
+        <v>0.2513043478260869</v>
       </c>
       <c r="AE39">
-        <v>0.3010416666666667</v>
+        <v>0.2827173913043478</v>
       </c>
       <c r="AF39">
-        <v>0.3311458333333333</v>
+        <v>0.3141304347826087</v>
       </c>
       <c r="AG39">
-        <v>0.36125</v>
+        <v>0.3455434782608696</v>
       </c>
       <c r="AH39">
-        <v>0.3913541666666666</v>
+        <v>0.3769565217391304</v>
       </c>
       <c r="AI39">
-        <v>0.4214583333333333</v>
+        <v>0.4083695652173912</v>
       </c>
       <c r="AJ39">
-        <v>0.4515625</v>
+        <v>0.4397826086956522</v>
       </c>
       <c r="AK39">
-        <v>0.4816666666666666</v>
+        <v>0.471195652173913</v>
       </c>
       <c r="AL39">
-        <v>0.5117708333333333</v>
+        <v>0.5026086956521738</v>
       </c>
       <c r="AM39">
-        <v>0.5418749999999999</v>
+        <v>0.5340217391304347</v>
       </c>
       <c r="AN39">
-        <v>0.5719791666666666</v>
+        <v>0.5654347826086956</v>
       </c>
       <c r="AO39">
-        <v>0.6020833333333333</v>
+        <v>0.5968478260869564</v>
       </c>
       <c r="AP39">
-        <v>0.6321874999999999</v>
+        <v>0.6282608695652173</v>
       </c>
       <c r="AQ39">
-        <v>0.6622916666666666</v>
+        <v>0.6596739130434781</v>
       </c>
       <c r="AR39">
-        <v>0.6923958333333333</v>
+        <v>0.6910869565217391</v>
       </c>
       <c r="AS39">
         <v>0.7224999999999999</v>
@@ -35215,73 +37709,73 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>0.03010416666666666</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0.06020833333333332</v>
+        <v>0.03141304347826086</v>
       </c>
       <c r="X40">
-        <v>0.09031249999999999</v>
+        <v>0.06282608695652173</v>
       </c>
       <c r="Y40">
-        <v>0.1204166666666666</v>
+        <v>0.09423913043478259</v>
       </c>
       <c r="Z40">
-        <v>0.1505208333333333</v>
+        <v>0.1256521739130435</v>
       </c>
       <c r="AA40">
-        <v>0.180625</v>
+        <v>0.1570652173913043</v>
       </c>
       <c r="AB40">
-        <v>0.2107291666666667</v>
+        <v>0.1884782608695652</v>
       </c>
       <c r="AC40">
-        <v>0.2408333333333333</v>
+        <v>0.2198913043478261</v>
       </c>
       <c r="AD40">
-        <v>0.2709374999999999</v>
+        <v>0.2513043478260869</v>
       </c>
       <c r="AE40">
-        <v>0.3010416666666667</v>
+        <v>0.2827173913043478</v>
       </c>
       <c r="AF40">
-        <v>0.3311458333333333</v>
+        <v>0.3141304347826087</v>
       </c>
       <c r="AG40">
-        <v>0.36125</v>
+        <v>0.3455434782608696</v>
       </c>
       <c r="AH40">
-        <v>0.3913541666666666</v>
+        <v>0.3769565217391304</v>
       </c>
       <c r="AI40">
-        <v>0.4214583333333333</v>
+        <v>0.4083695652173912</v>
       </c>
       <c r="AJ40">
-        <v>0.4515625</v>
+        <v>0.4397826086956522</v>
       </c>
       <c r="AK40">
-        <v>0.4816666666666666</v>
+        <v>0.471195652173913</v>
       </c>
       <c r="AL40">
-        <v>0.5117708333333333</v>
+        <v>0.5026086956521738</v>
       </c>
       <c r="AM40">
-        <v>0.5418749999999999</v>
+        <v>0.5340217391304347</v>
       </c>
       <c r="AN40">
-        <v>0.5719791666666666</v>
+        <v>0.5654347826086956</v>
       </c>
       <c r="AO40">
-        <v>0.6020833333333333</v>
+        <v>0.5968478260869564</v>
       </c>
       <c r="AP40">
-        <v>0.6321874999999999</v>
+        <v>0.6282608695652173</v>
       </c>
       <c r="AQ40">
-        <v>0.6622916666666666</v>
+        <v>0.6596739130434781</v>
       </c>
       <c r="AR40">
-        <v>0.6923958333333333</v>
+        <v>0.6910869565217391</v>
       </c>
       <c r="AS40">
         <v>0.7224999999999999</v>

--- a/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
+++ b/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
@@ -8,16 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
-    <sheet name="strategy_id-6006" sheetId="2" r:id="rId2"/>
-    <sheet name="strategy_id-6007" sheetId="3" r:id="rId3"/>
-    <sheet name="strategy_id-6008" sheetId="4" r:id="rId4"/>
+    <sheet name="strategy_id-6003" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="237">
   <si>
     <t>subsector</t>
   </si>
@@ -17838,112 +17836,112 @@
         <v>1</v>
       </c>
       <c r="J137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="K137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="L137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="M137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="N137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="O137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="P137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="Q137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="R137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="S137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="T137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="U137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="V137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="W137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="X137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="Y137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="Z137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AA137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AB137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AC137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AD137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AE137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AF137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AG137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AH137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AI137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AJ137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AK137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AL137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AM137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AN137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AO137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AP137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AQ137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AR137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
       <c r="AS137">
-        <v>0.143493839488732</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="138" spans="1:45">
@@ -17963,112 +17961,112 @@
         <v>1</v>
       </c>
       <c r="J138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="K138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="L138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="M138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="N138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="O138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="P138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="Q138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="R138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="S138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="T138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="U138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="V138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="W138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="X138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="Y138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="Z138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AA138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AC138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AD138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AE138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AF138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AG138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AH138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AI138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AJ138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AK138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AL138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AM138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AN138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AO138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AP138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AQ138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AR138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="AS138">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:45">
@@ -18088,112 +18086,112 @@
         <v>1</v>
       </c>
       <c r="J139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="K139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="L139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="M139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="N139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="O139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="P139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="Q139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="R139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="S139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="T139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="U139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="V139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="W139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="X139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="Y139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="Z139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AA139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AB139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AC139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AD139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AE139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AF139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AG139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AH139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AI139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AJ139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AK139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AL139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AM139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AN139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AO139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AP139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AQ139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AR139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="AS139">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="140" spans="1:45">
@@ -28849,1528 +28847,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>0.9960869565217392</v>
-      </c>
-      <c r="X2">
-        <v>0.9921739130434784</v>
-      </c>
-      <c r="Y2">
-        <v>0.9882608695652174</v>
-      </c>
-      <c r="Z2">
-        <v>0.9843478260869565</v>
-      </c>
-      <c r="AA2">
-        <v>0.9804347826086957</v>
-      </c>
-      <c r="AB2">
-        <v>0.9765217391304347</v>
-      </c>
-      <c r="AC2">
-        <v>0.9726086956521739</v>
-      </c>
-      <c r="AD2">
-        <v>0.9686956521739131</v>
-      </c>
-      <c r="AE2">
-        <v>0.9647826086956522</v>
-      </c>
-      <c r="AF2">
-        <v>0.9608695652173913</v>
-      </c>
-      <c r="AG2">
-        <v>0.9569565217391305</v>
-      </c>
-      <c r="AH2">
-        <v>0.9530434782608697</v>
-      </c>
-      <c r="AI2">
-        <v>0.9491304347826087</v>
-      </c>
-      <c r="AJ2">
-        <v>0.9452173913043478</v>
-      </c>
-      <c r="AK2">
-        <v>0.941304347826087</v>
-      </c>
-      <c r="AL2">
-        <v>0.9373913043478261</v>
-      </c>
-      <c r="AM2">
-        <v>0.9334782608695652</v>
-      </c>
-      <c r="AN2">
-        <v>0.9295652173913044</v>
-      </c>
-      <c r="AO2">
-        <v>0.9256521739130436</v>
-      </c>
-      <c r="AP2">
-        <v>0.9217391304347826</v>
-      </c>
-      <c r="AQ2">
-        <v>0.9178260869565218</v>
-      </c>
-      <c r="AR2">
-        <v>0.9139130434782609</v>
-      </c>
-      <c r="AS2">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.02</v>
-      </c>
-      <c r="K3">
-        <v>0.02</v>
-      </c>
-      <c r="L3">
-        <v>0.02</v>
-      </c>
-      <c r="M3">
-        <v>0.02</v>
-      </c>
-      <c r="N3">
-        <v>0.02</v>
-      </c>
-      <c r="O3">
-        <v>0.02</v>
-      </c>
-      <c r="P3">
-        <v>0.02</v>
-      </c>
-      <c r="Q3">
-        <v>0.02</v>
-      </c>
-      <c r="R3">
-        <v>0.02</v>
-      </c>
-      <c r="S3">
-        <v>0.02</v>
-      </c>
-      <c r="T3">
-        <v>0.02</v>
-      </c>
-      <c r="U3">
-        <v>0.02</v>
-      </c>
-      <c r="V3">
-        <v>0.02</v>
-      </c>
-      <c r="W3">
-        <v>0.03978260869565217</v>
-      </c>
-      <c r="X3">
-        <v>0.05956521739130435</v>
-      </c>
-      <c r="Y3">
-        <v>0.07934782608695652</v>
-      </c>
-      <c r="Z3">
-        <v>0.09913043478260869</v>
-      </c>
-      <c r="AA3">
-        <v>0.1189130434782609</v>
-      </c>
-      <c r="AB3">
-        <v>0.138695652173913</v>
-      </c>
-      <c r="AC3">
-        <v>0.1584782608695652</v>
-      </c>
-      <c r="AD3">
-        <v>0.1782608695652174</v>
-      </c>
-      <c r="AE3">
-        <v>0.1980434782608696</v>
-      </c>
-      <c r="AF3">
-        <v>0.2178260869565217</v>
-      </c>
-      <c r="AG3">
-        <v>0.2376086956521739</v>
-      </c>
-      <c r="AH3">
-        <v>0.2573913043478261</v>
-      </c>
-      <c r="AI3">
-        <v>0.2771739130434782</v>
-      </c>
-      <c r="AJ3">
-        <v>0.2969565217391305</v>
-      </c>
-      <c r="AK3">
-        <v>0.3167391304347826</v>
-      </c>
-      <c r="AL3">
-        <v>0.3365217391304348</v>
-      </c>
-      <c r="AM3">
-        <v>0.3563043478260869</v>
-      </c>
-      <c r="AN3">
-        <v>0.3760869565217391</v>
-      </c>
-      <c r="AO3">
-        <v>0.3958695652173913</v>
-      </c>
-      <c r="AP3">
-        <v>0.4156521739130434</v>
-      </c>
-      <c r="AQ3">
-        <v>0.4354347826086956</v>
-      </c>
-      <c r="AR3">
-        <v>0.4552173913043478</v>
-      </c>
-      <c r="AS3">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.4</v>
-      </c>
-      <c r="K4">
-        <v>0.4</v>
-      </c>
-      <c r="L4">
-        <v>0.4</v>
-      </c>
-      <c r="M4">
-        <v>0.4</v>
-      </c>
-      <c r="N4">
-        <v>0.4</v>
-      </c>
-      <c r="O4">
-        <v>0.4</v>
-      </c>
-      <c r="P4">
-        <v>0.4</v>
-      </c>
-      <c r="Q4">
-        <v>0.4</v>
-      </c>
-      <c r="R4">
-        <v>0.4</v>
-      </c>
-      <c r="S4">
-        <v>0.4</v>
-      </c>
-      <c r="T4">
-        <v>0.4</v>
-      </c>
-      <c r="U4">
-        <v>0.4</v>
-      </c>
-      <c r="V4">
-        <v>0.4</v>
-      </c>
-      <c r="W4">
-        <v>0.4032608695652174</v>
-      </c>
-      <c r="X4">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="Y4">
-        <v>0.4097826086956521</v>
-      </c>
-      <c r="Z4">
-        <v>0.4130434782608696</v>
-      </c>
-      <c r="AA4">
-        <v>0.4163043478260869</v>
-      </c>
-      <c r="AB4">
-        <v>0.4195652173913044</v>
-      </c>
-      <c r="AC4">
-        <v>0.4228260869565217</v>
-      </c>
-      <c r="AD4">
-        <v>0.4260869565217391</v>
-      </c>
-      <c r="AE4">
-        <v>0.4293478260869565</v>
-      </c>
-      <c r="AF4">
-        <v>0.4326086956521739</v>
-      </c>
-      <c r="AG4">
-        <v>0.4358695652173913</v>
-      </c>
-      <c r="AH4">
-        <v>0.4391304347826087</v>
-      </c>
-      <c r="AI4">
-        <v>0.442391304347826</v>
-      </c>
-      <c r="AJ4">
-        <v>0.4456521739130435</v>
-      </c>
-      <c r="AK4">
-        <v>0.4489130434782609</v>
-      </c>
-      <c r="AL4">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AM4">
-        <v>0.4554347826086956</v>
-      </c>
-      <c r="AN4">
-        <v>0.4586956521739131</v>
-      </c>
-      <c r="AO4">
-        <v>0.4619565217391304</v>
-      </c>
-      <c r="AP4">
-        <v>0.4652173913043478</v>
-      </c>
-      <c r="AQ4">
-        <v>0.4684782608695652</v>
-      </c>
-      <c r="AR4">
-        <v>0.4717391304347826</v>
-      </c>
-      <c r="AS4">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.02</v>
-      </c>
-      <c r="K5">
-        <v>0.02</v>
-      </c>
-      <c r="L5">
-        <v>0.02</v>
-      </c>
-      <c r="M5">
-        <v>0.02</v>
-      </c>
-      <c r="N5">
-        <v>0.02</v>
-      </c>
-      <c r="O5">
-        <v>0.02</v>
-      </c>
-      <c r="P5">
-        <v>0.02</v>
-      </c>
-      <c r="Q5">
-        <v>0.02</v>
-      </c>
-      <c r="R5">
-        <v>0.02</v>
-      </c>
-      <c r="S5">
-        <v>0.02</v>
-      </c>
-      <c r="T5">
-        <v>0.02</v>
-      </c>
-      <c r="U5">
-        <v>0.02</v>
-      </c>
-      <c r="V5">
-        <v>0.02</v>
-      </c>
-      <c r="W5">
-        <v>0.03978260869565217</v>
-      </c>
-      <c r="X5">
-        <v>0.05956521739130435</v>
-      </c>
-      <c r="Y5">
-        <v>0.07934782608695652</v>
-      </c>
-      <c r="Z5">
-        <v>0.09913043478260869</v>
-      </c>
-      <c r="AA5">
-        <v>0.1189130434782609</v>
-      </c>
-      <c r="AB5">
-        <v>0.138695652173913</v>
-      </c>
-      <c r="AC5">
-        <v>0.1584782608695652</v>
-      </c>
-      <c r="AD5">
-        <v>0.1782608695652174</v>
-      </c>
-      <c r="AE5">
-        <v>0.1980434782608696</v>
-      </c>
-      <c r="AF5">
-        <v>0.2178260869565217</v>
-      </c>
-      <c r="AG5">
-        <v>0.2376086956521739</v>
-      </c>
-      <c r="AH5">
-        <v>0.2573913043478261</v>
-      </c>
-      <c r="AI5">
-        <v>0.2771739130434782</v>
-      </c>
-      <c r="AJ5">
-        <v>0.2969565217391305</v>
-      </c>
-      <c r="AK5">
-        <v>0.3167391304347826</v>
-      </c>
-      <c r="AL5">
-        <v>0.3365217391304348</v>
-      </c>
-      <c r="AM5">
-        <v>0.3563043478260869</v>
-      </c>
-      <c r="AN5">
-        <v>0.3760869565217391</v>
-      </c>
-      <c r="AO5">
-        <v>0.3958695652173913</v>
-      </c>
-      <c r="AP5">
-        <v>0.4156521739130434</v>
-      </c>
-      <c r="AQ5">
-        <v>0.4354347826086956</v>
-      </c>
-      <c r="AR5">
-        <v>0.4552173913043478</v>
-      </c>
-      <c r="AS5">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.004225</v>
-      </c>
-      <c r="K6">
-        <v>0.004225</v>
-      </c>
-      <c r="L6">
-        <v>0.004225</v>
-      </c>
-      <c r="M6">
-        <v>0.004225</v>
-      </c>
-      <c r="N6">
-        <v>0.004225</v>
-      </c>
-      <c r="O6">
-        <v>0.004225</v>
-      </c>
-      <c r="P6">
-        <v>0.004225</v>
-      </c>
-      <c r="Q6">
-        <v>0.004225</v>
-      </c>
-      <c r="R6">
-        <v>0.004225</v>
-      </c>
-      <c r="S6">
-        <v>0.004225</v>
-      </c>
-      <c r="T6">
-        <v>0.004225</v>
-      </c>
-      <c r="U6">
-        <v>0.004225</v>
-      </c>
-      <c r="V6">
-        <v>0.004225</v>
-      </c>
-      <c r="W6">
-        <v>0.02469347826086956</v>
-      </c>
-      <c r="X6">
-        <v>0.04516195652173913</v>
-      </c>
-      <c r="Y6">
-        <v>0.06563043478260869</v>
-      </c>
-      <c r="Z6">
-        <v>0.08609891304347826</v>
-      </c>
-      <c r="AA6">
-        <v>0.1065673913043478</v>
-      </c>
-      <c r="AB6">
-        <v>0.1270358695652174</v>
-      </c>
-      <c r="AC6">
-        <v>0.147504347826087</v>
-      </c>
-      <c r="AD6">
-        <v>0.1679728260869565</v>
-      </c>
-      <c r="AE6">
-        <v>0.1884413043478261</v>
-      </c>
-      <c r="AF6">
-        <v>0.2089097826086956</v>
-      </c>
-      <c r="AG6">
-        <v>0.2293782608695652</v>
-      </c>
-      <c r="AH6">
-        <v>0.2498467391304348</v>
-      </c>
-      <c r="AI6">
-        <v>0.2703152173913043</v>
-      </c>
-      <c r="AJ6">
-        <v>0.2907836956521739</v>
-      </c>
-      <c r="AK6">
-        <v>0.3112521739130434</v>
-      </c>
-      <c r="AL6">
-        <v>0.331720652173913</v>
-      </c>
-      <c r="AM6">
-        <v>0.3521891304347826</v>
-      </c>
-      <c r="AN6">
-        <v>0.3726576086956522</v>
-      </c>
-      <c r="AO6">
-        <v>0.3931260869565217</v>
-      </c>
-      <c r="AP6">
-        <v>0.4135945652173912</v>
-      </c>
-      <c r="AQ6">
-        <v>0.4340630434782608</v>
-      </c>
-      <c r="AR6">
-        <v>0.4545315217391304</v>
-      </c>
-      <c r="AS6">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.004225</v>
-      </c>
-      <c r="K7">
-        <v>0.004225</v>
-      </c>
-      <c r="L7">
-        <v>0.004225</v>
-      </c>
-      <c r="M7">
-        <v>0.004225</v>
-      </c>
-      <c r="N7">
-        <v>0.004225</v>
-      </c>
-      <c r="O7">
-        <v>0.004225</v>
-      </c>
-      <c r="P7">
-        <v>0.004225</v>
-      </c>
-      <c r="Q7">
-        <v>0.004225</v>
-      </c>
-      <c r="R7">
-        <v>0.004225</v>
-      </c>
-      <c r="S7">
-        <v>0.004225</v>
-      </c>
-      <c r="T7">
-        <v>0.004225</v>
-      </c>
-      <c r="U7">
-        <v>0.004225</v>
-      </c>
-      <c r="V7">
-        <v>0.004225</v>
-      </c>
-      <c r="W7">
-        <v>0.02469347826086956</v>
-      </c>
-      <c r="X7">
-        <v>0.04516195652173913</v>
-      </c>
-      <c r="Y7">
-        <v>0.06563043478260869</v>
-      </c>
-      <c r="Z7">
-        <v>0.08609891304347826</v>
-      </c>
-      <c r="AA7">
-        <v>0.1065673913043478</v>
-      </c>
-      <c r="AB7">
-        <v>0.1270358695652174</v>
-      </c>
-      <c r="AC7">
-        <v>0.147504347826087</v>
-      </c>
-      <c r="AD7">
-        <v>0.1679728260869565</v>
-      </c>
-      <c r="AE7">
-        <v>0.1884413043478261</v>
-      </c>
-      <c r="AF7">
-        <v>0.2089097826086956</v>
-      </c>
-      <c r="AG7">
-        <v>0.2293782608695652</v>
-      </c>
-      <c r="AH7">
-        <v>0.2498467391304348</v>
-      </c>
-      <c r="AI7">
-        <v>0.2703152173913043</v>
-      </c>
-      <c r="AJ7">
-        <v>0.2907836956521739</v>
-      </c>
-      <c r="AK7">
-        <v>0.3112521739130434</v>
-      </c>
-      <c r="AL7">
-        <v>0.331720652173913</v>
-      </c>
-      <c r="AM7">
-        <v>0.3521891304347826</v>
-      </c>
-      <c r="AN7">
-        <v>0.3726576086956522</v>
-      </c>
-      <c r="AO7">
-        <v>0.3931260869565217</v>
-      </c>
-      <c r="AP7">
-        <v>0.4135945652173912</v>
-      </c>
-      <c r="AQ7">
-        <v>0.4340630434782608</v>
-      </c>
-      <c r="AR7">
-        <v>0.4545315217391304</v>
-      </c>
-      <c r="AS7">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.004225</v>
-      </c>
-      <c r="K8">
-        <v>0.004225</v>
-      </c>
-      <c r="L8">
-        <v>0.004225</v>
-      </c>
-      <c r="M8">
-        <v>0.004225</v>
-      </c>
-      <c r="N8">
-        <v>0.004225</v>
-      </c>
-      <c r="O8">
-        <v>0.004225</v>
-      </c>
-      <c r="P8">
-        <v>0.004225</v>
-      </c>
-      <c r="Q8">
-        <v>0.004225</v>
-      </c>
-      <c r="R8">
-        <v>0.004225</v>
-      </c>
-      <c r="S8">
-        <v>0.004225</v>
-      </c>
-      <c r="T8">
-        <v>0.004225</v>
-      </c>
-      <c r="U8">
-        <v>0.004225</v>
-      </c>
-      <c r="V8">
-        <v>0.004225</v>
-      </c>
-      <c r="W8">
-        <v>0.02469347826086956</v>
-      </c>
-      <c r="X8">
-        <v>0.04516195652173913</v>
-      </c>
-      <c r="Y8">
-        <v>0.06563043478260869</v>
-      </c>
-      <c r="Z8">
-        <v>0.08609891304347826</v>
-      </c>
-      <c r="AA8">
-        <v>0.1065673913043478</v>
-      </c>
-      <c r="AB8">
-        <v>0.1270358695652174</v>
-      </c>
-      <c r="AC8">
-        <v>0.147504347826087</v>
-      </c>
-      <c r="AD8">
-        <v>0.1679728260869565</v>
-      </c>
-      <c r="AE8">
-        <v>0.1884413043478261</v>
-      </c>
-      <c r="AF8">
-        <v>0.2089097826086956</v>
-      </c>
-      <c r="AG8">
-        <v>0.2293782608695652</v>
-      </c>
-      <c r="AH8">
-        <v>0.2498467391304348</v>
-      </c>
-      <c r="AI8">
-        <v>0.2703152173913043</v>
-      </c>
-      <c r="AJ8">
-        <v>0.2907836956521739</v>
-      </c>
-      <c r="AK8">
-        <v>0.3112521739130434</v>
-      </c>
-      <c r="AL8">
-        <v>0.331720652173913</v>
-      </c>
-      <c r="AM8">
-        <v>0.3521891304347826</v>
-      </c>
-      <c r="AN8">
-        <v>0.3726576086956522</v>
-      </c>
-      <c r="AO8">
-        <v>0.3931260869565217</v>
-      </c>
-      <c r="AP8">
-        <v>0.4135945652173912</v>
-      </c>
-      <c r="AQ8">
-        <v>0.4340630434782608</v>
-      </c>
-      <c r="AR8">
-        <v>0.4545315217391304</v>
-      </c>
-      <c r="AS8">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="K9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="L9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="M9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="N9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="O9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="P9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="Q9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="R9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="S9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="T9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="U9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="V9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="W9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="X9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="Y9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="Z9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AA9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AB9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AC9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AD9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AE9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AF9">
-        <v>0.4443901868737681</v>
-      </c>
-      <c r="AG9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AH9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AI9">
-        <v>0.4443901868737681</v>
-      </c>
-      <c r="AJ9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AK9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AL9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AM9">
-        <v>0.4443901868737681</v>
-      </c>
-      <c r="AN9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AO9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AP9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AQ9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AR9">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="AS9">
-        <v>0.444390186873768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="K10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="L10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="M10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="N10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="O10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="P10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="Q10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="R10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="S10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="T10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="U10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="V10">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="W10">
-        <v>0.4948889200199776</v>
-      </c>
-      <c r="X10">
-        <v>0.4860303327463423</v>
-      </c>
-      <c r="Y10">
-        <v>0.4771717454727069</v>
-      </c>
-      <c r="Z10">
-        <v>0.4683131581990715</v>
-      </c>
-      <c r="AA10">
-        <v>0.4594545709254362</v>
-      </c>
-      <c r="AB10">
-        <v>0.4505959836518009</v>
-      </c>
-      <c r="AC10">
-        <v>0.4417373963781656</v>
-      </c>
-      <c r="AD10">
-        <v>0.4328788091045302</v>
-      </c>
-      <c r="AE10">
-        <v>0.4240202218308948</v>
-      </c>
-      <c r="AF10">
-        <v>0.4151616345572595</v>
-      </c>
-      <c r="AG10">
-        <v>0.4063030472836242</v>
-      </c>
-      <c r="AH10">
-        <v>0.3974444600099888</v>
-      </c>
-      <c r="AI10">
-        <v>0.3885858727363535</v>
-      </c>
-      <c r="AJ10">
-        <v>0.3797272854627181</v>
-      </c>
-      <c r="AK10">
-        <v>0.3708686981890827</v>
-      </c>
-      <c r="AL10">
-        <v>0.3620101109154474</v>
-      </c>
-      <c r="AM10">
-        <v>0.3531515236418121</v>
-      </c>
-      <c r="AN10">
-        <v>0.3442929363681767</v>
-      </c>
-      <c r="AO10">
-        <v>0.3354343490945414</v>
-      </c>
-      <c r="AP10">
-        <v>0.326575761820906</v>
-      </c>
-      <c r="AQ10">
-        <v>0.3177171745472707</v>
-      </c>
-      <c r="AR10">
-        <v>0.3088585872736354</v>
-      </c>
-      <c r="AS10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="K11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="L11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="M11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="N11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="O11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="P11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="Q11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="R11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="S11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="T11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="U11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="V11">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="W11">
-        <v>0.3616172404912893</v>
-      </c>
-      <c r="X11">
-        <v>0.3704758277649247</v>
-      </c>
-      <c r="Y11">
-        <v>0.37933441503856</v>
-      </c>
-      <c r="Z11">
-        <v>0.3881930023121953</v>
-      </c>
-      <c r="AA11">
-        <v>0.3970515895858308</v>
-      </c>
-      <c r="AB11">
-        <v>0.4059101768594661</v>
-      </c>
-      <c r="AC11">
-        <v>0.4147687641331014</v>
-      </c>
-      <c r="AD11">
-        <v>0.4236273514067367</v>
-      </c>
-      <c r="AE11">
-        <v>0.4324859386803721</v>
-      </c>
-      <c r="AF11">
-        <v>0.4413445259540074</v>
-      </c>
-      <c r="AG11">
-        <v>0.4502031132276427</v>
-      </c>
-      <c r="AH11">
-        <v>0.4590617005012781</v>
-      </c>
-      <c r="AI11">
-        <v>0.4679202877749135</v>
-      </c>
-      <c r="AJ11">
-        <v>0.4767788750485488</v>
-      </c>
-      <c r="AK11">
-        <v>0.4856374623221842</v>
-      </c>
-      <c r="AL11">
-        <v>0.4944960495958195</v>
-      </c>
-      <c r="AM11">
-        <v>0.5033546368694548</v>
-      </c>
-      <c r="AN11">
-        <v>0.5122132241430902</v>
-      </c>
-      <c r="AO11">
-        <v>0.5210718114167255</v>
-      </c>
-      <c r="AP11">
-        <v>0.5299303986903608</v>
-      </c>
-      <c r="AQ11">
-        <v>0.5387889859639962</v>
-      </c>
-      <c r="AR11">
-        <v>0.5476475732376315</v>
-      </c>
-      <c r="AS11">
-        <v>0.5565061605112669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.95</v>
-      </c>
-      <c r="K12">
-        <v>0.95</v>
-      </c>
-      <c r="L12">
-        <v>0.95</v>
-      </c>
-      <c r="M12">
-        <v>0.95</v>
-      </c>
-      <c r="N12">
-        <v>0.95</v>
-      </c>
-      <c r="O12">
-        <v>0.95</v>
-      </c>
-      <c r="P12">
-        <v>0.95</v>
-      </c>
-      <c r="Q12">
-        <v>0.95</v>
-      </c>
-      <c r="R12">
-        <v>0.95</v>
-      </c>
-      <c r="S12">
-        <v>0.95</v>
-      </c>
-      <c r="T12">
-        <v>0.95</v>
-      </c>
-      <c r="U12">
-        <v>0.95</v>
-      </c>
-      <c r="V12">
-        <v>0.95</v>
-      </c>
-      <c r="W12">
-        <v>0.95</v>
-      </c>
-      <c r="X12">
-        <v>0.95</v>
-      </c>
-      <c r="Y12">
-        <v>0.9499999999999998</v>
-      </c>
-      <c r="Z12">
-        <v>0.95</v>
-      </c>
-      <c r="AA12">
-        <v>0.95</v>
-      </c>
-      <c r="AB12">
-        <v>0.95</v>
-      </c>
-      <c r="AC12">
-        <v>0.95</v>
-      </c>
-      <c r="AD12">
-        <v>0.95</v>
-      </c>
-      <c r="AE12">
-        <v>0.95</v>
-      </c>
-      <c r="AF12">
-        <v>0.95</v>
-      </c>
-      <c r="AG12">
-        <v>0.95</v>
-      </c>
-      <c r="AH12">
-        <v>0.95</v>
-      </c>
-      <c r="AI12">
-        <v>0.95</v>
-      </c>
-      <c r="AJ12">
-        <v>0.95</v>
-      </c>
-      <c r="AK12">
-        <v>0.95</v>
-      </c>
-      <c r="AL12">
-        <v>0.95</v>
-      </c>
-      <c r="AM12">
-        <v>0.95</v>
-      </c>
-      <c r="AN12">
-        <v>0.95</v>
-      </c>
-      <c r="AO12">
-        <v>0.95</v>
-      </c>
-      <c r="AP12">
-        <v>0.95</v>
-      </c>
-      <c r="AQ12">
-        <v>0.95</v>
-      </c>
-      <c r="AR12">
-        <v>0.95</v>
-      </c>
-      <c r="AS12">
-        <v>0.95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS19"/>
   <sheetViews>
@@ -30571,73 +29047,73 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9960869565217392</v>
+        <v>0.9934782608695653</v>
       </c>
       <c r="X2">
-        <v>0.9921739130434784</v>
+        <v>0.9869565217391305</v>
       </c>
       <c r="Y2">
-        <v>0.9882608695652174</v>
+        <v>0.9804347826086957</v>
       </c>
       <c r="Z2">
-        <v>0.9843478260869565</v>
+        <v>0.9739130434782608</v>
       </c>
       <c r="AA2">
-        <v>0.9804347826086957</v>
+        <v>0.9673913043478262</v>
       </c>
       <c r="AB2">
-        <v>0.9765217391304347</v>
+        <v>0.9608695652173913</v>
       </c>
       <c r="AC2">
-        <v>0.9726086956521739</v>
+        <v>0.9543478260869565</v>
       </c>
       <c r="AD2">
-        <v>0.9686956521739131</v>
+        <v>0.9478260869565217</v>
       </c>
       <c r="AE2">
-        <v>0.9647826086956522</v>
+        <v>0.941304347826087</v>
       </c>
       <c r="AF2">
-        <v>0.9608695652173913</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="AG2">
-        <v>0.9569565217391305</v>
+        <v>0.9282608695652174</v>
       </c>
       <c r="AH2">
-        <v>0.9530434782608697</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="AI2">
-        <v>0.9491304347826087</v>
+        <v>0.9152173913043478</v>
       </c>
       <c r="AJ2">
-        <v>0.9452173913043478</v>
+        <v>0.908695652173913</v>
       </c>
       <c r="AK2">
-        <v>0.941304347826087</v>
+        <v>0.9021739130434783</v>
       </c>
       <c r="AL2">
-        <v>0.9373913043478261</v>
+        <v>0.8956521739130434</v>
       </c>
       <c r="AM2">
-        <v>0.9334782608695652</v>
+        <v>0.8891304347826087</v>
       </c>
       <c r="AN2">
-        <v>0.9295652173913044</v>
+        <v>0.8826086956521739</v>
       </c>
       <c r="AO2">
-        <v>0.9256521739130436</v>
+        <v>0.8760869565217391</v>
       </c>
       <c r="AP2">
-        <v>0.9217391304347826</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="AQ2">
-        <v>0.9178260869565218</v>
+        <v>0.8630434782608696</v>
       </c>
       <c r="AR2">
-        <v>0.9139130434782609</v>
+        <v>0.8565217391304347</v>
       </c>
       <c r="AS2">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -31532,109 +30008,109 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="K10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="M10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="N10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="O10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="P10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="Q10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="R10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="S10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="T10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="U10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="V10">
-        <v>0.503747507293613</v>
+        <v>0.8</v>
       </c>
       <c r="W10">
-        <v>0.5035845721938906</v>
+        <v>0.7869565217391304</v>
       </c>
       <c r="X10">
-        <v>0.5034216370941684</v>
+        <v>0.773913043478261</v>
       </c>
       <c r="Y10">
-        <v>0.503258701994446</v>
+        <v>0.7608695652173912</v>
       </c>
       <c r="Z10">
-        <v>0.5030957668947238</v>
+        <v>0.7478260869565219</v>
       </c>
       <c r="AA10">
-        <v>0.5029328317950015</v>
+        <v>0.7347826086956523</v>
       </c>
       <c r="AB10">
-        <v>0.5027698966952792</v>
+        <v>0.7217391304347827</v>
       </c>
       <c r="AC10">
-        <v>0.5026069615955568</v>
+        <v>0.7086956521739131</v>
       </c>
       <c r="AD10">
-        <v>0.5024440264958345</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AE10">
-        <v>0.5022810913961122</v>
+        <v>0.682608695652174</v>
       </c>
       <c r="AF10">
-        <v>0.50211815629639</v>
+        <v>0.6695652173913044</v>
       </c>
       <c r="AG10">
-        <v>0.5019552211966676</v>
+        <v>0.6565217391304348</v>
       </c>
       <c r="AH10">
-        <v>0.5017922860969453</v>
+        <v>0.6434782608695653</v>
       </c>
       <c r="AI10">
-        <v>0.5016293509972231</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="AJ10">
-        <v>0.5014664158975007</v>
+        <v>0.6173913043478261</v>
       </c>
       <c r="AK10">
-        <v>0.5013034807977784</v>
+        <v>0.6043478260869566</v>
       </c>
       <c r="AL10">
-        <v>0.5011405456980561</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AM10">
-        <v>0.5009776105983338</v>
+        <v>0.5782608695652174</v>
       </c>
       <c r="AN10">
-        <v>0.5008146754986115</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="AO10">
-        <v>0.5006517403988893</v>
+        <v>0.5521739130434783</v>
       </c>
       <c r="AP10">
-        <v>0.500488805299167</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="AQ10">
-        <v>0.5003258701994446</v>
+        <v>0.5260869565217392</v>
       </c>
       <c r="AR10">
-        <v>0.5001629350997223</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="AS10">
         <v>0.5</v>
@@ -31657,112 +30133,112 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="K11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="L11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="M11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="N11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="O11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="P11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="Q11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="R11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="S11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="T11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="U11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="V11">
-        <v>0.352758653217654</v>
+        <v>0.02</v>
       </c>
       <c r="W11">
-        <v>0.3529215883173762</v>
+        <v>0.03304347826086956</v>
       </c>
       <c r="X11">
-        <v>0.3530845234170986</v>
+        <v>0.04608695652173911</v>
       </c>
       <c r="Y11">
-        <v>0.3532474585168209</v>
+        <v>0.05913043478260867</v>
       </c>
       <c r="Z11">
-        <v>0.3534103936165432</v>
+        <v>0.07217391304347823</v>
       </c>
       <c r="AA11">
-        <v>0.3535733287162655</v>
+        <v>0.08521739130434777</v>
       </c>
       <c r="AB11">
-        <v>0.3537362638159878</v>
+        <v>0.09826086956521733</v>
       </c>
       <c r="AC11">
-        <v>0.3538991989157101</v>
+        <v>0.1113043478260869</v>
       </c>
       <c r="AD11">
-        <v>0.3540621340154324</v>
+        <v>0.1243478260869564</v>
       </c>
       <c r="AE11">
-        <v>0.3542250691151547</v>
+        <v>0.137391304347826</v>
       </c>
       <c r="AF11">
-        <v>0.354388004214877</v>
+        <v>0.1504347826086956</v>
       </c>
       <c r="AG11">
-        <v>0.3545509393145994</v>
+        <v>0.1634782608695651</v>
       </c>
       <c r="AH11">
-        <v>0.3547138744143216</v>
+        <v>0.1765217391304346</v>
       </c>
       <c r="AI11">
-        <v>0.3548768095140439</v>
+        <v>0.1895652173913042</v>
       </c>
       <c r="AJ11">
-        <v>0.3550397446137663</v>
+        <v>0.2026086956521738</v>
       </c>
       <c r="AK11">
-        <v>0.3552026797134885</v>
+        <v>0.2156521739130433</v>
       </c>
       <c r="AL11">
-        <v>0.3553656148132108</v>
+        <v>0.2286956521739129</v>
       </c>
       <c r="AM11">
-        <v>0.3555285499129331</v>
+        <v>0.2417391304347825</v>
       </c>
       <c r="AN11">
-        <v>0.3556914850126555</v>
+        <v>0.254782608695652</v>
       </c>
       <c r="AO11">
-        <v>0.3558544201123778</v>
+        <v>0.2678260869565215</v>
       </c>
       <c r="AP11">
-        <v>0.3560173552121</v>
+        <v>0.2808695652173911</v>
       </c>
       <c r="AQ11">
-        <v>0.3561802903118224</v>
+        <v>0.2939130434782607</v>
       </c>
       <c r="AR11">
-        <v>0.3563432254115447</v>
+        <v>0.3069565217391302</v>
       </c>
       <c r="AS11">
-        <v>0.356506160511267</v>
+        <v>0.3199999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -31821,73 +30297,73 @@
         <v>0.1632</v>
       </c>
       <c r="W12">
-        <v>0.1726260869565218</v>
+        <v>0.1684956521739131</v>
       </c>
       <c r="X12">
-        <v>0.1820521739130435</v>
+        <v>0.1737913043478261</v>
       </c>
       <c r="Y12">
-        <v>0.1914782608695652</v>
+        <v>0.1790869565217391</v>
       </c>
       <c r="Z12">
-        <v>0.200904347826087</v>
+        <v>0.1843826086956522</v>
       </c>
       <c r="AA12">
-        <v>0.2103304347826087</v>
+        <v>0.1896782608695652</v>
       </c>
       <c r="AB12">
-        <v>0.2197565217391304</v>
+        <v>0.1949739130434783</v>
       </c>
       <c r="AC12">
-        <v>0.2291826086956522</v>
+        <v>0.2002695652173913</v>
       </c>
       <c r="AD12">
-        <v>0.2386086956521739</v>
+        <v>0.2055652173913043</v>
       </c>
       <c r="AE12">
-        <v>0.2480347826086957</v>
+        <v>0.2108608695652174</v>
       </c>
       <c r="AF12">
-        <v>0.2574608695652174</v>
+        <v>0.2161565217391304</v>
       </c>
       <c r="AG12">
-        <v>0.2668869565217392</v>
+        <v>0.2214521739130434</v>
       </c>
       <c r="AH12">
-        <v>0.2763130434782609</v>
+        <v>0.2267478260869565</v>
       </c>
       <c r="AI12">
-        <v>0.2857391304347826</v>
+        <v>0.2320434782608695</v>
       </c>
       <c r="AJ12">
-        <v>0.2951652173913044</v>
+        <v>0.2373391304347826</v>
       </c>
       <c r="AK12">
-        <v>0.3045913043478261</v>
+        <v>0.2426347826086956</v>
       </c>
       <c r="AL12">
-        <v>0.3140173913043478</v>
+        <v>0.2479304347826087</v>
       </c>
       <c r="AM12">
-        <v>0.3234434782608696</v>
+        <v>0.2532260869565217</v>
       </c>
       <c r="AN12">
-        <v>0.3328695652173914</v>
+        <v>0.2585217391304348</v>
       </c>
       <c r="AO12">
-        <v>0.3422956521739131</v>
+        <v>0.2638173913043478</v>
       </c>
       <c r="AP12">
-        <v>0.3517217391304348</v>
+        <v>0.2691130434782609</v>
       </c>
       <c r="AQ12">
-        <v>0.3611478260869566</v>
+        <v>0.2744086956521739</v>
       </c>
       <c r="AR12">
-        <v>0.3705739130434783</v>
+        <v>0.2797043478260869</v>
       </c>
       <c r="AS12">
-        <v>0.38</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -31946,73 +30422,73 @@
         <v>0.1632</v>
       </c>
       <c r="W13">
-        <v>0.1726260869565218</v>
+        <v>0.1684956521739131</v>
       </c>
       <c r="X13">
-        <v>0.1820521739130435</v>
+        <v>0.1737913043478261</v>
       </c>
       <c r="Y13">
-        <v>0.1914782608695652</v>
+        <v>0.1790869565217391</v>
       </c>
       <c r="Z13">
-        <v>0.200904347826087</v>
+        <v>0.1843826086956522</v>
       </c>
       <c r="AA13">
-        <v>0.2103304347826087</v>
+        <v>0.1896782608695652</v>
       </c>
       <c r="AB13">
-        <v>0.2197565217391304</v>
+        <v>0.1949739130434783</v>
       </c>
       <c r="AC13">
-        <v>0.2291826086956522</v>
+        <v>0.2002695652173913</v>
       </c>
       <c r="AD13">
-        <v>0.2386086956521739</v>
+        <v>0.2055652173913043</v>
       </c>
       <c r="AE13">
-        <v>0.2480347826086957</v>
+        <v>0.2108608695652174</v>
       </c>
       <c r="AF13">
-        <v>0.2574608695652174</v>
+        <v>0.2161565217391304</v>
       </c>
       <c r="AG13">
-        <v>0.2668869565217392</v>
+        <v>0.2214521739130434</v>
       </c>
       <c r="AH13">
-        <v>0.2763130434782609</v>
+        <v>0.2267478260869565</v>
       </c>
       <c r="AI13">
-        <v>0.2857391304347826</v>
+        <v>0.2320434782608695</v>
       </c>
       <c r="AJ13">
-        <v>0.2951652173913044</v>
+        <v>0.2373391304347826</v>
       </c>
       <c r="AK13">
-        <v>0.3045913043478261</v>
+        <v>0.2426347826086956</v>
       </c>
       <c r="AL13">
-        <v>0.3140173913043478</v>
+        <v>0.2479304347826087</v>
       </c>
       <c r="AM13">
-        <v>0.3234434782608696</v>
+        <v>0.2532260869565217</v>
       </c>
       <c r="AN13">
-        <v>0.3328695652173914</v>
+        <v>0.2585217391304348</v>
       </c>
       <c r="AO13">
-        <v>0.3422956521739131</v>
+        <v>0.2638173913043478</v>
       </c>
       <c r="AP13">
-        <v>0.3517217391304348</v>
+        <v>0.2691130434782609</v>
       </c>
       <c r="AQ13">
-        <v>0.3611478260869566</v>
+        <v>0.2744086956521739</v>
       </c>
       <c r="AR13">
-        <v>0.3705739130434783</v>
+        <v>0.2797043478260869</v>
       </c>
       <c r="AS13">
-        <v>0.38</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -32071,73 +30547,73 @@
         <v>0.1632</v>
       </c>
       <c r="W14">
-        <v>0.1726260869565218</v>
+        <v>0.1684956521739131</v>
       </c>
       <c r="X14">
-        <v>0.1820521739130435</v>
+        <v>0.1737913043478261</v>
       </c>
       <c r="Y14">
-        <v>0.1914782608695652</v>
+        <v>0.1790869565217391</v>
       </c>
       <c r="Z14">
-        <v>0.200904347826087</v>
+        <v>0.1843826086956522</v>
       </c>
       <c r="AA14">
-        <v>0.2103304347826087</v>
+        <v>0.1896782608695652</v>
       </c>
       <c r="AB14">
-        <v>0.2197565217391304</v>
+        <v>0.1949739130434783</v>
       </c>
       <c r="AC14">
-        <v>0.2291826086956522</v>
+        <v>0.2002695652173913</v>
       </c>
       <c r="AD14">
-        <v>0.2386086956521739</v>
+        <v>0.2055652173913043</v>
       </c>
       <c r="AE14">
-        <v>0.2480347826086957</v>
+        <v>0.2108608695652174</v>
       </c>
       <c r="AF14">
-        <v>0.2574608695652174</v>
+        <v>0.2161565217391304</v>
       </c>
       <c r="AG14">
-        <v>0.2668869565217392</v>
+        <v>0.2214521739130434</v>
       </c>
       <c r="AH14">
-        <v>0.2763130434782609</v>
+        <v>0.2267478260869565</v>
       </c>
       <c r="AI14">
-        <v>0.2857391304347826</v>
+        <v>0.2320434782608695</v>
       </c>
       <c r="AJ14">
-        <v>0.2951652173913044</v>
+        <v>0.2373391304347826</v>
       </c>
       <c r="AK14">
-        <v>0.3045913043478261</v>
+        <v>0.2426347826086956</v>
       </c>
       <c r="AL14">
-        <v>0.3140173913043478</v>
+        <v>0.2479304347826087</v>
       </c>
       <c r="AM14">
-        <v>0.3234434782608696</v>
+        <v>0.2532260869565217</v>
       </c>
       <c r="AN14">
-        <v>0.3328695652173914</v>
+        <v>0.2585217391304348</v>
       </c>
       <c r="AO14">
-        <v>0.3422956521739131</v>
+        <v>0.2638173913043478</v>
       </c>
       <c r="AP14">
-        <v>0.3517217391304348</v>
+        <v>0.2691130434782609</v>
       </c>
       <c r="AQ14">
-        <v>0.3611478260869566</v>
+        <v>0.2744086956521739</v>
       </c>
       <c r="AR14">
-        <v>0.3705739130434783</v>
+        <v>0.2797043478260869</v>
       </c>
       <c r="AS14">
-        <v>0.38</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -32196,73 +30672,73 @@
         <v>0.1632</v>
       </c>
       <c r="W15">
-        <v>0.1726260869565218</v>
+        <v>0.1684956521739131</v>
       </c>
       <c r="X15">
-        <v>0.1820521739130435</v>
+        <v>0.1737913043478261</v>
       </c>
       <c r="Y15">
-        <v>0.1914782608695652</v>
+        <v>0.1790869565217391</v>
       </c>
       <c r="Z15">
-        <v>0.200904347826087</v>
+        <v>0.1843826086956522</v>
       </c>
       <c r="AA15">
-        <v>0.2103304347826087</v>
+        <v>0.1896782608695652</v>
       </c>
       <c r="AB15">
-        <v>0.2197565217391304</v>
+        <v>0.1949739130434783</v>
       </c>
       <c r="AC15">
-        <v>0.2291826086956522</v>
+        <v>0.2002695652173913</v>
       </c>
       <c r="AD15">
-        <v>0.2386086956521739</v>
+        <v>0.2055652173913043</v>
       </c>
       <c r="AE15">
-        <v>0.2480347826086957</v>
+        <v>0.2108608695652174</v>
       </c>
       <c r="AF15">
-        <v>0.2574608695652174</v>
+        <v>0.2161565217391304</v>
       </c>
       <c r="AG15">
-        <v>0.2668869565217392</v>
+        <v>0.2214521739130434</v>
       </c>
       <c r="AH15">
-        <v>0.2763130434782609</v>
+        <v>0.2267478260869565</v>
       </c>
       <c r="AI15">
-        <v>0.2857391304347826</v>
+        <v>0.2320434782608695</v>
       </c>
       <c r="AJ15">
-        <v>0.2951652173913044</v>
+        <v>0.2373391304347826</v>
       </c>
       <c r="AK15">
-        <v>0.3045913043478261</v>
+        <v>0.2426347826086956</v>
       </c>
       <c r="AL15">
-        <v>0.3140173913043478</v>
+        <v>0.2479304347826087</v>
       </c>
       <c r="AM15">
-        <v>0.3234434782608696</v>
+        <v>0.2532260869565217</v>
       </c>
       <c r="AN15">
-        <v>0.3328695652173914</v>
+        <v>0.2585217391304348</v>
       </c>
       <c r="AO15">
-        <v>0.3422956521739131</v>
+        <v>0.2638173913043478</v>
       </c>
       <c r="AP15">
-        <v>0.3517217391304348</v>
+        <v>0.2691130434782609</v>
       </c>
       <c r="AQ15">
-        <v>0.3611478260869566</v>
+        <v>0.2744086956521739</v>
       </c>
       <c r="AR15">
-        <v>0.3705739130434783</v>
+        <v>0.2797043478260869</v>
       </c>
       <c r="AS15">
-        <v>0.38</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -32321,73 +30797,73 @@
         <v>0.1632</v>
       </c>
       <c r="W16">
-        <v>0.1726260869565218</v>
+        <v>0.1684956521739131</v>
       </c>
       <c r="X16">
-        <v>0.1820521739130435</v>
+        <v>0.1737913043478261</v>
       </c>
       <c r="Y16">
-        <v>0.1914782608695652</v>
+        <v>0.1790869565217391</v>
       </c>
       <c r="Z16">
-        <v>0.200904347826087</v>
+        <v>0.1843826086956522</v>
       </c>
       <c r="AA16">
-        <v>0.2103304347826087</v>
+        <v>0.1896782608695652</v>
       </c>
       <c r="AB16">
-        <v>0.2197565217391304</v>
+        <v>0.1949739130434783</v>
       </c>
       <c r="AC16">
-        <v>0.2291826086956522</v>
+        <v>0.2002695652173913</v>
       </c>
       <c r="AD16">
-        <v>0.2386086956521739</v>
+        <v>0.2055652173913043</v>
       </c>
       <c r="AE16">
-        <v>0.2480347826086957</v>
+        <v>0.2108608695652174</v>
       </c>
       <c r="AF16">
-        <v>0.2574608695652174</v>
+        <v>0.2161565217391304</v>
       </c>
       <c r="AG16">
-        <v>0.2668869565217392</v>
+        <v>0.2214521739130434</v>
       </c>
       <c r="AH16">
-        <v>0.2763130434782609</v>
+        <v>0.2267478260869565</v>
       </c>
       <c r="AI16">
-        <v>0.2857391304347826</v>
+        <v>0.2320434782608695</v>
       </c>
       <c r="AJ16">
-        <v>0.2951652173913044</v>
+        <v>0.2373391304347826</v>
       </c>
       <c r="AK16">
-        <v>0.3045913043478261</v>
+        <v>0.2426347826086956</v>
       </c>
       <c r="AL16">
-        <v>0.3140173913043478</v>
+        <v>0.2479304347826087</v>
       </c>
       <c r="AM16">
-        <v>0.3234434782608696</v>
+        <v>0.2532260869565217</v>
       </c>
       <c r="AN16">
-        <v>0.3328695652173914</v>
+        <v>0.2585217391304348</v>
       </c>
       <c r="AO16">
-        <v>0.3422956521739131</v>
+        <v>0.2638173913043478</v>
       </c>
       <c r="AP16">
-        <v>0.3517217391304348</v>
+        <v>0.2691130434782609</v>
       </c>
       <c r="AQ16">
-        <v>0.3611478260869566</v>
+        <v>0.2744086956521739</v>
       </c>
       <c r="AR16">
-        <v>0.3705739130434783</v>
+        <v>0.2797043478260869</v>
       </c>
       <c r="AS16">
-        <v>0.38</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -32446,73 +30922,73 @@
         <v>0.1632</v>
       </c>
       <c r="W17">
-        <v>0.1726260869565218</v>
+        <v>0.1684956521739131</v>
       </c>
       <c r="X17">
-        <v>0.1820521739130435</v>
+        <v>0.1737913043478261</v>
       </c>
       <c r="Y17">
-        <v>0.1914782608695652</v>
+        <v>0.1790869565217391</v>
       </c>
       <c r="Z17">
-        <v>0.200904347826087</v>
+        <v>0.1843826086956522</v>
       </c>
       <c r="AA17">
-        <v>0.2103304347826087</v>
+        <v>0.1896782608695652</v>
       </c>
       <c r="AB17">
-        <v>0.2197565217391304</v>
+        <v>0.1949739130434783</v>
       </c>
       <c r="AC17">
-        <v>0.2291826086956522</v>
+        <v>0.2002695652173913</v>
       </c>
       <c r="AD17">
-        <v>0.2386086956521739</v>
+        <v>0.2055652173913043</v>
       </c>
       <c r="AE17">
-        <v>0.2480347826086957</v>
+        <v>0.2108608695652174</v>
       </c>
       <c r="AF17">
-        <v>0.2574608695652174</v>
+        <v>0.2161565217391304</v>
       </c>
       <c r="AG17">
-        <v>0.2668869565217392</v>
+        <v>0.2214521739130434</v>
       </c>
       <c r="AH17">
-        <v>0.2763130434782609</v>
+        <v>0.2267478260869565</v>
       </c>
       <c r="AI17">
-        <v>0.2857391304347826</v>
+        <v>0.2320434782608695</v>
       </c>
       <c r="AJ17">
-        <v>0.2951652173913044</v>
+        <v>0.2373391304347826</v>
       </c>
       <c r="AK17">
-        <v>0.3045913043478261</v>
+        <v>0.2426347826086956</v>
       </c>
       <c r="AL17">
-        <v>0.3140173913043478</v>
+        <v>0.2479304347826087</v>
       </c>
       <c r="AM17">
-        <v>0.3234434782608696</v>
+        <v>0.2532260869565217</v>
       </c>
       <c r="AN17">
-        <v>0.3328695652173914</v>
+        <v>0.2585217391304348</v>
       </c>
       <c r="AO17">
-        <v>0.3422956521739131</v>
+        <v>0.2638173913043478</v>
       </c>
       <c r="AP17">
-        <v>0.3517217391304348</v>
+        <v>0.2691130434782609</v>
       </c>
       <c r="AQ17">
-        <v>0.3611478260869566</v>
+        <v>0.2744086956521739</v>
       </c>
       <c r="AR17">
-        <v>0.3705739130434783</v>
+        <v>0.2797043478260869</v>
       </c>
       <c r="AS17">
-        <v>0.38</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -32571,73 +31047,73 @@
         <v>0.1632</v>
       </c>
       <c r="W18">
-        <v>0.1726260869565218</v>
+        <v>0.1684956521739131</v>
       </c>
       <c r="X18">
-        <v>0.1820521739130435</v>
+        <v>0.1737913043478261</v>
       </c>
       <c r="Y18">
-        <v>0.1914782608695652</v>
+        <v>0.1790869565217391</v>
       </c>
       <c r="Z18">
-        <v>0.200904347826087</v>
+        <v>0.1843826086956522</v>
       </c>
       <c r="AA18">
-        <v>0.2103304347826087</v>
+        <v>0.1896782608695652</v>
       </c>
       <c r="AB18">
-        <v>0.2197565217391304</v>
+        <v>0.1949739130434783</v>
       </c>
       <c r="AC18">
-        <v>0.2291826086956522</v>
+        <v>0.2002695652173913</v>
       </c>
       <c r="AD18">
-        <v>0.2386086956521739</v>
+        <v>0.2055652173913043</v>
       </c>
       <c r="AE18">
-        <v>0.2480347826086957</v>
+        <v>0.2108608695652174</v>
       </c>
       <c r="AF18">
-        <v>0.2574608695652174</v>
+        <v>0.2161565217391304</v>
       </c>
       <c r="AG18">
-        <v>0.2668869565217392</v>
+        <v>0.2214521739130434</v>
       </c>
       <c r="AH18">
-        <v>0.2763130434782609</v>
+        <v>0.2267478260869565</v>
       </c>
       <c r="AI18">
-        <v>0.2857391304347826</v>
+        <v>0.2320434782608695</v>
       </c>
       <c r="AJ18">
-        <v>0.2951652173913044</v>
+        <v>0.2373391304347826</v>
       </c>
       <c r="AK18">
-        <v>0.3045913043478261</v>
+        <v>0.2426347826086956</v>
       </c>
       <c r="AL18">
-        <v>0.3140173913043478</v>
+        <v>0.2479304347826087</v>
       </c>
       <c r="AM18">
-        <v>0.3234434782608696</v>
+        <v>0.2532260869565217</v>
       </c>
       <c r="AN18">
-        <v>0.3328695652173914</v>
+        <v>0.2585217391304348</v>
       </c>
       <c r="AO18">
-        <v>0.3422956521739131</v>
+        <v>0.2638173913043478</v>
       </c>
       <c r="AP18">
-        <v>0.3517217391304348</v>
+        <v>0.2691130434782609</v>
       </c>
       <c r="AQ18">
-        <v>0.3611478260869566</v>
+        <v>0.2744086956521739</v>
       </c>
       <c r="AR18">
-        <v>0.3705739130434783</v>
+        <v>0.2797043478260869</v>
       </c>
       <c r="AS18">
-        <v>0.38</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -32760,5025 +31236,6 @@
       </c>
       <c r="AS19">
         <v>0.95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="K2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="L2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="M2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="N2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="O2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="P2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="Q2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="R2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="S2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="T2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="U2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="V2">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="W2">
-        <v>0.2017309953012917</v>
-      </c>
-      <c r="X2">
-        <v>0.1925614046057785</v>
-      </c>
-      <c r="Y2">
-        <v>0.1833918139102652</v>
-      </c>
-      <c r="Z2">
-        <v>0.1742222232147519</v>
-      </c>
-      <c r="AA2">
-        <v>0.1650526325192387</v>
-      </c>
-      <c r="AB2">
-        <v>0.1558830418237254</v>
-      </c>
-      <c r="AC2">
-        <v>0.1467134511282122</v>
-      </c>
-      <c r="AD2">
-        <v>0.1375438604326989</v>
-      </c>
-      <c r="AE2">
-        <v>0.1283742697371857</v>
-      </c>
-      <c r="AF2">
-        <v>0.1192046790416724</v>
-      </c>
-      <c r="AG2">
-        <v>0.1100350883461591</v>
-      </c>
-      <c r="AH2">
-        <v>0.1008654976506459</v>
-      </c>
-      <c r="AI2">
-        <v>0.09169590695513262</v>
-      </c>
-      <c r="AJ2">
-        <v>0.08252631625961934</v>
-      </c>
-      <c r="AK2">
-        <v>0.07335672556410608</v>
-      </c>
-      <c r="AL2">
-        <v>0.06418713486859283</v>
-      </c>
-      <c r="AM2">
-        <v>0.05501754417307957</v>
-      </c>
-      <c r="AN2">
-        <v>0.0458479534775663</v>
-      </c>
-      <c r="AO2">
-        <v>0.03667836278205304</v>
-      </c>
-      <c r="AP2">
-        <v>0.02750877208653979</v>
-      </c>
-      <c r="AQ2">
-        <v>0.01833918139102653</v>
-      </c>
-      <c r="AR2">
-        <v>0.009169590695513255</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="K3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="L3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="M3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="N3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="O3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="P3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="Q3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="R3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="S3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="T3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="U3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="V3">
-        <v>0.210900585996805</v>
-      </c>
-      <c r="W3">
-        <v>0.2017309953012917</v>
-      </c>
-      <c r="X3">
-        <v>0.1925614046057785</v>
-      </c>
-      <c r="Y3">
-        <v>0.1833918139102652</v>
-      </c>
-      <c r="Z3">
-        <v>0.1742222232147519</v>
-      </c>
-      <c r="AA3">
-        <v>0.1650526325192387</v>
-      </c>
-      <c r="AB3">
-        <v>0.1558830418237254</v>
-      </c>
-      <c r="AC3">
-        <v>0.1467134511282122</v>
-      </c>
-      <c r="AD3">
-        <v>0.1375438604326989</v>
-      </c>
-      <c r="AE3">
-        <v>0.1283742697371857</v>
-      </c>
-      <c r="AF3">
-        <v>0.1192046790416724</v>
-      </c>
-      <c r="AG3">
-        <v>0.1100350883461591</v>
-      </c>
-      <c r="AH3">
-        <v>0.1008654976506459</v>
-      </c>
-      <c r="AI3">
-        <v>0.09169590695513262</v>
-      </c>
-      <c r="AJ3">
-        <v>0.08252631625961934</v>
-      </c>
-      <c r="AK3">
-        <v>0.07335672556410608</v>
-      </c>
-      <c r="AL3">
-        <v>0.06418713486859283</v>
-      </c>
-      <c r="AM3">
-        <v>0.05501754417307957</v>
-      </c>
-      <c r="AN3">
-        <v>0.0458479534775663</v>
-      </c>
-      <c r="AO3">
-        <v>0.03667836278205304</v>
-      </c>
-      <c r="AP3">
-        <v>0.02750877208653979</v>
-      </c>
-      <c r="AQ3">
-        <v>0.01833918139102653</v>
-      </c>
-      <c r="AR3">
-        <v>0.009169590695513255</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="K4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="L4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="M4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="N4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="O4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="P4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="Q4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="R4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="S4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="T4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="U4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="V4">
-        <v>0.0686653070687273</v>
-      </c>
-      <c r="W4">
-        <v>0.06567985893530437</v>
-      </c>
-      <c r="X4">
-        <v>0.06269441080188144</v>
-      </c>
-      <c r="Y4">
-        <v>0.05970896266845852</v>
-      </c>
-      <c r="Z4">
-        <v>0.05672351453503559</v>
-      </c>
-      <c r="AA4">
-        <v>0.05373806640161267</v>
-      </c>
-      <c r="AB4">
-        <v>0.05075261826818974</v>
-      </c>
-      <c r="AC4">
-        <v>0.04776717013476681</v>
-      </c>
-      <c r="AD4">
-        <v>0.04478172200134389</v>
-      </c>
-      <c r="AE4">
-        <v>0.04179627386792097</v>
-      </c>
-      <c r="AF4">
-        <v>0.03881082573449804</v>
-      </c>
-      <c r="AG4">
-        <v>0.03582537760107511</v>
-      </c>
-      <c r="AH4">
-        <v>0.03283992946765218</v>
-      </c>
-      <c r="AI4">
-        <v>0.02985448133422926</v>
-      </c>
-      <c r="AJ4">
-        <v>0.02686903320080633</v>
-      </c>
-      <c r="AK4">
-        <v>0.02388358506738341</v>
-      </c>
-      <c r="AL4">
-        <v>0.02089813693396048</v>
-      </c>
-      <c r="AM4">
-        <v>0.01791268880053756</v>
-      </c>
-      <c r="AN4">
-        <v>0.01492724066711463</v>
-      </c>
-      <c r="AO4">
-        <v>0.0119417925336917</v>
-      </c>
-      <c r="AP4">
-        <v>0.00895634440026878</v>
-      </c>
-      <c r="AQ4">
-        <v>0.005970896266845855</v>
-      </c>
-      <c r="AR4">
-        <v>0.002985448133422924</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="K5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="L5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="M5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="N5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="O5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="P5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="Q5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="R5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="S5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="T5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="U5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="V5">
-        <v>0.323707876181143</v>
-      </c>
-      <c r="W5">
-        <v>0.3531118815645715</v>
-      </c>
-      <c r="X5">
-        <v>0.3825158869480001</v>
-      </c>
-      <c r="Y5">
-        <v>0.4119198923314286</v>
-      </c>
-      <c r="Z5">
-        <v>0.4413238977148571</v>
-      </c>
-      <c r="AA5">
-        <v>0.4707279030982857</v>
-      </c>
-      <c r="AB5">
-        <v>0.5001319084817142</v>
-      </c>
-      <c r="AC5">
-        <v>0.5295359138651428</v>
-      </c>
-      <c r="AD5">
-        <v>0.5589399192485713</v>
-      </c>
-      <c r="AE5">
-        <v>0.5883439246319998</v>
-      </c>
-      <c r="AF5">
-        <v>0.6177479300154284</v>
-      </c>
-      <c r="AG5">
-        <v>0.6471519353988568</v>
-      </c>
-      <c r="AH5">
-        <v>0.6765559407822854</v>
-      </c>
-      <c r="AI5">
-        <v>0.705959946165714</v>
-      </c>
-      <c r="AJ5">
-        <v>0.7353639515491425</v>
-      </c>
-      <c r="AK5">
-        <v>0.764767956932571</v>
-      </c>
-      <c r="AL5">
-        <v>0.7941719623159996</v>
-      </c>
-      <c r="AM5">
-        <v>0.8235759676994281</v>
-      </c>
-      <c r="AN5">
-        <v>0.8529799730828567</v>
-      </c>
-      <c r="AO5">
-        <v>0.8823839784662851</v>
-      </c>
-      <c r="AP5">
-        <v>0.9117879838497137</v>
-      </c>
-      <c r="AQ5">
-        <v>0.9411919892331423</v>
-      </c>
-      <c r="AR5">
-        <v>0.9705959946165708</v>
-      </c>
-      <c r="AS5">
-        <v>0.9999999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="K6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="L6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="M6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="N6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="O6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="P6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="Q6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="R6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="S6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="T6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="U6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="V6">
-        <v>0.185825644756519</v>
-      </c>
-      <c r="W6">
-        <v>0.1777462688975399</v>
-      </c>
-      <c r="X6">
-        <v>0.1696668930385608</v>
-      </c>
-      <c r="Y6">
-        <v>0.1615875171795817</v>
-      </c>
-      <c r="Z6">
-        <v>0.1535081413206026</v>
-      </c>
-      <c r="AA6">
-        <v>0.1454287654616236</v>
-      </c>
-      <c r="AB6">
-        <v>0.1373493896026445</v>
-      </c>
-      <c r="AC6">
-        <v>0.1292700137436654</v>
-      </c>
-      <c r="AD6">
-        <v>0.1211906378846863</v>
-      </c>
-      <c r="AE6">
-        <v>0.1131112620257072</v>
-      </c>
-      <c r="AF6">
-        <v>0.1050318861667281</v>
-      </c>
-      <c r="AG6">
-        <v>0.09695251030774904</v>
-      </c>
-      <c r="AH6">
-        <v>0.08887313444876996</v>
-      </c>
-      <c r="AI6">
-        <v>0.08079375858979088</v>
-      </c>
-      <c r="AJ6">
-        <v>0.07271438273081178</v>
-      </c>
-      <c r="AK6">
-        <v>0.0646350068718327</v>
-      </c>
-      <c r="AL6">
-        <v>0.05655563101285361</v>
-      </c>
-      <c r="AM6">
-        <v>0.04847625515387453</v>
-      </c>
-      <c r="AN6">
-        <v>0.04039687929489543</v>
-      </c>
-      <c r="AO6">
-        <v>0.03231750343591635</v>
-      </c>
-      <c r="AP6">
-        <v>0.02423812757693726</v>
-      </c>
-      <c r="AQ6">
-        <v>0.01615875171795818</v>
-      </c>
-      <c r="AR6">
-        <v>0.008079375858979082</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="K7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="L7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="M7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="N7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="O7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="P7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="Q7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="R7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="S7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="T7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="U7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="V7">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="W7">
-        <v>0.04585046898281696</v>
-      </c>
-      <c r="X7">
-        <v>0.05740272039268891</v>
-      </c>
-      <c r="Y7">
-        <v>0.06895497180256087</v>
-      </c>
-      <c r="Z7">
-        <v>0.08050722321243282</v>
-      </c>
-      <c r="AA7">
-        <v>0.09205947462230478</v>
-      </c>
-      <c r="AB7">
-        <v>0.1036117260321767</v>
-      </c>
-      <c r="AC7">
-        <v>0.1151639774420487</v>
-      </c>
-      <c r="AD7">
-        <v>0.1267162288519207</v>
-      </c>
-      <c r="AE7">
-        <v>0.1382684802617926</v>
-      </c>
-      <c r="AF7">
-        <v>0.1498207316716646</v>
-      </c>
-      <c r="AG7">
-        <v>0.1613729830815365</v>
-      </c>
-      <c r="AH7">
-        <v>0.1729252344914085</v>
-      </c>
-      <c r="AI7">
-        <v>0.1844774859012804</v>
-      </c>
-      <c r="AJ7">
-        <v>0.1960297373111524</v>
-      </c>
-      <c r="AK7">
-        <v>0.2075819887210243</v>
-      </c>
-      <c r="AL7">
-        <v>0.2191342401308963</v>
-      </c>
-      <c r="AM7">
-        <v>0.2306864915407682</v>
-      </c>
-      <c r="AN7">
-        <v>0.2422387429506402</v>
-      </c>
-      <c r="AO7">
-        <v>0.2537909943605122</v>
-      </c>
-      <c r="AP7">
-        <v>0.2653432457703842</v>
-      </c>
-      <c r="AQ7">
-        <v>0.2768954971802561</v>
-      </c>
-      <c r="AR7">
-        <v>0.2884477485901281</v>
-      </c>
-      <c r="AS7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="K8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="L8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="M8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="N8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="O8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="P8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="Q8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="R8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="S8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="T8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="U8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="V8">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="W8">
-        <v>0.04585046898281696</v>
-      </c>
-      <c r="X8">
-        <v>0.05740272039268891</v>
-      </c>
-      <c r="Y8">
-        <v>0.06895497180256087</v>
-      </c>
-      <c r="Z8">
-        <v>0.08050722321243282</v>
-      </c>
-      <c r="AA8">
-        <v>0.09205947462230478</v>
-      </c>
-      <c r="AB8">
-        <v>0.1036117260321767</v>
-      </c>
-      <c r="AC8">
-        <v>0.1151639774420487</v>
-      </c>
-      <c r="AD8">
-        <v>0.1267162288519207</v>
-      </c>
-      <c r="AE8">
-        <v>0.1382684802617926</v>
-      </c>
-      <c r="AF8">
-        <v>0.1498207316716646</v>
-      </c>
-      <c r="AG8">
-        <v>0.1613729830815365</v>
-      </c>
-      <c r="AH8">
-        <v>0.1729252344914085</v>
-      </c>
-      <c r="AI8">
-        <v>0.1844774859012804</v>
-      </c>
-      <c r="AJ8">
-        <v>0.1960297373111524</v>
-      </c>
-      <c r="AK8">
-        <v>0.2075819887210243</v>
-      </c>
-      <c r="AL8">
-        <v>0.2191342401308963</v>
-      </c>
-      <c r="AM8">
-        <v>0.2306864915407682</v>
-      </c>
-      <c r="AN8">
-        <v>0.2422387429506402</v>
-      </c>
-      <c r="AO8">
-        <v>0.2537909943605122</v>
-      </c>
-      <c r="AP8">
-        <v>0.2653432457703842</v>
-      </c>
-      <c r="AQ8">
-        <v>0.2768954971802561</v>
-      </c>
-      <c r="AR8">
-        <v>0.2884477485901281</v>
-      </c>
-      <c r="AS8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="K9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="L9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="M9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="N9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="O9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="P9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="Q9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="R9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="S9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="T9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="U9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="V9">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="W9">
-        <v>0.0201528657291963</v>
-      </c>
-      <c r="X9">
-        <v>0.01923682637786919</v>
-      </c>
-      <c r="Y9">
-        <v>0.01832078702654209</v>
-      </c>
-      <c r="Z9">
-        <v>0.01740474767521498</v>
-      </c>
-      <c r="AA9">
-        <v>0.01648870832388788</v>
-      </c>
-      <c r="AB9">
-        <v>0.01557266897256077</v>
-      </c>
-      <c r="AC9">
-        <v>0.01465662962123367</v>
-      </c>
-      <c r="AD9">
-        <v>0.01374059026990656</v>
-      </c>
-      <c r="AE9">
-        <v>0.01282455091857946</v>
-      </c>
-      <c r="AF9">
-        <v>0.01190851156725236</v>
-      </c>
-      <c r="AG9">
-        <v>0.01099247221592525</v>
-      </c>
-      <c r="AH9">
-        <v>0.01007643286459815</v>
-      </c>
-      <c r="AI9">
-        <v>0.009160393513271045</v>
-      </c>
-      <c r="AJ9">
-        <v>0.008244354161943938</v>
-      </c>
-      <c r="AK9">
-        <v>0.007328314810616835</v>
-      </c>
-      <c r="AL9">
-        <v>0.006412275459289731</v>
-      </c>
-      <c r="AM9">
-        <v>0.005496236107962627</v>
-      </c>
-      <c r="AN9">
-        <v>0.004580196756635521</v>
-      </c>
-      <c r="AO9">
-        <v>0.003664157405308417</v>
-      </c>
-      <c r="AP9">
-        <v>0.002748118053981313</v>
-      </c>
-      <c r="AQ9">
-        <v>0.00183207870265421</v>
-      </c>
-      <c r="AR9">
-        <v>0.0009160393513271037</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="K10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="L10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="M10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="N10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="O10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="P10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="Q10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="R10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="S10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="T10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="U10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="V10">
-        <v>0.0210689050805234</v>
-      </c>
-      <c r="W10">
-        <v>0.0201528657291963</v>
-      </c>
-      <c r="X10">
-        <v>0.01923682637786919</v>
-      </c>
-      <c r="Y10">
-        <v>0.01832078702654209</v>
-      </c>
-      <c r="Z10">
-        <v>0.01740474767521498</v>
-      </c>
-      <c r="AA10">
-        <v>0.01648870832388788</v>
-      </c>
-      <c r="AB10">
-        <v>0.01557266897256077</v>
-      </c>
-      <c r="AC10">
-        <v>0.01465662962123367</v>
-      </c>
-      <c r="AD10">
-        <v>0.01374059026990656</v>
-      </c>
-      <c r="AE10">
-        <v>0.01282455091857946</v>
-      </c>
-      <c r="AF10">
-        <v>0.01190851156725236</v>
-      </c>
-      <c r="AG10">
-        <v>0.01099247221592525</v>
-      </c>
-      <c r="AH10">
-        <v>0.01007643286459815</v>
-      </c>
-      <c r="AI10">
-        <v>0.009160393513271045</v>
-      </c>
-      <c r="AJ10">
-        <v>0.008244354161943938</v>
-      </c>
-      <c r="AK10">
-        <v>0.007328314810616835</v>
-      </c>
-      <c r="AL10">
-        <v>0.006412275459289731</v>
-      </c>
-      <c r="AM10">
-        <v>0.005496236107962627</v>
-      </c>
-      <c r="AN10">
-        <v>0.004580196756635521</v>
-      </c>
-      <c r="AO10">
-        <v>0.003664157405308417</v>
-      </c>
-      <c r="AP10">
-        <v>0.002748118053981313</v>
-      </c>
-      <c r="AQ10">
-        <v>0.00183207870265421</v>
-      </c>
-      <c r="AR10">
-        <v>0.0009160393513271037</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="K11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="L11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="M11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="N11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="O11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="P11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="Q11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="R11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="S11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="T11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="U11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="V11">
-        <v>0.379240291449421</v>
-      </c>
-      <c r="W11">
-        <v>0.3627515831255331</v>
-      </c>
-      <c r="X11">
-        <v>0.3462628748016453</v>
-      </c>
-      <c r="Y11">
-        <v>0.3297741664777574</v>
-      </c>
-      <c r="Z11">
-        <v>0.3132854581538695</v>
-      </c>
-      <c r="AA11">
-        <v>0.2967967498299817</v>
-      </c>
-      <c r="AB11">
-        <v>0.2803080415060938</v>
-      </c>
-      <c r="AC11">
-        <v>0.2638193331822059</v>
-      </c>
-      <c r="AD11">
-        <v>0.2473306248583181</v>
-      </c>
-      <c r="AE11">
-        <v>0.2308419165344302</v>
-      </c>
-      <c r="AF11">
-        <v>0.2143532082105423</v>
-      </c>
-      <c r="AG11">
-        <v>0.1978644998866544</v>
-      </c>
-      <c r="AH11">
-        <v>0.1813757915627666</v>
-      </c>
-      <c r="AI11">
-        <v>0.1648870832388787</v>
-      </c>
-      <c r="AJ11">
-        <v>0.1483983749149908</v>
-      </c>
-      <c r="AK11">
-        <v>0.131909666591103</v>
-      </c>
-      <c r="AL11">
-        <v>0.1154209582672151</v>
-      </c>
-      <c r="AM11">
-        <v>0.09893224994332724</v>
-      </c>
-      <c r="AN11">
-        <v>0.08244354161943934</v>
-      </c>
-      <c r="AO11">
-        <v>0.06595483329555148</v>
-      </c>
-      <c r="AP11">
-        <v>0.04946612497166362</v>
-      </c>
-      <c r="AQ11">
-        <v>0.03297741664777576</v>
-      </c>
-      <c r="AR11">
-        <v>0.01648870832388786</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="K12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="L12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="M12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="N12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="O12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="P12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="Q12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="R12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="S12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="T12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="U12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="V12">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="W12">
-        <v>0.1633571798630938</v>
-      </c>
-      <c r="X12">
-        <v>0.1650227625965895</v>
-      </c>
-      <c r="Y12">
-        <v>0.1666883453300852</v>
-      </c>
-      <c r="Z12">
-        <v>0.1683539280635809</v>
-      </c>
-      <c r="AA12">
-        <v>0.1700195107970767</v>
-      </c>
-      <c r="AB12">
-        <v>0.1716850935305724</v>
-      </c>
-      <c r="AC12">
-        <v>0.1733506762640682</v>
-      </c>
-      <c r="AD12">
-        <v>0.1750162589975639</v>
-      </c>
-      <c r="AE12">
-        <v>0.1766818417310597</v>
-      </c>
-      <c r="AF12">
-        <v>0.1783474244645554</v>
-      </c>
-      <c r="AG12">
-        <v>0.1800130071980511</v>
-      </c>
-      <c r="AH12">
-        <v>0.1816785899315469</v>
-      </c>
-      <c r="AI12">
-        <v>0.1833441726650426</v>
-      </c>
-      <c r="AJ12">
-        <v>0.1850097553985384</v>
-      </c>
-      <c r="AK12">
-        <v>0.1866753381320341</v>
-      </c>
-      <c r="AL12">
-        <v>0.1883409208655298</v>
-      </c>
-      <c r="AM12">
-        <v>0.1900065035990256</v>
-      </c>
-      <c r="AN12">
-        <v>0.1916720863325213</v>
-      </c>
-      <c r="AO12">
-        <v>0.1933376690660171</v>
-      </c>
-      <c r="AP12">
-        <v>0.1950032517995128</v>
-      </c>
-      <c r="AQ12">
-        <v>0.1966688345330085</v>
-      </c>
-      <c r="AR12">
-        <v>0.1983344172665042</v>
-      </c>
-      <c r="AS12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="K13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="L13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="M13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="N13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="O13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="P13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="Q13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="R13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="S13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="T13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="U13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="V13">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="W13">
-        <v>0.1633571798630938</v>
-      </c>
-      <c r="X13">
-        <v>0.1650227625965895</v>
-      </c>
-      <c r="Y13">
-        <v>0.1666883453300852</v>
-      </c>
-      <c r="Z13">
-        <v>0.1683539280635809</v>
-      </c>
-      <c r="AA13">
-        <v>0.1700195107970767</v>
-      </c>
-      <c r="AB13">
-        <v>0.1716850935305724</v>
-      </c>
-      <c r="AC13">
-        <v>0.1733506762640682</v>
-      </c>
-      <c r="AD13">
-        <v>0.1750162589975639</v>
-      </c>
-      <c r="AE13">
-        <v>0.1766818417310597</v>
-      </c>
-      <c r="AF13">
-        <v>0.1783474244645554</v>
-      </c>
-      <c r="AG13">
-        <v>0.1800130071980511</v>
-      </c>
-      <c r="AH13">
-        <v>0.1816785899315469</v>
-      </c>
-      <c r="AI13">
-        <v>0.1833441726650426</v>
-      </c>
-      <c r="AJ13">
-        <v>0.1850097553985384</v>
-      </c>
-      <c r="AK13">
-        <v>0.1866753381320341</v>
-      </c>
-      <c r="AL13">
-        <v>0.1883409208655298</v>
-      </c>
-      <c r="AM13">
-        <v>0.1900065035990256</v>
-      </c>
-      <c r="AN13">
-        <v>0.1916720863325213</v>
-      </c>
-      <c r="AO13">
-        <v>0.1933376690660171</v>
-      </c>
-      <c r="AP13">
-        <v>0.1950032517995128</v>
-      </c>
-      <c r="AQ13">
-        <v>0.1966688345330085</v>
-      </c>
-      <c r="AR13">
-        <v>0.1983344172665042</v>
-      </c>
-      <c r="AS13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="K14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="L14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="M14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="N14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="O14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="P14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="Q14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="R14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="S14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="T14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="U14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="V14">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="W14">
-        <v>0.1785273877242537</v>
-      </c>
-      <c r="X14">
-        <v>0.1704125064640603</v>
-      </c>
-      <c r="Y14">
-        <v>0.162297625203867</v>
-      </c>
-      <c r="Z14">
-        <v>0.1541827439436736</v>
-      </c>
-      <c r="AA14">
-        <v>0.1460678626834803</v>
-      </c>
-      <c r="AB14">
-        <v>0.1379529814232869</v>
-      </c>
-      <c r="AC14">
-        <v>0.1298381001630936</v>
-      </c>
-      <c r="AD14">
-        <v>0.1217232189029002</v>
-      </c>
-      <c r="AE14">
-        <v>0.1136083376427069</v>
-      </c>
-      <c r="AF14">
-        <v>0.1054934563825135</v>
-      </c>
-      <c r="AG14">
-        <v>0.09737857512232016</v>
-      </c>
-      <c r="AH14">
-        <v>0.08926369386212683</v>
-      </c>
-      <c r="AI14">
-        <v>0.08114881260193349</v>
-      </c>
-      <c r="AJ14">
-        <v>0.07303393134174012</v>
-      </c>
-      <c r="AK14">
-        <v>0.06491905008154678</v>
-      </c>
-      <c r="AL14">
-        <v>0.05680416882135344</v>
-      </c>
-      <c r="AM14">
-        <v>0.0486892875611601</v>
-      </c>
-      <c r="AN14">
-        <v>0.04057440630096673</v>
-      </c>
-      <c r="AO14">
-        <v>0.03245952504077339</v>
-      </c>
-      <c r="AP14">
-        <v>0.02434464378058005</v>
-      </c>
-      <c r="AQ14">
-        <v>0.0162297625203867</v>
-      </c>
-      <c r="AR14">
-        <v>0.008114881260193342</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="K15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="L15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="M15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="N15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="O15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="P15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="Q15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="R15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="S15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="T15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="U15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="V15">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="W15">
-        <v>0.03280699072194739</v>
-      </c>
-      <c r="X15">
-        <v>0.03131576387094979</v>
-      </c>
-      <c r="Y15">
-        <v>0.02982453701995218</v>
-      </c>
-      <c r="Z15">
-        <v>0.02833331016895457</v>
-      </c>
-      <c r="AA15">
-        <v>0.02684208331795696</v>
-      </c>
-      <c r="AB15">
-        <v>0.02535085646695935</v>
-      </c>
-      <c r="AC15">
-        <v>0.02385962961596174</v>
-      </c>
-      <c r="AD15">
-        <v>0.02236840276496413</v>
-      </c>
-      <c r="AE15">
-        <v>0.02087717591396653</v>
-      </c>
-      <c r="AF15">
-        <v>0.01938594906296892</v>
-      </c>
-      <c r="AG15">
-        <v>0.01789472221197131</v>
-      </c>
-      <c r="AH15">
-        <v>0.0164034953609737</v>
-      </c>
-      <c r="AI15">
-        <v>0.01491226850997609</v>
-      </c>
-      <c r="AJ15">
-        <v>0.01342104165897848</v>
-      </c>
-      <c r="AK15">
-        <v>0.01192981480798087</v>
-      </c>
-      <c r="AL15">
-        <v>0.01043858795698326</v>
-      </c>
-      <c r="AM15">
-        <v>0.008947361105985655</v>
-      </c>
-      <c r="AN15">
-        <v>0.007456134254988043</v>
-      </c>
-      <c r="AO15">
-        <v>0.005964907403990435</v>
-      </c>
-      <c r="AP15">
-        <v>0.004473680552992828</v>
-      </c>
-      <c r="AQ15">
-        <v>0.002982453701995219</v>
-      </c>
-      <c r="AR15">
-        <v>0.001491226850997608</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="K16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="L16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="M16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="N16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="O16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="P16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="Q16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="R16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="S16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="T16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="U16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="V16">
-        <v>0.034298217572945</v>
-      </c>
-      <c r="W16">
-        <v>0.06758959941759957</v>
-      </c>
-      <c r="X16">
-        <v>0.1008809812622541</v>
-      </c>
-      <c r="Y16">
-        <v>0.1341723631069087</v>
-      </c>
-      <c r="Z16">
-        <v>0.1674637449515633</v>
-      </c>
-      <c r="AA16">
-        <v>0.2007551267962178</v>
-      </c>
-      <c r="AB16">
-        <v>0.2340465086408724</v>
-      </c>
-      <c r="AC16">
-        <v>0.267337890485527</v>
-      </c>
-      <c r="AD16">
-        <v>0.3006292723301816</v>
-      </c>
-      <c r="AE16">
-        <v>0.3339206541748361</v>
-      </c>
-      <c r="AF16">
-        <v>0.3672120360194907</v>
-      </c>
-      <c r="AG16">
-        <v>0.4005034178641452</v>
-      </c>
-      <c r="AH16">
-        <v>0.4337947997087998</v>
-      </c>
-      <c r="AI16">
-        <v>0.4670861815534543</v>
-      </c>
-      <c r="AJ16">
-        <v>0.500377563398109</v>
-      </c>
-      <c r="AK16">
-        <v>0.5336689452427634</v>
-      </c>
-      <c r="AL16">
-        <v>0.5669603270874181</v>
-      </c>
-      <c r="AM16">
-        <v>0.6002517089320727</v>
-      </c>
-      <c r="AN16">
-        <v>0.6335430907767272</v>
-      </c>
-      <c r="AO16">
-        <v>0.6668344726213818</v>
-      </c>
-      <c r="AP16">
-        <v>0.7001258544660363</v>
-      </c>
-      <c r="AQ16">
-        <v>0.7334172363106909</v>
-      </c>
-      <c r="AR16">
-        <v>0.7667086181553454</v>
-      </c>
-      <c r="AS16">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="K17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="L17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="M17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="N17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="O17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="P17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="Q17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="R17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="S17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="T17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="U17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="V17">
-        <v>0.421378101610467</v>
-      </c>
-      <c r="W17">
-        <v>0.403057314583925</v>
-      </c>
-      <c r="X17">
-        <v>0.384736527557383</v>
-      </c>
-      <c r="Y17">
-        <v>0.3664157405308409</v>
-      </c>
-      <c r="Z17">
-        <v>0.3480949535042989</v>
-      </c>
-      <c r="AA17">
-        <v>0.3297741664777568</v>
-      </c>
-      <c r="AB17">
-        <v>0.3114533794512147</v>
-      </c>
-      <c r="AC17">
-        <v>0.2931325924246727</v>
-      </c>
-      <c r="AD17">
-        <v>0.2748118053981307</v>
-      </c>
-      <c r="AE17">
-        <v>0.2564910183715886</v>
-      </c>
-      <c r="AF17">
-        <v>0.2381702313450466</v>
-      </c>
-      <c r="AG17">
-        <v>0.2198494443185045</v>
-      </c>
-      <c r="AH17">
-        <v>0.2015286572919625</v>
-      </c>
-      <c r="AI17">
-        <v>0.1832078702654205</v>
-      </c>
-      <c r="AJ17">
-        <v>0.1648870832388784</v>
-      </c>
-      <c r="AK17">
-        <v>0.1465662962123364</v>
-      </c>
-      <c r="AL17">
-        <v>0.1282455091857943</v>
-      </c>
-      <c r="AM17">
-        <v>0.1099247221592523</v>
-      </c>
-      <c r="AN17">
-        <v>0.0916039351327102</v>
-      </c>
-      <c r="AO17">
-        <v>0.07328314810616818</v>
-      </c>
-      <c r="AP17">
-        <v>0.05496236107962614</v>
-      </c>
-      <c r="AQ17">
-        <v>0.03664157405308411</v>
-      </c>
-      <c r="AR17">
-        <v>0.01832078702654203</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="K18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="L18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="M18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="N18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="O18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="P18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="Q18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="R18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="S18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="T18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="U18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="V18">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="W18">
-        <v>0.1590093537761372</v>
-      </c>
-      <c r="X18">
-        <v>0.1563271104226764</v>
-      </c>
-      <c r="Y18">
-        <v>0.1536448670692157</v>
-      </c>
-      <c r="Z18">
-        <v>0.1509626237157549</v>
-      </c>
-      <c r="AA18">
-        <v>0.1482803803622941</v>
-      </c>
-      <c r="AB18">
-        <v>0.1455981370088333</v>
-      </c>
-      <c r="AC18">
-        <v>0.1429158936553725</v>
-      </c>
-      <c r="AD18">
-        <v>0.1402336503019117</v>
-      </c>
-      <c r="AE18">
-        <v>0.137551406948451</v>
-      </c>
-      <c r="AF18">
-        <v>0.1348691635949902</v>
-      </c>
-      <c r="AG18">
-        <v>0.1321869202415294</v>
-      </c>
-      <c r="AH18">
-        <v>0.1295046768880686</v>
-      </c>
-      <c r="AI18">
-        <v>0.1268224335346078</v>
-      </c>
-      <c r="AJ18">
-        <v>0.124140190181147</v>
-      </c>
-      <c r="AK18">
-        <v>0.1214579468276863</v>
-      </c>
-      <c r="AL18">
-        <v>0.1187757034742255</v>
-      </c>
-      <c r="AM18">
-        <v>0.1160934601207647</v>
-      </c>
-      <c r="AN18">
-        <v>0.1134112167673039</v>
-      </c>
-      <c r="AO18">
-        <v>0.1107289734138431</v>
-      </c>
-      <c r="AP18">
-        <v>0.1080467300603823</v>
-      </c>
-      <c r="AQ18">
-        <v>0.1053644867069216</v>
-      </c>
-      <c r="AR18">
-        <v>0.1026822433534608</v>
-      </c>
-      <c r="AS18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="K19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="L19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="M19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="N19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="O19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="P19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="Q19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="R19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="S19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="T19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="U19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="V19">
-        <v>0.161691597129598</v>
-      </c>
-      <c r="W19">
-        <v>0.1590093537761372</v>
-      </c>
-      <c r="X19">
-        <v>0.1563271104226764</v>
-      </c>
-      <c r="Y19">
-        <v>0.1536448670692157</v>
-      </c>
-      <c r="Z19">
-        <v>0.1509626237157549</v>
-      </c>
-      <c r="AA19">
-        <v>0.1482803803622941</v>
-      </c>
-      <c r="AB19">
-        <v>0.1455981370088333</v>
-      </c>
-      <c r="AC19">
-        <v>0.1429158936553725</v>
-      </c>
-      <c r="AD19">
-        <v>0.1402336503019117</v>
-      </c>
-      <c r="AE19">
-        <v>0.137551406948451</v>
-      </c>
-      <c r="AF19">
-        <v>0.1348691635949902</v>
-      </c>
-      <c r="AG19">
-        <v>0.1321869202415294</v>
-      </c>
-      <c r="AH19">
-        <v>0.1295046768880686</v>
-      </c>
-      <c r="AI19">
-        <v>0.1268224335346078</v>
-      </c>
-      <c r="AJ19">
-        <v>0.124140190181147</v>
-      </c>
-      <c r="AK19">
-        <v>0.1214579468276863</v>
-      </c>
-      <c r="AL19">
-        <v>0.1187757034742255</v>
-      </c>
-      <c r="AM19">
-        <v>0.1160934601207647</v>
-      </c>
-      <c r="AN19">
-        <v>0.1134112167673039</v>
-      </c>
-      <c r="AO19">
-        <v>0.1107289734138431</v>
-      </c>
-      <c r="AP19">
-        <v>0.1080467300603823</v>
-      </c>
-      <c r="AQ19">
-        <v>0.1053644867069216</v>
-      </c>
-      <c r="AR19">
-        <v>0.1026822433534608</v>
-      </c>
-      <c r="AS19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="K20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="L20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="M20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="N20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="O20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="P20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="Q20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="R20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="S20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="T20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="U20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="V20">
-        <v>0.186642268984447</v>
-      </c>
-      <c r="W20">
-        <v>0.1785273877242537</v>
-      </c>
-      <c r="X20">
-        <v>0.1704125064640603</v>
-      </c>
-      <c r="Y20">
-        <v>0.162297625203867</v>
-      </c>
-      <c r="Z20">
-        <v>0.1541827439436736</v>
-      </c>
-      <c r="AA20">
-        <v>0.1460678626834803</v>
-      </c>
-      <c r="AB20">
-        <v>0.1379529814232869</v>
-      </c>
-      <c r="AC20">
-        <v>0.1298381001630936</v>
-      </c>
-      <c r="AD20">
-        <v>0.1217232189029002</v>
-      </c>
-      <c r="AE20">
-        <v>0.1136083376427069</v>
-      </c>
-      <c r="AF20">
-        <v>0.1054934563825135</v>
-      </c>
-      <c r="AG20">
-        <v>0.09737857512232016</v>
-      </c>
-      <c r="AH20">
-        <v>0.08926369386212683</v>
-      </c>
-      <c r="AI20">
-        <v>0.08114881260193349</v>
-      </c>
-      <c r="AJ20">
-        <v>0.07303393134174012</v>
-      </c>
-      <c r="AK20">
-        <v>0.06491905008154678</v>
-      </c>
-      <c r="AL20">
-        <v>0.05680416882135344</v>
-      </c>
-      <c r="AM20">
-        <v>0.0486892875611601</v>
-      </c>
-      <c r="AN20">
-        <v>0.04057440630096673</v>
-      </c>
-      <c r="AO20">
-        <v>0.03245952504077339</v>
-      </c>
-      <c r="AP20">
-        <v>0.02434464378058005</v>
-      </c>
-      <c r="AQ20">
-        <v>0.0162297625203867</v>
-      </c>
-      <c r="AR20">
-        <v>0.008114881260193342</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>0.9934782608695653</v>
-      </c>
-      <c r="X21">
-        <v>0.9869565217391305</v>
-      </c>
-      <c r="Y21">
-        <v>0.9804347826086957</v>
-      </c>
-      <c r="Z21">
-        <v>0.9739130434782608</v>
-      </c>
-      <c r="AA21">
-        <v>0.9673913043478262</v>
-      </c>
-      <c r="AB21">
-        <v>0.9608695652173913</v>
-      </c>
-      <c r="AC21">
-        <v>0.9543478260869565</v>
-      </c>
-      <c r="AD21">
-        <v>0.9478260869565217</v>
-      </c>
-      <c r="AE21">
-        <v>0.941304347826087</v>
-      </c>
-      <c r="AF21">
-        <v>0.9347826086956522</v>
-      </c>
-      <c r="AG21">
-        <v>0.9282608695652174</v>
-      </c>
-      <c r="AH21">
-        <v>0.9217391304347826</v>
-      </c>
-      <c r="AI21">
-        <v>0.9152173913043478</v>
-      </c>
-      <c r="AJ21">
-        <v>0.908695652173913</v>
-      </c>
-      <c r="AK21">
-        <v>0.9021739130434783</v>
-      </c>
-      <c r="AL21">
-        <v>0.8956521739130434</v>
-      </c>
-      <c r="AM21">
-        <v>0.8891304347826087</v>
-      </c>
-      <c r="AN21">
-        <v>0.8826086956521739</v>
-      </c>
-      <c r="AO21">
-        <v>0.8760869565217391</v>
-      </c>
-      <c r="AP21">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="AQ21">
-        <v>0.8630434782608696</v>
-      </c>
-      <c r="AR21">
-        <v>0.8565217391304347</v>
-      </c>
-      <c r="AS21">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22">
-        <v>24</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="K22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="L22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="M22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="N22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="O22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="P22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="Q22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="R22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="S22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="T22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="U22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="V22">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="W22">
-        <v>0.0528024389438477</v>
-      </c>
-      <c r="X22">
-        <v>0.0832432371736728</v>
-      </c>
-      <c r="Y22">
-        <v>0.1136840354034979</v>
-      </c>
-      <c r="Z22">
-        <v>0.144124833633323</v>
-      </c>
-      <c r="AA22">
-        <v>0.1745656318631481</v>
-      </c>
-      <c r="AB22">
-        <v>0.2050064300929732</v>
-      </c>
-      <c r="AC22">
-        <v>0.2354472283227983</v>
-      </c>
-      <c r="AD22">
-        <v>0.2658880265526234</v>
-      </c>
-      <c r="AE22">
-        <v>0.2963288247824485</v>
-      </c>
-      <c r="AF22">
-        <v>0.3267696230122736</v>
-      </c>
-      <c r="AG22">
-        <v>0.3572104212420987</v>
-      </c>
-      <c r="AH22">
-        <v>0.3876512194719238</v>
-      </c>
-      <c r="AI22">
-        <v>0.4180920177017489</v>
-      </c>
-      <c r="AJ22">
-        <v>0.4485328159315741</v>
-      </c>
-      <c r="AK22">
-        <v>0.4789736141613992</v>
-      </c>
-      <c r="AL22">
-        <v>0.5094144123912242</v>
-      </c>
-      <c r="AM22">
-        <v>0.5398552106210494</v>
-      </c>
-      <c r="AN22">
-        <v>0.5702960088508744</v>
-      </c>
-      <c r="AO22">
-        <v>0.6007368070806994</v>
-      </c>
-      <c r="AP22">
-        <v>0.6311776053105246</v>
-      </c>
-      <c r="AQ22">
-        <v>0.6616184035403496</v>
-      </c>
-      <c r="AR22">
-        <v>0.6920592017701749</v>
-      </c>
-      <c r="AS22">
-        <v>0.7224999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="K23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="L23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="M23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="N23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="O23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="P23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="Q23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="R23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="S23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="T23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="U23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="V23">
-        <v>0.444390186873768</v>
-      </c>
-      <c r="W23">
-        <v>0.4564819178792563</v>
-      </c>
-      <c r="X23">
-        <v>0.4685736488847447</v>
-      </c>
-      <c r="Y23">
-        <v>0.4806653798902331</v>
-      </c>
-      <c r="Z23">
-        <v>0.4927571108957214</v>
-      </c>
-      <c r="AA23">
-        <v>0.5048488419012097</v>
-      </c>
-      <c r="AB23">
-        <v>0.516940572906698</v>
-      </c>
-      <c r="AC23">
-        <v>0.5290323039121865</v>
-      </c>
-      <c r="AD23">
-        <v>0.5411240349176747</v>
-      </c>
-      <c r="AE23">
-        <v>0.5532157659231631</v>
-      </c>
-      <c r="AF23">
-        <v>0.5653074969286516</v>
-      </c>
-      <c r="AG23">
-        <v>0.5773992279341398</v>
-      </c>
-      <c r="AH23">
-        <v>0.5894909589396281</v>
-      </c>
-      <c r="AI23">
-        <v>0.6015826899451164</v>
-      </c>
-      <c r="AJ23">
-        <v>0.6136744209506049</v>
-      </c>
-      <c r="AK23">
-        <v>0.6257661519560932</v>
-      </c>
-      <c r="AL23">
-        <v>0.6378578829615815</v>
-      </c>
-      <c r="AM23">
-        <v>0.6499496139670699</v>
-      </c>
-      <c r="AN23">
-        <v>0.6620413449725582</v>
-      </c>
-      <c r="AO23">
-        <v>0.6741330759780465</v>
-      </c>
-      <c r="AP23">
-        <v>0.6862248069835349</v>
-      </c>
-      <c r="AQ23">
-        <v>0.6983165379890232</v>
-      </c>
-      <c r="AR23">
-        <v>0.7104082689945116</v>
-      </c>
-      <c r="AS23">
-        <v>0.7224999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24">
-        <v>24</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0.5</v>
-      </c>
-      <c r="K24">
-        <v>0.5</v>
-      </c>
-      <c r="L24">
-        <v>0.5</v>
-      </c>
-      <c r="M24">
-        <v>0.5</v>
-      </c>
-      <c r="N24">
-        <v>0.5</v>
-      </c>
-      <c r="O24">
-        <v>0.5</v>
-      </c>
-      <c r="P24">
-        <v>0.5</v>
-      </c>
-      <c r="Q24">
-        <v>0.5</v>
-      </c>
-      <c r="R24">
-        <v>0.5</v>
-      </c>
-      <c r="S24">
-        <v>0.5</v>
-      </c>
-      <c r="T24">
-        <v>0.5</v>
-      </c>
-      <c r="U24">
-        <v>0.5</v>
-      </c>
-      <c r="V24">
-        <v>0.5</v>
-      </c>
-      <c r="W24">
-        <v>0.5096739130434783</v>
-      </c>
-      <c r="X24">
-        <v>0.5193478260869565</v>
-      </c>
-      <c r="Y24">
-        <v>0.5290217391304347</v>
-      </c>
-      <c r="Z24">
-        <v>0.538695652173913</v>
-      </c>
-      <c r="AA24">
-        <v>0.5483695652173913</v>
-      </c>
-      <c r="AB24">
-        <v>0.5580434782608695</v>
-      </c>
-      <c r="AC24">
-        <v>0.5677173913043478</v>
-      </c>
-      <c r="AD24">
-        <v>0.577391304347826</v>
-      </c>
-      <c r="AE24">
-        <v>0.5870652173913044</v>
-      </c>
-      <c r="AF24">
-        <v>0.5967391304347827</v>
-      </c>
-      <c r="AG24">
-        <v>0.6064130434782609</v>
-      </c>
-      <c r="AH24">
-        <v>0.6160869565217391</v>
-      </c>
-      <c r="AI24">
-        <v>0.6257608695652173</v>
-      </c>
-      <c r="AJ24">
-        <v>0.6354347826086957</v>
-      </c>
-      <c r="AK24">
-        <v>0.6451086956521739</v>
-      </c>
-      <c r="AL24">
-        <v>0.6547826086956521</v>
-      </c>
-      <c r="AM24">
-        <v>0.6644565217391304</v>
-      </c>
-      <c r="AN24">
-        <v>0.6741304347826087</v>
-      </c>
-      <c r="AO24">
-        <v>0.6838043478260869</v>
-      </c>
-      <c r="AP24">
-        <v>0.6934782608695651</v>
-      </c>
-      <c r="AQ24">
-        <v>0.7031521739130433</v>
-      </c>
-      <c r="AR24">
-        <v>0.7128260869565217</v>
-      </c>
-      <c r="AS24">
-        <v>0.7224999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="K25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="L25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="M25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="N25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="O25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="P25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="Q25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="R25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="S25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="T25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="U25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="V25">
-        <v>0.0223616407140226</v>
-      </c>
-      <c r="W25">
-        <v>0.0528024389438477</v>
-      </c>
-      <c r="X25">
-        <v>0.0832432371736728</v>
-      </c>
-      <c r="Y25">
-        <v>0.1136840354034979</v>
-      </c>
-      <c r="Z25">
-        <v>0.144124833633323</v>
-      </c>
-      <c r="AA25">
-        <v>0.1745656318631481</v>
-      </c>
-      <c r="AB25">
-        <v>0.2050064300929732</v>
-      </c>
-      <c r="AC25">
-        <v>0.2354472283227983</v>
-      </c>
-      <c r="AD25">
-        <v>0.2658880265526234</v>
-      </c>
-      <c r="AE25">
-        <v>0.2963288247824485</v>
-      </c>
-      <c r="AF25">
-        <v>0.3267696230122736</v>
-      </c>
-      <c r="AG25">
-        <v>0.3572104212420987</v>
-      </c>
-      <c r="AH25">
-        <v>0.3876512194719238</v>
-      </c>
-      <c r="AI25">
-        <v>0.4180920177017489</v>
-      </c>
-      <c r="AJ25">
-        <v>0.4485328159315741</v>
-      </c>
-      <c r="AK25">
-        <v>0.4789736141613992</v>
-      </c>
-      <c r="AL25">
-        <v>0.5094144123912242</v>
-      </c>
-      <c r="AM25">
-        <v>0.5398552106210494</v>
-      </c>
-      <c r="AN25">
-        <v>0.5702960088508744</v>
-      </c>
-      <c r="AO25">
-        <v>0.6007368070806994</v>
-      </c>
-      <c r="AP25">
-        <v>0.6311776053105246</v>
-      </c>
-      <c r="AQ25">
-        <v>0.6616184035403496</v>
-      </c>
-      <c r="AR25">
-        <v>0.6920592017701749</v>
-      </c>
-      <c r="AS25">
-        <v>0.7224999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26">
-        <v>21</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="K26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="L26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="M26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="N26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="O26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="P26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="Q26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="R26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="S26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="T26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="U26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="V26">
-        <v>0.503747507293613</v>
-      </c>
-      <c r="W26">
-        <v>0.5190848400422066</v>
-      </c>
-      <c r="X26">
-        <v>0.5344221727908003</v>
-      </c>
-      <c r="Y26">
-        <v>0.5497595055393939</v>
-      </c>
-      <c r="Z26">
-        <v>0.5650968382879875</v>
-      </c>
-      <c r="AA26">
-        <v>0.5804341710365812</v>
-      </c>
-      <c r="AB26">
-        <v>0.5957715037851748</v>
-      </c>
-      <c r="AC26">
-        <v>0.6111088365337685</v>
-      </c>
-      <c r="AD26">
-        <v>0.6264461692823622</v>
-      </c>
-      <c r="AE26">
-        <v>0.6417835020309559</v>
-      </c>
-      <c r="AF26">
-        <v>0.6571208347795495</v>
-      </c>
-      <c r="AG26">
-        <v>0.6724581675281431</v>
-      </c>
-      <c r="AH26">
-        <v>0.6877955002767367</v>
-      </c>
-      <c r="AI26">
-        <v>0.7031328330253304</v>
-      </c>
-      <c r="AJ26">
-        <v>0.7184701657739241</v>
-      </c>
-      <c r="AK26">
-        <v>0.7338074985225177</v>
-      </c>
-      <c r="AL26">
-        <v>0.7491448312711113</v>
-      </c>
-      <c r="AM26">
-        <v>0.764482164019705</v>
-      </c>
-      <c r="AN26">
-        <v>0.7798194967682988</v>
-      </c>
-      <c r="AO26">
-        <v>0.7951568295168924</v>
-      </c>
-      <c r="AP26">
-        <v>0.810494162265486</v>
-      </c>
-      <c r="AQ26">
-        <v>0.8258314950140796</v>
-      </c>
-      <c r="AR26">
-        <v>0.8411688277626733</v>
-      </c>
-      <c r="AS26">
-        <v>0.8565061605112669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27">
-        <v>21</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="K27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="L27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="M27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="N27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="O27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="P27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="Q27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="R27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="S27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="T27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="U27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="V27">
-        <v>0.352758653217654</v>
-      </c>
-      <c r="W27">
-        <v>0.3374213204690603</v>
-      </c>
-      <c r="X27">
-        <v>0.3220839877204667</v>
-      </c>
-      <c r="Y27">
-        <v>0.306746654971873</v>
-      </c>
-      <c r="Z27">
-        <v>0.2914093222232794</v>
-      </c>
-      <c r="AA27">
-        <v>0.2760719894746858</v>
-      </c>
-      <c r="AB27">
-        <v>0.2607346567260921</v>
-      </c>
-      <c r="AC27">
-        <v>0.2453973239774984</v>
-      </c>
-      <c r="AD27">
-        <v>0.2300599912289048</v>
-      </c>
-      <c r="AE27">
-        <v>0.2147226584803111</v>
-      </c>
-      <c r="AF27">
-        <v>0.1993853257317175</v>
-      </c>
-      <c r="AG27">
-        <v>0.1840479929831238</v>
-      </c>
-      <c r="AH27">
-        <v>0.1687106602345302</v>
-      </c>
-      <c r="AI27">
-        <v>0.1533733274859365</v>
-      </c>
-      <c r="AJ27">
-        <v>0.1380359947373428</v>
-      </c>
-      <c r="AK27">
-        <v>0.1226986619887492</v>
-      </c>
-      <c r="AL27">
-        <v>0.1073613292401556</v>
-      </c>
-      <c r="AM27">
-        <v>0.09202399649156193</v>
-      </c>
-      <c r="AN27">
-        <v>0.07668666374296824</v>
-      </c>
-      <c r="AO27">
-        <v>0.0613493309943746</v>
-      </c>
-      <c r="AP27">
-        <v>0.04601199824578096</v>
-      </c>
-      <c r="AQ27">
-        <v>0.03067466549718732</v>
-      </c>
-      <c r="AR27">
-        <v>0.01533733274859364</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28">
-        <v>23</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0.1632</v>
-      </c>
-      <c r="K28">
-        <v>0.1632</v>
-      </c>
-      <c r="L28">
-        <v>0.1632</v>
-      </c>
-      <c r="M28">
-        <v>0.1632</v>
-      </c>
-      <c r="N28">
-        <v>0.1632</v>
-      </c>
-      <c r="O28">
-        <v>0.1632</v>
-      </c>
-      <c r="P28">
-        <v>0.1632</v>
-      </c>
-      <c r="Q28">
-        <v>0.1632</v>
-      </c>
-      <c r="R28">
-        <v>0.1632</v>
-      </c>
-      <c r="S28">
-        <v>0.1632</v>
-      </c>
-      <c r="T28">
-        <v>0.1632</v>
-      </c>
-      <c r="U28">
-        <v>0.1632</v>
-      </c>
-      <c r="V28">
-        <v>0.1632</v>
-      </c>
-      <c r="W28">
-        <v>0.1953434782608696</v>
-      </c>
-      <c r="X28">
-        <v>0.2274869565217391</v>
-      </c>
-      <c r="Y28">
-        <v>0.2596304347826087</v>
-      </c>
-      <c r="Z28">
-        <v>0.2917739130434782</v>
-      </c>
-      <c r="AA28">
-        <v>0.3239173913043478</v>
-      </c>
-      <c r="AB28">
-        <v>0.3560608695652174</v>
-      </c>
-      <c r="AC28">
-        <v>0.388204347826087</v>
-      </c>
-      <c r="AD28">
-        <v>0.4203478260869565</v>
-      </c>
-      <c r="AE28">
-        <v>0.4524913043478261</v>
-      </c>
-      <c r="AF28">
-        <v>0.4846347826086956</v>
-      </c>
-      <c r="AG28">
-        <v>0.5167782608695652</v>
-      </c>
-      <c r="AH28">
-        <v>0.5489217391304347</v>
-      </c>
-      <c r="AI28">
-        <v>0.5810652173913043</v>
-      </c>
-      <c r="AJ28">
-        <v>0.613208695652174</v>
-      </c>
-      <c r="AK28">
-        <v>0.6453521739130434</v>
-      </c>
-      <c r="AL28">
-        <v>0.6774956521739129</v>
-      </c>
-      <c r="AM28">
-        <v>0.7096391304347826</v>
-      </c>
-      <c r="AN28">
-        <v>0.7417826086956522</v>
-      </c>
-      <c r="AO28">
-        <v>0.7739260869565217</v>
-      </c>
-      <c r="AP28">
-        <v>0.8060695652173913</v>
-      </c>
-      <c r="AQ28">
-        <v>0.8382130434782609</v>
-      </c>
-      <c r="AR28">
-        <v>0.8703565217391305</v>
-      </c>
-      <c r="AS28">
-        <v>0.9025</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29">
-        <v>23</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0.1632</v>
-      </c>
-      <c r="K29">
-        <v>0.1632</v>
-      </c>
-      <c r="L29">
-        <v>0.1632</v>
-      </c>
-      <c r="M29">
-        <v>0.1632</v>
-      </c>
-      <c r="N29">
-        <v>0.1632</v>
-      </c>
-      <c r="O29">
-        <v>0.1632</v>
-      </c>
-      <c r="P29">
-        <v>0.1632</v>
-      </c>
-      <c r="Q29">
-        <v>0.1632</v>
-      </c>
-      <c r="R29">
-        <v>0.1632</v>
-      </c>
-      <c r="S29">
-        <v>0.1632</v>
-      </c>
-      <c r="T29">
-        <v>0.1632</v>
-      </c>
-      <c r="U29">
-        <v>0.1632</v>
-      </c>
-      <c r="V29">
-        <v>0.1632</v>
-      </c>
-      <c r="W29">
-        <v>0.1953434782608696</v>
-      </c>
-      <c r="X29">
-        <v>0.2274869565217391</v>
-      </c>
-      <c r="Y29">
-        <v>0.2596304347826087</v>
-      </c>
-      <c r="Z29">
-        <v>0.2917739130434782</v>
-      </c>
-      <c r="AA29">
-        <v>0.3239173913043478</v>
-      </c>
-      <c r="AB29">
-        <v>0.3560608695652174</v>
-      </c>
-      <c r="AC29">
-        <v>0.388204347826087</v>
-      </c>
-      <c r="AD29">
-        <v>0.4203478260869565</v>
-      </c>
-      <c r="AE29">
-        <v>0.4524913043478261</v>
-      </c>
-      <c r="AF29">
-        <v>0.4846347826086956</v>
-      </c>
-      <c r="AG29">
-        <v>0.5167782608695652</v>
-      </c>
-      <c r="AH29">
-        <v>0.5489217391304347</v>
-      </c>
-      <c r="AI29">
-        <v>0.5810652173913043</v>
-      </c>
-      <c r="AJ29">
-        <v>0.613208695652174</v>
-      </c>
-      <c r="AK29">
-        <v>0.6453521739130434</v>
-      </c>
-      <c r="AL29">
-        <v>0.6774956521739129</v>
-      </c>
-      <c r="AM29">
-        <v>0.7096391304347826</v>
-      </c>
-      <c r="AN29">
-        <v>0.7417826086956522</v>
-      </c>
-      <c r="AO29">
-        <v>0.7739260869565217</v>
-      </c>
-      <c r="AP29">
-        <v>0.8060695652173913</v>
-      </c>
-      <c r="AQ29">
-        <v>0.8382130434782609</v>
-      </c>
-      <c r="AR29">
-        <v>0.8703565217391305</v>
-      </c>
-      <c r="AS29">
-        <v>0.9025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30">
-        <v>23</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0.1632</v>
-      </c>
-      <c r="K30">
-        <v>0.1632</v>
-      </c>
-      <c r="L30">
-        <v>0.1632</v>
-      </c>
-      <c r="M30">
-        <v>0.1632</v>
-      </c>
-      <c r="N30">
-        <v>0.1632</v>
-      </c>
-      <c r="O30">
-        <v>0.1632</v>
-      </c>
-      <c r="P30">
-        <v>0.1632</v>
-      </c>
-      <c r="Q30">
-        <v>0.1632</v>
-      </c>
-      <c r="R30">
-        <v>0.1632</v>
-      </c>
-      <c r="S30">
-        <v>0.1632</v>
-      </c>
-      <c r="T30">
-        <v>0.1632</v>
-      </c>
-      <c r="U30">
-        <v>0.1632</v>
-      </c>
-      <c r="V30">
-        <v>0.1632</v>
-      </c>
-      <c r="W30">
-        <v>0.1953434782608696</v>
-      </c>
-      <c r="X30">
-        <v>0.2274869565217391</v>
-      </c>
-      <c r="Y30">
-        <v>0.2596304347826087</v>
-      </c>
-      <c r="Z30">
-        <v>0.2917739130434782</v>
-      </c>
-      <c r="AA30">
-        <v>0.3239173913043478</v>
-      </c>
-      <c r="AB30">
-        <v>0.3560608695652174</v>
-      </c>
-      <c r="AC30">
-        <v>0.388204347826087</v>
-      </c>
-      <c r="AD30">
-        <v>0.4203478260869565</v>
-      </c>
-      <c r="AE30">
-        <v>0.4524913043478261</v>
-      </c>
-      <c r="AF30">
-        <v>0.4846347826086956</v>
-      </c>
-      <c r="AG30">
-        <v>0.5167782608695652</v>
-      </c>
-      <c r="AH30">
-        <v>0.5489217391304347</v>
-      </c>
-      <c r="AI30">
-        <v>0.5810652173913043</v>
-      </c>
-      <c r="AJ30">
-        <v>0.613208695652174</v>
-      </c>
-      <c r="AK30">
-        <v>0.6453521739130434</v>
-      </c>
-      <c r="AL30">
-        <v>0.6774956521739129</v>
-      </c>
-      <c r="AM30">
-        <v>0.7096391304347826</v>
-      </c>
-      <c r="AN30">
-        <v>0.7417826086956522</v>
-      </c>
-      <c r="AO30">
-        <v>0.7739260869565217</v>
-      </c>
-      <c r="AP30">
-        <v>0.8060695652173913</v>
-      </c>
-      <c r="AQ30">
-        <v>0.8382130434782609</v>
-      </c>
-      <c r="AR30">
-        <v>0.8703565217391305</v>
-      </c>
-      <c r="AS30">
-        <v>0.9025</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31">
-        <v>23</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0.1632</v>
-      </c>
-      <c r="K31">
-        <v>0.1632</v>
-      </c>
-      <c r="L31">
-        <v>0.1632</v>
-      </c>
-      <c r="M31">
-        <v>0.1632</v>
-      </c>
-      <c r="N31">
-        <v>0.1632</v>
-      </c>
-      <c r="O31">
-        <v>0.1632</v>
-      </c>
-      <c r="P31">
-        <v>0.1632</v>
-      </c>
-      <c r="Q31">
-        <v>0.1632</v>
-      </c>
-      <c r="R31">
-        <v>0.1632</v>
-      </c>
-      <c r="S31">
-        <v>0.1632</v>
-      </c>
-      <c r="T31">
-        <v>0.1632</v>
-      </c>
-      <c r="U31">
-        <v>0.1632</v>
-      </c>
-      <c r="V31">
-        <v>0.1632</v>
-      </c>
-      <c r="W31">
-        <v>0.1953434782608696</v>
-      </c>
-      <c r="X31">
-        <v>0.2274869565217391</v>
-      </c>
-      <c r="Y31">
-        <v>0.2596304347826087</v>
-      </c>
-      <c r="Z31">
-        <v>0.2917739130434782</v>
-      </c>
-      <c r="AA31">
-        <v>0.3239173913043478</v>
-      </c>
-      <c r="AB31">
-        <v>0.3560608695652174</v>
-      </c>
-      <c r="AC31">
-        <v>0.388204347826087</v>
-      </c>
-      <c r="AD31">
-        <v>0.4203478260869565</v>
-      </c>
-      <c r="AE31">
-        <v>0.4524913043478261</v>
-      </c>
-      <c r="AF31">
-        <v>0.4846347826086956</v>
-      </c>
-      <c r="AG31">
-        <v>0.5167782608695652</v>
-      </c>
-      <c r="AH31">
-        <v>0.5489217391304347</v>
-      </c>
-      <c r="AI31">
-        <v>0.5810652173913043</v>
-      </c>
-      <c r="AJ31">
-        <v>0.613208695652174</v>
-      </c>
-      <c r="AK31">
-        <v>0.6453521739130434</v>
-      </c>
-      <c r="AL31">
-        <v>0.6774956521739129</v>
-      </c>
-      <c r="AM31">
-        <v>0.7096391304347826</v>
-      </c>
-      <c r="AN31">
-        <v>0.7417826086956522</v>
-      </c>
-      <c r="AO31">
-        <v>0.7739260869565217</v>
-      </c>
-      <c r="AP31">
-        <v>0.8060695652173913</v>
-      </c>
-      <c r="AQ31">
-        <v>0.8382130434782609</v>
-      </c>
-      <c r="AR31">
-        <v>0.8703565217391305</v>
-      </c>
-      <c r="AS31">
-        <v>0.9025</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32">
-        <v>23</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0.1632</v>
-      </c>
-      <c r="K32">
-        <v>0.1632</v>
-      </c>
-      <c r="L32">
-        <v>0.1632</v>
-      </c>
-      <c r="M32">
-        <v>0.1632</v>
-      </c>
-      <c r="N32">
-        <v>0.1632</v>
-      </c>
-      <c r="O32">
-        <v>0.1632</v>
-      </c>
-      <c r="P32">
-        <v>0.1632</v>
-      </c>
-      <c r="Q32">
-        <v>0.1632</v>
-      </c>
-      <c r="R32">
-        <v>0.1632</v>
-      </c>
-      <c r="S32">
-        <v>0.1632</v>
-      </c>
-      <c r="T32">
-        <v>0.1632</v>
-      </c>
-      <c r="U32">
-        <v>0.1632</v>
-      </c>
-      <c r="V32">
-        <v>0.1632</v>
-      </c>
-      <c r="W32">
-        <v>0.1953434782608696</v>
-      </c>
-      <c r="X32">
-        <v>0.2274869565217391</v>
-      </c>
-      <c r="Y32">
-        <v>0.2596304347826087</v>
-      </c>
-      <c r="Z32">
-        <v>0.2917739130434782</v>
-      </c>
-      <c r="AA32">
-        <v>0.3239173913043478</v>
-      </c>
-      <c r="AB32">
-        <v>0.3560608695652174</v>
-      </c>
-      <c r="AC32">
-        <v>0.388204347826087</v>
-      </c>
-      <c r="AD32">
-        <v>0.4203478260869565</v>
-      </c>
-      <c r="AE32">
-        <v>0.4524913043478261</v>
-      </c>
-      <c r="AF32">
-        <v>0.4846347826086956</v>
-      </c>
-      <c r="AG32">
-        <v>0.5167782608695652</v>
-      </c>
-      <c r="AH32">
-        <v>0.5489217391304347</v>
-      </c>
-      <c r="AI32">
-        <v>0.5810652173913043</v>
-      </c>
-      <c r="AJ32">
-        <v>0.613208695652174</v>
-      </c>
-      <c r="AK32">
-        <v>0.6453521739130434</v>
-      </c>
-      <c r="AL32">
-        <v>0.6774956521739129</v>
-      </c>
-      <c r="AM32">
-        <v>0.7096391304347826</v>
-      </c>
-      <c r="AN32">
-        <v>0.7417826086956522</v>
-      </c>
-      <c r="AO32">
-        <v>0.7739260869565217</v>
-      </c>
-      <c r="AP32">
-        <v>0.8060695652173913</v>
-      </c>
-      <c r="AQ32">
-        <v>0.8382130434782609</v>
-      </c>
-      <c r="AR32">
-        <v>0.8703565217391305</v>
-      </c>
-      <c r="AS32">
-        <v>0.9025</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33">
-        <v>23</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0.1632</v>
-      </c>
-      <c r="K33">
-        <v>0.1632</v>
-      </c>
-      <c r="L33">
-        <v>0.1632</v>
-      </c>
-      <c r="M33">
-        <v>0.1632</v>
-      </c>
-      <c r="N33">
-        <v>0.1632</v>
-      </c>
-      <c r="O33">
-        <v>0.1632</v>
-      </c>
-      <c r="P33">
-        <v>0.1632</v>
-      </c>
-      <c r="Q33">
-        <v>0.1632</v>
-      </c>
-      <c r="R33">
-        <v>0.1632</v>
-      </c>
-      <c r="S33">
-        <v>0.1632</v>
-      </c>
-      <c r="T33">
-        <v>0.1632</v>
-      </c>
-      <c r="U33">
-        <v>0.1632</v>
-      </c>
-      <c r="V33">
-        <v>0.1632</v>
-      </c>
-      <c r="W33">
-        <v>0.1953434782608696</v>
-      </c>
-      <c r="X33">
-        <v>0.2274869565217391</v>
-      </c>
-      <c r="Y33">
-        <v>0.2596304347826087</v>
-      </c>
-      <c r="Z33">
-        <v>0.2917739130434782</v>
-      </c>
-      <c r="AA33">
-        <v>0.3239173913043478</v>
-      </c>
-      <c r="AB33">
-        <v>0.3560608695652174</v>
-      </c>
-      <c r="AC33">
-        <v>0.388204347826087</v>
-      </c>
-      <c r="AD33">
-        <v>0.4203478260869565</v>
-      </c>
-      <c r="AE33">
-        <v>0.4524913043478261</v>
-      </c>
-      <c r="AF33">
-        <v>0.4846347826086956</v>
-      </c>
-      <c r="AG33">
-        <v>0.5167782608695652</v>
-      </c>
-      <c r="AH33">
-        <v>0.5489217391304347</v>
-      </c>
-      <c r="AI33">
-        <v>0.5810652173913043</v>
-      </c>
-      <c r="AJ33">
-        <v>0.613208695652174</v>
-      </c>
-      <c r="AK33">
-        <v>0.6453521739130434</v>
-      </c>
-      <c r="AL33">
-        <v>0.6774956521739129</v>
-      </c>
-      <c r="AM33">
-        <v>0.7096391304347826</v>
-      </c>
-      <c r="AN33">
-        <v>0.7417826086956522</v>
-      </c>
-      <c r="AO33">
-        <v>0.7739260869565217</v>
-      </c>
-      <c r="AP33">
-        <v>0.8060695652173913</v>
-      </c>
-      <c r="AQ33">
-        <v>0.8382130434782609</v>
-      </c>
-      <c r="AR33">
-        <v>0.8703565217391305</v>
-      </c>
-      <c r="AS33">
-        <v>0.9025</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34">
-        <v>23</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0.1632</v>
-      </c>
-      <c r="K34">
-        <v>0.1632</v>
-      </c>
-      <c r="L34">
-        <v>0.1632</v>
-      </c>
-      <c r="M34">
-        <v>0.1632</v>
-      </c>
-      <c r="N34">
-        <v>0.1632</v>
-      </c>
-      <c r="O34">
-        <v>0.1632</v>
-      </c>
-      <c r="P34">
-        <v>0.1632</v>
-      </c>
-      <c r="Q34">
-        <v>0.1632</v>
-      </c>
-      <c r="R34">
-        <v>0.1632</v>
-      </c>
-      <c r="S34">
-        <v>0.1632</v>
-      </c>
-      <c r="T34">
-        <v>0.1632</v>
-      </c>
-      <c r="U34">
-        <v>0.1632</v>
-      </c>
-      <c r="V34">
-        <v>0.1632</v>
-      </c>
-      <c r="W34">
-        <v>0.1953434782608696</v>
-      </c>
-      <c r="X34">
-        <v>0.2274869565217391</v>
-      </c>
-      <c r="Y34">
-        <v>0.2596304347826087</v>
-      </c>
-      <c r="Z34">
-        <v>0.2917739130434782</v>
-      </c>
-      <c r="AA34">
-        <v>0.3239173913043478</v>
-      </c>
-      <c r="AB34">
-        <v>0.3560608695652174</v>
-      </c>
-      <c r="AC34">
-        <v>0.388204347826087</v>
-      </c>
-      <c r="AD34">
-        <v>0.4203478260869565</v>
-      </c>
-      <c r="AE34">
-        <v>0.4524913043478261</v>
-      </c>
-      <c r="AF34">
-        <v>0.4846347826086956</v>
-      </c>
-      <c r="AG34">
-        <v>0.5167782608695652</v>
-      </c>
-      <c r="AH34">
-        <v>0.5489217391304347</v>
-      </c>
-      <c r="AI34">
-        <v>0.5810652173913043</v>
-      </c>
-      <c r="AJ34">
-        <v>0.613208695652174</v>
-      </c>
-      <c r="AK34">
-        <v>0.6453521739130434</v>
-      </c>
-      <c r="AL34">
-        <v>0.6774956521739129</v>
-      </c>
-      <c r="AM34">
-        <v>0.7096391304347826</v>
-      </c>
-      <c r="AN34">
-        <v>0.7417826086956522</v>
-      </c>
-      <c r="AO34">
-        <v>0.7739260869565217</v>
-      </c>
-      <c r="AP34">
-        <v>0.8060695652173913</v>
-      </c>
-      <c r="AQ34">
-        <v>0.8382130434782609</v>
-      </c>
-      <c r="AR34">
-        <v>0.8703565217391305</v>
-      </c>
-      <c r="AS34">
-        <v>0.9025</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0.95</v>
-      </c>
-      <c r="K35">
-        <v>0.95</v>
-      </c>
-      <c r="L35">
-        <v>0.95</v>
-      </c>
-      <c r="M35">
-        <v>0.95</v>
-      </c>
-      <c r="N35">
-        <v>0.95</v>
-      </c>
-      <c r="O35">
-        <v>0.95</v>
-      </c>
-      <c r="P35">
-        <v>0.95</v>
-      </c>
-      <c r="Q35">
-        <v>0.95</v>
-      </c>
-      <c r="R35">
-        <v>0.95</v>
-      </c>
-      <c r="S35">
-        <v>0.95</v>
-      </c>
-      <c r="T35">
-        <v>0.95</v>
-      </c>
-      <c r="U35">
-        <v>0.95</v>
-      </c>
-      <c r="V35">
-        <v>0.95</v>
-      </c>
-      <c r="W35">
-        <v>0.95</v>
-      </c>
-      <c r="X35">
-        <v>0.95</v>
-      </c>
-      <c r="Y35">
-        <v>0.9499999999999998</v>
-      </c>
-      <c r="Z35">
-        <v>0.95</v>
-      </c>
-      <c r="AA35">
-        <v>0.95</v>
-      </c>
-      <c r="AB35">
-        <v>0.95</v>
-      </c>
-      <c r="AC35">
-        <v>0.95</v>
-      </c>
-      <c r="AD35">
-        <v>0.95</v>
-      </c>
-      <c r="AE35">
-        <v>0.95</v>
-      </c>
-      <c r="AF35">
-        <v>0.95</v>
-      </c>
-      <c r="AG35">
-        <v>0.95</v>
-      </c>
-      <c r="AH35">
-        <v>0.95</v>
-      </c>
-      <c r="AI35">
-        <v>0.95</v>
-      </c>
-      <c r="AJ35">
-        <v>0.95</v>
-      </c>
-      <c r="AK35">
-        <v>0.95</v>
-      </c>
-      <c r="AL35">
-        <v>0.95</v>
-      </c>
-      <c r="AM35">
-        <v>0.95</v>
-      </c>
-      <c r="AN35">
-        <v>0.95</v>
-      </c>
-      <c r="AO35">
-        <v>0.95</v>
-      </c>
-      <c r="AP35">
-        <v>0.95</v>
-      </c>
-      <c r="AQ35">
-        <v>0.95</v>
-      </c>
-      <c r="AR35">
-        <v>0.95</v>
-      </c>
-      <c r="AS35">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0.5</v>
-      </c>
-      <c r="K36">
-        <v>0.5</v>
-      </c>
-      <c r="L36">
-        <v>0.5</v>
-      </c>
-      <c r="M36">
-        <v>0.5</v>
-      </c>
-      <c r="N36">
-        <v>0.5</v>
-      </c>
-      <c r="O36">
-        <v>0.5</v>
-      </c>
-      <c r="P36">
-        <v>0.5</v>
-      </c>
-      <c r="Q36">
-        <v>0.5</v>
-      </c>
-      <c r="R36">
-        <v>0.5</v>
-      </c>
-      <c r="S36">
-        <v>0.5</v>
-      </c>
-      <c r="T36">
-        <v>0.5</v>
-      </c>
-      <c r="U36">
-        <v>0.5</v>
-      </c>
-      <c r="V36">
-        <v>0.5</v>
-      </c>
-      <c r="W36">
-        <v>0.5134782608695653</v>
-      </c>
-      <c r="X36">
-        <v>0.5269565217391304</v>
-      </c>
-      <c r="Y36">
-        <v>0.5404347826086956</v>
-      </c>
-      <c r="Z36">
-        <v>0.5539130434782609</v>
-      </c>
-      <c r="AA36">
-        <v>0.5673913043478261</v>
-      </c>
-      <c r="AB36">
-        <v>0.5808695652173913</v>
-      </c>
-      <c r="AC36">
-        <v>0.5943478260869566</v>
-      </c>
-      <c r="AD36">
-        <v>0.6078260869565217</v>
-      </c>
-      <c r="AE36">
-        <v>0.621304347826087</v>
-      </c>
-      <c r="AF36">
-        <v>0.6347826086956523</v>
-      </c>
-      <c r="AG36">
-        <v>0.6482608695652174</v>
-      </c>
-      <c r="AH36">
-        <v>0.6617391304347826</v>
-      </c>
-      <c r="AI36">
-        <v>0.6752173913043478</v>
-      </c>
-      <c r="AJ36">
-        <v>0.6886956521739132</v>
-      </c>
-      <c r="AK36">
-        <v>0.7021739130434783</v>
-      </c>
-      <c r="AL36">
-        <v>0.7156521739130435</v>
-      </c>
-      <c r="AM36">
-        <v>0.7291304347826087</v>
-      </c>
-      <c r="AN36">
-        <v>0.742608695652174</v>
-      </c>
-      <c r="AO36">
-        <v>0.7560869565217392</v>
-      </c>
-      <c r="AP36">
-        <v>0.7695652173913043</v>
-      </c>
-      <c r="AQ36">
-        <v>0.7830434782608695</v>
-      </c>
-      <c r="AR36">
-        <v>0.7965217391304349</v>
-      </c>
-      <c r="AS36">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37">
-        <v>29</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0.03141304347826086</v>
-      </c>
-      <c r="X37">
-        <v>0.06282608695652173</v>
-      </c>
-      <c r="Y37">
-        <v>0.09423913043478259</v>
-      </c>
-      <c r="Z37">
-        <v>0.1256521739130435</v>
-      </c>
-      <c r="AA37">
-        <v>0.1570652173913043</v>
-      </c>
-      <c r="AB37">
-        <v>0.1884782608695652</v>
-      </c>
-      <c r="AC37">
-        <v>0.2198913043478261</v>
-      </c>
-      <c r="AD37">
-        <v>0.2513043478260869</v>
-      </c>
-      <c r="AE37">
-        <v>0.2827173913043478</v>
-      </c>
-      <c r="AF37">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AG37">
-        <v>0.3455434782608696</v>
-      </c>
-      <c r="AH37">
-        <v>0.3769565217391304</v>
-      </c>
-      <c r="AI37">
-        <v>0.4083695652173912</v>
-      </c>
-      <c r="AJ37">
-        <v>0.4397826086956522</v>
-      </c>
-      <c r="AK37">
-        <v>0.471195652173913</v>
-      </c>
-      <c r="AL37">
-        <v>0.5026086956521738</v>
-      </c>
-      <c r="AM37">
-        <v>0.5340217391304347</v>
-      </c>
-      <c r="AN37">
-        <v>0.5654347826086956</v>
-      </c>
-      <c r="AO37">
-        <v>0.5968478260869564</v>
-      </c>
-      <c r="AP37">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AQ37">
-        <v>0.6596739130434781</v>
-      </c>
-      <c r="AR37">
-        <v>0.6910869565217391</v>
-      </c>
-      <c r="AS37">
-        <v>0.7224999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38">
-        <v>29</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0.03141304347826086</v>
-      </c>
-      <c r="X38">
-        <v>0.06282608695652173</v>
-      </c>
-      <c r="Y38">
-        <v>0.09423913043478259</v>
-      </c>
-      <c r="Z38">
-        <v>0.1256521739130435</v>
-      </c>
-      <c r="AA38">
-        <v>0.1570652173913043</v>
-      </c>
-      <c r="AB38">
-        <v>0.1884782608695652</v>
-      </c>
-      <c r="AC38">
-        <v>0.2198913043478261</v>
-      </c>
-      <c r="AD38">
-        <v>0.2513043478260869</v>
-      </c>
-      <c r="AE38">
-        <v>0.2827173913043478</v>
-      </c>
-      <c r="AF38">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AG38">
-        <v>0.3455434782608696</v>
-      </c>
-      <c r="AH38">
-        <v>0.3769565217391304</v>
-      </c>
-      <c r="AI38">
-        <v>0.4083695652173912</v>
-      </c>
-      <c r="AJ38">
-        <v>0.4397826086956522</v>
-      </c>
-      <c r="AK38">
-        <v>0.471195652173913</v>
-      </c>
-      <c r="AL38">
-        <v>0.5026086956521738</v>
-      </c>
-      <c r="AM38">
-        <v>0.5340217391304347</v>
-      </c>
-      <c r="AN38">
-        <v>0.5654347826086956</v>
-      </c>
-      <c r="AO38">
-        <v>0.5968478260869564</v>
-      </c>
-      <c r="AP38">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AQ38">
-        <v>0.6596739130434781</v>
-      </c>
-      <c r="AR38">
-        <v>0.6910869565217391</v>
-      </c>
-      <c r="AS38">
-        <v>0.7224999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39">
-        <v>29</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0.03141304347826086</v>
-      </c>
-      <c r="X39">
-        <v>0.06282608695652173</v>
-      </c>
-      <c r="Y39">
-        <v>0.09423913043478259</v>
-      </c>
-      <c r="Z39">
-        <v>0.1256521739130435</v>
-      </c>
-      <c r="AA39">
-        <v>0.1570652173913043</v>
-      </c>
-      <c r="AB39">
-        <v>0.1884782608695652</v>
-      </c>
-      <c r="AC39">
-        <v>0.2198913043478261</v>
-      </c>
-      <c r="AD39">
-        <v>0.2513043478260869</v>
-      </c>
-      <c r="AE39">
-        <v>0.2827173913043478</v>
-      </c>
-      <c r="AF39">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AG39">
-        <v>0.3455434782608696</v>
-      </c>
-      <c r="AH39">
-        <v>0.3769565217391304</v>
-      </c>
-      <c r="AI39">
-        <v>0.4083695652173912</v>
-      </c>
-      <c r="AJ39">
-        <v>0.4397826086956522</v>
-      </c>
-      <c r="AK39">
-        <v>0.471195652173913</v>
-      </c>
-      <c r="AL39">
-        <v>0.5026086956521738</v>
-      </c>
-      <c r="AM39">
-        <v>0.5340217391304347</v>
-      </c>
-      <c r="AN39">
-        <v>0.5654347826086956</v>
-      </c>
-      <c r="AO39">
-        <v>0.5968478260869564</v>
-      </c>
-      <c r="AP39">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AQ39">
-        <v>0.6596739130434781</v>
-      </c>
-      <c r="AR39">
-        <v>0.6910869565217391</v>
-      </c>
-      <c r="AS39">
-        <v>0.7224999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C40">
-        <v>29</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0.03141304347826086</v>
-      </c>
-      <c r="X40">
-        <v>0.06282608695652173</v>
-      </c>
-      <c r="Y40">
-        <v>0.09423913043478259</v>
-      </c>
-      <c r="Z40">
-        <v>0.1256521739130435</v>
-      </c>
-      <c r="AA40">
-        <v>0.1570652173913043</v>
-      </c>
-      <c r="AB40">
-        <v>0.1884782608695652</v>
-      </c>
-      <c r="AC40">
-        <v>0.2198913043478261</v>
-      </c>
-      <c r="AD40">
-        <v>0.2513043478260869</v>
-      </c>
-      <c r="AE40">
-        <v>0.2827173913043478</v>
-      </c>
-      <c r="AF40">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AG40">
-        <v>0.3455434782608696</v>
-      </c>
-      <c r="AH40">
-        <v>0.3769565217391304</v>
-      </c>
-      <c r="AI40">
-        <v>0.4083695652173912</v>
-      </c>
-      <c r="AJ40">
-        <v>0.4397826086956522</v>
-      </c>
-      <c r="AK40">
-        <v>0.471195652173913</v>
-      </c>
-      <c r="AL40">
-        <v>0.5026086956521738</v>
-      </c>
-      <c r="AM40">
-        <v>0.5340217391304347</v>
-      </c>
-      <c r="AN40">
-        <v>0.5654347826086956</v>
-      </c>
-      <c r="AO40">
-        <v>0.5968478260869564</v>
-      </c>
-      <c r="AP40">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AQ40">
-        <v>0.6596739130434781</v>
-      </c>
-      <c r="AR40">
-        <v>0.6910869565217391</v>
-      </c>
-      <c r="AS40">
-        <v>0.7224999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
+++ b/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
@@ -29174,73 +29174,73 @@
         <v>0.02</v>
       </c>
       <c r="W3">
-        <v>0.03978260869565217</v>
+        <v>0.05630434782608695</v>
       </c>
       <c r="X3">
-        <v>0.05956521739130435</v>
+        <v>0.09260869565217392</v>
       </c>
       <c r="Y3">
-        <v>0.07934782608695652</v>
+        <v>0.1289130434782609</v>
       </c>
       <c r="Z3">
-        <v>0.09913043478260869</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="AA3">
-        <v>0.1189130434782609</v>
+        <v>0.2015217391304348</v>
       </c>
       <c r="AB3">
-        <v>0.138695652173913</v>
+        <v>0.2378260869565217</v>
       </c>
       <c r="AC3">
-        <v>0.1584782608695652</v>
+        <v>0.2741304347826087</v>
       </c>
       <c r="AD3">
-        <v>0.1782608695652174</v>
+        <v>0.3104347826086956</v>
       </c>
       <c r="AE3">
-        <v>0.1980434782608696</v>
+        <v>0.3467391304347826</v>
       </c>
       <c r="AF3">
-        <v>0.2178260869565217</v>
+        <v>0.3830434782608695</v>
       </c>
       <c r="AG3">
-        <v>0.2376086956521739</v>
+        <v>0.4193478260869565</v>
       </c>
       <c r="AH3">
-        <v>0.2573913043478261</v>
+        <v>0.4556521739130435</v>
       </c>
       <c r="AI3">
-        <v>0.2771739130434782</v>
+        <v>0.4919565217391304</v>
       </c>
       <c r="AJ3">
-        <v>0.2969565217391305</v>
+        <v>0.5282608695652175</v>
       </c>
       <c r="AK3">
-        <v>0.3167391304347826</v>
+        <v>0.5645652173913043</v>
       </c>
       <c r="AL3">
-        <v>0.3365217391304348</v>
+        <v>0.6008695652173913</v>
       </c>
       <c r="AM3">
-        <v>0.3563043478260869</v>
+        <v>0.6371739130434783</v>
       </c>
       <c r="AN3">
-        <v>0.3760869565217391</v>
+        <v>0.6734782608695652</v>
       </c>
       <c r="AO3">
-        <v>0.3958695652173913</v>
+        <v>0.7097826086956522</v>
       </c>
       <c r="AP3">
-        <v>0.4156521739130434</v>
+        <v>0.7460869565217391</v>
       </c>
       <c r="AQ3">
-        <v>0.4354347826086956</v>
+        <v>0.782391304347826</v>
       </c>
       <c r="AR3">
-        <v>0.4552173913043478</v>
+        <v>0.818695652173913</v>
       </c>
       <c r="AS3">
-        <v>0.475</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -29299,73 +29299,73 @@
         <v>0.4</v>
       </c>
       <c r="W4">
-        <v>0.4032608695652174</v>
+        <v>0.4197826086956522</v>
       </c>
       <c r="X4">
-        <v>0.4065217391304348</v>
+        <v>0.4395652173913044</v>
       </c>
       <c r="Y4">
-        <v>0.4097826086956521</v>
+        <v>0.4593478260869565</v>
       </c>
       <c r="Z4">
-        <v>0.4130434782608696</v>
+        <v>0.4791304347826087</v>
       </c>
       <c r="AA4">
-        <v>0.4163043478260869</v>
+        <v>0.4989130434782609</v>
       </c>
       <c r="AB4">
-        <v>0.4195652173913044</v>
+        <v>0.518695652173913</v>
       </c>
       <c r="AC4">
-        <v>0.4228260869565217</v>
+        <v>0.5384782608695653</v>
       </c>
       <c r="AD4">
-        <v>0.4260869565217391</v>
+        <v>0.5582608695652174</v>
       </c>
       <c r="AE4">
-        <v>0.4293478260869565</v>
+        <v>0.5780434782608697</v>
       </c>
       <c r="AF4">
-        <v>0.4326086956521739</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="AG4">
-        <v>0.4358695652173913</v>
+        <v>0.6176086956521739</v>
       </c>
       <c r="AH4">
-        <v>0.4391304347826087</v>
+        <v>0.6373913043478261</v>
       </c>
       <c r="AI4">
-        <v>0.442391304347826</v>
+        <v>0.6571739130434783</v>
       </c>
       <c r="AJ4">
-        <v>0.4456521739130435</v>
+        <v>0.6769565217391305</v>
       </c>
       <c r="AK4">
-        <v>0.4489130434782609</v>
+        <v>0.6967391304347825</v>
       </c>
       <c r="AL4">
-        <v>0.4521739130434783</v>
+        <v>0.7165217391304348</v>
       </c>
       <c r="AM4">
-        <v>0.4554347826086956</v>
+        <v>0.736304347826087</v>
       </c>
       <c r="AN4">
-        <v>0.4586956521739131</v>
+        <v>0.7560869565217392</v>
       </c>
       <c r="AO4">
-        <v>0.4619565217391304</v>
+        <v>0.7758695652173914</v>
       </c>
       <c r="AP4">
-        <v>0.4652173913043478</v>
+        <v>0.7956521739130434</v>
       </c>
       <c r="AQ4">
-        <v>0.4684782608695652</v>
+        <v>0.8154347826086956</v>
       </c>
       <c r="AR4">
-        <v>0.4717391304347826</v>
+        <v>0.8352173913043478</v>
       </c>
       <c r="AS4">
-        <v>0.475</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -29424,73 +29424,73 @@
         <v>0.02</v>
       </c>
       <c r="W5">
-        <v>0.03978260869565217</v>
+        <v>0.05630434782608695</v>
       </c>
       <c r="X5">
-        <v>0.05956521739130435</v>
+        <v>0.09260869565217392</v>
       </c>
       <c r="Y5">
-        <v>0.07934782608695652</v>
+        <v>0.1289130434782609</v>
       </c>
       <c r="Z5">
-        <v>0.09913043478260869</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="AA5">
-        <v>0.1189130434782609</v>
+        <v>0.2015217391304348</v>
       </c>
       <c r="AB5">
-        <v>0.138695652173913</v>
+        <v>0.2378260869565217</v>
       </c>
       <c r="AC5">
-        <v>0.1584782608695652</v>
+        <v>0.2741304347826087</v>
       </c>
       <c r="AD5">
-        <v>0.1782608695652174</v>
+        <v>0.3104347826086956</v>
       </c>
       <c r="AE5">
-        <v>0.1980434782608696</v>
+        <v>0.3467391304347826</v>
       </c>
       <c r="AF5">
-        <v>0.2178260869565217</v>
+        <v>0.3830434782608695</v>
       </c>
       <c r="AG5">
-        <v>0.2376086956521739</v>
+        <v>0.4193478260869565</v>
       </c>
       <c r="AH5">
-        <v>0.2573913043478261</v>
+        <v>0.4556521739130435</v>
       </c>
       <c r="AI5">
-        <v>0.2771739130434782</v>
+        <v>0.4919565217391304</v>
       </c>
       <c r="AJ5">
-        <v>0.2969565217391305</v>
+        <v>0.5282608695652175</v>
       </c>
       <c r="AK5">
-        <v>0.3167391304347826</v>
+        <v>0.5645652173913043</v>
       </c>
       <c r="AL5">
-        <v>0.3365217391304348</v>
+        <v>0.6008695652173913</v>
       </c>
       <c r="AM5">
-        <v>0.3563043478260869</v>
+        <v>0.6371739130434783</v>
       </c>
       <c r="AN5">
-        <v>0.3760869565217391</v>
+        <v>0.6734782608695652</v>
       </c>
       <c r="AO5">
-        <v>0.3958695652173913</v>
+        <v>0.7097826086956522</v>
       </c>
       <c r="AP5">
-        <v>0.4156521739130434</v>
+        <v>0.7460869565217391</v>
       </c>
       <c r="AQ5">
-        <v>0.4354347826086956</v>
+        <v>0.782391304347826</v>
       </c>
       <c r="AR5">
-        <v>0.4552173913043478</v>
+        <v>0.818695652173913</v>
       </c>
       <c r="AS5">
-        <v>0.475</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -29549,73 +29549,73 @@
         <v>0.004225</v>
       </c>
       <c r="W6">
-        <v>0.02469347826086956</v>
+        <v>0.008171739130434782</v>
       </c>
       <c r="X6">
-        <v>0.04516195652173913</v>
+        <v>0.01211847826086956</v>
       </c>
       <c r="Y6">
-        <v>0.06563043478260869</v>
+        <v>0.01606521739130435</v>
       </c>
       <c r="Z6">
-        <v>0.08609891304347826</v>
+        <v>0.02001195652173913</v>
       </c>
       <c r="AA6">
-        <v>0.1065673913043478</v>
+        <v>0.02395869565217391</v>
       </c>
       <c r="AB6">
-        <v>0.1270358695652174</v>
+        <v>0.02790543478260869</v>
       </c>
       <c r="AC6">
-        <v>0.147504347826087</v>
+        <v>0.03185217391304348</v>
       </c>
       <c r="AD6">
-        <v>0.1679728260869565</v>
+        <v>0.03579891304347826</v>
       </c>
       <c r="AE6">
-        <v>0.1884413043478261</v>
+        <v>0.03974565217391305</v>
       </c>
       <c r="AF6">
-        <v>0.2089097826086956</v>
+        <v>0.04369239130434782</v>
       </c>
       <c r="AG6">
-        <v>0.2293782608695652</v>
+        <v>0.04763913043478261</v>
       </c>
       <c r="AH6">
-        <v>0.2498467391304348</v>
+        <v>0.05158586956521739</v>
       </c>
       <c r="AI6">
-        <v>0.2703152173913043</v>
+        <v>0.05553260869565217</v>
       </c>
       <c r="AJ6">
-        <v>0.2907836956521739</v>
+        <v>0.05947934782608696</v>
       </c>
       <c r="AK6">
-        <v>0.3112521739130434</v>
+        <v>0.06342608695652174</v>
       </c>
       <c r="AL6">
-        <v>0.331720652173913</v>
+        <v>0.06737282608695652</v>
       </c>
       <c r="AM6">
-        <v>0.3521891304347826</v>
+        <v>0.0713195652173913</v>
       </c>
       <c r="AN6">
-        <v>0.3726576086956522</v>
+        <v>0.07526630434782609</v>
       </c>
       <c r="AO6">
-        <v>0.3931260869565217</v>
+        <v>0.07921304347826087</v>
       </c>
       <c r="AP6">
-        <v>0.4135945652173912</v>
+        <v>0.08315978260869565</v>
       </c>
       <c r="AQ6">
-        <v>0.4340630434782608</v>
+        <v>0.08710652173913043</v>
       </c>
       <c r="AR6">
-        <v>0.4545315217391304</v>
+        <v>0.09105326086956522</v>
       </c>
       <c r="AS6">
-        <v>0.475</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -29674,73 +29674,73 @@
         <v>0.004225</v>
       </c>
       <c r="W7">
-        <v>0.02469347826086956</v>
+        <v>0.008171739130434782</v>
       </c>
       <c r="X7">
-        <v>0.04516195652173913</v>
+        <v>0.01211847826086956</v>
       </c>
       <c r="Y7">
-        <v>0.06563043478260869</v>
+        <v>0.01606521739130435</v>
       </c>
       <c r="Z7">
-        <v>0.08609891304347826</v>
+        <v>0.02001195652173913</v>
       </c>
       <c r="AA7">
-        <v>0.1065673913043478</v>
+        <v>0.02395869565217391</v>
       </c>
       <c r="AB7">
-        <v>0.1270358695652174</v>
+        <v>0.02790543478260869</v>
       </c>
       <c r="AC7">
-        <v>0.147504347826087</v>
+        <v>0.03185217391304348</v>
       </c>
       <c r="AD7">
-        <v>0.1679728260869565</v>
+        <v>0.03579891304347826</v>
       </c>
       <c r="AE7">
-        <v>0.1884413043478261</v>
+        <v>0.03974565217391305</v>
       </c>
       <c r="AF7">
-        <v>0.2089097826086956</v>
+        <v>0.04369239130434782</v>
       </c>
       <c r="AG7">
-        <v>0.2293782608695652</v>
+        <v>0.04763913043478261</v>
       </c>
       <c r="AH7">
-        <v>0.2498467391304348</v>
+        <v>0.05158586956521739</v>
       </c>
       <c r="AI7">
-        <v>0.2703152173913043</v>
+        <v>0.05553260869565217</v>
       </c>
       <c r="AJ7">
-        <v>0.2907836956521739</v>
+        <v>0.05947934782608696</v>
       </c>
       <c r="AK7">
-        <v>0.3112521739130434</v>
+        <v>0.06342608695652174</v>
       </c>
       <c r="AL7">
-        <v>0.331720652173913</v>
+        <v>0.06737282608695652</v>
       </c>
       <c r="AM7">
-        <v>0.3521891304347826</v>
+        <v>0.0713195652173913</v>
       </c>
       <c r="AN7">
-        <v>0.3726576086956522</v>
+        <v>0.07526630434782609</v>
       </c>
       <c r="AO7">
-        <v>0.3931260869565217</v>
+        <v>0.07921304347826087</v>
       </c>
       <c r="AP7">
-        <v>0.4135945652173912</v>
+        <v>0.08315978260869565</v>
       </c>
       <c r="AQ7">
-        <v>0.4340630434782608</v>
+        <v>0.08710652173913043</v>
       </c>
       <c r="AR7">
-        <v>0.4545315217391304</v>
+        <v>0.09105326086956522</v>
       </c>
       <c r="AS7">
-        <v>0.475</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -29799,73 +29799,73 @@
         <v>0.004225</v>
       </c>
       <c r="W8">
-        <v>0.02469347826086956</v>
+        <v>0.008171739130434782</v>
       </c>
       <c r="X8">
-        <v>0.04516195652173913</v>
+        <v>0.01211847826086956</v>
       </c>
       <c r="Y8">
-        <v>0.06563043478260869</v>
+        <v>0.01606521739130435</v>
       </c>
       <c r="Z8">
-        <v>0.08609891304347826</v>
+        <v>0.02001195652173913</v>
       </c>
       <c r="AA8">
-        <v>0.1065673913043478</v>
+        <v>0.02395869565217391</v>
       </c>
       <c r="AB8">
-        <v>0.1270358695652174</v>
+        <v>0.02790543478260869</v>
       </c>
       <c r="AC8">
-        <v>0.147504347826087</v>
+        <v>0.03185217391304348</v>
       </c>
       <c r="AD8">
-        <v>0.1679728260869565</v>
+        <v>0.03579891304347826</v>
       </c>
       <c r="AE8">
-        <v>0.1884413043478261</v>
+        <v>0.03974565217391305</v>
       </c>
       <c r="AF8">
-        <v>0.2089097826086956</v>
+        <v>0.04369239130434782</v>
       </c>
       <c r="AG8">
-        <v>0.2293782608695652</v>
+        <v>0.04763913043478261</v>
       </c>
       <c r="AH8">
-        <v>0.2498467391304348</v>
+        <v>0.05158586956521739</v>
       </c>
       <c r="AI8">
-        <v>0.2703152173913043</v>
+        <v>0.05553260869565217</v>
       </c>
       <c r="AJ8">
-        <v>0.2907836956521739</v>
+        <v>0.05947934782608696</v>
       </c>
       <c r="AK8">
-        <v>0.3112521739130434</v>
+        <v>0.06342608695652174</v>
       </c>
       <c r="AL8">
-        <v>0.331720652173913</v>
+        <v>0.06737282608695652</v>
       </c>
       <c r="AM8">
-        <v>0.3521891304347826</v>
+        <v>0.0713195652173913</v>
       </c>
       <c r="AN8">
-        <v>0.3726576086956522</v>
+        <v>0.07526630434782609</v>
       </c>
       <c r="AO8">
-        <v>0.3931260869565217</v>
+        <v>0.07921304347826087</v>
       </c>
       <c r="AP8">
-        <v>0.4135945652173912</v>
+        <v>0.08315978260869565</v>
       </c>
       <c r="AQ8">
-        <v>0.4340630434782608</v>
+        <v>0.08710652173913043</v>
       </c>
       <c r="AR8">
-        <v>0.4545315217391304</v>
+        <v>0.09105326086956522</v>
       </c>
       <c r="AS8">
-        <v>0.475</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -31946,73 +31946,73 @@
         <v>0.02</v>
       </c>
       <c r="W3">
-        <v>0.03978260869565217</v>
+        <v>0.04139692956756123</v>
       </c>
       <c r="X3">
-        <v>0.05956521739130435</v>
+        <v>0.06279385913512248</v>
       </c>
       <c r="Y3">
-        <v>0.07934782608695652</v>
+        <v>0.08419078870268371</v>
       </c>
       <c r="Z3">
-        <v>0.09913043478260869</v>
+        <v>0.1055877182702449</v>
       </c>
       <c r="AA3">
-        <v>0.1189130434782609</v>
+        <v>0.1269846478378062</v>
       </c>
       <c r="AB3">
-        <v>0.138695652173913</v>
+        <v>0.1483815774053674</v>
       </c>
       <c r="AC3">
-        <v>0.1584782608695652</v>
+        <v>0.1697785069729287</v>
       </c>
       <c r="AD3">
-        <v>0.1782608695652174</v>
+        <v>0.1911754365404899</v>
       </c>
       <c r="AE3">
-        <v>0.1980434782608696</v>
+        <v>0.2125723661080511</v>
       </c>
       <c r="AF3">
-        <v>0.2178260869565217</v>
+        <v>0.2339692956756124</v>
       </c>
       <c r="AG3">
-        <v>0.2376086956521739</v>
+        <v>0.2553662252431736</v>
       </c>
       <c r="AH3">
-        <v>0.2573913043478261</v>
+        <v>0.2767631548107348</v>
       </c>
       <c r="AI3">
-        <v>0.2771739130434782</v>
+        <v>0.2981600843782961</v>
       </c>
       <c r="AJ3">
-        <v>0.2969565217391305</v>
+        <v>0.3195570139458573</v>
       </c>
       <c r="AK3">
-        <v>0.3167391304347826</v>
+        <v>0.3409539435134185</v>
       </c>
       <c r="AL3">
-        <v>0.3365217391304348</v>
+        <v>0.3623508730809797</v>
       </c>
       <c r="AM3">
-        <v>0.3563043478260869</v>
+        <v>0.383747802648541</v>
       </c>
       <c r="AN3">
-        <v>0.3760869565217391</v>
+        <v>0.4051447322161022</v>
       </c>
       <c r="AO3">
-        <v>0.3958695652173913</v>
+        <v>0.4265416617836634</v>
       </c>
       <c r="AP3">
-        <v>0.4156521739130434</v>
+        <v>0.4479385913512247</v>
       </c>
       <c r="AQ3">
-        <v>0.4354347826086956</v>
+        <v>0.4693355209187859</v>
       </c>
       <c r="AR3">
-        <v>0.4552173913043478</v>
+        <v>0.4907324504863472</v>
       </c>
       <c r="AS3">
-        <v>0.475</v>
+        <v>0.5121293800539084</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -32071,73 +32071,73 @@
         <v>0.4</v>
       </c>
       <c r="W4">
-        <v>0.4032608695652174</v>
+        <v>0.4048751904371264</v>
       </c>
       <c r="X4">
-        <v>0.4065217391304348</v>
+        <v>0.409750380874253</v>
       </c>
       <c r="Y4">
-        <v>0.4097826086956521</v>
+        <v>0.4146255713113793</v>
       </c>
       <c r="Z4">
-        <v>0.4130434782608696</v>
+        <v>0.4195007617485058</v>
       </c>
       <c r="AA4">
-        <v>0.4163043478260869</v>
+        <v>0.4243759521856323</v>
       </c>
       <c r="AB4">
-        <v>0.4195652173913044</v>
+        <v>0.4292511426227588</v>
       </c>
       <c r="AC4">
-        <v>0.4228260869565217</v>
+        <v>0.4341263330598852</v>
       </c>
       <c r="AD4">
-        <v>0.4260869565217391</v>
+        <v>0.4390015234970116</v>
       </c>
       <c r="AE4">
-        <v>0.4293478260869565</v>
+        <v>0.4438767139341381</v>
       </c>
       <c r="AF4">
-        <v>0.4326086956521739</v>
+        <v>0.4487519043712646</v>
       </c>
       <c r="AG4">
-        <v>0.4358695652173913</v>
+        <v>0.453627094808391</v>
       </c>
       <c r="AH4">
-        <v>0.4391304347826087</v>
+        <v>0.4585022852455174</v>
       </c>
       <c r="AI4">
-        <v>0.442391304347826</v>
+        <v>0.4633774756826439</v>
       </c>
       <c r="AJ4">
-        <v>0.4456521739130435</v>
+        <v>0.4682526661197703</v>
       </c>
       <c r="AK4">
-        <v>0.4489130434782609</v>
+        <v>0.4731278565568968</v>
       </c>
       <c r="AL4">
-        <v>0.4521739130434783</v>
+        <v>0.4780030469940232</v>
       </c>
       <c r="AM4">
-        <v>0.4554347826086956</v>
+        <v>0.4828782374311497</v>
       </c>
       <c r="AN4">
-        <v>0.4586956521739131</v>
+        <v>0.4877534278682761</v>
       </c>
       <c r="AO4">
-        <v>0.4619565217391304</v>
+        <v>0.4926286183054026</v>
       </c>
       <c r="AP4">
-        <v>0.4652173913043478</v>
+        <v>0.4975038087425291</v>
       </c>
       <c r="AQ4">
-        <v>0.4684782608695652</v>
+        <v>0.5023789991796554</v>
       </c>
       <c r="AR4">
-        <v>0.4717391304347826</v>
+        <v>0.5072541896167819</v>
       </c>
       <c r="AS4">
-        <v>0.475</v>
+        <v>0.5121293800539084</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -32196,73 +32196,73 @@
         <v>0.02</v>
       </c>
       <c r="W5">
-        <v>0.03978260869565217</v>
+        <v>0.04139692956756123</v>
       </c>
       <c r="X5">
-        <v>0.05956521739130435</v>
+        <v>0.06279385913512248</v>
       </c>
       <c r="Y5">
-        <v>0.07934782608695652</v>
+        <v>0.08419078870268371</v>
       </c>
       <c r="Z5">
-        <v>0.09913043478260869</v>
+        <v>0.1055877182702449</v>
       </c>
       <c r="AA5">
-        <v>0.1189130434782609</v>
+        <v>0.1269846478378062</v>
       </c>
       <c r="AB5">
-        <v>0.138695652173913</v>
+        <v>0.1483815774053674</v>
       </c>
       <c r="AC5">
-        <v>0.1584782608695652</v>
+        <v>0.1697785069729287</v>
       </c>
       <c r="AD5">
-        <v>0.1782608695652174</v>
+        <v>0.1911754365404899</v>
       </c>
       <c r="AE5">
-        <v>0.1980434782608696</v>
+        <v>0.2125723661080511</v>
       </c>
       <c r="AF5">
-        <v>0.2178260869565217</v>
+        <v>0.2339692956756124</v>
       </c>
       <c r="AG5">
-        <v>0.2376086956521739</v>
+        <v>0.2553662252431736</v>
       </c>
       <c r="AH5">
-        <v>0.2573913043478261</v>
+        <v>0.2767631548107348</v>
       </c>
       <c r="AI5">
-        <v>0.2771739130434782</v>
+        <v>0.2981600843782961</v>
       </c>
       <c r="AJ5">
-        <v>0.2969565217391305</v>
+        <v>0.3195570139458573</v>
       </c>
       <c r="AK5">
-        <v>0.3167391304347826</v>
+        <v>0.3409539435134185</v>
       </c>
       <c r="AL5">
-        <v>0.3365217391304348</v>
+        <v>0.3623508730809797</v>
       </c>
       <c r="AM5">
-        <v>0.3563043478260869</v>
+        <v>0.383747802648541</v>
       </c>
       <c r="AN5">
-        <v>0.3760869565217391</v>
+        <v>0.4051447322161022</v>
       </c>
       <c r="AO5">
-        <v>0.3958695652173913</v>
+        <v>0.4265416617836634</v>
       </c>
       <c r="AP5">
-        <v>0.4156521739130434</v>
+        <v>0.4479385913512247</v>
       </c>
       <c r="AQ5">
-        <v>0.4354347826086956</v>
+        <v>0.4693355209187859</v>
       </c>
       <c r="AR5">
-        <v>0.4552173913043478</v>
+        <v>0.4907324504863472</v>
       </c>
       <c r="AS5">
-        <v>0.475</v>
+        <v>0.5121293800539084</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -32321,73 +32321,73 @@
         <v>0.004225</v>
       </c>
       <c r="W6">
-        <v>0.02469347826086956</v>
+        <v>0.02525307043243877</v>
       </c>
       <c r="X6">
-        <v>0.04516195652173913</v>
+        <v>0.04628114086487754</v>
       </c>
       <c r="Y6">
-        <v>0.06563043478260869</v>
+        <v>0.0673092112973163</v>
       </c>
       <c r="Z6">
-        <v>0.08609891304347826</v>
+        <v>0.08833728172975508</v>
       </c>
       <c r="AA6">
-        <v>0.1065673913043478</v>
+        <v>0.1093653521621938</v>
       </c>
       <c r="AB6">
-        <v>0.1270358695652174</v>
+        <v>0.1303934225946326</v>
       </c>
       <c r="AC6">
-        <v>0.147504347826087</v>
+        <v>0.1514214930270714</v>
       </c>
       <c r="AD6">
-        <v>0.1679728260869565</v>
+        <v>0.1724495634595102</v>
       </c>
       <c r="AE6">
-        <v>0.1884413043478261</v>
+        <v>0.1934776338919489</v>
       </c>
       <c r="AF6">
-        <v>0.2089097826086956</v>
+        <v>0.2145057043243877</v>
       </c>
       <c r="AG6">
-        <v>0.2293782608695652</v>
+        <v>0.2355337747568265</v>
       </c>
       <c r="AH6">
-        <v>0.2498467391304348</v>
+        <v>0.2565618451892652</v>
       </c>
       <c r="AI6">
-        <v>0.2703152173913043</v>
+        <v>0.277589915621704</v>
       </c>
       <c r="AJ6">
-        <v>0.2907836956521739</v>
+        <v>0.2986179860541428</v>
       </c>
       <c r="AK6">
-        <v>0.3112521739130434</v>
+        <v>0.3196460564865815</v>
       </c>
       <c r="AL6">
-        <v>0.331720652173913</v>
+        <v>0.3406741269190203</v>
       </c>
       <c r="AM6">
-        <v>0.3521891304347826</v>
+        <v>0.361702197351459</v>
       </c>
       <c r="AN6">
-        <v>0.3726576086956522</v>
+        <v>0.3827302677838978</v>
       </c>
       <c r="AO6">
-        <v>0.3931260869565217</v>
+        <v>0.4037583382163366</v>
       </c>
       <c r="AP6">
-        <v>0.4135945652173912</v>
+        <v>0.4247864086487754</v>
       </c>
       <c r="AQ6">
-        <v>0.4340630434782608</v>
+        <v>0.4458144790812141</v>
       </c>
       <c r="AR6">
-        <v>0.4545315217391304</v>
+        <v>0.4668425495136529</v>
       </c>
       <c r="AS6">
-        <v>0.475</v>
+        <v>0.4878706199460917</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -32446,73 +32446,73 @@
         <v>0.004225</v>
       </c>
       <c r="W7">
-        <v>0.02469347826086956</v>
+        <v>0.02525307043243877</v>
       </c>
       <c r="X7">
-        <v>0.04516195652173913</v>
+        <v>0.04628114086487754</v>
       </c>
       <c r="Y7">
-        <v>0.06563043478260869</v>
+        <v>0.0673092112973163</v>
       </c>
       <c r="Z7">
-        <v>0.08609891304347826</v>
+        <v>0.08833728172975508</v>
       </c>
       <c r="AA7">
-        <v>0.1065673913043478</v>
+        <v>0.1093653521621938</v>
       </c>
       <c r="AB7">
-        <v>0.1270358695652174</v>
+        <v>0.1303934225946326</v>
       </c>
       <c r="AC7">
-        <v>0.147504347826087</v>
+        <v>0.1514214930270714</v>
       </c>
       <c r="AD7">
-        <v>0.1679728260869565</v>
+        <v>0.1724495634595102</v>
       </c>
       <c r="AE7">
-        <v>0.1884413043478261</v>
+        <v>0.1934776338919489</v>
       </c>
       <c r="AF7">
-        <v>0.2089097826086956</v>
+        <v>0.2145057043243877</v>
       </c>
       <c r="AG7">
-        <v>0.2293782608695652</v>
+        <v>0.2355337747568265</v>
       </c>
       <c r="AH7">
-        <v>0.2498467391304348</v>
+        <v>0.2565618451892652</v>
       </c>
       <c r="AI7">
-        <v>0.2703152173913043</v>
+        <v>0.277589915621704</v>
       </c>
       <c r="AJ7">
-        <v>0.2907836956521739</v>
+        <v>0.2986179860541428</v>
       </c>
       <c r="AK7">
-        <v>0.3112521739130434</v>
+        <v>0.3196460564865815</v>
       </c>
       <c r="AL7">
-        <v>0.331720652173913</v>
+        <v>0.3406741269190203</v>
       </c>
       <c r="AM7">
-        <v>0.3521891304347826</v>
+        <v>0.361702197351459</v>
       </c>
       <c r="AN7">
-        <v>0.3726576086956522</v>
+        <v>0.3827302677838978</v>
       </c>
       <c r="AO7">
-        <v>0.3931260869565217</v>
+        <v>0.4037583382163366</v>
       </c>
       <c r="AP7">
-        <v>0.4135945652173912</v>
+        <v>0.4247864086487754</v>
       </c>
       <c r="AQ7">
-        <v>0.4340630434782608</v>
+        <v>0.4458144790812141</v>
       </c>
       <c r="AR7">
-        <v>0.4545315217391304</v>
+        <v>0.4668425495136529</v>
       </c>
       <c r="AS7">
-        <v>0.475</v>
+        <v>0.4878706199460917</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -32571,73 +32571,73 @@
         <v>0.004225</v>
       </c>
       <c r="W8">
-        <v>0.02469347826086956</v>
+        <v>0.02525307043243877</v>
       </c>
       <c r="X8">
-        <v>0.04516195652173913</v>
+        <v>0.04628114086487754</v>
       </c>
       <c r="Y8">
-        <v>0.06563043478260869</v>
+        <v>0.0673092112973163</v>
       </c>
       <c r="Z8">
-        <v>0.08609891304347826</v>
+        <v>0.08833728172975508</v>
       </c>
       <c r="AA8">
-        <v>0.1065673913043478</v>
+        <v>0.1093653521621938</v>
       </c>
       <c r="AB8">
-        <v>0.1270358695652174</v>
+        <v>0.1303934225946326</v>
       </c>
       <c r="AC8">
-        <v>0.147504347826087</v>
+        <v>0.1514214930270714</v>
       </c>
       <c r="AD8">
-        <v>0.1679728260869565</v>
+        <v>0.1724495634595102</v>
       </c>
       <c r="AE8">
-        <v>0.1884413043478261</v>
+        <v>0.1934776338919489</v>
       </c>
       <c r="AF8">
-        <v>0.2089097826086956</v>
+        <v>0.2145057043243877</v>
       </c>
       <c r="AG8">
-        <v>0.2293782608695652</v>
+        <v>0.2355337747568265</v>
       </c>
       <c r="AH8">
-        <v>0.2498467391304348</v>
+        <v>0.2565618451892652</v>
       </c>
       <c r="AI8">
-        <v>0.2703152173913043</v>
+        <v>0.277589915621704</v>
       </c>
       <c r="AJ8">
-        <v>0.2907836956521739</v>
+        <v>0.2986179860541428</v>
       </c>
       <c r="AK8">
-        <v>0.3112521739130434</v>
+        <v>0.3196460564865815</v>
       </c>
       <c r="AL8">
-        <v>0.331720652173913</v>
+        <v>0.3406741269190203</v>
       </c>
       <c r="AM8">
-        <v>0.3521891304347826</v>
+        <v>0.361702197351459</v>
       </c>
       <c r="AN8">
-        <v>0.3726576086956522</v>
+        <v>0.3827302677838978</v>
       </c>
       <c r="AO8">
-        <v>0.3931260869565217</v>
+        <v>0.4037583382163366</v>
       </c>
       <c r="AP8">
-        <v>0.4135945652173912</v>
+        <v>0.4247864086487754</v>
       </c>
       <c r="AQ8">
-        <v>0.4340630434782608</v>
+        <v>0.4458144790812141</v>
       </c>
       <c r="AR8">
-        <v>0.4545315217391304</v>
+        <v>0.4668425495136529</v>
       </c>
       <c r="AS8">
-        <v>0.475</v>
+        <v>0.4878706199460917</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -37093,73 +37093,73 @@
         <v>0.02</v>
       </c>
       <c r="W22">
-        <v>0.03978260869565217</v>
+        <v>0.06043478260869566</v>
       </c>
       <c r="X22">
-        <v>0.05956521739130435</v>
+        <v>0.1008695652173913</v>
       </c>
       <c r="Y22">
-        <v>0.07934782608695652</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="Z22">
-        <v>0.09913043478260869</v>
+        <v>0.1817391304347826</v>
       </c>
       <c r="AA22">
-        <v>0.1189130434782609</v>
+        <v>0.2221739130434782</v>
       </c>
       <c r="AB22">
-        <v>0.138695652173913</v>
+        <v>0.2626086956521739</v>
       </c>
       <c r="AC22">
-        <v>0.1584782608695652</v>
+        <v>0.3030434782608696</v>
       </c>
       <c r="AD22">
-        <v>0.1782608695652174</v>
+        <v>0.3434782608695652</v>
       </c>
       <c r="AE22">
-        <v>0.1980434782608696</v>
+        <v>0.3839130434782609</v>
       </c>
       <c r="AF22">
-        <v>0.2178260869565217</v>
+        <v>0.4243478260869565</v>
       </c>
       <c r="AG22">
-        <v>0.2376086956521739</v>
+        <v>0.4647826086956521</v>
       </c>
       <c r="AH22">
-        <v>0.2573913043478261</v>
+        <v>0.5052173913043478</v>
       </c>
       <c r="AI22">
-        <v>0.2771739130434782</v>
+        <v>0.5456521739130433</v>
       </c>
       <c r="AJ22">
-        <v>0.2969565217391305</v>
+        <v>0.5860869565217391</v>
       </c>
       <c r="AK22">
-        <v>0.3167391304347826</v>
+        <v>0.6265217391304347</v>
       </c>
       <c r="AL22">
-        <v>0.3365217391304348</v>
+        <v>0.6669565217391304</v>
       </c>
       <c r="AM22">
-        <v>0.3563043478260869</v>
+        <v>0.707391304347826</v>
       </c>
       <c r="AN22">
-        <v>0.3760869565217391</v>
+        <v>0.7478260869565218</v>
       </c>
       <c r="AO22">
-        <v>0.3958695652173913</v>
+        <v>0.7882608695652175</v>
       </c>
       <c r="AP22">
-        <v>0.4156521739130434</v>
+        <v>0.8286956521739129</v>
       </c>
       <c r="AQ22">
-        <v>0.4354347826086956</v>
+        <v>0.8691304347826085</v>
       </c>
       <c r="AR22">
-        <v>0.4552173913043478</v>
+        <v>0.9095652173913044</v>
       </c>
       <c r="AS22">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -37218,73 +37218,73 @@
         <v>0.4</v>
       </c>
       <c r="W23">
-        <v>0.4032608695652174</v>
+        <v>0.4239130434782609</v>
       </c>
       <c r="X23">
-        <v>0.4065217391304348</v>
+        <v>0.4478260869565218</v>
       </c>
       <c r="Y23">
-        <v>0.4097826086956521</v>
+        <v>0.4717391304347826</v>
       </c>
       <c r="Z23">
-        <v>0.4130434782608696</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="AA23">
-        <v>0.4163043478260869</v>
+        <v>0.5195652173913043</v>
       </c>
       <c r="AB23">
-        <v>0.4195652173913044</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="AC23">
-        <v>0.4228260869565217</v>
+        <v>0.567391304347826</v>
       </c>
       <c r="AD23">
-        <v>0.4260869565217391</v>
+        <v>0.5913043478260869</v>
       </c>
       <c r="AE23">
-        <v>0.4293478260869565</v>
+        <v>0.6152173913043479</v>
       </c>
       <c r="AF23">
-        <v>0.4326086956521739</v>
+        <v>0.6391304347826087</v>
       </c>
       <c r="AG23">
-        <v>0.4358695652173913</v>
+        <v>0.6630434782608696</v>
       </c>
       <c r="AH23">
-        <v>0.4391304347826087</v>
+        <v>0.6869565217391305</v>
       </c>
       <c r="AI23">
-        <v>0.442391304347826</v>
+        <v>0.7108695652173912</v>
       </c>
       <c r="AJ23">
-        <v>0.4456521739130435</v>
+        <v>0.7347826086956522</v>
       </c>
       <c r="AK23">
-        <v>0.4489130434782609</v>
+        <v>0.758695652173913</v>
       </c>
       <c r="AL23">
-        <v>0.4521739130434783</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="AM23">
-        <v>0.4554347826086956</v>
+        <v>0.8065217391304348</v>
       </c>
       <c r="AN23">
-        <v>0.4586956521739131</v>
+        <v>0.8304347826086957</v>
       </c>
       <c r="AO23">
-        <v>0.4619565217391304</v>
+        <v>0.8543478260869566</v>
       </c>
       <c r="AP23">
-        <v>0.4652173913043478</v>
+        <v>0.8782608695652173</v>
       </c>
       <c r="AQ23">
-        <v>0.4684782608695652</v>
+        <v>0.9021739130434782</v>
       </c>
       <c r="AR23">
-        <v>0.4717391304347826</v>
+        <v>0.9260869565217391</v>
       </c>
       <c r="AS23">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -37343,73 +37343,73 @@
         <v>0.02</v>
       </c>
       <c r="W24">
-        <v>0.03978260869565217</v>
+        <v>0.06043478260869566</v>
       </c>
       <c r="X24">
-        <v>0.05956521739130435</v>
+        <v>0.1008695652173913</v>
       </c>
       <c r="Y24">
-        <v>0.07934782608695652</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="Z24">
-        <v>0.09913043478260869</v>
+        <v>0.1817391304347826</v>
       </c>
       <c r="AA24">
-        <v>0.1189130434782609</v>
+        <v>0.2221739130434782</v>
       </c>
       <c r="AB24">
-        <v>0.138695652173913</v>
+        <v>0.2626086956521739</v>
       </c>
       <c r="AC24">
-        <v>0.1584782608695652</v>
+        <v>0.3030434782608696</v>
       </c>
       <c r="AD24">
-        <v>0.1782608695652174</v>
+        <v>0.3434782608695652</v>
       </c>
       <c r="AE24">
-        <v>0.1980434782608696</v>
+        <v>0.3839130434782609</v>
       </c>
       <c r="AF24">
-        <v>0.2178260869565217</v>
+        <v>0.4243478260869565</v>
       </c>
       <c r="AG24">
-        <v>0.2376086956521739</v>
+        <v>0.4647826086956521</v>
       </c>
       <c r="AH24">
-        <v>0.2573913043478261</v>
+        <v>0.5052173913043478</v>
       </c>
       <c r="AI24">
-        <v>0.2771739130434782</v>
+        <v>0.5456521739130433</v>
       </c>
       <c r="AJ24">
-        <v>0.2969565217391305</v>
+        <v>0.5860869565217391</v>
       </c>
       <c r="AK24">
-        <v>0.3167391304347826</v>
+        <v>0.6265217391304347</v>
       </c>
       <c r="AL24">
-        <v>0.3365217391304348</v>
+        <v>0.6669565217391304</v>
       </c>
       <c r="AM24">
-        <v>0.3563043478260869</v>
+        <v>0.707391304347826</v>
       </c>
       <c r="AN24">
-        <v>0.3760869565217391</v>
+        <v>0.7478260869565218</v>
       </c>
       <c r="AO24">
-        <v>0.3958695652173913</v>
+        <v>0.7882608695652175</v>
       </c>
       <c r="AP24">
-        <v>0.4156521739130434</v>
+        <v>0.8286956521739129</v>
       </c>
       <c r="AQ24">
-        <v>0.4354347826086956</v>
+        <v>0.8691304347826085</v>
       </c>
       <c r="AR24">
-        <v>0.4552173913043478</v>
+        <v>0.9095652173913044</v>
       </c>
       <c r="AS24">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -37468,73 +37468,73 @@
         <v>0.004225</v>
       </c>
       <c r="W25">
-        <v>0.02469347826086956</v>
+        <v>0.006215217391304347</v>
       </c>
       <c r="X25">
-        <v>0.04516195652173913</v>
+        <v>0.008205434782608696</v>
       </c>
       <c r="Y25">
-        <v>0.06563043478260869</v>
+        <v>0.01019565217391304</v>
       </c>
       <c r="Z25">
-        <v>0.08609891304347826</v>
+        <v>0.01218586956521739</v>
       </c>
       <c r="AA25">
-        <v>0.1065673913043478</v>
+        <v>0.01417608695652174</v>
       </c>
       <c r="AB25">
-        <v>0.1270358695652174</v>
+        <v>0.01616630434782609</v>
       </c>
       <c r="AC25">
-        <v>0.147504347826087</v>
+        <v>0.01815652173913044</v>
       </c>
       <c r="AD25">
-        <v>0.1679728260869565</v>
+        <v>0.02014673913043478</v>
       </c>
       <c r="AE25">
-        <v>0.1884413043478261</v>
+        <v>0.02213695652173913</v>
       </c>
       <c r="AF25">
-        <v>0.2089097826086956</v>
+        <v>0.02412717391304348</v>
       </c>
       <c r="AG25">
-        <v>0.2293782608695652</v>
+        <v>0.02611739130434783</v>
       </c>
       <c r="AH25">
-        <v>0.2498467391304348</v>
+        <v>0.02810760869565217</v>
       </c>
       <c r="AI25">
-        <v>0.2703152173913043</v>
+        <v>0.03009782608695652</v>
       </c>
       <c r="AJ25">
-        <v>0.2907836956521739</v>
+        <v>0.03208804347826087</v>
       </c>
       <c r="AK25">
-        <v>0.3112521739130434</v>
+        <v>0.03407826086956522</v>
       </c>
       <c r="AL25">
-        <v>0.331720652173913</v>
+        <v>0.03606847826086956</v>
       </c>
       <c r="AM25">
-        <v>0.3521891304347826</v>
+        <v>0.03805869565217392</v>
       </c>
       <c r="AN25">
-        <v>0.3726576086956522</v>
+        <v>0.04004891304347826</v>
       </c>
       <c r="AO25">
-        <v>0.3931260869565217</v>
+        <v>0.04203913043478261</v>
       </c>
       <c r="AP25">
-        <v>0.4135945652173912</v>
+        <v>0.04402934782608695</v>
       </c>
       <c r="AQ25">
-        <v>0.4340630434782608</v>
+        <v>0.0460195652173913</v>
       </c>
       <c r="AR25">
-        <v>0.4545315217391304</v>
+        <v>0.04800978260869565</v>
       </c>
       <c r="AS25">
-        <v>0.475</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -37593,73 +37593,73 @@
         <v>0.004225</v>
       </c>
       <c r="W26">
-        <v>0.02469347826086956</v>
+        <v>0.006215217391304347</v>
       </c>
       <c r="X26">
-        <v>0.04516195652173913</v>
+        <v>0.008205434782608696</v>
       </c>
       <c r="Y26">
-        <v>0.06563043478260869</v>
+        <v>0.01019565217391304</v>
       </c>
       <c r="Z26">
-        <v>0.08609891304347826</v>
+        <v>0.01218586956521739</v>
       </c>
       <c r="AA26">
-        <v>0.1065673913043478</v>
+        <v>0.01417608695652174</v>
       </c>
       <c r="AB26">
-        <v>0.1270358695652174</v>
+        <v>0.01616630434782609</v>
       </c>
       <c r="AC26">
-        <v>0.147504347826087</v>
+        <v>0.01815652173913044</v>
       </c>
       <c r="AD26">
-        <v>0.1679728260869565</v>
+        <v>0.02014673913043478</v>
       </c>
       <c r="AE26">
-        <v>0.1884413043478261</v>
+        <v>0.02213695652173913</v>
       </c>
       <c r="AF26">
-        <v>0.2089097826086956</v>
+        <v>0.02412717391304348</v>
       </c>
       <c r="AG26">
-        <v>0.2293782608695652</v>
+        <v>0.02611739130434783</v>
       </c>
       <c r="AH26">
-        <v>0.2498467391304348</v>
+        <v>0.02810760869565217</v>
       </c>
       <c r="AI26">
-        <v>0.2703152173913043</v>
+        <v>0.03009782608695652</v>
       </c>
       <c r="AJ26">
-        <v>0.2907836956521739</v>
+        <v>0.03208804347826087</v>
       </c>
       <c r="AK26">
-        <v>0.3112521739130434</v>
+        <v>0.03407826086956522</v>
       </c>
       <c r="AL26">
-        <v>0.331720652173913</v>
+        <v>0.03606847826086956</v>
       </c>
       <c r="AM26">
-        <v>0.3521891304347826</v>
+        <v>0.03805869565217392</v>
       </c>
       <c r="AN26">
-        <v>0.3726576086956522</v>
+        <v>0.04004891304347826</v>
       </c>
       <c r="AO26">
-        <v>0.3931260869565217</v>
+        <v>0.04203913043478261</v>
       </c>
       <c r="AP26">
-        <v>0.4135945652173912</v>
+        <v>0.04402934782608695</v>
       </c>
       <c r="AQ26">
-        <v>0.4340630434782608</v>
+        <v>0.0460195652173913</v>
       </c>
       <c r="AR26">
-        <v>0.4545315217391304</v>
+        <v>0.04800978260869565</v>
       </c>
       <c r="AS26">
-        <v>0.475</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -37718,73 +37718,73 @@
         <v>0.004225</v>
       </c>
       <c r="W27">
-        <v>0.02469347826086956</v>
+        <v>0.006215217391304347</v>
       </c>
       <c r="X27">
-        <v>0.04516195652173913</v>
+        <v>0.008205434782608696</v>
       </c>
       <c r="Y27">
-        <v>0.06563043478260869</v>
+        <v>0.01019565217391304</v>
       </c>
       <c r="Z27">
-        <v>0.08609891304347826</v>
+        <v>0.01218586956521739</v>
       </c>
       <c r="AA27">
-        <v>0.1065673913043478</v>
+        <v>0.01417608695652174</v>
       </c>
       <c r="AB27">
-        <v>0.1270358695652174</v>
+        <v>0.01616630434782609</v>
       </c>
       <c r="AC27">
-        <v>0.147504347826087</v>
+        <v>0.01815652173913044</v>
       </c>
       <c r="AD27">
-        <v>0.1679728260869565</v>
+        <v>0.02014673913043478</v>
       </c>
       <c r="AE27">
-        <v>0.1884413043478261</v>
+        <v>0.02213695652173913</v>
       </c>
       <c r="AF27">
-        <v>0.2089097826086956</v>
+        <v>0.02412717391304348</v>
       </c>
       <c r="AG27">
-        <v>0.2293782608695652</v>
+        <v>0.02611739130434783</v>
       </c>
       <c r="AH27">
-        <v>0.2498467391304348</v>
+        <v>0.02810760869565217</v>
       </c>
       <c r="AI27">
-        <v>0.2703152173913043</v>
+        <v>0.03009782608695652</v>
       </c>
       <c r="AJ27">
-        <v>0.2907836956521739</v>
+        <v>0.03208804347826087</v>
       </c>
       <c r="AK27">
-        <v>0.3112521739130434</v>
+        <v>0.03407826086956522</v>
       </c>
       <c r="AL27">
-        <v>0.331720652173913</v>
+        <v>0.03606847826086956</v>
       </c>
       <c r="AM27">
-        <v>0.3521891304347826</v>
+        <v>0.03805869565217392</v>
       </c>
       <c r="AN27">
-        <v>0.3726576086956522</v>
+        <v>0.04004891304347826</v>
       </c>
       <c r="AO27">
-        <v>0.3931260869565217</v>
+        <v>0.04203913043478261</v>
       </c>
       <c r="AP27">
-        <v>0.4135945652173912</v>
+        <v>0.04402934782608695</v>
       </c>
       <c r="AQ27">
-        <v>0.4340630434782608</v>
+        <v>0.0460195652173913</v>
       </c>
       <c r="AR27">
-        <v>0.4545315217391304</v>
+        <v>0.04800978260869565</v>
       </c>
       <c r="AS27">
-        <v>0.475</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:45">
